--- a/日本版コアインボイス/日本版コアインボイス2021-01-24.xlsx
+++ b/日本版コアインボイス/日本版コアインボイス2021-01-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6044BA-B293-1043-A80C-2029F6CEFD59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEF67F1-456F-5343-9B30-1200D59B9FA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="0" windowWidth="25600" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,243 +280,6 @@
             <family val="2"/>
           </rPr>
           <t>との対応で追加が適切ということであれば、追加は可能です。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P190" authorId="0" shapeId="0" xr:uid="{52598D28-AB62-4D63-9357-58CC131CFAC0}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Q 6. ALLOWANCE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>および</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">CHARGE
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">&gt; BG-20 DOCUMENT LEVEL ALLOWANCES
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">&gt; BG-21 DOCUMENT LEVEL CHARGES
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">&gt; </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>値引きなどの適格返還請求書の表現に使えないか。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">A </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>使い方がよくわからないので、マッピングできませんでした。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>内容が明確になった段階で、再検討します。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>値引きについては</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>UBL</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>では単価に区分を設けて定義していることがわかりました。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>我が国では月締め段階、またはプロジェクト終了段階で値引き処理することが多いので、都度請求の段階で単価に反映させることは一般的ではありません。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>適格請求書保存方式も積上げ結果に対して一回の税計算を要求していますので明細段階での値引きと消費税との関係も調査が必要です。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>本件については各業界の調査が必要だと思います。</t>
         </r>
       </text>
     </comment>
@@ -13233,8 +12996,8 @@
   <dimension ref="A1:AK882"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P190" sqref="P190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
@@ -25531,7 +25294,7 @@
       <c r="J177" s="122"/>
       <c r="K177" s="19"/>
       <c r="L177" s="12"/>
-      <c r="M177" s="205"/>
+      <c r="M177" s="586"/>
       <c r="N177" s="336"/>
       <c r="O177" s="258"/>
       <c r="P177" s="259"/>
@@ -25569,7 +25332,7 @@
       <c r="J178" s="122"/>
       <c r="K178" s="19"/>
       <c r="L178" s="12"/>
-      <c r="M178" s="205"/>
+      <c r="M178" s="586"/>
       <c r="N178" s="336"/>
       <c r="O178" s="258"/>
       <c r="P178" s="259"/>

--- a/日本版コアインボイス/日本版コアインボイス2021-01-24.xlsx
+++ b/日本版コアインボイス/日本版コアインボイス2021-01-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pontsoleil\Documents\GitHub\EIPA\日本版コアインボイス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEF67F1-456F-5343-9B30-1200D59B9FA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA6E69A-B2C8-4316-8FFD-F3D26F0748A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="0" windowWidth="25600" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="360" windowWidth="17640" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コアインボイス" sheetId="1" r:id="rId1"/>
@@ -7519,12 +7519,10 @@
   </si>
   <si>
     <t>Identifies the business process context in which the transaction appears, to enable the Buyer to process the Invoice in an appropriate way.
-NOTE1 Profile 01 - Billing
-In the table below you will find the values to be used as the specification identifier (BT-24) and the business process type (BT-23) for this profile
+[NOTE1 Profile 01 - Billing]In the table below you will find the values to be used as the specification identifier (BT-24) and the business process type (BT-23) for this profile
 Type Invoice and credit note
 Element cbc:ProfileID urn:fdc:peppol.eu:2017:poacc:billing:01:1.0
-NOTE2 A-NZ Self-Billing Extension
-Identifying the A-NZ Self-Billing Extension
+[NOTE2 A-NZ Self-Billing Extension]Identifying the A-NZ Self-Billing Extension
 The UBL element cbc:ProfileID is used to identify the business process context in which the transaction occurs. 
 Business process type (Profile ID) BT-23 Business process type
 urn:fdc:peppol.eu:2017:poacc:selfbilling:01:1.0</t>
@@ -7532,12 +7530,10 @@
   </si>
   <si>
     <t>An identification of the specification containing the total set of rules regarding semantic content, cardinalities and business rules to which the data contained in the instance document conforms.
-NOTE1 Profile 01 - Billing
-In the table below you will find the values to be used as the specification identifier (BT-24) and the business process type (BT-23) for this profile
+[NOTE1 Profile 01 - Billing]In the table below you will find the values to be used as the specification identifier (BT-24) and the business process type (BT-23) for this profile
 Type Invoice and credit note
 Element cbc:CustomizationID urn:cen.eu:en16931:2017#compliant#urn:fdc:peppol.eu:2017:poacc:billing:3.0
- NOTE2 A-NZ Self-Billing Extension
-Identifying the A-NZ Self-Billing Extension
+[NOTE2 A-NZ Self-Billing Extension]Identifying the A-NZ Self-Billing Extension
 The UBL element cbc:customizationID is an identification of the specification containing the total set of rules regarding semantic content, cardinalities and business rules to which the data contained in the instance document conforms . 
 Australian and New Zealand Self-billing Invoicing (Customization ID) BT-24 Specification identification
 urn:cen.eu:en16931:2017#conformant#urn:fdc:peppol.eu:2017:poacc:selfbilling:international:aunz:3.0</t>
@@ -9767,12 +9763,516 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9782,12 +10282,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9805,559 +10299,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{93A02627-A42B-4075-B69D-189318F2857A}"/>
   </cellStyles>
-  <dxfs count="308">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC5E0B3"/>
-          <bgColor rgb="FFC5E0B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC5E0B3"/>
-          <bgColor rgb="FFC5E0B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC5E0B3"/>
-          <bgColor rgb="FFC5E0B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="291">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -10769,86 +10717,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC5E0B3"/>
-          <bgColor rgb="FFC5E0B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC5E0B3"/>
-          <bgColor rgb="FFC5E0B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC5E0B3"/>
-          <bgColor rgb="FFC5E0B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC5E0B3"/>
-          <bgColor rgb="FFC5E0B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC5E0B3"/>
-          <bgColor rgb="FFC5E0B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFC5E0B3"/>
           <bgColor rgb="FFC5E0B3"/>
         </patternFill>
@@ -11019,14 +10887,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFC5E0B3"/>
           <bgColor rgb="FFC5E0B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12995,86 +12855,86 @@
   </sheetPr>
   <dimension ref="A1:AK882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P190" sqref="P190"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" style="309" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="310" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="310" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="24" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="24" customWidth="1"/>
     <col min="6" max="6" width="9" style="3" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.875" style="3" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="3.83203125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="330" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" style="24" customWidth="1"/>
-    <col min="15" max="15" width="3.83203125" style="24" customWidth="1"/>
-    <col min="16" max="18" width="1.83203125" style="24" customWidth="1"/>
-    <col min="19" max="19" width="30.83203125" style="24" customWidth="1"/>
-    <col min="20" max="20" width="30.83203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="3.33203125" style="320" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" style="24" customWidth="1"/>
-    <col min="23" max="23" width="3.83203125" style="24" customWidth="1"/>
-    <col min="24" max="26" width="1.83203125" style="24" customWidth="1"/>
-    <col min="27" max="27" width="24.83203125" style="314" customWidth="1"/>
-    <col min="28" max="28" width="30.83203125" style="313" customWidth="1"/>
-    <col min="29" max="31" width="3.33203125" style="371" customWidth="1"/>
-    <col min="32" max="16384" width="12.6640625" style="24"/>
+    <col min="10" max="10" width="6.125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="3.875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="330" customWidth="1"/>
+    <col min="14" max="14" width="5.375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="3.875" style="24" customWidth="1"/>
+    <col min="16" max="18" width="1.875" style="24" customWidth="1"/>
+    <col min="19" max="19" width="30.875" style="24" customWidth="1"/>
+    <col min="20" max="20" width="30.875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="3.375" style="320" customWidth="1"/>
+    <col min="22" max="22" width="5.375" style="24" customWidth="1"/>
+    <col min="23" max="23" width="3.875" style="24" customWidth="1"/>
+    <col min="24" max="26" width="1.875" style="24" customWidth="1"/>
+    <col min="27" max="27" width="24.875" style="314" customWidth="1"/>
+    <col min="28" max="28" width="30.875" style="313" customWidth="1"/>
+    <col min="29" max="31" width="3.375" style="371" customWidth="1"/>
+    <col min="32" max="16384" width="12.625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="414" t="s">
+      <c r="A1" s="570" t="s">
         <v>1128</v>
       </c>
-      <c r="B1" s="419" t="s">
+      <c r="B1" s="563" t="s">
         <v>961</v>
       </c>
-      <c r="C1" s="420"/>
-      <c r="D1" s="420"/>
-      <c r="E1" s="420"/>
-      <c r="F1" s="424" t="s">
+      <c r="C1" s="564"/>
+      <c r="D1" s="564"/>
+      <c r="E1" s="564"/>
+      <c r="F1" s="590" t="s">
         <v>1306</v>
       </c>
-      <c r="G1" s="425"/>
-      <c r="H1" s="425"/>
-      <c r="I1" s="425"/>
+      <c r="G1" s="591"/>
+      <c r="H1" s="591"/>
+      <c r="I1" s="591"/>
       <c r="J1" s="404"/>
       <c r="K1" s="404"/>
       <c r="L1" s="23"/>
-      <c r="M1" s="421" t="s">
+      <c r="M1" s="587" t="s">
         <v>1855</v>
       </c>
-      <c r="N1" s="422"/>
-      <c r="O1" s="422"/>
-      <c r="P1" s="422"/>
-      <c r="Q1" s="422"/>
-      <c r="R1" s="422"/>
-      <c r="S1" s="422"/>
-      <c r="T1" s="422"/>
-      <c r="U1" s="423"/>
-      <c r="V1" s="424" t="s">
+      <c r="N1" s="588"/>
+      <c r="O1" s="588"/>
+      <c r="P1" s="588"/>
+      <c r="Q1" s="588"/>
+      <c r="R1" s="588"/>
+      <c r="S1" s="588"/>
+      <c r="T1" s="588"/>
+      <c r="U1" s="589"/>
+      <c r="V1" s="590" t="s">
         <v>1005</v>
       </c>
-      <c r="W1" s="425"/>
-      <c r="X1" s="425"/>
-      <c r="Y1" s="425"/>
-      <c r="Z1" s="425"/>
-      <c r="AA1" s="425"/>
-      <c r="AB1" s="425"/>
-      <c r="AC1" s="425"/>
-      <c r="AD1" s="425"/>
-      <c r="AE1" s="426"/>
-    </row>
-    <row r="2" spans="1:31" s="309" customFormat="1" ht="100">
-      <c r="A2" s="415"/>
+      <c r="W1" s="591"/>
+      <c r="X1" s="591"/>
+      <c r="Y1" s="591"/>
+      <c r="Z1" s="591"/>
+      <c r="AA1" s="591"/>
+      <c r="AB1" s="591"/>
+      <c r="AC1" s="591"/>
+      <c r="AD1" s="591"/>
+      <c r="AE1" s="592"/>
+    </row>
+    <row r="2" spans="1:31" s="309" customFormat="1" ht="96">
+      <c r="A2" s="573"/>
       <c r="B2" s="379" t="s">
         <v>0</v>
       </c>
@@ -13117,12 +12977,12 @@
       <c r="O2" s="383" t="s">
         <v>1037</v>
       </c>
-      <c r="P2" s="416" t="s">
+      <c r="P2" s="584" t="s">
         <v>973</v>
       </c>
-      <c r="Q2" s="417"/>
-      <c r="R2" s="417"/>
-      <c r="S2" s="418"/>
+      <c r="Q2" s="585"/>
+      <c r="R2" s="585"/>
+      <c r="S2" s="586"/>
       <c r="T2" s="30" t="s">
         <v>3</v>
       </c>
@@ -13135,12 +12995,12 @@
       <c r="W2" s="383" t="s">
         <v>1037</v>
       </c>
-      <c r="X2" s="416" t="s">
+      <c r="X2" s="584" t="s">
         <v>1038</v>
       </c>
-      <c r="Y2" s="417"/>
-      <c r="Z2" s="417"/>
-      <c r="AA2" s="418"/>
+      <c r="Y2" s="585"/>
+      <c r="Z2" s="585"/>
+      <c r="AA2" s="586"/>
       <c r="AB2" s="339" t="s">
         <v>1049</v>
       </c>
@@ -13154,7 +13014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="45">
+    <row r="3" spans="1:31" ht="40.5">
       <c r="A3" s="32">
         <f>ROW()-2</f>
         <v>1</v>
@@ -13212,7 +13072,7 @@
       <c r="AD3" s="341"/>
       <c r="AE3" s="341"/>
     </row>
-    <row r="4" spans="1:31" ht="16">
+    <row r="4" spans="1:31" ht="15">
       <c r="A4" s="32">
         <f t="shared" ref="A4:A76" si="0">ROW()-2</f>
         <v>2</v>
@@ -13270,7 +13130,7 @@
       <c r="AD4" s="341"/>
       <c r="AE4" s="341"/>
     </row>
-    <row r="5" spans="1:31" ht="16">
+    <row r="5" spans="1:31" ht="15">
       <c r="A5" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -13328,7 +13188,7 @@
       <c r="AD5" s="341"/>
       <c r="AE5" s="341"/>
     </row>
-    <row r="6" spans="1:31" ht="16">
+    <row r="6" spans="1:31" ht="15">
       <c r="A6" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -13386,7 +13246,7 @@
       <c r="AD6" s="341"/>
       <c r="AE6" s="341"/>
     </row>
-    <row r="7" spans="1:31" ht="16">
+    <row r="7" spans="1:31" ht="15">
       <c r="A7" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -13444,7 +13304,7 @@
       <c r="AD7" s="341"/>
       <c r="AE7" s="341"/>
     </row>
-    <row r="8" spans="1:31" ht="16">
+    <row r="8" spans="1:31" ht="15">
       <c r="A8" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -13502,7 +13362,7 @@
       <c r="AD8" s="341"/>
       <c r="AE8" s="341"/>
     </row>
-    <row r="9" spans="1:31" ht="30">
+    <row r="9" spans="1:31" ht="27">
       <c r="A9" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -13560,7 +13420,7 @@
       <c r="AD9" s="341"/>
       <c r="AE9" s="341"/>
     </row>
-    <row r="10" spans="1:31" ht="30">
+    <row r="10" spans="1:31" ht="27">
       <c r="A10" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -13618,7 +13478,7 @@
       <c r="AD10" s="341"/>
       <c r="AE10" s="341"/>
     </row>
-    <row r="11" spans="1:31" ht="16">
+    <row r="11" spans="1:31" ht="15">
       <c r="A11" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -13676,7 +13536,7 @@
       <c r="AD11" s="341"/>
       <c r="AE11" s="341"/>
     </row>
-    <row r="12" spans="1:31" ht="16">
+    <row r="12" spans="1:31" ht="15">
       <c r="A12" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -13734,7 +13594,7 @@
       <c r="AD12" s="341"/>
       <c r="AE12" s="341"/>
     </row>
-    <row r="13" spans="1:31" ht="15">
+    <row r="13" spans="1:31">
       <c r="A13" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -13778,7 +13638,7 @@
       <c r="AD13" s="343"/>
       <c r="AE13" s="343"/>
     </row>
-    <row r="14" spans="1:31" ht="30">
+    <row r="14" spans="1:31" ht="27">
       <c r="A14" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -13854,7 +13714,7 @@
       <c r="AD14" s="169"/>
       <c r="AE14" s="169"/>
     </row>
-    <row r="15" spans="1:31" ht="16">
+    <row r="15" spans="1:31" ht="15">
       <c r="A15" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -13912,7 +13772,7 @@
       <c r="AD15" s="169"/>
       <c r="AE15" s="169"/>
     </row>
-    <row r="16" spans="1:31" ht="30">
+    <row r="16" spans="1:31" ht="27">
       <c r="A16" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -13988,7 +13848,7 @@
       <c r="AD16" s="169"/>
       <c r="AE16" s="169"/>
     </row>
-    <row r="17" spans="1:31" ht="409.6">
+    <row r="17" spans="1:31" ht="409.5">
       <c r="A17" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -14064,7 +13924,7 @@
       <c r="AD17" s="169"/>
       <c r="AE17" s="169"/>
     </row>
-    <row r="18" spans="1:31" ht="90">
+    <row r="18" spans="1:31" ht="81">
       <c r="A18" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -14130,7 +13990,7 @@
       <c r="AD18" s="169"/>
       <c r="AE18" s="169"/>
     </row>
-    <row r="19" spans="1:31" ht="150">
+    <row r="19" spans="1:31" ht="135">
       <c r="A19" s="32">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -14198,7 +14058,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="15">
+    <row r="20" spans="1:31">
       <c r="A20" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -14242,7 +14102,7 @@
       <c r="AD20" s="194"/>
       <c r="AE20" s="194"/>
     </row>
-    <row r="21" spans="1:31" ht="60">
+    <row r="21" spans="1:31" ht="54">
       <c r="A21" s="32">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -14318,7 +14178,7 @@
       <c r="AD21" s="169"/>
       <c r="AE21" s="169"/>
     </row>
-    <row r="22" spans="1:31" ht="60">
+    <row r="22" spans="1:31" ht="54">
       <c r="A22" s="32">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -14394,7 +14254,7 @@
       <c r="AD22" s="169"/>
       <c r="AE22" s="169"/>
     </row>
-    <row r="23" spans="1:31" ht="97" customHeight="1">
+    <row r="23" spans="1:31" ht="96.95" customHeight="1">
       <c r="A23" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -14407,30 +14267,30 @@
       <c r="E23" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="579"/>
-      <c r="G23" s="579"/>
-      <c r="H23" s="579"/>
-      <c r="I23" s="580"/>
+      <c r="F23" s="522"/>
+      <c r="G23" s="522"/>
+      <c r="H23" s="522"/>
+      <c r="I23" s="523"/>
       <c r="J23" s="98" t="s">
         <v>11</v>
       </c>
       <c r="K23" s="396" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="581"/>
+      <c r="L23" s="524"/>
       <c r="M23" s="113" t="s">
         <v>1445</v>
       </c>
-      <c r="N23" s="590" t="s">
+      <c r="N23" s="542" t="s">
         <v>1103</v>
       </c>
-      <c r="O23" s="591"/>
-      <c r="P23" s="591"/>
-      <c r="Q23" s="591"/>
-      <c r="R23" s="591"/>
-      <c r="S23" s="591"/>
-      <c r="T23" s="591"/>
-      <c r="U23" s="592"/>
+      <c r="O23" s="543"/>
+      <c r="P23" s="543"/>
+      <c r="Q23" s="543"/>
+      <c r="R23" s="543"/>
+      <c r="S23" s="543"/>
+      <c r="T23" s="543"/>
+      <c r="U23" s="544"/>
       <c r="V23" s="73" t="s">
         <v>1013</v>
       </c>
@@ -14452,7 +14312,7 @@
       <c r="AD23" s="347"/>
       <c r="AE23" s="347"/>
     </row>
-    <row r="24" spans="1:31" ht="16">
+    <row r="24" spans="1:31" ht="15">
       <c r="A24" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -14479,14 +14339,14 @@
       <c r="M24" s="113" t="s">
         <v>1603</v>
       </c>
-      <c r="N24" s="587"/>
-      <c r="O24" s="588"/>
-      <c r="P24" s="588"/>
-      <c r="Q24" s="588"/>
-      <c r="R24" s="588"/>
-      <c r="S24" s="588"/>
-      <c r="T24" s="588"/>
-      <c r="U24" s="589"/>
+      <c r="N24" s="530"/>
+      <c r="O24" s="531"/>
+      <c r="P24" s="531"/>
+      <c r="Q24" s="531"/>
+      <c r="R24" s="531"/>
+      <c r="S24" s="531"/>
+      <c r="T24" s="531"/>
+      <c r="U24" s="532"/>
       <c r="V24" s="73" t="s">
         <v>1013</v>
       </c>
@@ -14508,7 +14368,7 @@
       <c r="AD24" s="347"/>
       <c r="AE24" s="347"/>
     </row>
-    <row r="25" spans="1:31" ht="90">
+    <row r="25" spans="1:31" ht="81">
       <c r="A25" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -14566,7 +14426,7 @@
       <c r="AD25" s="348"/>
       <c r="AE25" s="348"/>
     </row>
-    <row r="26" spans="1:31" ht="45">
+    <row r="26" spans="1:31" ht="40.5">
       <c r="A26" s="32">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -14624,7 +14484,7 @@
       <c r="AD26" s="348"/>
       <c r="AE26" s="348"/>
     </row>
-    <row r="27" spans="1:31" ht="16">
+    <row r="27" spans="1:31" ht="15">
       <c r="A27" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -14700,7 +14560,7 @@
       <c r="AD27" s="169"/>
       <c r="AE27" s="169"/>
     </row>
-    <row r="28" spans="1:31" ht="30">
+    <row r="28" spans="1:31" ht="27">
       <c r="A28" s="32">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -14782,7 +14642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="15">
+    <row r="29" spans="1:31">
       <c r="A29" s="32">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -14826,7 +14686,7 @@
       <c r="AD29" s="194"/>
       <c r="AE29" s="194"/>
     </row>
-    <row r="30" spans="1:31" ht="30">
+    <row r="30" spans="1:31" ht="27">
       <c r="A30" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -14902,7 +14762,7 @@
       <c r="AD30" s="169"/>
       <c r="AE30" s="169"/>
     </row>
-    <row r="31" spans="1:31" ht="30">
+    <row r="31" spans="1:31" ht="27">
       <c r="A31" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -14958,7 +14818,7 @@
       <c r="AD31" s="169"/>
       <c r="AE31" s="169"/>
     </row>
-    <row r="32" spans="1:31" ht="15">
+    <row r="32" spans="1:31">
       <c r="A32" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -15002,7 +14862,7 @@
       <c r="AD32" s="194"/>
       <c r="AE32" s="194"/>
     </row>
-    <row r="33" spans="1:31" ht="45">
+    <row r="33" spans="1:31" ht="40.5">
       <c r="A33" s="32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -15078,7 +14938,7 @@
       <c r="AD33" s="169"/>
       <c r="AE33" s="169"/>
     </row>
-    <row r="34" spans="1:31" ht="60">
+    <row r="34" spans="1:31" ht="54">
       <c r="A34" s="32">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -15156,7 +15016,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="45">
+    <row r="35" spans="1:31" ht="40.5">
       <c r="A35" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -15232,7 +15092,7 @@
       <c r="AD35" s="169"/>
       <c r="AE35" s="169"/>
     </row>
-    <row r="36" spans="1:31" ht="30">
+    <row r="36" spans="1:31" ht="27">
       <c r="A36" s="32">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -15300,7 +15160,7 @@
       <c r="AD36" s="137"/>
       <c r="AE36" s="350"/>
     </row>
-    <row r="37" spans="1:31" ht="105">
+    <row r="37" spans="1:31" ht="94.5">
       <c r="A37" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -15380,7 +15240,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="30">
+    <row r="38" spans="1:31" ht="27">
       <c r="A38" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -15446,7 +15306,7 @@
       <c r="AD38" s="137"/>
       <c r="AE38" s="350"/>
     </row>
-    <row r="39" spans="1:31" ht="180">
+    <row r="39" spans="1:31" ht="162">
       <c r="A39" s="32">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -15514,7 +15374,7 @@
       <c r="AD39" s="137"/>
       <c r="AE39" s="350"/>
     </row>
-    <row r="40" spans="1:31" ht="75">
+    <row r="40" spans="1:31" ht="81">
       <c r="A40" s="32">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -15533,7 +15393,7 @@
         <v>1877</v>
       </c>
       <c r="I40" s="13"/>
-      <c r="J40" s="532" t="s">
+      <c r="J40" s="481" t="s">
         <v>923</v>
       </c>
       <c r="K40" s="19" t="s">
@@ -15545,18 +15405,18 @@
       <c r="M40" s="100" t="s">
         <v>1874</v>
       </c>
-      <c r="N40" s="532" t="s">
+      <c r="N40" s="481" t="s">
         <v>923</v>
       </c>
       <c r="O40" s="19" t="s">
         <v>1016</v>
       </c>
       <c r="P40" s="122"/>
-      <c r="Q40" s="447" t="s">
+      <c r="Q40" s="539" t="s">
         <v>1873</v>
       </c>
-      <c r="R40" s="448"/>
-      <c r="S40" s="449"/>
+      <c r="R40" s="540"/>
+      <c r="S40" s="541"/>
       <c r="T40" s="51" t="s">
         <v>1878</v>
       </c>
@@ -15572,7 +15432,7 @@
       <c r="AD40" s="137"/>
       <c r="AE40" s="350"/>
     </row>
-    <row r="41" spans="1:31" ht="45">
+    <row r="41" spans="1:31" ht="40.5">
       <c r="A41" s="32">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -15640,7 +15500,7 @@
       <c r="AD41" s="137"/>
       <c r="AE41" s="350"/>
     </row>
-    <row r="42" spans="1:31" ht="15">
+    <row r="42" spans="1:31">
       <c r="A42" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -15684,7 +15544,7 @@
       <c r="AD42" s="223"/>
       <c r="AE42" s="223"/>
     </row>
-    <row r="43" spans="1:31" ht="300">
+    <row r="43" spans="1:31" ht="283.5">
       <c r="A43" s="32">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -15760,7 +15620,7 @@
       <c r="AD43" s="169"/>
       <c r="AE43" s="169"/>
     </row>
-    <row r="44" spans="1:31" ht="30">
+    <row r="44" spans="1:31" ht="27">
       <c r="A44" s="32">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -15826,7 +15686,7 @@
       <c r="AD44" s="169"/>
       <c r="AE44" s="169"/>
     </row>
-    <row r="45" spans="1:31" s="3" customFormat="1" ht="30">
+    <row r="45" spans="1:31" s="3" customFormat="1" ht="27">
       <c r="A45" s="32">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -15858,7 +15718,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="12"/>
-      <c r="M45" s="530"/>
+      <c r="M45" s="479"/>
       <c r="N45" s="52"/>
       <c r="O45" s="53"/>
       <c r="P45" s="54"/>
@@ -15878,7 +15738,7 @@
       <c r="AD45" s="348"/>
       <c r="AE45" s="348"/>
     </row>
-    <row r="46" spans="1:31" s="3" customFormat="1" ht="30">
+    <row r="46" spans="1:31" s="3" customFormat="1" ht="27">
       <c r="A46" s="32">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -15910,7 +15770,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="12"/>
-      <c r="M46" s="530"/>
+      <c r="M46" s="479"/>
       <c r="N46" s="52"/>
       <c r="O46" s="53"/>
       <c r="P46" s="54"/>
@@ -15930,7 +15790,7 @@
       <c r="AD46" s="348"/>
       <c r="AE46" s="348"/>
     </row>
-    <row r="47" spans="1:31" s="3" customFormat="1" ht="30">
+    <row r="47" spans="1:31" s="3" customFormat="1" ht="27">
       <c r="A47" s="32">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -15962,7 +15822,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="12"/>
-      <c r="M47" s="530"/>
+      <c r="M47" s="479"/>
       <c r="N47" s="52"/>
       <c r="O47" s="53"/>
       <c r="P47" s="54"/>
@@ -15982,7 +15842,7 @@
       <c r="AD47" s="348"/>
       <c r="AE47" s="348"/>
     </row>
-    <row r="48" spans="1:31" ht="60">
+    <row r="48" spans="1:31" ht="54">
       <c r="A48" s="32">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -15990,7 +15850,7 @@
       <c r="B48" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="582" t="s">
+      <c r="C48" s="525" t="s">
         <v>124</v>
       </c>
       <c r="D48" s="65" t="s">
@@ -16058,7 +15918,7 @@
       <c r="AD48" s="169"/>
       <c r="AE48" s="169"/>
     </row>
-    <row r="49" spans="1:31" ht="30">
+    <row r="49" spans="1:31" ht="27">
       <c r="A49" s="32">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -16138,7 +15998,7 @@
       <c r="AD49" s="169"/>
       <c r="AE49" s="169"/>
     </row>
-    <row r="50" spans="1:31" ht="45">
+    <row r="50" spans="1:31" ht="40.5">
       <c r="A50" s="32">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -16218,7 +16078,7 @@
       <c r="AD50" s="169"/>
       <c r="AE50" s="169"/>
     </row>
-    <row r="51" spans="1:31" ht="16">
+    <row r="51" spans="1:31" ht="15">
       <c r="A51" s="32">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -16276,7 +16136,7 @@
       <c r="AD51" s="169"/>
       <c r="AE51" s="169"/>
     </row>
-    <row r="52" spans="1:31" ht="60">
+    <row r="52" spans="1:31" ht="54">
       <c r="A52" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -16284,7 +16144,7 @@
       <c r="B52" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="582" t="s">
+      <c r="C52" s="525" t="s">
         <v>143</v>
       </c>
       <c r="D52" s="65" t="s">
@@ -16352,7 +16212,7 @@
       <c r="AD52" s="169"/>
       <c r="AE52" s="169"/>
     </row>
-    <row r="53" spans="1:31" ht="370">
+    <row r="53" spans="1:31" ht="337.5">
       <c r="A53" s="32">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -16428,7 +16288,7 @@
       <c r="AD53" s="169"/>
       <c r="AE53" s="169"/>
     </row>
-    <row r="54" spans="1:31" ht="409.6">
+    <row r="54" spans="1:31" ht="409.5">
       <c r="A54" s="32">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -16504,7 +16364,7 @@
       <c r="AD54" s="169"/>
       <c r="AE54" s="169"/>
     </row>
-    <row r="55" spans="1:31" ht="45">
+    <row r="55" spans="1:31" ht="40.5">
       <c r="A55" s="32">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -16512,7 +16372,7 @@
       <c r="B55" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="C55" s="582" t="s">
+      <c r="C55" s="525" t="s">
         <v>156</v>
       </c>
       <c r="D55" s="65" t="s">
@@ -16540,7 +16400,7 @@
       <c r="L55" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="M55" s="583" t="s">
+      <c r="M55" s="526" t="s">
         <v>1622</v>
       </c>
       <c r="N55" s="144" t="s">
@@ -16570,7 +16430,7 @@
       <c r="AD55" s="348"/>
       <c r="AE55" s="348"/>
     </row>
-    <row r="56" spans="1:31" ht="30">
+    <row r="56" spans="1:31" ht="27">
       <c r="A56" s="32">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -16636,7 +16496,7 @@
       <c r="AD56" s="348"/>
       <c r="AE56" s="348"/>
     </row>
-    <row r="57" spans="1:31" ht="30">
+    <row r="57" spans="1:31" ht="27">
       <c r="A57" s="32">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -16702,7 +16562,7 @@
       <c r="AD57" s="348"/>
       <c r="AE57" s="348"/>
     </row>
-    <row r="58" spans="1:31" ht="30">
+    <row r="58" spans="1:31" ht="27">
       <c r="A58" s="32">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -16710,7 +16570,7 @@
       <c r="B58" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="582" t="s">
+      <c r="C58" s="525" t="s">
         <v>171</v>
       </c>
       <c r="D58" s="65" t="s">
@@ -16776,7 +16636,7 @@
       <c r="AD58" s="169"/>
       <c r="AE58" s="169"/>
     </row>
-    <row r="59" spans="1:31" ht="75">
+    <row r="59" spans="1:31" ht="67.5">
       <c r="A59" s="32">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -16858,7 +16718,7 @@
       </c>
       <c r="AE59" s="169"/>
     </row>
-    <row r="60" spans="1:31" ht="45">
+    <row r="60" spans="1:31" ht="40.5">
       <c r="A60" s="32">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -16926,7 +16786,7 @@
       <c r="AD60" s="167"/>
       <c r="AE60" s="87"/>
     </row>
-    <row r="61" spans="1:31" ht="30">
+    <row r="61" spans="1:31" ht="27">
       <c r="A61" s="32">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -17006,7 +16866,7 @@
       <c r="AD61" s="169"/>
       <c r="AE61" s="169"/>
     </row>
-    <row r="62" spans="1:31" ht="60">
+    <row r="62" spans="1:31" ht="54">
       <c r="A62" s="32">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -17025,7 +16885,7 @@
         <v>1882</v>
       </c>
       <c r="I62" s="13"/>
-      <c r="J62" s="532" t="s">
+      <c r="J62" s="481" t="s">
         <v>924</v>
       </c>
       <c r="K62" s="19" t="s">
@@ -17037,7 +16897,7 @@
       <c r="M62" s="100" t="s">
         <v>1880</v>
       </c>
-      <c r="N62" s="532" t="s">
+      <c r="N62" s="481" t="s">
         <v>924</v>
       </c>
       <c r="O62" s="19" t="s">
@@ -17064,7 +16924,7 @@
       <c r="AD62" s="348"/>
       <c r="AE62" s="348"/>
     </row>
-    <row r="63" spans="1:31" ht="45">
+    <row r="63" spans="1:31" ht="40.5">
       <c r="A63" s="32">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -17144,7 +17004,7 @@
       <c r="AD63" s="169"/>
       <c r="AE63" s="169"/>
     </row>
-    <row r="64" spans="1:31" ht="60">
+    <row r="64" spans="1:31" ht="54">
       <c r="A64" s="32">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -17163,7 +17023,7 @@
         <v>1883</v>
       </c>
       <c r="I64" s="13"/>
-      <c r="J64" s="532" t="s">
+      <c r="J64" s="481" t="s">
         <v>924</v>
       </c>
       <c r="K64" s="19" t="s">
@@ -17175,7 +17035,7 @@
       <c r="M64" s="69" t="s">
         <v>1866</v>
       </c>
-      <c r="N64" s="532" t="s">
+      <c r="N64" s="481" t="s">
         <v>924</v>
       </c>
       <c r="O64" s="19" t="s">
@@ -17202,7 +17062,7 @@
       <c r="AD64" s="348"/>
       <c r="AE64" s="348"/>
     </row>
-    <row r="65" spans="1:31" ht="30">
+    <row r="65" spans="1:31" ht="40.5">
       <c r="A65" s="32">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -17270,7 +17130,7 @@
       <c r="AD65" s="167"/>
       <c r="AE65" s="87"/>
     </row>
-    <row r="66" spans="1:31" ht="75">
+    <row r="66" spans="1:31" ht="67.5">
       <c r="A66" s="32">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -17318,11 +17178,11 @@
       <c r="P66" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="Q66" s="459" t="s">
+      <c r="Q66" s="533" t="s">
         <v>1834</v>
       </c>
-      <c r="R66" s="460"/>
-      <c r="S66" s="461"/>
+      <c r="R66" s="534"/>
+      <c r="S66" s="535"/>
       <c r="T66" s="71" t="s">
         <v>193</v>
       </c>
@@ -17336,11 +17196,11 @@
       <c r="X66" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="Y66" s="459" t="s">
+      <c r="Y66" s="533" t="s">
         <v>1834</v>
       </c>
-      <c r="Z66" s="460"/>
-      <c r="AA66" s="461"/>
+      <c r="Z66" s="534"/>
+      <c r="AA66" s="535"/>
       <c r="AB66" s="344" t="s">
         <v>193</v>
       </c>
@@ -17352,7 +17212,7 @@
       </c>
       <c r="AE66" s="169"/>
     </row>
-    <row r="67" spans="1:31" ht="30">
+    <row r="67" spans="1:31" ht="27">
       <c r="A67" s="32">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -17418,7 +17278,7 @@
       <c r="AD67" s="167"/>
       <c r="AE67" s="87"/>
     </row>
-    <row r="68" spans="1:31" ht="60">
+    <row r="68" spans="1:31" ht="54">
       <c r="A68" s="32">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -17464,11 +17324,11 @@
         <v>13</v>
       </c>
       <c r="P68" s="130"/>
-      <c r="Q68" s="453" t="s">
+      <c r="Q68" s="560" t="s">
         <v>1867</v>
       </c>
-      <c r="R68" s="454"/>
-      <c r="S68" s="455"/>
+      <c r="R68" s="561"/>
+      <c r="S68" s="562"/>
       <c r="T68" s="51" t="s">
         <v>962</v>
       </c>
@@ -17486,7 +17346,7 @@
       <c r="AD68" s="167"/>
       <c r="AE68" s="87"/>
     </row>
-    <row r="69" spans="1:31" ht="45">
+    <row r="69" spans="1:31" ht="40.5">
       <c r="A69" s="32">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -17505,7 +17365,7 @@
         <v>1885</v>
       </c>
       <c r="I69" s="13"/>
-      <c r="J69" s="532" t="s">
+      <c r="J69" s="481" t="s">
         <v>924</v>
       </c>
       <c r="K69" s="19" t="s">
@@ -17517,7 +17377,7 @@
       <c r="M69" s="100" t="s">
         <v>1884</v>
       </c>
-      <c r="N69" s="532" t="s">
+      <c r="N69" s="481" t="s">
         <v>924</v>
       </c>
       <c r="O69" s="19" t="s">
@@ -17544,7 +17404,7 @@
       <c r="AD69" s="348"/>
       <c r="AE69" s="348"/>
     </row>
-    <row r="70" spans="1:31" ht="45">
+    <row r="70" spans="1:31" ht="40.5">
       <c r="A70" s="32">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -17622,7 +17482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="16">
+    <row r="71" spans="1:31" ht="15">
       <c r="A71" s="32">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -17702,7 +17562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="45">
+    <row r="72" spans="1:31" ht="54">
       <c r="A72" s="32">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -17768,7 +17628,7 @@
       <c r="AD72" s="167"/>
       <c r="AE72" s="87"/>
     </row>
-    <row r="73" spans="1:31" ht="45">
+    <row r="73" spans="1:31" ht="54">
       <c r="A73" s="32">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -17834,7 +17694,7 @@
       <c r="AD73" s="167"/>
       <c r="AE73" s="87"/>
     </row>
-    <row r="74" spans="1:31" ht="45">
+    <row r="74" spans="1:31" ht="40.5">
       <c r="A74" s="32">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -17900,7 +17760,7 @@
       <c r="AD74" s="167"/>
       <c r="AE74" s="87"/>
     </row>
-    <row r="75" spans="1:31" ht="45">
+    <row r="75" spans="1:31" ht="40.5">
       <c r="A75" s="32">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -17980,7 +17840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="15">
+    <row r="76" spans="1:31">
       <c r="A76" s="32">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -18046,7 +17906,7 @@
       <c r="AD76" s="167"/>
       <c r="AE76" s="87"/>
     </row>
-    <row r="77" spans="1:31" ht="15">
+    <row r="77" spans="1:31">
       <c r="A77" s="32">
         <f t="shared" ref="A77:A145" si="1">ROW()-2</f>
         <v>75</v>
@@ -18112,7 +17972,7 @@
       <c r="AD77" s="167"/>
       <c r="AE77" s="87"/>
     </row>
-    <row r="78" spans="1:31" ht="30">
+    <row r="78" spans="1:31" ht="27">
       <c r="A78" s="32">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -18190,7 +18050,7 @@
       <c r="AD78" s="169"/>
       <c r="AE78" s="169"/>
     </row>
-    <row r="79" spans="1:31" ht="16">
+    <row r="79" spans="1:31" ht="15">
       <c r="A79" s="32">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -18264,7 +18124,7 @@
       <c r="AD79" s="169"/>
       <c r="AE79" s="169"/>
     </row>
-    <row r="80" spans="1:31" ht="16">
+    <row r="80" spans="1:31" ht="15">
       <c r="A80" s="32">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -18338,7 +18198,7 @@
       <c r="AD80" s="169"/>
       <c r="AE80" s="169"/>
     </row>
-    <row r="81" spans="1:31" ht="30">
+    <row r="81" spans="1:31" ht="27">
       <c r="A81" s="32">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -18422,7 +18282,7 @@
       <c r="AD81" s="169"/>
       <c r="AE81" s="169"/>
     </row>
-    <row r="82" spans="1:31" ht="30">
+    <row r="82" spans="1:31" ht="27">
       <c r="A82" s="32">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -18506,7 +18366,7 @@
       <c r="AD82" s="169"/>
       <c r="AE82" s="169"/>
     </row>
-    <row r="83" spans="1:31" ht="30">
+    <row r="83" spans="1:31" ht="27">
       <c r="A83" s="32">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -18588,7 +18448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="30">
+    <row r="84" spans="1:31" ht="27">
       <c r="A84" s="32">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -18596,7 +18456,7 @@
       <c r="B84" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="C84" s="582" t="s">
+      <c r="C84" s="525" t="s">
         <v>248</v>
       </c>
       <c r="D84" s="65" t="s">
@@ -18664,7 +18524,7 @@
       <c r="AD84" s="169"/>
       <c r="AE84" s="169"/>
     </row>
-    <row r="85" spans="1:31" ht="30">
+    <row r="85" spans="1:31" ht="27">
       <c r="A85" s="32">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -18746,7 +18606,7 @@
       </c>
       <c r="AE85" s="169"/>
     </row>
-    <row r="86" spans="1:31" ht="45">
+    <row r="86" spans="1:31" ht="40.5">
       <c r="A86" s="32">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -18814,7 +18674,7 @@
       <c r="AD86" s="167"/>
       <c r="AE86" s="87"/>
     </row>
-    <row r="87" spans="1:31" ht="30">
+    <row r="87" spans="1:31" ht="27">
       <c r="A87" s="32">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -18894,7 +18754,7 @@
       <c r="AD87" s="169"/>
       <c r="AE87" s="169"/>
     </row>
-    <row r="88" spans="1:31" ht="60">
+    <row r="88" spans="1:31" ht="54">
       <c r="A88" s="32">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -18913,7 +18773,7 @@
         <v>1194</v>
       </c>
       <c r="I88" s="13"/>
-      <c r="J88" s="532" t="s">
+      <c r="J88" s="481" t="s">
         <v>924</v>
       </c>
       <c r="K88" s="19" t="s">
@@ -18925,7 +18785,7 @@
       <c r="M88" s="100" t="s">
         <v>1886</v>
       </c>
-      <c r="N88" s="532" t="s">
+      <c r="N88" s="481" t="s">
         <v>924</v>
       </c>
       <c r="O88" s="19" t="s">
@@ -18952,7 +18812,7 @@
       <c r="AD88" s="348"/>
       <c r="AE88" s="348"/>
     </row>
-    <row r="89" spans="1:31" ht="45">
+    <row r="89" spans="1:31" ht="40.5">
       <c r="A89" s="32">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -19032,7 +18892,7 @@
       <c r="AD89" s="169"/>
       <c r="AE89" s="169"/>
     </row>
-    <row r="90" spans="1:31" ht="60">
+    <row r="90" spans="1:31" ht="54">
       <c r="A90" s="32">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -19051,27 +18911,27 @@
         <v>1194</v>
       </c>
       <c r="I90" s="13"/>
-      <c r="J90" s="533" t="s">
+      <c r="J90" s="482" t="s">
         <v>163</v>
       </c>
-      <c r="K90" s="534" t="s">
-        <v>13</v>
-      </c>
-      <c r="L90" s="535" t="s">
+      <c r="K90" s="483" t="s">
+        <v>13</v>
+      </c>
+      <c r="L90" s="484" t="s">
         <v>15</v>
       </c>
-      <c r="M90" s="536" t="s">
+      <c r="M90" s="485" t="s">
         <v>1887</v>
       </c>
-      <c r="N90" s="537" t="s">
+      <c r="N90" s="486" t="s">
         <v>163</v>
       </c>
-      <c r="O90" s="534" t="s">
-        <v>13</v>
-      </c>
-      <c r="P90" s="537"/>
-      <c r="Q90" s="537"/>
-      <c r="R90" s="537" t="s">
+      <c r="O90" s="483" t="s">
+        <v>13</v>
+      </c>
+      <c r="P90" s="486"/>
+      <c r="Q90" s="486"/>
+      <c r="R90" s="486" t="s">
         <v>1869</v>
       </c>
       <c r="S90" s="119"/>
@@ -19090,7 +18950,7 @@
       <c r="AD90" s="348"/>
       <c r="AE90" s="348"/>
     </row>
-    <row r="91" spans="1:31" ht="30">
+    <row r="91" spans="1:31" ht="40.5">
       <c r="A91" s="32">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -19138,11 +18998,11 @@
       <c r="P91" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q91" s="450" t="s">
+      <c r="Q91" s="536" t="s">
         <v>1833</v>
       </c>
-      <c r="R91" s="451"/>
-      <c r="S91" s="452"/>
+      <c r="R91" s="537"/>
+      <c r="S91" s="538"/>
       <c r="T91" s="71" t="s">
         <v>273</v>
       </c>
@@ -19156,11 +19016,11 @@
       <c r="X91" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="Y91" s="450" t="s">
+      <c r="Y91" s="536" t="s">
         <v>1833</v>
       </c>
-      <c r="Z91" s="451"/>
-      <c r="AA91" s="452"/>
+      <c r="Z91" s="537"/>
+      <c r="AA91" s="538"/>
       <c r="AB91" s="344" t="s">
         <v>273</v>
       </c>
@@ -19172,7 +19032,7 @@
       </c>
       <c r="AE91" s="169"/>
     </row>
-    <row r="92" spans="1:31" ht="45">
+    <row r="92" spans="1:31" ht="40.5">
       <c r="A92" s="32">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -19218,11 +19078,11 @@
         <v>13</v>
       </c>
       <c r="P92" s="130"/>
-      <c r="Q92" s="453" t="s">
+      <c r="Q92" s="560" t="s">
         <v>1868</v>
       </c>
-      <c r="R92" s="454"/>
-      <c r="S92" s="455"/>
+      <c r="R92" s="561"/>
+      <c r="S92" s="562"/>
       <c r="T92" s="138" t="s">
         <v>272</v>
       </c>
@@ -19240,7 +19100,7 @@
       <c r="AD92" s="167"/>
       <c r="AE92" s="87"/>
     </row>
-    <row r="93" spans="1:31" ht="45">
+    <row r="93" spans="1:31" ht="40.5">
       <c r="A93" s="32">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -19259,27 +19119,27 @@
         <v>271</v>
       </c>
       <c r="I93" s="13"/>
-      <c r="J93" s="533" t="s">
+      <c r="J93" s="482" t="s">
         <v>163</v>
       </c>
-      <c r="K93" s="534" t="s">
-        <v>13</v>
-      </c>
-      <c r="L93" s="535" t="s">
+      <c r="K93" s="483" t="s">
+        <v>13</v>
+      </c>
+      <c r="L93" s="484" t="s">
         <v>15</v>
       </c>
-      <c r="M93" s="536" t="s">
+      <c r="M93" s="485" t="s">
         <v>1888</v>
       </c>
-      <c r="N93" s="537" t="s">
+      <c r="N93" s="486" t="s">
         <v>163</v>
       </c>
-      <c r="O93" s="534" t="s">
-        <v>13</v>
-      </c>
-      <c r="P93" s="537"/>
-      <c r="Q93" s="537"/>
-      <c r="R93" s="537" t="s">
+      <c r="O93" s="483" t="s">
+        <v>13</v>
+      </c>
+      <c r="P93" s="486"/>
+      <c r="Q93" s="486"/>
+      <c r="R93" s="486" t="s">
         <v>1869</v>
       </c>
       <c r="S93" s="119"/>
@@ -19298,7 +19158,7 @@
       <c r="AD93" s="167"/>
       <c r="AE93" s="87"/>
     </row>
-    <row r="94" spans="1:31" ht="45">
+    <row r="94" spans="1:31" ht="40.5">
       <c r="A94" s="32">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -19378,7 +19238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="16">
+    <row r="95" spans="1:31" ht="15">
       <c r="A95" s="32">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -19458,7 +19318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="45">
+    <row r="96" spans="1:31" ht="54">
       <c r="A96" s="32">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -19524,7 +19384,7 @@
       <c r="AD96" s="167"/>
       <c r="AE96" s="87"/>
     </row>
-    <row r="97" spans="1:31" ht="45">
+    <row r="97" spans="1:31" ht="54">
       <c r="A97" s="32">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -19590,7 +19450,7 @@
       <c r="AD97" s="167"/>
       <c r="AE97" s="87"/>
     </row>
-    <row r="98" spans="1:31" ht="45">
+    <row r="98" spans="1:31" ht="40.5">
       <c r="A98" s="32">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -19656,7 +19516,7 @@
       <c r="AD98" s="167"/>
       <c r="AE98" s="87"/>
     </row>
-    <row r="99" spans="1:31" ht="45">
+    <row r="99" spans="1:31" ht="40.5">
       <c r="A99" s="32">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -19736,7 +19596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="15">
+    <row r="100" spans="1:31">
       <c r="A100" s="32">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -19802,7 +19662,7 @@
       <c r="AD100" s="167"/>
       <c r="AE100" s="87"/>
     </row>
-    <row r="101" spans="1:31" ht="15">
+    <row r="101" spans="1:31">
       <c r="A101" s="32">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -19868,7 +19728,7 @@
       <c r="AD101" s="167"/>
       <c r="AE101" s="87"/>
     </row>
-    <row r="102" spans="1:31" ht="45">
+    <row r="102" spans="1:31" ht="40.5">
       <c r="A102" s="32">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -19946,7 +19806,7 @@
       <c r="AD102" s="169"/>
       <c r="AE102" s="169"/>
     </row>
-    <row r="103" spans="1:31" ht="16">
+    <row r="103" spans="1:31" ht="15">
       <c r="A103" s="32">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -20020,7 +19880,7 @@
       <c r="AD103" s="169"/>
       <c r="AE103" s="169"/>
     </row>
-    <row r="104" spans="1:31" ht="16">
+    <row r="104" spans="1:31" ht="15">
       <c r="A104" s="32">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -20094,7 +19954,7 @@
       <c r="AD104" s="169"/>
       <c r="AE104" s="169"/>
     </row>
-    <row r="105" spans="1:31" ht="30">
+    <row r="105" spans="1:31" ht="27">
       <c r="A105" s="32">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -20178,7 +20038,7 @@
       <c r="AD105" s="169"/>
       <c r="AE105" s="169"/>
     </row>
-    <row r="106" spans="1:31" ht="30">
+    <row r="106" spans="1:31" ht="27">
       <c r="A106" s="32">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -20262,7 +20122,7 @@
       <c r="AD106" s="169"/>
       <c r="AE106" s="169"/>
     </row>
-    <row r="107" spans="1:31" ht="30">
+    <row r="107" spans="1:31" ht="27">
       <c r="A107" s="32">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -20344,7 +20204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="45">
+    <row r="108" spans="1:31" ht="40.5">
       <c r="A108" s="32">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -20352,7 +20212,7 @@
       <c r="B108" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="C108" s="582" t="s">
+      <c r="C108" s="525" t="s">
         <v>320</v>
       </c>
       <c r="D108" s="65" t="s">
@@ -20420,7 +20280,7 @@
       <c r="AD108" s="169"/>
       <c r="AE108" s="169"/>
     </row>
-    <row r="109" spans="1:31" ht="16">
+    <row r="109" spans="1:31" ht="15">
       <c r="A109" s="32">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -20500,7 +20360,7 @@
       <c r="AD109" s="169"/>
       <c r="AE109" s="169"/>
     </row>
-    <row r="110" spans="1:31" ht="30">
+    <row r="110" spans="1:31" ht="27">
       <c r="A110" s="32">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -20580,7 +20440,7 @@
       <c r="AD110" s="169"/>
       <c r="AE110" s="169"/>
     </row>
-    <row r="111" spans="1:31" ht="60">
+    <row r="111" spans="1:31" ht="54">
       <c r="A111" s="32">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -20599,27 +20459,27 @@
         <v>1194</v>
       </c>
       <c r="I111" s="13"/>
-      <c r="J111" s="533" t="s">
+      <c r="J111" s="482" t="s">
         <v>163</v>
       </c>
-      <c r="K111" s="534" t="s">
-        <v>13</v>
-      </c>
-      <c r="L111" s="535" t="s">
+      <c r="K111" s="483" t="s">
+        <v>13</v>
+      </c>
+      <c r="L111" s="484" t="s">
         <v>15</v>
       </c>
-      <c r="M111" s="536" t="s">
+      <c r="M111" s="485" t="s">
         <v>1893</v>
       </c>
-      <c r="N111" s="537" t="s">
+      <c r="N111" s="486" t="s">
         <v>163</v>
       </c>
-      <c r="O111" s="534" t="s">
-        <v>13</v>
-      </c>
-      <c r="P111" s="537"/>
-      <c r="Q111" s="537"/>
-      <c r="R111" s="537" t="s">
+      <c r="O111" s="483" t="s">
+        <v>13</v>
+      </c>
+      <c r="P111" s="486"/>
+      <c r="Q111" s="486"/>
+      <c r="R111" s="486" t="s">
         <v>1869</v>
       </c>
       <c r="S111" s="119"/>
@@ -20638,7 +20498,7 @@
       <c r="AD111" s="348"/>
       <c r="AE111" s="348"/>
     </row>
-    <row r="112" spans="1:31" ht="45">
+    <row r="112" spans="1:31" ht="40.5">
       <c r="A112" s="32">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -20718,7 +20578,7 @@
       <c r="AD112" s="169"/>
       <c r="AE112" s="169"/>
     </row>
-    <row r="113" spans="1:31" ht="60">
+    <row r="113" spans="1:31" ht="54">
       <c r="A113" s="32">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -20737,34 +20597,34 @@
         <v>1194</v>
       </c>
       <c r="I113" s="13"/>
-      <c r="J113" s="533" t="s">
+      <c r="J113" s="482" t="s">
         <v>163</v>
       </c>
-      <c r="K113" s="534" t="s">
-        <v>13</v>
-      </c>
-      <c r="L113" s="535" t="s">
+      <c r="K113" s="483" t="s">
+        <v>13</v>
+      </c>
+      <c r="L113" s="484" t="s">
         <v>15</v>
       </c>
-      <c r="M113" s="536" t="s">
+      <c r="M113" s="485" t="s">
         <v>1894</v>
       </c>
-      <c r="N113" s="537" t="s">
+      <c r="N113" s="486" t="s">
         <v>163</v>
       </c>
-      <c r="O113" s="534" t="s">
-        <v>13</v>
-      </c>
-      <c r="P113" s="537"/>
-      <c r="Q113" s="537"/>
-      <c r="R113" s="537" t="s">
+      <c r="O113" s="483" t="s">
+        <v>13</v>
+      </c>
+      <c r="P113" s="486"/>
+      <c r="Q113" s="486"/>
+      <c r="R113" s="486" t="s">
         <v>1869</v>
       </c>
       <c r="S113" s="119"/>
-      <c r="T113" s="538" t="s">
+      <c r="T113" s="487" t="s">
         <v>1890</v>
       </c>
-      <c r="U113" s="539"/>
+      <c r="U113" s="488"/>
       <c r="V113" s="177"/>
       <c r="W113" s="334"/>
       <c r="X113" s="54"/>
@@ -20776,7 +20636,7 @@
       <c r="AD113" s="348"/>
       <c r="AE113" s="348"/>
     </row>
-    <row r="114" spans="1:31" ht="16">
+    <row r="114" spans="1:31" ht="15">
       <c r="A114" s="32">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -20838,7 +20698,7 @@
       <c r="AD114" s="169"/>
       <c r="AE114" s="169"/>
     </row>
-    <row r="115" spans="1:31" ht="16">
+    <row r="115" spans="1:31" ht="15">
       <c r="A115" s="32">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -20912,7 +20772,7 @@
       <c r="AD115" s="169"/>
       <c r="AE115" s="169"/>
     </row>
-    <row r="116" spans="1:31" ht="16">
+    <row r="116" spans="1:31" ht="15">
       <c r="A116" s="32">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -20986,7 +20846,7 @@
       <c r="AD116" s="169"/>
       <c r="AE116" s="169"/>
     </row>
-    <row r="117" spans="1:31" ht="16">
+    <row r="117" spans="1:31" ht="27">
       <c r="A117" s="32">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -21060,7 +20920,7 @@
       <c r="AD117" s="169"/>
       <c r="AE117" s="169"/>
     </row>
-    <row r="118" spans="1:31" ht="16">
+    <row r="118" spans="1:31" ht="15">
       <c r="A118" s="32">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -21134,7 +20994,7 @@
       <c r="AD118" s="169"/>
       <c r="AE118" s="169"/>
     </row>
-    <row r="119" spans="1:31" ht="60">
+    <row r="119" spans="1:31" ht="54">
       <c r="A119" s="32">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -21198,7 +21058,7 @@
       <c r="AD119" s="169"/>
       <c r="AE119" s="169"/>
     </row>
-    <row r="120" spans="1:31" ht="16">
+    <row r="120" spans="1:31" ht="15">
       <c r="A120" s="32">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -21268,7 +21128,7 @@
       <c r="AD120" s="169"/>
       <c r="AE120" s="169"/>
     </row>
-    <row r="121" spans="1:31" ht="30">
+    <row r="121" spans="1:31" ht="27">
       <c r="A121" s="32">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -21338,7 +21198,7 @@
       <c r="AD121" s="169"/>
       <c r="AE121" s="169"/>
     </row>
-    <row r="122" spans="1:31" ht="16">
+    <row r="122" spans="1:31" ht="15">
       <c r="A122" s="32">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -21408,7 +21268,7 @@
       <c r="AD122" s="169"/>
       <c r="AE122" s="169"/>
     </row>
-    <row r="123" spans="1:31" ht="15">
+    <row r="123" spans="1:31">
       <c r="A123" s="32">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -21476,7 +21336,7 @@
       <c r="AD123" s="169"/>
       <c r="AE123" s="169"/>
     </row>
-    <row r="124" spans="1:31" ht="16">
+    <row r="124" spans="1:31" ht="15">
       <c r="A124" s="32">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -21550,7 +21410,7 @@
       <c r="AD124" s="169"/>
       <c r="AE124" s="169"/>
     </row>
-    <row r="125" spans="1:31" ht="16">
+    <row r="125" spans="1:31" ht="15">
       <c r="A125" s="32">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -21624,7 +21484,7 @@
       <c r="AD125" s="169"/>
       <c r="AE125" s="169"/>
     </row>
-    <row r="126" spans="1:31" ht="16">
+    <row r="126" spans="1:31" ht="15">
       <c r="A126" s="32">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -21698,7 +21558,7 @@
       <c r="AD126" s="169"/>
       <c r="AE126" s="169"/>
     </row>
-    <row r="127" spans="1:31" ht="16">
+    <row r="127" spans="1:31" ht="15">
       <c r="A127" s="32">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -21772,7 +21632,7 @@
       <c r="AD127" s="169"/>
       <c r="AE127" s="169"/>
     </row>
-    <row r="128" spans="1:31" ht="45">
+    <row r="128" spans="1:31" ht="40.5">
       <c r="A128" s="32">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -21780,7 +21640,7 @@
       <c r="B128" s="62" t="s">
         <v>361</v>
       </c>
-      <c r="C128" s="582" t="s">
+      <c r="C128" s="525" t="s">
         <v>362</v>
       </c>
       <c r="D128" s="65" t="s">
@@ -21846,7 +21706,7 @@
       <c r="AD128" s="169"/>
       <c r="AE128" s="169"/>
     </row>
-    <row r="129" spans="1:31" ht="16">
+    <row r="129" spans="1:31" ht="15">
       <c r="A129" s="32">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -21916,7 +21776,7 @@
       <c r="AD129" s="169"/>
       <c r="AE129" s="169"/>
     </row>
-    <row r="130" spans="1:31" ht="30">
+    <row r="130" spans="1:31" ht="27">
       <c r="A130" s="32">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -21986,7 +21846,7 @@
       <c r="AD130" s="169"/>
       <c r="AE130" s="169"/>
     </row>
-    <row r="131" spans="1:31" ht="30">
+    <row r="131" spans="1:31" ht="27">
       <c r="A131" s="32">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -22068,7 +21928,7 @@
       </c>
       <c r="AE131" s="169"/>
     </row>
-    <row r="132" spans="1:31" ht="30">
+    <row r="132" spans="1:31" ht="27">
       <c r="A132" s="32">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -22116,11 +21976,11 @@
       <c r="P132" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q132" s="450" t="s">
+      <c r="Q132" s="536" t="s">
         <v>1832</v>
       </c>
-      <c r="R132" s="451"/>
-      <c r="S132" s="452"/>
+      <c r="R132" s="537"/>
+      <c r="S132" s="538"/>
       <c r="T132" s="71" t="s">
         <v>193</v>
       </c>
@@ -22134,11 +21994,11 @@
       <c r="X132" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Y132" s="450" t="s">
+      <c r="Y132" s="536" t="s">
         <v>1832</v>
       </c>
-      <c r="Z132" s="451"/>
-      <c r="AA132" s="452"/>
+      <c r="Z132" s="537"/>
+      <c r="AA132" s="538"/>
       <c r="AB132" s="344" t="s">
         <v>193</v>
       </c>
@@ -22150,7 +22010,7 @@
       </c>
       <c r="AE132" s="169"/>
     </row>
-    <row r="133" spans="1:31" ht="15">
+    <row r="133" spans="1:31">
       <c r="A133" s="32">
         <f t="shared" si="1"/>
         <v>131</v>
@@ -22218,7 +22078,7 @@
       <c r="AD133" s="169"/>
       <c r="AE133" s="169"/>
     </row>
-    <row r="134" spans="1:31" ht="16">
+    <row r="134" spans="1:31" ht="15">
       <c r="A134" s="32">
         <f t="shared" si="1"/>
         <v>132</v>
@@ -22292,7 +22152,7 @@
       <c r="AD134" s="169"/>
       <c r="AE134" s="169"/>
     </row>
-    <row r="135" spans="1:31" ht="16">
+    <row r="135" spans="1:31" ht="15">
       <c r="A135" s="32">
         <f t="shared" si="1"/>
         <v>133</v>
@@ -22366,7 +22226,7 @@
       <c r="AD135" s="169"/>
       <c r="AE135" s="169"/>
     </row>
-    <row r="136" spans="1:31" ht="16">
+    <row r="136" spans="1:31" ht="27">
       <c r="A136" s="32">
         <f t="shared" si="1"/>
         <v>134</v>
@@ -22440,7 +22300,7 @@
       <c r="AD136" s="169"/>
       <c r="AE136" s="169"/>
     </row>
-    <row r="137" spans="1:31" ht="16">
+    <row r="137" spans="1:31" ht="15">
       <c r="A137" s="32">
         <f t="shared" si="1"/>
         <v>135</v>
@@ -22514,7 +22374,7 @@
       <c r="AD137" s="169"/>
       <c r="AE137" s="169"/>
     </row>
-    <row r="138" spans="1:31" ht="45">
+    <row r="138" spans="1:31" ht="40.5">
       <c r="A138" s="32">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -22592,7 +22452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:31" ht="30">
+    <row r="139" spans="1:31" ht="27">
       <c r="A139" s="32">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -22672,7 +22532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="45">
+    <row r="140" spans="1:31" ht="54">
       <c r="A140" s="32">
         <f t="shared" si="1"/>
         <v>138</v>
@@ -22738,7 +22598,7 @@
       <c r="AD140" s="167"/>
       <c r="AE140" s="87"/>
     </row>
-    <row r="141" spans="1:31" ht="45">
+    <row r="141" spans="1:31" ht="54">
       <c r="A141" s="32">
         <f t="shared" si="1"/>
         <v>139</v>
@@ -22804,7 +22664,7 @@
       <c r="AD141" s="167"/>
       <c r="AE141" s="87"/>
     </row>
-    <row r="142" spans="1:31" ht="45">
+    <row r="142" spans="1:31" ht="40.5">
       <c r="A142" s="32">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -22870,7 +22730,7 @@
       <c r="AD142" s="167"/>
       <c r="AE142" s="87"/>
     </row>
-    <row r="143" spans="1:31" ht="45">
+    <row r="143" spans="1:31" ht="40.5">
       <c r="A143" s="32">
         <f t="shared" si="1"/>
         <v>141</v>
@@ -22950,7 +22810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="30">
+    <row r="144" spans="1:31" ht="27">
       <c r="A144" s="32">
         <f t="shared" si="1"/>
         <v>142</v>
@@ -23016,7 +22876,7 @@
       <c r="AD144" s="167"/>
       <c r="AE144" s="87"/>
     </row>
-    <row r="145" spans="1:31" ht="30">
+    <row r="145" spans="1:31" ht="27">
       <c r="A145" s="32">
         <f t="shared" si="1"/>
         <v>143</v>
@@ -23082,7 +22942,7 @@
       <c r="AD145" s="167"/>
       <c r="AE145" s="87"/>
     </row>
-    <row r="146" spans="1:31" ht="60">
+    <row r="146" spans="1:31" ht="54">
       <c r="A146" s="32">
         <f t="shared" ref="A146:A218" si="2">ROW()-2</f>
         <v>144</v>
@@ -23090,7 +22950,7 @@
       <c r="B146" s="62" t="s">
         <v>412</v>
       </c>
-      <c r="C146" s="582" t="s">
+      <c r="C146" s="525" t="s">
         <v>413</v>
       </c>
       <c r="D146" s="65" t="s">
@@ -23156,7 +23016,7 @@
       <c r="AD146" s="169"/>
       <c r="AE146" s="169"/>
     </row>
-    <row r="147" spans="1:31" ht="30">
+    <row r="147" spans="1:31" ht="27">
       <c r="A147" s="32">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -23236,7 +23096,7 @@
       <c r="AD147" s="169"/>
       <c r="AE147" s="169"/>
     </row>
-    <row r="148" spans="1:31" ht="30">
+    <row r="148" spans="1:31" ht="27">
       <c r="A148" s="32">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -23316,7 +23176,7 @@
       <c r="AD148" s="169"/>
       <c r="AE148" s="169"/>
     </row>
-    <row r="149" spans="1:31" ht="60">
+    <row r="149" spans="1:31" ht="54">
       <c r="A149" s="32">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -23335,34 +23195,34 @@
         <v>1194</v>
       </c>
       <c r="I149" s="13"/>
-      <c r="J149" s="533" t="s">
+      <c r="J149" s="482" t="s">
         <v>163</v>
       </c>
-      <c r="K149" s="534" t="s">
-        <v>13</v>
-      </c>
-      <c r="L149" s="535" t="s">
+      <c r="K149" s="483" t="s">
+        <v>13</v>
+      </c>
+      <c r="L149" s="484" t="s">
         <v>15</v>
       </c>
-      <c r="M149" s="536" t="s">
+      <c r="M149" s="485" t="s">
         <v>1895</v>
       </c>
-      <c r="N149" s="537" t="s">
+      <c r="N149" s="486" t="s">
         <v>163</v>
       </c>
-      <c r="O149" s="534" t="s">
-        <v>13</v>
-      </c>
-      <c r="P149" s="537"/>
-      <c r="Q149" s="537"/>
-      <c r="R149" s="537" t="s">
+      <c r="O149" s="483" t="s">
+        <v>13</v>
+      </c>
+      <c r="P149" s="486"/>
+      <c r="Q149" s="486"/>
+      <c r="R149" s="486" t="s">
         <v>1869</v>
       </c>
       <c r="S149" s="119"/>
-      <c r="T149" s="538" t="s">
+      <c r="T149" s="487" t="s">
         <v>1890</v>
       </c>
-      <c r="U149" s="539"/>
+      <c r="U149" s="488"/>
       <c r="V149" s="177"/>
       <c r="W149" s="334"/>
       <c r="X149" s="54"/>
@@ -23374,7 +23234,7 @@
       <c r="AD149" s="348"/>
       <c r="AE149" s="348"/>
     </row>
-    <row r="150" spans="1:31" ht="30">
+    <row r="150" spans="1:31" ht="27">
       <c r="A150" s="32">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -23444,7 +23304,7 @@
       <c r="AD150" s="169"/>
       <c r="AE150" s="169"/>
     </row>
-    <row r="151" spans="1:31" ht="30">
+    <row r="151" spans="1:31" ht="40.5">
       <c r="A151" s="32">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -23524,7 +23384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="30">
+    <row r="152" spans="1:31" ht="27">
       <c r="A152" s="32">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -23602,7 +23462,7 @@
       <c r="AD152" s="169"/>
       <c r="AE152" s="169"/>
     </row>
-    <row r="153" spans="1:31" ht="30">
+    <row r="153" spans="1:31" ht="27">
       <c r="A153" s="32">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -23686,7 +23546,7 @@
       <c r="AD153" s="169"/>
       <c r="AE153" s="169"/>
     </row>
-    <row r="154" spans="1:31" ht="30">
+    <row r="154" spans="1:31" ht="27">
       <c r="A154" s="32">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -23770,7 +23630,7 @@
       <c r="AD154" s="169"/>
       <c r="AE154" s="169"/>
     </row>
-    <row r="155" spans="1:31" ht="60">
+    <row r="155" spans="1:31" ht="54">
       <c r="A155" s="32">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -23848,7 +23708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:31" ht="16">
+    <row r="156" spans="1:31" ht="15">
       <c r="A156" s="32">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -23928,7 +23788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:31" ht="45">
+    <row r="157" spans="1:31" ht="54">
       <c r="A157" s="32">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -23994,7 +23854,7 @@
       <c r="AD157" s="167"/>
       <c r="AE157" s="87"/>
     </row>
-    <row r="158" spans="1:31" ht="45">
+    <row r="158" spans="1:31" ht="54">
       <c r="A158" s="32">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -24060,7 +23920,7 @@
       <c r="AD158" s="167"/>
       <c r="AE158" s="87"/>
     </row>
-    <row r="159" spans="1:31" ht="45">
+    <row r="159" spans="1:31" ht="40.5">
       <c r="A159" s="32">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -24126,7 +23986,7 @@
       <c r="AD159" s="167"/>
       <c r="AE159" s="87"/>
     </row>
-    <row r="160" spans="1:31" ht="45">
+    <row r="160" spans="1:31" ht="40.5">
       <c r="A160" s="32">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -24206,7 +24066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="15">
+    <row r="161" spans="1:31" ht="27">
       <c r="A161" s="32">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -24272,7 +24132,7 @@
       <c r="AD161" s="167"/>
       <c r="AE161" s="87"/>
     </row>
-    <row r="162" spans="1:31" ht="15">
+    <row r="162" spans="1:31">
       <c r="A162" s="32">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -24338,7 +24198,7 @@
       <c r="AD162" s="167"/>
       <c r="AE162" s="87"/>
     </row>
-    <row r="163" spans="1:31" ht="30">
+    <row r="163" spans="1:31" ht="27">
       <c r="A163" s="32">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -24346,7 +24206,7 @@
       <c r="B163" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="C163" s="582" t="s">
+      <c r="C163" s="525" t="s">
         <v>474</v>
       </c>
       <c r="D163" s="65" t="s">
@@ -24412,7 +24272,7 @@
       <c r="AD163" s="169"/>
       <c r="AE163" s="169"/>
     </row>
-    <row r="164" spans="1:31" ht="45">
+    <row r="164" spans="1:31" ht="40.5">
       <c r="A164" s="32">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -24492,7 +24352,7 @@
       <c r="AD164" s="169"/>
       <c r="AE164" s="169"/>
     </row>
-    <row r="165" spans="1:31" ht="16">
+    <row r="165" spans="1:31" ht="15">
       <c r="A165" s="32">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -24562,7 +24422,7 @@
       <c r="AD165" s="169"/>
       <c r="AE165" s="169"/>
     </row>
-    <row r="166" spans="1:31" ht="45">
+    <row r="166" spans="1:31" ht="40.5">
       <c r="A166" s="32">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -24632,7 +24492,7 @@
       <c r="AD166" s="356"/>
       <c r="AE166" s="356"/>
     </row>
-    <row r="167" spans="1:31" ht="30">
+    <row r="167" spans="1:31" ht="27">
       <c r="A167" s="32">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -24656,7 +24516,7 @@
       <c r="J167" s="122"/>
       <c r="K167" s="19"/>
       <c r="L167" s="12"/>
-      <c r="M167" s="531"/>
+      <c r="M167" s="480"/>
       <c r="N167" s="335"/>
       <c r="O167" s="334"/>
       <c r="P167" s="54"/>
@@ -24676,7 +24536,7 @@
       <c r="AD167" s="348"/>
       <c r="AE167" s="348"/>
     </row>
-    <row r="168" spans="1:31" ht="15">
+    <row r="168" spans="1:31">
       <c r="A168" s="32">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -24736,7 +24596,7 @@
       <c r="AD168" s="169"/>
       <c r="AE168" s="169"/>
     </row>
-    <row r="169" spans="1:31" ht="30">
+    <row r="169" spans="1:31" ht="27">
       <c r="A169" s="32">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -24802,7 +24662,7 @@
       <c r="AD169" s="169"/>
       <c r="AE169" s="169"/>
     </row>
-    <row r="170" spans="1:31" ht="30">
+    <row r="170" spans="1:31" ht="27">
       <c r="A170" s="32">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -24868,7 +24728,7 @@
       <c r="AD170" s="169"/>
       <c r="AE170" s="169"/>
     </row>
-    <row r="171" spans="1:31" ht="16">
+    <row r="171" spans="1:31" ht="15">
       <c r="A171" s="32">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -24934,7 +24794,7 @@
       <c r="AD171" s="169"/>
       <c r="AE171" s="169"/>
     </row>
-    <row r="172" spans="1:31" ht="30">
+    <row r="172" spans="1:31" ht="27">
       <c r="A172" s="32">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -25000,7 +24860,7 @@
       <c r="AD172" s="169"/>
       <c r="AE172" s="169"/>
     </row>
-    <row r="173" spans="1:31" ht="16">
+    <row r="173" spans="1:31" ht="15">
       <c r="A173" s="32">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -25066,7 +24926,7 @@
       <c r="AD173" s="169"/>
       <c r="AE173" s="169"/>
     </row>
-    <row r="174" spans="1:31" ht="16">
+    <row r="174" spans="1:31" ht="15">
       <c r="A174" s="32">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -25132,7 +24992,7 @@
       <c r="AD174" s="169"/>
       <c r="AE174" s="169"/>
     </row>
-    <row r="175" spans="1:31" ht="30">
+    <row r="175" spans="1:31" ht="27">
       <c r="A175" s="32">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -25198,7 +25058,7 @@
       <c r="AD175" s="169"/>
       <c r="AE175" s="169"/>
     </row>
-    <row r="176" spans="1:31" ht="30">
+    <row r="176" spans="1:31" ht="27">
       <c r="A176" s="32">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -25276,13 +25136,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:31" ht="15">
+    <row r="177" spans="1:31">
       <c r="A177" s="32">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="B177" s="125"/>
-      <c r="C177" s="584"/>
+      <c r="C177" s="527"/>
       <c r="D177" s="54"/>
       <c r="E177" s="53"/>
       <c r="F177" s="5"/>
@@ -25294,7 +25154,7 @@
       <c r="J177" s="122"/>
       <c r="K177" s="19"/>
       <c r="L177" s="12"/>
-      <c r="M177" s="586"/>
+      <c r="M177" s="529"/>
       <c r="N177" s="336"/>
       <c r="O177" s="258"/>
       <c r="P177" s="259"/>
@@ -25314,13 +25174,13 @@
       <c r="AD177" s="360"/>
       <c r="AE177" s="360"/>
     </row>
-    <row r="178" spans="1:31" ht="15">
+    <row r="178" spans="1:31">
       <c r="A178" s="32">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="B178" s="125"/>
-      <c r="C178" s="584"/>
+      <c r="C178" s="527"/>
       <c r="D178" s="54"/>
       <c r="E178" s="53"/>
       <c r="F178" s="5"/>
@@ -25332,7 +25192,7 @@
       <c r="J178" s="122"/>
       <c r="K178" s="19"/>
       <c r="L178" s="12"/>
-      <c r="M178" s="586"/>
+      <c r="M178" s="529"/>
       <c r="N178" s="336"/>
       <c r="O178" s="258"/>
       <c r="P178" s="259"/>
@@ -25352,7 +25212,7 @@
       <c r="AD178" s="360"/>
       <c r="AE178" s="360"/>
     </row>
-    <row r="179" spans="1:31" ht="75">
+    <row r="179" spans="1:31" ht="67.5">
       <c r="A179" s="32">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -25420,7 +25280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:31" ht="30">
+    <row r="180" spans="1:31" ht="27">
       <c r="A180" s="32">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -25444,7 +25304,7 @@
       <c r="J180" s="74"/>
       <c r="K180" s="32"/>
       <c r="L180" s="12"/>
-      <c r="M180" s="586"/>
+      <c r="M180" s="529"/>
       <c r="N180" s="336"/>
       <c r="O180" s="258"/>
       <c r="P180" s="259"/>
@@ -25464,7 +25324,7 @@
       <c r="AD180" s="360"/>
       <c r="AE180" s="360"/>
     </row>
-    <row r="181" spans="1:31" ht="30">
+    <row r="181" spans="1:31" ht="27">
       <c r="A181" s="32">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -25532,7 +25392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:31" ht="60">
+    <row r="182" spans="1:31" ht="54">
       <c r="A182" s="32">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -25600,7 +25460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:31" ht="75">
+    <row r="183" spans="1:31" ht="67.5">
       <c r="A183" s="32">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -25678,7 +25538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:31" ht="120">
+    <row r="184" spans="1:31" ht="108">
       <c r="A184" s="32">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -25746,7 +25606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:31" ht="15">
+    <row r="185" spans="1:31">
       <c r="A185" s="32">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -25814,7 +25674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:31" ht="105">
+    <row r="186" spans="1:31" ht="94.5">
       <c r="A186" s="32">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -25892,7 +25752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:31" ht="75">
+    <row r="187" spans="1:31" ht="67.5">
       <c r="A187" s="32">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -25960,7 +25820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:31" ht="75">
+    <row r="188" spans="1:31" ht="67.5">
       <c r="A188" s="32">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -26038,7 +25898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:31" ht="30">
+    <row r="189" spans="1:31" ht="27">
       <c r="A189" s="32">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -26106,7 +25966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:31" ht="60">
+    <row r="190" spans="1:31" ht="54">
       <c r="A190" s="32">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -26114,7 +25974,7 @@
       <c r="B190" s="119" t="s">
         <v>541</v>
       </c>
-      <c r="C190" s="582" t="s">
+      <c r="C190" s="525" t="s">
         <v>542</v>
       </c>
       <c r="D190" s="65" t="s">
@@ -26172,7 +26032,7 @@
       <c r="AD190" s="137"/>
       <c r="AE190" s="350"/>
     </row>
-    <row r="191" spans="1:31" ht="30">
+    <row r="191" spans="1:31" ht="27">
       <c r="A191" s="32">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -26238,7 +26098,7 @@
       <c r="AD191" s="137"/>
       <c r="AE191" s="350"/>
     </row>
-    <row r="192" spans="1:31" ht="15">
+    <row r="192" spans="1:31">
       <c r="A192" s="32">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -26286,7 +26146,7 @@
       <c r="AD192" s="137"/>
       <c r="AE192" s="350"/>
     </row>
-    <row r="193" spans="1:31" ht="15">
+    <row r="193" spans="1:31">
       <c r="A193" s="32"/>
       <c r="B193" s="56"/>
       <c r="C193" s="173"/>
@@ -26329,7 +26189,7 @@
       <c r="AD193" s="137"/>
       <c r="AE193" s="350"/>
     </row>
-    <row r="194" spans="1:31" ht="60">
+    <row r="194" spans="1:31" ht="67.5">
       <c r="A194" s="32">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -26375,11 +26235,11 @@
         <v>13</v>
       </c>
       <c r="P194" s="122"/>
-      <c r="Q194" s="447" t="s">
+      <c r="Q194" s="539" t="s">
         <v>1831</v>
       </c>
-      <c r="R194" s="448"/>
-      <c r="S194" s="449"/>
+      <c r="R194" s="540"/>
+      <c r="S194" s="541"/>
       <c r="T194" s="138" t="s">
         <v>552</v>
       </c>
@@ -26395,7 +26255,7 @@
       <c r="AD194" s="137"/>
       <c r="AE194" s="350"/>
     </row>
-    <row r="195" spans="1:31" ht="60">
+    <row r="195" spans="1:31" ht="67.5">
       <c r="A195" s="32">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -26461,7 +26321,7 @@
       <c r="AD195" s="137"/>
       <c r="AE195" s="350"/>
     </row>
-    <row r="196" spans="1:31" ht="45">
+    <row r="196" spans="1:31" ht="40.5">
       <c r="A196" s="32">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -26507,11 +26367,11 @@
         <v>13</v>
       </c>
       <c r="P196" s="122"/>
-      <c r="Q196" s="447" t="s">
+      <c r="Q196" s="539" t="s">
         <v>1845</v>
       </c>
-      <c r="R196" s="448"/>
-      <c r="S196" s="449"/>
+      <c r="R196" s="540"/>
+      <c r="S196" s="541"/>
       <c r="T196" s="138" t="s">
         <v>561</v>
       </c>
@@ -26527,7 +26387,7 @@
       <c r="AD196" s="137"/>
       <c r="AE196" s="350"/>
     </row>
-    <row r="197" spans="1:31" ht="45">
+    <row r="197" spans="1:31" ht="40.5">
       <c r="A197" s="32">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -26573,11 +26433,11 @@
         <v>13</v>
       </c>
       <c r="P197" s="122"/>
-      <c r="Q197" s="447" t="s">
+      <c r="Q197" s="539" t="s">
         <v>1827</v>
       </c>
-      <c r="R197" s="448"/>
-      <c r="S197" s="449"/>
+      <c r="R197" s="540"/>
+      <c r="S197" s="541"/>
       <c r="T197" s="138" t="s">
         <v>564</v>
       </c>
@@ -26593,7 +26453,7 @@
       <c r="AD197" s="137"/>
       <c r="AE197" s="350"/>
     </row>
-    <row r="198" spans="1:31" ht="30">
+    <row r="198" spans="1:31" ht="27">
       <c r="A198" s="32">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -26639,11 +26499,11 @@
         <v>13</v>
       </c>
       <c r="P198" s="122"/>
-      <c r="Q198" s="447" t="s">
+      <c r="Q198" s="539" t="s">
         <v>1829</v>
       </c>
-      <c r="R198" s="448"/>
-      <c r="S198" s="449"/>
+      <c r="R198" s="540"/>
+      <c r="S198" s="541"/>
       <c r="T198" s="138" t="s">
         <v>567</v>
       </c>
@@ -26659,7 +26519,7 @@
       <c r="AD198" s="137"/>
       <c r="AE198" s="350"/>
     </row>
-    <row r="199" spans="1:31" ht="90">
+    <row r="199" spans="1:31" ht="81">
       <c r="A199" s="32">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -26705,11 +26565,11 @@
         <v>13</v>
       </c>
       <c r="P199" s="122"/>
-      <c r="Q199" s="447" t="s">
+      <c r="Q199" s="539" t="s">
         <v>1828</v>
       </c>
-      <c r="R199" s="448"/>
-      <c r="S199" s="449"/>
+      <c r="R199" s="540"/>
+      <c r="S199" s="541"/>
       <c r="T199" s="138" t="s">
         <v>571</v>
       </c>
@@ -26725,7 +26585,7 @@
       <c r="AD199" s="137"/>
       <c r="AE199" s="350"/>
     </row>
-    <row r="200" spans="1:31" ht="60">
+    <row r="200" spans="1:31" ht="54">
       <c r="A200" s="32">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -26733,7 +26593,7 @@
       <c r="B200" s="119" t="s">
         <v>572</v>
       </c>
-      <c r="C200" s="582" t="s">
+      <c r="C200" s="525" t="s">
         <v>573</v>
       </c>
       <c r="D200" s="65" t="s">
@@ -26791,7 +26651,7 @@
       <c r="AD200" s="211"/>
       <c r="AE200" s="355"/>
     </row>
-    <row r="201" spans="1:31" ht="30">
+    <row r="201" spans="1:31" ht="27">
       <c r="A201" s="32">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -26857,7 +26717,7 @@
       <c r="AD201" s="211"/>
       <c r="AE201" s="355"/>
     </row>
-    <row r="202" spans="1:31" ht="60">
+    <row r="202" spans="1:31" ht="54">
       <c r="A202" s="32">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -26903,11 +26763,11 @@
         <v>13</v>
       </c>
       <c r="P202" s="122"/>
-      <c r="Q202" s="447" t="s">
+      <c r="Q202" s="539" t="s">
         <v>1830</v>
       </c>
-      <c r="R202" s="448"/>
-      <c r="S202" s="449"/>
+      <c r="R202" s="540"/>
+      <c r="S202" s="541"/>
       <c r="T202" s="118" t="s">
         <v>582</v>
       </c>
@@ -26923,7 +26783,7 @@
       <c r="AD202" s="211"/>
       <c r="AE202" s="355"/>
     </row>
-    <row r="203" spans="1:31" ht="60">
+    <row r="203" spans="1:31" ht="54">
       <c r="A203" s="32">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -26989,7 +26849,7 @@
       <c r="AD203" s="211"/>
       <c r="AE203" s="355"/>
     </row>
-    <row r="204" spans="1:31" ht="45">
+    <row r="204" spans="1:31" ht="40.5">
       <c r="A204" s="32">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -27055,7 +26915,7 @@
       <c r="AD204" s="211"/>
       <c r="AE204" s="355"/>
     </row>
-    <row r="205" spans="1:31" ht="45">
+    <row r="205" spans="1:31" ht="40.5">
       <c r="A205" s="32">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -27121,7 +26981,7 @@
       <c r="AD205" s="211"/>
       <c r="AE205" s="355"/>
     </row>
-    <row r="206" spans="1:31" ht="30">
+    <row r="206" spans="1:31" ht="27">
       <c r="A206" s="32">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -27187,7 +27047,7 @@
       <c r="AD206" s="211"/>
       <c r="AE206" s="355"/>
     </row>
-    <row r="207" spans="1:31" ht="60">
+    <row r="207" spans="1:31" ht="54">
       <c r="A207" s="32">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -27253,7 +27113,7 @@
       <c r="AD207" s="211"/>
       <c r="AE207" s="355"/>
     </row>
-    <row r="208" spans="1:31" ht="30">
+    <row r="208" spans="1:31" ht="27">
       <c r="A208" s="32">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -27261,7 +27121,7 @@
       <c r="B208" s="62" t="s">
         <v>603</v>
       </c>
-      <c r="C208" s="582" t="s">
+      <c r="C208" s="525" t="s">
         <v>604</v>
       </c>
       <c r="D208" s="65" t="s">
@@ -27327,7 +27187,7 @@
       <c r="AD208" s="169"/>
       <c r="AE208" s="169"/>
     </row>
-    <row r="209" spans="1:31" ht="75">
+    <row r="209" spans="1:31" ht="67.5">
       <c r="A209" s="32">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -27407,7 +27267,7 @@
       <c r="AD209" s="169"/>
       <c r="AE209" s="169"/>
     </row>
-    <row r="210" spans="1:31" ht="90">
+    <row r="210" spans="1:31" ht="81">
       <c r="A210" s="32">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -27453,41 +27313,41 @@
         <v>13</v>
       </c>
       <c r="P210" s="317"/>
-      <c r="Q210" s="456" t="s">
+      <c r="Q210" s="554" t="s">
         <v>1857</v>
       </c>
-      <c r="R210" s="457"/>
-      <c r="S210" s="458"/>
+      <c r="R210" s="555"/>
+      <c r="S210" s="556"/>
       <c r="T210" s="222" t="s">
         <v>910</v>
       </c>
       <c r="U210" s="174"/>
-      <c r="V210" s="505" t="s">
+      <c r="V210" s="454" t="s">
         <v>132</v>
       </c>
-      <c r="W210" s="506" t="s">
-        <v>13</v>
-      </c>
-      <c r="X210" s="513"/>
-      <c r="Y210" s="514" t="s">
+      <c r="W210" s="455" t="s">
+        <v>13</v>
+      </c>
+      <c r="X210" s="462"/>
+      <c r="Y210" s="463" t="s">
         <v>1051</v>
       </c>
-      <c r="Z210" s="514"/>
-      <c r="AA210" s="514"/>
-      <c r="AB210" s="485" t="s">
+      <c r="Z210" s="463"/>
+      <c r="AA210" s="463"/>
+      <c r="AB210" s="434" t="s">
         <v>1071</v>
       </c>
-      <c r="AC210" s="515" t="s">
+      <c r="AC210" s="464" t="s">
         <v>907</v>
       </c>
-      <c r="AD210" s="515" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE210" s="515" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="1:31" ht="15">
+      <c r="AD210" s="464" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE210" s="464" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:31">
       <c r="A211" s="32">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -27508,32 +27368,32 @@
       <c r="M211" s="220" t="s">
         <v>1861</v>
       </c>
-      <c r="N211" s="465" t="s">
+      <c r="N211" s="417" t="s">
         <v>132</v>
       </c>
-      <c r="O211" s="466" t="s">
-        <v>13</v>
-      </c>
-      <c r="P211" s="467"/>
-      <c r="Q211" s="468" t="s">
+      <c r="O211" s="418" t="s">
+        <v>13</v>
+      </c>
+      <c r="P211" s="419"/>
+      <c r="Q211" s="557" t="s">
         <v>1860</v>
       </c>
-      <c r="R211" s="469"/>
-      <c r="S211" s="470"/>
-      <c r="T211" s="471"/>
-      <c r="U211" s="472"/>
-      <c r="V211" s="511"/>
-      <c r="W211" s="512"/>
-      <c r="X211" s="516"/>
-      <c r="Y211" s="517"/>
-      <c r="Z211" s="517"/>
-      <c r="AA211" s="517"/>
-      <c r="AB211" s="491"/>
-      <c r="AC211" s="492"/>
-      <c r="AD211" s="492"/>
-      <c r="AE211" s="492"/>
-    </row>
-    <row r="212" spans="1:31" ht="75">
+      <c r="R211" s="558"/>
+      <c r="S211" s="559"/>
+      <c r="T211" s="420"/>
+      <c r="U211" s="421"/>
+      <c r="V211" s="460"/>
+      <c r="W211" s="461"/>
+      <c r="X211" s="465"/>
+      <c r="Y211" s="466"/>
+      <c r="Z211" s="466"/>
+      <c r="AA211" s="466"/>
+      <c r="AB211" s="440"/>
+      <c r="AC211" s="441"/>
+      <c r="AD211" s="441"/>
+      <c r="AE211" s="441"/>
+    </row>
+    <row r="212" spans="1:31" ht="67.5">
       <c r="A212" s="32">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -27587,32 +27447,32 @@
         <v>911</v>
       </c>
       <c r="U212" s="174"/>
-      <c r="V212" s="505" t="s">
+      <c r="V212" s="454" t="s">
         <v>132</v>
       </c>
-      <c r="W212" s="506" t="s">
-        <v>13</v>
-      </c>
-      <c r="X212" s="507"/>
-      <c r="Y212" s="508" t="s">
+      <c r="W212" s="455" t="s">
+        <v>13</v>
+      </c>
+      <c r="X212" s="456"/>
+      <c r="Y212" s="457" t="s">
         <v>1050</v>
       </c>
-      <c r="Z212" s="508"/>
-      <c r="AA212" s="508"/>
-      <c r="AB212" s="509" t="s">
+      <c r="Z212" s="457"/>
+      <c r="AA212" s="457"/>
+      <c r="AB212" s="458" t="s">
         <v>1072</v>
       </c>
-      <c r="AC212" s="510" t="s">
+      <c r="AC212" s="459" t="s">
         <v>907</v>
       </c>
-      <c r="AD212" s="510" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE212" s="510" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="213" spans="1:31" ht="15">
+      <c r="AD212" s="459" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE212" s="459" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:31">
       <c r="A213" s="32">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -27630,35 +27490,35 @@
       <c r="L213" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="M213" s="462" t="s">
+      <c r="M213" s="414" t="s">
         <v>1862</v>
       </c>
-      <c r="N213" s="465" t="s">
+      <c r="N213" s="417" t="s">
         <v>132</v>
       </c>
-      <c r="O213" s="466" t="s">
-        <v>13</v>
-      </c>
-      <c r="P213" s="473"/>
-      <c r="Q213" s="474" t="s">
+      <c r="O213" s="418" t="s">
+        <v>13</v>
+      </c>
+      <c r="P213" s="422"/>
+      <c r="Q213" s="423" t="s">
         <v>1859</v>
       </c>
-      <c r="R213" s="473"/>
-      <c r="S213" s="473"/>
-      <c r="T213" s="475"/>
-      <c r="U213" s="472"/>
-      <c r="V213" s="511"/>
-      <c r="W213" s="512"/>
-      <c r="X213" s="504"/>
-      <c r="Y213" s="504"/>
-      <c r="Z213" s="504"/>
-      <c r="AA213" s="504"/>
-      <c r="AB213" s="491"/>
-      <c r="AC213" s="492"/>
-      <c r="AD213" s="492"/>
-      <c r="AE213" s="492"/>
-    </row>
-    <row r="214" spans="1:31" ht="45">
+      <c r="R213" s="422"/>
+      <c r="S213" s="422"/>
+      <c r="T213" s="424"/>
+      <c r="U213" s="421"/>
+      <c r="V213" s="460"/>
+      <c r="W213" s="461"/>
+      <c r="X213" s="453"/>
+      <c r="Y213" s="453"/>
+      <c r="Z213" s="453"/>
+      <c r="AA213" s="453"/>
+      <c r="AB213" s="440"/>
+      <c r="AC213" s="441"/>
+      <c r="AD213" s="441"/>
+      <c r="AE213" s="441"/>
+    </row>
+    <row r="214" spans="1:31" ht="40.5">
       <c r="A214" s="32">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -27711,10 +27571,10 @@
       </c>
       <c r="R214" s="66"/>
       <c r="S214" s="67"/>
-      <c r="T214" s="464" t="s">
+      <c r="T214" s="416" t="s">
         <v>1813</v>
       </c>
-      <c r="U214" s="463"/>
+      <c r="U214" s="415"/>
       <c r="V214" s="178" t="s">
         <v>132</v>
       </c>
@@ -27738,7 +27598,7 @@
       <c r="AD214" s="169"/>
       <c r="AE214" s="169"/>
     </row>
-    <row r="215" spans="1:31" ht="30">
+    <row r="215" spans="1:31" ht="40.5">
       <c r="A215" s="32">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -27818,7 +27678,7 @@
       <c r="AD215" s="169"/>
       <c r="AE215" s="169"/>
     </row>
-    <row r="216" spans="1:31" ht="45">
+    <row r="216" spans="1:31" ht="40.5">
       <c r="A216" s="32">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -27884,7 +27744,7 @@
       <c r="AD216" s="137"/>
       <c r="AE216" s="350"/>
     </row>
-    <row r="217" spans="1:31" ht="45">
+    <row r="217" spans="1:31" ht="40.5">
       <c r="A217" s="32">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -27964,7 +27824,7 @@
       <c r="AD217" s="169"/>
       <c r="AE217" s="169"/>
     </row>
-    <row r="218" spans="1:31" ht="30">
+    <row r="218" spans="1:31" ht="27">
       <c r="A218" s="32">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -28032,7 +27892,7 @@
       <c r="AD218" s="211"/>
       <c r="AE218" s="355"/>
     </row>
-    <row r="219" spans="1:31" ht="30">
+    <row r="219" spans="1:31" ht="40.5">
       <c r="A219" s="32">
         <f t="shared" ref="A219:A284" si="3">ROW()-2</f>
         <v>217</v>
@@ -28098,7 +27958,7 @@
       <c r="AD219" s="211"/>
       <c r="AE219" s="355"/>
     </row>
-    <row r="220" spans="1:31" ht="30">
+    <row r="220" spans="1:31" ht="27">
       <c r="A220" s="32">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -28166,7 +28026,7 @@
       <c r="AD220" s="211"/>
       <c r="AE220" s="355"/>
     </row>
-    <row r="221" spans="1:31" ht="60">
+    <row r="221" spans="1:31" ht="54">
       <c r="A221" s="32">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -28236,7 +28096,7 @@
       <c r="AD221" s="174"/>
       <c r="AE221" s="174"/>
     </row>
-    <row r="222" spans="1:31" ht="60">
+    <row r="222" spans="1:31" ht="54">
       <c r="A222" s="32">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -28244,7 +28104,7 @@
       <c r="B222" s="62" t="s">
         <v>640</v>
       </c>
-      <c r="C222" s="582" t="s">
+      <c r="C222" s="525" t="s">
         <v>641</v>
       </c>
       <c r="D222" s="65" t="s">
@@ -28312,7 +28172,7 @@
       <c r="AD222" s="169"/>
       <c r="AE222" s="169"/>
     </row>
-    <row r="223" spans="1:31" ht="60">
+    <row r="223" spans="1:31" ht="54">
       <c r="A223" s="32">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -28394,7 +28254,7 @@
       </c>
       <c r="AE223" s="169"/>
     </row>
-    <row r="224" spans="1:31" ht="30">
+    <row r="224" spans="1:31" ht="27">
       <c r="A224" s="32">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -28466,7 +28326,7 @@
       </c>
       <c r="AE224" s="169"/>
     </row>
-    <row r="225" spans="1:31" ht="60">
+    <row r="225" spans="1:31" ht="67.5">
       <c r="A225" s="32">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -28548,7 +28408,7 @@
       </c>
       <c r="AE225" s="174"/>
     </row>
-    <row r="226" spans="1:31" ht="45">
+    <row r="226" spans="1:31" ht="40.5">
       <c r="A226" s="32">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -28628,7 +28488,7 @@
       <c r="AD226" s="174"/>
       <c r="AE226" s="174"/>
     </row>
-    <row r="227" spans="1:31" ht="45">
+    <row r="227" spans="1:31" ht="40.5">
       <c r="A227" s="32">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -28710,7 +28570,7 @@
       </c>
       <c r="AE227" s="169"/>
     </row>
-    <row r="228" spans="1:31" ht="195">
+    <row r="228" spans="1:31" ht="175.5">
       <c r="A228" s="32">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -28794,7 +28654,7 @@
       </c>
       <c r="AE228" s="169"/>
     </row>
-    <row r="229" spans="1:31" ht="45">
+    <row r="229" spans="1:31" ht="40.5">
       <c r="A229" s="32">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -28874,7 +28734,7 @@
       <c r="AD229" s="169"/>
       <c r="AE229" s="169"/>
     </row>
-    <row r="230" spans="1:31" ht="45">
+    <row r="230" spans="1:31" ht="40.5">
       <c r="A230" s="32">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -28924,7 +28784,7 @@
       <c r="AD230" s="194"/>
       <c r="AE230" s="194"/>
     </row>
-    <row r="231" spans="1:31" ht="150">
+    <row r="231" spans="1:31" ht="135">
       <c r="A231" s="32">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -28932,7 +28792,7 @@
       <c r="B231" s="62" t="s">
         <v>670</v>
       </c>
-      <c r="C231" s="582" t="s">
+      <c r="C231" s="525" t="s">
         <v>671</v>
       </c>
       <c r="D231" s="65" t="s">
@@ -28990,7 +28850,7 @@
       <c r="AD231" s="137"/>
       <c r="AE231" s="350"/>
     </row>
-    <row r="232" spans="1:31" ht="30">
+    <row r="232" spans="1:31" ht="27">
       <c r="A232" s="32">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -29056,7 +28916,7 @@
       <c r="AD232" s="137"/>
       <c r="AE232" s="350"/>
     </row>
-    <row r="233" spans="1:31" ht="30">
+    <row r="233" spans="1:31" ht="27">
       <c r="A233" s="32">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -29122,7 +28982,7 @@
       <c r="AD233" s="137"/>
       <c r="AE233" s="350"/>
     </row>
-    <row r="234" spans="1:31" ht="150">
+    <row r="234" spans="1:31" ht="135">
       <c r="A234" s="32">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -29188,7 +29048,7 @@
       <c r="AD234" s="137"/>
       <c r="AE234" s="350"/>
     </row>
-    <row r="235" spans="1:31" ht="45">
+    <row r="235" spans="1:31" ht="40.5">
       <c r="A235" s="32">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -29254,7 +29114,7 @@
       <c r="AD235" s="137"/>
       <c r="AE235" s="350"/>
     </row>
-    <row r="236" spans="1:31" ht="150">
+    <row r="236" spans="1:31" ht="135">
       <c r="A236" s="32">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -29318,7 +29178,7 @@
       <c r="AD236" s="137"/>
       <c r="AE236" s="350"/>
     </row>
-    <row r="237" spans="1:31" ht="15">
+    <row r="237" spans="1:31">
       <c r="A237" s="32">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -29380,7 +29240,7 @@
       <c r="AD237" s="137"/>
       <c r="AE237" s="350"/>
     </row>
-    <row r="238" spans="1:31" ht="30">
+    <row r="238" spans="1:31" ht="27">
       <c r="A238" s="32">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -29388,7 +29248,7 @@
       <c r="B238" s="62" t="s">
         <v>698</v>
       </c>
-      <c r="C238" s="582" t="s">
+      <c r="C238" s="525" t="s">
         <v>699</v>
       </c>
       <c r="D238" s="65" t="s">
@@ -29454,7 +29314,7 @@
       <c r="AD238" s="169"/>
       <c r="AE238" s="169"/>
     </row>
-    <row r="239" spans="1:31" ht="30">
+    <row r="239" spans="1:31" ht="27">
       <c r="A239" s="32">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -29536,7 +29396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="240" spans="1:31" ht="150">
+    <row r="240" spans="1:31" ht="135">
       <c r="A240" s="32">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -29588,7 +29448,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="241" spans="1:31" ht="16">
+    <row r="241" spans="1:31" ht="15">
       <c r="A241" s="32">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -29648,7 +29508,7 @@
       <c r="AD241" s="169"/>
       <c r="AE241" s="169"/>
     </row>
-    <row r="242" spans="1:31" ht="30">
+    <row r="242" spans="1:31" ht="27">
       <c r="A242" s="32">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -29708,7 +29568,7 @@
       <c r="AD242" s="169"/>
       <c r="AE242" s="169"/>
     </row>
-    <row r="243" spans="1:31" ht="45">
+    <row r="243" spans="1:31" ht="40.5">
       <c r="A243" s="32">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -29788,7 +29648,7 @@
       <c r="AD243" s="169"/>
       <c r="AE243" s="169"/>
     </row>
-    <row r="244" spans="1:31" ht="45">
+    <row r="244" spans="1:31" ht="40.5">
       <c r="A244" s="32">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -29855,7 +29715,7 @@
       <c r="AD244" s="137"/>
       <c r="AE244" s="350"/>
     </row>
-    <row r="245" spans="1:31" ht="75">
+    <row r="245" spans="1:31" ht="81">
       <c r="A245" s="32">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -29923,7 +29783,7 @@
       <c r="AD245" s="137"/>
       <c r="AE245" s="350"/>
     </row>
-    <row r="246" spans="1:31" ht="105">
+    <row r="246" spans="1:31" ht="108">
       <c r="A246" s="32">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -29993,7 +29853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:31" ht="60">
+    <row r="247" spans="1:31" ht="54">
       <c r="A247" s="32">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -30073,7 +29933,7 @@
       <c r="AD247" s="169"/>
       <c r="AE247" s="169"/>
     </row>
-    <row r="248" spans="1:31" ht="328">
+    <row r="248" spans="1:31" ht="297">
       <c r="A248" s="32">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -30147,51 +30007,51 @@
       <c r="AD248" s="358"/>
       <c r="AE248" s="358"/>
     </row>
-    <row r="249" spans="1:31" ht="30">
+    <row r="249" spans="1:31" ht="27">
       <c r="A249" s="32">
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
-      <c r="B249" s="549"/>
-      <c r="C249" s="550"/>
-      <c r="D249" s="540"/>
-      <c r="E249" s="551"/>
+      <c r="B249" s="495"/>
+      <c r="C249" s="496"/>
+      <c r="D249" s="489"/>
+      <c r="E249" s="497"/>
       <c r="F249" s="7"/>
       <c r="G249" s="7"/>
       <c r="H249" s="7"/>
       <c r="I249" s="14"/>
-      <c r="J249" s="540"/>
+      <c r="J249" s="489"/>
       <c r="K249" s="396"/>
       <c r="L249" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="M249" s="541" t="s">
+      <c r="M249" s="490" t="s">
         <v>1525</v>
       </c>
-      <c r="N249" s="542" t="s">
+      <c r="N249" s="545" t="s">
         <v>971</v>
       </c>
-      <c r="O249" s="543"/>
-      <c r="P249" s="543"/>
-      <c r="Q249" s="543"/>
-      <c r="R249" s="543"/>
-      <c r="S249" s="543"/>
-      <c r="T249" s="543"/>
-      <c r="U249" s="544"/>
-      <c r="V249" s="545" t="s">
+      <c r="O249" s="546"/>
+      <c r="P249" s="546"/>
+      <c r="Q249" s="546"/>
+      <c r="R249" s="546"/>
+      <c r="S249" s="546"/>
+      <c r="T249" s="546"/>
+      <c r="U249" s="547"/>
+      <c r="V249" s="491" t="s">
         <v>132</v>
       </c>
-      <c r="W249" s="546" t="s">
+      <c r="W249" s="492" t="s">
         <v>41</v>
       </c>
-      <c r="X249" s="547" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y249" s="548" t="s">
+      <c r="X249" s="493" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y249" s="494" t="s">
         <v>1045</v>
       </c>
-      <c r="Z249" s="548"/>
-      <c r="AA249" s="548"/>
+      <c r="Z249" s="494"/>
+      <c r="AA249" s="494"/>
       <c r="AB249" s="6" t="s">
         <v>1042</v>
       </c>
@@ -30201,44 +30061,44 @@
       <c r="AD249" s="169"/>
       <c r="AE249" s="169"/>
     </row>
-    <row r="250" spans="1:31" ht="60">
+    <row r="250" spans="1:31" ht="54">
       <c r="A250" s="32">
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
-      <c r="B250" s="552"/>
-      <c r="C250" s="553"/>
-      <c r="D250" s="554"/>
-      <c r="E250" s="555"/>
+      <c r="B250" s="498"/>
+      <c r="C250" s="499"/>
+      <c r="D250" s="500"/>
+      <c r="E250" s="501"/>
       <c r="F250" s="7"/>
       <c r="G250" s="7"/>
       <c r="H250" s="7"/>
       <c r="I250" s="14"/>
-      <c r="J250" s="554"/>
+      <c r="J250" s="500"/>
       <c r="K250" s="396"/>
       <c r="L250" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="M250" s="556" t="s">
+      <c r="M250" s="502" t="s">
         <v>1526</v>
       </c>
-      <c r="N250" s="557" t="s">
+      <c r="N250" s="548" t="s">
         <v>732</v>
       </c>
-      <c r="O250" s="558"/>
-      <c r="P250" s="558"/>
-      <c r="Q250" s="558"/>
-      <c r="R250" s="558"/>
-      <c r="S250" s="558"/>
-      <c r="T250" s="558"/>
-      <c r="U250" s="559"/>
-      <c r="V250" s="560" t="s">
+      <c r="O250" s="549"/>
+      <c r="P250" s="549"/>
+      <c r="Q250" s="549"/>
+      <c r="R250" s="549"/>
+      <c r="S250" s="549"/>
+      <c r="T250" s="549"/>
+      <c r="U250" s="550"/>
+      <c r="V250" s="503" t="s">
         <v>132</v>
       </c>
-      <c r="W250" s="561" t="s">
-        <v>13</v>
-      </c>
-      <c r="X250" s="562"/>
+      <c r="W250" s="504" t="s">
+        <v>13</v>
+      </c>
+      <c r="X250" s="505"/>
       <c r="Y250" s="293" t="s">
         <v>1046</v>
       </c>
@@ -30253,44 +30113,44 @@
       <c r="AD250" s="169"/>
       <c r="AE250" s="169"/>
     </row>
-    <row r="251" spans="1:31" ht="45">
+    <row r="251" spans="1:31" ht="40.5">
       <c r="A251" s="32">
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
-      <c r="B251" s="552"/>
-      <c r="C251" s="553"/>
-      <c r="D251" s="554"/>
-      <c r="E251" s="555"/>
+      <c r="B251" s="498"/>
+      <c r="C251" s="499"/>
+      <c r="D251" s="500"/>
+      <c r="E251" s="501"/>
       <c r="F251" s="7"/>
       <c r="G251" s="7"/>
       <c r="H251" s="7"/>
       <c r="I251" s="14"/>
-      <c r="J251" s="554"/>
+      <c r="J251" s="500"/>
       <c r="K251" s="396"/>
       <c r="L251" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="M251" s="556" t="s">
+      <c r="M251" s="502" t="s">
         <v>1527</v>
       </c>
-      <c r="N251" s="557" t="s">
+      <c r="N251" s="548" t="s">
         <v>972</v>
       </c>
-      <c r="O251" s="558"/>
-      <c r="P251" s="558"/>
-      <c r="Q251" s="558"/>
-      <c r="R251" s="558"/>
-      <c r="S251" s="558"/>
-      <c r="T251" s="558"/>
-      <c r="U251" s="559"/>
-      <c r="V251" s="563" t="s">
+      <c r="O251" s="549"/>
+      <c r="P251" s="549"/>
+      <c r="Q251" s="549"/>
+      <c r="R251" s="549"/>
+      <c r="S251" s="549"/>
+      <c r="T251" s="549"/>
+      <c r="U251" s="550"/>
+      <c r="V251" s="506" t="s">
         <v>132</v>
       </c>
-      <c r="W251" s="562" t="s">
-        <v>13</v>
-      </c>
-      <c r="X251" s="562" t="s">
+      <c r="W251" s="505" t="s">
+        <v>13</v>
+      </c>
+      <c r="X251" s="505" t="s">
         <v>11</v>
       </c>
       <c r="Y251" s="293" t="s">
@@ -30307,18 +30167,18 @@
       <c r="AD251" s="169"/>
       <c r="AE251" s="169"/>
     </row>
-    <row r="252" spans="1:31" ht="90">
+    <row r="252" spans="1:31" ht="81">
       <c r="A252" s="32">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="B252" s="564" t="s">
+      <c r="B252" s="507" t="s">
         <v>734</v>
       </c>
-      <c r="C252" s="565" t="s">
+      <c r="C252" s="508" t="s">
         <v>735</v>
       </c>
-      <c r="D252" s="566" t="s">
+      <c r="D252" s="509" t="s">
         <v>132</v>
       </c>
       <c r="E252" s="403" t="s">
@@ -30334,7 +30194,7 @@
         <v>736</v>
       </c>
       <c r="I252" s="13"/>
-      <c r="J252" s="566" t="s">
+      <c r="J252" s="509" t="s">
         <v>132</v>
       </c>
       <c r="K252" s="32" t="s">
@@ -30343,42 +30203,42 @@
       <c r="L252" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="M252" s="567" t="s">
+      <c r="M252" s="510" t="s">
         <v>1528</v>
       </c>
-      <c r="N252" s="568" t="s">
+      <c r="N252" s="511" t="s">
         <v>132</v>
       </c>
-      <c r="O252" s="569" t="s">
+      <c r="O252" s="512" t="s">
         <v>41</v>
       </c>
-      <c r="P252" s="570" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q252" s="571" t="s">
+      <c r="P252" s="513" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q252" s="514" t="s">
         <v>737</v>
       </c>
-      <c r="R252" s="571"/>
-      <c r="S252" s="572"/>
-      <c r="T252" s="573" t="s">
+      <c r="R252" s="514"/>
+      <c r="S252" s="515"/>
+      <c r="T252" s="516" t="s">
         <v>1818</v>
       </c>
-      <c r="U252" s="574"/>
-      <c r="V252" s="575" t="s">
+      <c r="U252" s="517"/>
+      <c r="V252" s="518" t="s">
         <v>132</v>
       </c>
-      <c r="W252" s="576" t="s">
+      <c r="W252" s="519" t="s">
         <v>41</v>
       </c>
-      <c r="X252" s="577" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y252" s="578" t="s">
+      <c r="X252" s="520" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y252" s="521" t="s">
         <v>737</v>
       </c>
-      <c r="Z252" s="578"/>
-      <c r="AA252" s="578"/>
-      <c r="AB252" s="585" t="s">
+      <c r="Z252" s="521"/>
+      <c r="AA252" s="521"/>
+      <c r="AB252" s="528" t="s">
         <v>1053</v>
       </c>
       <c r="AC252" s="363" t="s">
@@ -30387,7 +30247,7 @@
       <c r="AD252" s="364"/>
       <c r="AE252" s="365"/>
     </row>
-    <row r="253" spans="1:31" ht="107" customHeight="1">
+    <row r="253" spans="1:31" ht="107.1" customHeight="1">
       <c r="A253" s="32">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -30448,7 +30308,7 @@
       </c>
       <c r="Z253" s="244"/>
       <c r="AA253" s="337"/>
-      <c r="AB253" s="585" t="s">
+      <c r="AB253" s="528" t="s">
         <v>1054</v>
       </c>
       <c r="AC253" s="363" t="s">
@@ -30457,7 +30317,7 @@
       <c r="AD253" s="364"/>
       <c r="AE253" s="365"/>
     </row>
-    <row r="254" spans="1:31" ht="60">
+    <row r="254" spans="1:31" ht="54">
       <c r="A254" s="32">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -30527,7 +30387,7 @@
       <c r="AD254" s="348"/>
       <c r="AE254" s="348"/>
     </row>
-    <row r="255" spans="1:31" ht="15">
+    <row r="255" spans="1:31">
       <c r="A255" s="32">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -30583,7 +30443,7 @@
       <c r="AD255" s="174"/>
       <c r="AE255" s="174"/>
     </row>
-    <row r="256" spans="1:31" ht="346" customHeight="1">
+    <row r="256" spans="1:31" ht="345.95" customHeight="1">
       <c r="A256" s="32">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -30610,16 +30470,16 @@
       <c r="M256" s="385" t="s">
         <v>1531</v>
       </c>
-      <c r="N256" s="427" t="s">
+      <c r="N256" s="551" t="s">
         <v>1099</v>
       </c>
-      <c r="O256" s="428"/>
-      <c r="P256" s="428"/>
-      <c r="Q256" s="428"/>
-      <c r="R256" s="428"/>
-      <c r="S256" s="428"/>
-      <c r="T256" s="428"/>
-      <c r="U256" s="429"/>
+      <c r="O256" s="552"/>
+      <c r="P256" s="552"/>
+      <c r="Q256" s="552"/>
+      <c r="R256" s="552"/>
+      <c r="S256" s="552"/>
+      <c r="T256" s="552"/>
+      <c r="U256" s="553"/>
       <c r="V256" s="155" t="s">
         <v>163</v>
       </c>
@@ -30645,7 +30505,7 @@
       <c r="AD256" s="174"/>
       <c r="AE256" s="174"/>
     </row>
-    <row r="257" spans="1:31" ht="45">
+    <row r="257" spans="1:31" ht="40.5">
       <c r="A257" s="32">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -30684,16 +30544,16 @@
       <c r="M257" s="385" t="s">
         <v>1532</v>
       </c>
-      <c r="N257" s="427" t="s">
+      <c r="N257" s="551" t="s">
         <v>1094</v>
       </c>
-      <c r="O257" s="428"/>
-      <c r="P257" s="428"/>
-      <c r="Q257" s="428"/>
-      <c r="R257" s="428"/>
-      <c r="S257" s="428"/>
-      <c r="T257" s="428"/>
-      <c r="U257" s="429"/>
+      <c r="O257" s="552"/>
+      <c r="P257" s="552"/>
+      <c r="Q257" s="552"/>
+      <c r="R257" s="552"/>
+      <c r="S257" s="552"/>
+      <c r="T257" s="552"/>
+      <c r="U257" s="553"/>
       <c r="V257" s="155" t="s">
         <v>163</v>
       </c>
@@ -30719,7 +30579,7 @@
       <c r="AD257" s="174"/>
       <c r="AE257" s="174"/>
     </row>
-    <row r="258" spans="1:31" ht="30">
+    <row r="258" spans="1:31" ht="27">
       <c r="A258" s="32">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -30748,16 +30608,16 @@
       <c r="M258" s="385" t="s">
         <v>1533</v>
       </c>
-      <c r="N258" s="427" t="s">
+      <c r="N258" s="551" t="s">
         <v>1095</v>
       </c>
-      <c r="O258" s="428"/>
-      <c r="P258" s="428"/>
-      <c r="Q258" s="428"/>
-      <c r="R258" s="428"/>
-      <c r="S258" s="428"/>
-      <c r="T258" s="428"/>
-      <c r="U258" s="429"/>
+      <c r="O258" s="552"/>
+      <c r="P258" s="552"/>
+      <c r="Q258" s="552"/>
+      <c r="R258" s="552"/>
+      <c r="S258" s="552"/>
+      <c r="T258" s="552"/>
+      <c r="U258" s="553"/>
       <c r="V258" s="155" t="s">
         <v>163</v>
       </c>
@@ -30783,7 +30643,7 @@
       <c r="AD258" s="174"/>
       <c r="AE258" s="174"/>
     </row>
-    <row r="259" spans="1:31" ht="75">
+    <row r="259" spans="1:31" ht="67.5">
       <c r="A259" s="32">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -30831,7 +30691,7 @@
       <c r="AD259" s="360"/>
       <c r="AE259" s="360"/>
     </row>
-    <row r="260" spans="1:31" ht="135">
+    <row r="260" spans="1:31" ht="121.5">
       <c r="A260" s="32">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -30909,7 +30769,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="261" spans="1:31" ht="30">
+    <row r="261" spans="1:31" ht="27">
       <c r="A261" s="32">
         <f t="shared" si="3"/>
         <v>259</v>
@@ -30957,7 +30817,7 @@
       <c r="AD261" s="348"/>
       <c r="AE261" s="348"/>
     </row>
-    <row r="262" spans="1:31" ht="30">
+    <row r="262" spans="1:31" ht="27">
       <c r="A262" s="32">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -31017,7 +30877,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="263" spans="1:31" ht="75">
+    <row r="263" spans="1:31" ht="67.5">
       <c r="A263" s="32">
         <f t="shared" si="3"/>
         <v>261</v>
@@ -31085,7 +30945,7 @@
       <c r="AD263" s="167"/>
       <c r="AE263" s="87"/>
     </row>
-    <row r="264" spans="1:31" ht="45">
+    <row r="264" spans="1:31" ht="40.5">
       <c r="A264" s="32">
         <f t="shared" si="3"/>
         <v>262</v>
@@ -31163,7 +31023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:31" ht="30">
+    <row r="265" spans="1:31" ht="27">
       <c r="A265" s="32">
         <f t="shared" si="3"/>
         <v>263</v>
@@ -31243,7 +31103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:31" ht="30">
+    <row r="266" spans="1:31" ht="27">
       <c r="A266" s="32">
         <f t="shared" si="3"/>
         <v>264</v>
@@ -31323,7 +31183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:31" ht="45">
+    <row r="267" spans="1:31" ht="54">
       <c r="A267" s="32">
         <f t="shared" si="3"/>
         <v>265</v>
@@ -31401,7 +31261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:31" ht="90">
+    <row r="268" spans="1:31" ht="81">
       <c r="A268" s="32">
         <f t="shared" si="3"/>
         <v>266</v>
@@ -31456,32 +31316,32 @@
         <v>1122</v>
       </c>
       <c r="U268" s="72"/>
-      <c r="V268" s="493" t="s">
+      <c r="V268" s="442" t="s">
         <v>163</v>
       </c>
-      <c r="W268" s="494" t="s">
+      <c r="W268" s="443" t="s">
         <v>41</v>
       </c>
-      <c r="X268" s="495"/>
-      <c r="Y268" s="496"/>
-      <c r="Z268" s="496" t="s">
+      <c r="X268" s="444"/>
+      <c r="Y268" s="445"/>
+      <c r="Z268" s="445" t="s">
         <v>1027</v>
       </c>
-      <c r="AA268" s="496"/>
-      <c r="AB268" s="485" t="s">
+      <c r="AA268" s="445"/>
+      <c r="AB268" s="434" t="s">
         <v>1067</v>
       </c>
-      <c r="AC268" s="486" t="s">
+      <c r="AC268" s="435" t="s">
         <v>16</v>
       </c>
-      <c r="AD268" s="486" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE268" s="486" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="269" spans="1:31" ht="15">
+      <c r="AD268" s="435" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE268" s="435" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:31">
       <c r="A269" s="32">
         <f t="shared" si="3"/>
         <v>267</v>
@@ -31516,18 +31376,18 @@
       <c r="S269" s="238"/>
       <c r="T269" s="239"/>
       <c r="U269" s="95"/>
-      <c r="V269" s="497"/>
-      <c r="W269" s="498"/>
-      <c r="X269" s="499"/>
-      <c r="Y269" s="500"/>
-      <c r="Z269" s="500"/>
-      <c r="AA269" s="500"/>
-      <c r="AB269" s="501"/>
-      <c r="AC269" s="502"/>
-      <c r="AD269" s="502"/>
-      <c r="AE269" s="503"/>
-    </row>
-    <row r="270" spans="1:31" ht="105">
+      <c r="V269" s="446"/>
+      <c r="W269" s="447"/>
+      <c r="X269" s="448"/>
+      <c r="Y269" s="449"/>
+      <c r="Z269" s="449"/>
+      <c r="AA269" s="449"/>
+      <c r="AB269" s="450"/>
+      <c r="AC269" s="451"/>
+      <c r="AD269" s="451"/>
+      <c r="AE269" s="452"/>
+    </row>
+    <row r="270" spans="1:31" ht="94.5">
       <c r="A270" s="32">
         <f t="shared" si="3"/>
         <v>268</v>
@@ -31593,7 +31453,7 @@
       <c r="AD270" s="137"/>
       <c r="AE270" s="350"/>
     </row>
-    <row r="271" spans="1:31" ht="60">
+    <row r="271" spans="1:31" ht="54">
       <c r="A271" s="32">
         <f t="shared" si="3"/>
         <v>269</v>
@@ -31659,7 +31519,7 @@
       <c r="AD271" s="137"/>
       <c r="AE271" s="350"/>
     </row>
-    <row r="272" spans="1:31" ht="30">
+    <row r="272" spans="1:31" ht="27">
       <c r="A272" s="32">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -31739,7 +31599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:31" ht="30">
+    <row r="273" spans="1:31" ht="27">
       <c r="A273" s="32">
         <f t="shared" si="3"/>
         <v>271</v>
@@ -31819,7 +31679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:31" ht="60">
+    <row r="274" spans="1:31" ht="54">
       <c r="A274" s="32">
         <f t="shared" si="3"/>
         <v>272</v>
@@ -31897,7 +31757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:31" ht="75">
+    <row r="275" spans="1:31" ht="67.5">
       <c r="A275" s="32">
         <f t="shared" si="3"/>
         <v>273</v>
@@ -31952,32 +31812,32 @@
         <v>1123</v>
       </c>
       <c r="U275" s="72"/>
-      <c r="V275" s="481" t="s">
+      <c r="V275" s="430" t="s">
         <v>163</v>
       </c>
-      <c r="W275" s="482" t="s">
+      <c r="W275" s="431" t="s">
         <v>41</v>
       </c>
-      <c r="X275" s="483"/>
-      <c r="Y275" s="484"/>
-      <c r="Z275" s="484" t="s">
+      <c r="X275" s="432"/>
+      <c r="Y275" s="433"/>
+      <c r="Z275" s="433" t="s">
         <v>794</v>
       </c>
-      <c r="AA275" s="484"/>
-      <c r="AB275" s="485" t="s">
+      <c r="AA275" s="433"/>
+      <c r="AB275" s="434" t="s">
         <v>1068</v>
       </c>
-      <c r="AC275" s="486" t="s">
+      <c r="AC275" s="435" t="s">
         <v>16</v>
       </c>
-      <c r="AD275" s="486" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE275" s="486" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="276" spans="1:31" ht="15">
+      <c r="AD275" s="435" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE275" s="435" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:31">
       <c r="A276" s="32">
         <f t="shared" si="3"/>
         <v>274</v>
@@ -31996,32 +31856,32 @@
         <v>547</v>
       </c>
       <c r="M276" s="113"/>
-      <c r="N276" s="476" t="s">
+      <c r="N276" s="425" t="s">
         <v>163</v>
       </c>
-      <c r="O276" s="477" t="s">
+      <c r="O276" s="426" t="s">
         <v>41</v>
       </c>
-      <c r="P276" s="478"/>
-      <c r="Q276" s="479"/>
-      <c r="R276" s="479" t="s">
+      <c r="P276" s="427"/>
+      <c r="Q276" s="428"/>
+      <c r="R276" s="428" t="s">
         <v>1864</v>
       </c>
-      <c r="S276" s="480"/>
+      <c r="S276" s="429"/>
       <c r="T276" s="239"/>
       <c r="U276" s="95"/>
-      <c r="V276" s="487"/>
-      <c r="W276" s="488"/>
-      <c r="X276" s="489"/>
-      <c r="Y276" s="490"/>
-      <c r="Z276" s="490"/>
-      <c r="AA276" s="490"/>
-      <c r="AB276" s="491"/>
-      <c r="AC276" s="492"/>
-      <c r="AD276" s="492"/>
-      <c r="AE276" s="492"/>
-    </row>
-    <row r="277" spans="1:31" ht="105">
+      <c r="V276" s="436"/>
+      <c r="W276" s="437"/>
+      <c r="X276" s="438"/>
+      <c r="Y276" s="439"/>
+      <c r="Z276" s="439"/>
+      <c r="AA276" s="439"/>
+      <c r="AB276" s="440"/>
+      <c r="AC276" s="441"/>
+      <c r="AD276" s="441"/>
+      <c r="AE276" s="441"/>
+    </row>
+    <row r="277" spans="1:31" ht="94.5">
       <c r="A277" s="32">
         <f t="shared" si="3"/>
         <v>275</v>
@@ -32087,7 +31947,7 @@
       <c r="AD277" s="211"/>
       <c r="AE277" s="355"/>
     </row>
-    <row r="278" spans="1:31" ht="60">
+    <row r="278" spans="1:31" ht="54">
       <c r="A278" s="32">
         <f t="shared" si="3"/>
         <v>276</v>
@@ -32153,7 +32013,7 @@
       <c r="AD278" s="211"/>
       <c r="AE278" s="355"/>
     </row>
-    <row r="279" spans="1:31" ht="30">
+    <row r="279" spans="1:31" ht="27">
       <c r="A279" s="32">
         <f t="shared" si="3"/>
         <v>277</v>
@@ -32233,7 +32093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:31" ht="30">
+    <row r="280" spans="1:31" ht="27">
       <c r="A280" s="32">
         <f t="shared" si="3"/>
         <v>278</v>
@@ -32313,7 +32173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:31" ht="60">
+    <row r="281" spans="1:31" ht="54">
       <c r="A281" s="32">
         <f t="shared" si="3"/>
         <v>279</v>
@@ -32391,7 +32251,7 @@
       <c r="AD281" s="169"/>
       <c r="AE281" s="169"/>
     </row>
-    <row r="282" spans="1:31" ht="180">
+    <row r="282" spans="1:31" ht="162">
       <c r="A282" s="32">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -32450,28 +32310,28 @@
         <v>1821</v>
       </c>
       <c r="U282" s="72"/>
-      <c r="V282" s="518" t="s">
+      <c r="V282" s="467" t="s">
         <v>163</v>
       </c>
       <c r="W282" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="X282" s="519"/>
-      <c r="Y282" s="520"/>
-      <c r="Z282" s="520" t="s">
+      <c r="X282" s="468"/>
+      <c r="Y282" s="469"/>
+      <c r="Z282" s="469" t="s">
         <v>1055</v>
       </c>
-      <c r="AA282" s="520"/>
-      <c r="AB282" s="521" t="s">
+      <c r="AA282" s="469"/>
+      <c r="AB282" s="470" t="s">
         <v>1079</v>
       </c>
-      <c r="AC282" s="522" t="s">
+      <c r="AC282" s="471" t="s">
         <v>43</v>
       </c>
-      <c r="AD282" s="522"/>
-      <c r="AE282" s="522"/>
-    </row>
-    <row r="283" spans="1:31" ht="90">
+      <c r="AD282" s="471"/>
+      <c r="AE282" s="471"/>
+    </row>
+    <row r="283" spans="1:31" ht="81">
       <c r="A283" s="32">
         <f t="shared" si="3"/>
         <v>281</v>
@@ -32508,18 +32368,18 @@
         <v>1117</v>
       </c>
       <c r="U283" s="292"/>
-      <c r="V283" s="523"/>
-      <c r="W283" s="524"/>
-      <c r="X283" s="525"/>
-      <c r="Y283" s="526"/>
-      <c r="Z283" s="526"/>
-      <c r="AA283" s="526"/>
-      <c r="AB283" s="527"/>
-      <c r="AC283" s="528"/>
-      <c r="AD283" s="528"/>
-      <c r="AE283" s="529"/>
-    </row>
-    <row r="284" spans="1:31" ht="120">
+      <c r="V283" s="472"/>
+      <c r="W283" s="473"/>
+      <c r="X283" s="474"/>
+      <c r="Y283" s="475"/>
+      <c r="Z283" s="475"/>
+      <c r="AA283" s="475"/>
+      <c r="AB283" s="476"/>
+      <c r="AC283" s="477"/>
+      <c r="AD283" s="477"/>
+      <c r="AE283" s="478"/>
+    </row>
+    <row r="284" spans="1:31" ht="108">
       <c r="A284" s="32">
         <f t="shared" si="3"/>
         <v>282</v>
@@ -32585,7 +32445,7 @@
       <c r="AD284" s="137"/>
       <c r="AE284" s="350"/>
     </row>
-    <row r="285" spans="1:31" ht="90">
+    <row r="285" spans="1:31" ht="81">
       <c r="A285" s="32">
         <f t="shared" ref="A285:A307" si="4">ROW()-2</f>
         <v>283</v>
@@ -32651,7 +32511,7 @@
       <c r="AD285" s="137"/>
       <c r="AE285" s="350"/>
     </row>
-    <row r="286" spans="1:31" ht="105">
+    <row r="286" spans="1:31" ht="94.5">
       <c r="A286" s="32">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -32717,7 +32577,7 @@
       <c r="AD286" s="306"/>
       <c r="AE286" s="306"/>
     </row>
-    <row r="287" spans="1:31" ht="60">
+    <row r="287" spans="1:31" ht="54">
       <c r="A287" s="32">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -32783,7 +32643,7 @@
       <c r="AD287" s="137"/>
       <c r="AE287" s="350"/>
     </row>
-    <row r="288" spans="1:31" ht="60" hidden="1">
+    <row r="288" spans="1:31" ht="54" hidden="1">
       <c r="A288" s="32">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -32863,7 +32723,7 @@
       <c r="AD288" s="169"/>
       <c r="AE288" s="169"/>
     </row>
-    <row r="289" spans="1:31" ht="195">
+    <row r="289" spans="1:31" ht="175.5">
       <c r="A289" s="32">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -32951,7 +32811,7 @@
       </c>
       <c r="AE289" s="169"/>
     </row>
-    <row r="290" spans="1:31" ht="45">
+    <row r="290" spans="1:31" ht="40.5">
       <c r="A290" s="32">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -33035,7 +32895,7 @@
       <c r="AD290" s="169"/>
       <c r="AE290" s="169"/>
     </row>
-    <row r="291" spans="1:31" ht="30">
+    <row r="291" spans="1:31" ht="27">
       <c r="A291" s="32">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -33109,7 +32969,7 @@
       <c r="AD291" s="169"/>
       <c r="AE291" s="169"/>
     </row>
-    <row r="292" spans="1:31" s="3" customFormat="1" ht="30">
+    <row r="292" spans="1:31" s="3" customFormat="1" ht="27">
       <c r="A292" s="32">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -33133,7 +32993,7 @@
       <c r="J292" s="122"/>
       <c r="K292" s="19"/>
       <c r="L292" s="12"/>
-      <c r="M292" s="530"/>
+      <c r="M292" s="479"/>
       <c r="N292" s="231"/>
       <c r="O292" s="53"/>
       <c r="P292" s="54"/>
@@ -33153,7 +33013,7 @@
       <c r="AD292" s="348"/>
       <c r="AE292" s="348"/>
     </row>
-    <row r="293" spans="1:31" s="3" customFormat="1" ht="15">
+    <row r="293" spans="1:31" s="3" customFormat="1">
       <c r="A293" s="32">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -33177,7 +33037,7 @@
       <c r="J293" s="122"/>
       <c r="K293" s="19"/>
       <c r="L293" s="12"/>
-      <c r="M293" s="530"/>
+      <c r="M293" s="479"/>
       <c r="N293" s="231"/>
       <c r="O293" s="53"/>
       <c r="P293" s="54"/>
@@ -33197,7 +33057,7 @@
       <c r="AD293" s="348"/>
       <c r="AE293" s="348"/>
     </row>
-    <row r="294" spans="1:31" ht="45">
+    <row r="294" spans="1:31" ht="40.5">
       <c r="A294" s="32">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -33275,7 +33135,7 @@
       <c r="AD294" s="169"/>
       <c r="AE294" s="169"/>
     </row>
-    <row r="295" spans="1:31" ht="16">
+    <row r="295" spans="1:31" ht="15">
       <c r="A295" s="32">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -33359,7 +33219,7 @@
       <c r="AD295" s="169"/>
       <c r="AE295" s="169"/>
     </row>
-    <row r="296" spans="1:31" ht="16">
+    <row r="296" spans="1:31" ht="15">
       <c r="A296" s="32">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -33445,7 +33305,7 @@
       </c>
       <c r="AE296" s="169"/>
     </row>
-    <row r="297" spans="1:31" ht="30">
+    <row r="297" spans="1:31" ht="27">
       <c r="A297" s="32">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -33513,7 +33373,7 @@
       <c r="AD297" s="137"/>
       <c r="AE297" s="350"/>
     </row>
-    <row r="298" spans="1:31" ht="30">
+    <row r="298" spans="1:31" ht="27">
       <c r="A298" s="32">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -33581,7 +33441,7 @@
       <c r="AD298" s="137"/>
       <c r="AE298" s="350"/>
     </row>
-    <row r="299" spans="1:31" ht="30">
+    <row r="299" spans="1:31" ht="27">
       <c r="A299" s="32">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -33667,7 +33527,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="300" spans="1:31" ht="60">
+    <row r="300" spans="1:31" ht="54">
       <c r="A300" s="32">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -33735,7 +33595,7 @@
       <c r="AD300" s="137"/>
       <c r="AE300" s="350"/>
     </row>
-    <row r="301" spans="1:31" ht="75">
+    <row r="301" spans="1:31" ht="67.5">
       <c r="A301" s="32">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -33803,7 +33663,7 @@
       <c r="AD301" s="137"/>
       <c r="AE301" s="350"/>
     </row>
-    <row r="302" spans="1:31" ht="60">
+    <row r="302" spans="1:31" ht="54">
       <c r="A302" s="32">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -33867,7 +33727,7 @@
       <c r="AD302" s="137"/>
       <c r="AE302" s="350"/>
     </row>
-    <row r="303" spans="1:31" ht="15">
+    <row r="303" spans="1:31">
       <c r="A303" s="32">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -33931,7 +33791,7 @@
       <c r="AD303" s="137"/>
       <c r="AE303" s="350"/>
     </row>
-    <row r="304" spans="1:31" ht="30">
+    <row r="304" spans="1:31" ht="27">
       <c r="A304" s="32">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -33997,7 +33857,7 @@
       <c r="AD304" s="137"/>
       <c r="AE304" s="350"/>
     </row>
-    <row r="305" spans="1:37" ht="45">
+    <row r="305" spans="1:37" ht="40.5">
       <c r="A305" s="32">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -34063,7 +33923,7 @@
       <c r="AD305" s="137"/>
       <c r="AE305" s="350"/>
     </row>
-    <row r="306" spans="1:37" ht="30">
+    <row r="306" spans="1:37" ht="27">
       <c r="A306" s="32">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -34129,7 +33989,7 @@
       <c r="AD306" s="369"/>
       <c r="AE306" s="370"/>
     </row>
-    <row r="307" spans="1:37" ht="30">
+    <row r="307" spans="1:37" ht="27">
       <c r="A307" s="32">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -34231,14 +34091,14 @@
     <row r="309" spans="1:37">
       <c r="E309" s="309"/>
       <c r="K309" s="309"/>
-      <c r="M309" s="439" t="s">
+      <c r="M309" s="576" t="s">
         <v>1134</v>
       </c>
-      <c r="N309" s="440"/>
-      <c r="O309" s="440"/>
-      <c r="P309" s="440"/>
-      <c r="Q309" s="440"/>
-      <c r="R309" s="441"/>
+      <c r="N309" s="577"/>
+      <c r="O309" s="577"/>
+      <c r="P309" s="577"/>
+      <c r="Q309" s="577"/>
+      <c r="R309" s="578"/>
       <c r="S309" s="156" t="s">
         <v>43</v>
       </c>
@@ -34253,17 +34113,17 @@
       <c r="Z309" s="319"/>
       <c r="AA309" s="413"/>
     </row>
-    <row r="310" spans="1:37" ht="15">
+    <row r="310" spans="1:37">
       <c r="E310" s="309"/>
       <c r="K310" s="309"/>
-      <c r="M310" s="442" t="s">
+      <c r="M310" s="579" t="s">
         <v>1135</v>
       </c>
-      <c r="N310" s="443"/>
-      <c r="O310" s="443"/>
-      <c r="P310" s="443"/>
-      <c r="Q310" s="443"/>
-      <c r="R310" s="444"/>
+      <c r="N310" s="580"/>
+      <c r="O310" s="580"/>
+      <c r="P310" s="580"/>
+      <c r="Q310" s="580"/>
+      <c r="R310" s="581"/>
       <c r="S310" s="321" t="s">
         <v>16</v>
       </c>
@@ -34281,14 +34141,14 @@
     <row r="311" spans="1:37">
       <c r="E311" s="309"/>
       <c r="K311" s="309"/>
-      <c r="M311" s="431" t="s">
+      <c r="M311" s="566" t="s">
         <v>1132</v>
       </c>
-      <c r="N311" s="432"/>
-      <c r="O311" s="432"/>
-      <c r="P311" s="432"/>
-      <c r="Q311" s="432"/>
-      <c r="R311" s="445"/>
+      <c r="N311" s="567"/>
+      <c r="O311" s="567"/>
+      <c r="P311" s="567"/>
+      <c r="Q311" s="567"/>
+      <c r="R311" s="582"/>
       <c r="S311" s="156" t="s">
         <v>57</v>
       </c>
@@ -34306,14 +34166,14 @@
     <row r="312" spans="1:37">
       <c r="E312" s="309"/>
       <c r="K312" s="309"/>
-      <c r="M312" s="436" t="s">
+      <c r="M312" s="572" t="s">
         <v>1133</v>
       </c>
-      <c r="N312" s="415"/>
-      <c r="O312" s="415"/>
-      <c r="P312" s="415"/>
-      <c r="Q312" s="415"/>
-      <c r="R312" s="446"/>
+      <c r="N312" s="573"/>
+      <c r="O312" s="573"/>
+      <c r="P312" s="573"/>
+      <c r="Q312" s="573"/>
+      <c r="R312" s="583"/>
       <c r="S312" s="156" t="s">
         <v>97</v>
       </c>
@@ -34328,17 +34188,17 @@
       <c r="Z312" s="319"/>
       <c r="AA312" s="413"/>
     </row>
-    <row r="313" spans="1:37" ht="15">
+    <row r="313" spans="1:37">
       <c r="E313" s="309"/>
       <c r="K313" s="309"/>
-      <c r="M313" s="419" t="s">
+      <c r="M313" s="563" t="s">
         <v>1066</v>
       </c>
-      <c r="N313" s="420"/>
-      <c r="O313" s="420"/>
-      <c r="P313" s="420"/>
-      <c r="Q313" s="420"/>
-      <c r="R313" s="438"/>
+      <c r="N313" s="564"/>
+      <c r="O313" s="564"/>
+      <c r="P313" s="564"/>
+      <c r="Q313" s="564"/>
+      <c r="R313" s="575"/>
       <c r="S313" s="321" t="s">
         <v>43</v>
       </c>
@@ -34356,14 +34216,14 @@
     <row r="314" spans="1:37">
       <c r="E314" s="309"/>
       <c r="K314" s="309"/>
-      <c r="M314" s="419" t="s">
+      <c r="M314" s="563" t="s">
         <v>1062</v>
       </c>
-      <c r="N314" s="420"/>
-      <c r="O314" s="420"/>
-      <c r="P314" s="420"/>
-      <c r="Q314" s="420"/>
-      <c r="R314" s="438"/>
+      <c r="N314" s="564"/>
+      <c r="O314" s="564"/>
+      <c r="P314" s="564"/>
+      <c r="Q314" s="564"/>
+      <c r="R314" s="575"/>
       <c r="S314" s="175" t="s">
         <v>81</v>
       </c>
@@ -34378,17 +34238,17 @@
       <c r="Z314" s="319"/>
       <c r="AA314" s="413"/>
     </row>
-    <row r="315" spans="1:37" ht="15">
+    <row r="315" spans="1:37">
       <c r="E315" s="309"/>
       <c r="K315" s="309"/>
-      <c r="M315" s="431" t="s">
+      <c r="M315" s="566" t="s">
         <v>919</v>
       </c>
-      <c r="N315" s="432"/>
-      <c r="O315" s="432"/>
-      <c r="P315" s="432"/>
-      <c r="Q315" s="432"/>
-      <c r="R315" s="433"/>
+      <c r="N315" s="567"/>
+      <c r="O315" s="567"/>
+      <c r="P315" s="567"/>
+      <c r="Q315" s="567"/>
+      <c r="R315" s="568"/>
       <c r="S315" s="322" t="s">
         <v>915</v>
       </c>
@@ -34406,15 +34266,15 @@
       <c r="AD315" s="313"/>
       <c r="AE315" s="313"/>
     </row>
-    <row r="316" spans="1:37" ht="15">
+    <row r="316" spans="1:37">
       <c r="E316" s="309"/>
       <c r="K316" s="309"/>
-      <c r="M316" s="434"/>
-      <c r="N316" s="414"/>
-      <c r="O316" s="414"/>
-      <c r="P316" s="414"/>
-      <c r="Q316" s="414"/>
-      <c r="R316" s="435"/>
+      <c r="M316" s="569"/>
+      <c r="N316" s="570"/>
+      <c r="O316" s="570"/>
+      <c r="P316" s="570"/>
+      <c r="Q316" s="570"/>
+      <c r="R316" s="571"/>
       <c r="S316" s="325" t="s">
         <v>916</v>
       </c>
@@ -34432,15 +34292,15 @@
       <c r="AD316" s="313"/>
       <c r="AE316" s="313"/>
     </row>
-    <row r="317" spans="1:37" ht="15">
+    <row r="317" spans="1:37">
       <c r="E317" s="309"/>
       <c r="K317" s="309"/>
-      <c r="M317" s="434"/>
-      <c r="N317" s="414"/>
-      <c r="O317" s="414"/>
-      <c r="P317" s="414"/>
-      <c r="Q317" s="414"/>
-      <c r="R317" s="435"/>
+      <c r="M317" s="569"/>
+      <c r="N317" s="570"/>
+      <c r="O317" s="570"/>
+      <c r="P317" s="570"/>
+      <c r="Q317" s="570"/>
+      <c r="R317" s="571"/>
       <c r="S317" s="326" t="s">
         <v>917</v>
       </c>
@@ -34458,15 +34318,15 @@
       <c r="AD317" s="313"/>
       <c r="AE317" s="313"/>
     </row>
-    <row r="318" spans="1:37" ht="15">
+    <row r="318" spans="1:37">
       <c r="E318" s="309"/>
       <c r="K318" s="309"/>
-      <c r="M318" s="436"/>
-      <c r="N318" s="415"/>
-      <c r="O318" s="415"/>
-      <c r="P318" s="415"/>
-      <c r="Q318" s="415"/>
-      <c r="R318" s="437"/>
+      <c r="M318" s="572"/>
+      <c r="N318" s="573"/>
+      <c r="O318" s="573"/>
+      <c r="P318" s="573"/>
+      <c r="Q318" s="573"/>
+      <c r="R318" s="574"/>
       <c r="S318" s="327" t="s">
         <v>918</v>
       </c>
@@ -34484,17 +34344,17 @@
       <c r="AD318" s="313"/>
       <c r="AE318" s="313"/>
     </row>
-    <row r="319" spans="1:37" ht="15">
+    <row r="319" spans="1:37">
       <c r="E319" s="309"/>
       <c r="K319" s="309"/>
-      <c r="M319" s="419" t="s">
+      <c r="M319" s="563" t="s">
         <v>1065</v>
       </c>
-      <c r="N319" s="420"/>
-      <c r="O319" s="420"/>
-      <c r="P319" s="420"/>
-      <c r="Q319" s="420"/>
-      <c r="R319" s="430"/>
+      <c r="N319" s="564"/>
+      <c r="O319" s="564"/>
+      <c r="P319" s="564"/>
+      <c r="Q319" s="564"/>
+      <c r="R319" s="565"/>
       <c r="S319" s="7" t="s">
         <v>1063</v>
       </c>
@@ -41839,11 +41699,23 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="39">
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="Y91:AA91"/>
-    <mergeCell ref="Y132:AA132"/>
-    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N257:U257"/>
+    <mergeCell ref="N258:U258"/>
+    <mergeCell ref="M319:R319"/>
+    <mergeCell ref="M315:R318"/>
+    <mergeCell ref="M313:R313"/>
+    <mergeCell ref="M314:R314"/>
+    <mergeCell ref="M309:R309"/>
+    <mergeCell ref="M310:R310"/>
+    <mergeCell ref="M311:R311"/>
+    <mergeCell ref="M312:R312"/>
     <mergeCell ref="N23:U23"/>
     <mergeCell ref="N249:U249"/>
     <mergeCell ref="N251:U251"/>
@@ -41860,1398 +41732,1386 @@
     <mergeCell ref="Q132:S132"/>
     <mergeCell ref="Q91:S91"/>
     <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y91:AA91"/>
+    <mergeCell ref="Y132:AA132"/>
+    <mergeCell ref="Q40:S40"/>
     <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="N257:U257"/>
-    <mergeCell ref="N258:U258"/>
-    <mergeCell ref="M319:R319"/>
-    <mergeCell ref="M315:R318"/>
-    <mergeCell ref="M313:R313"/>
-    <mergeCell ref="M314:R314"/>
-    <mergeCell ref="M309:R309"/>
-    <mergeCell ref="M310:R310"/>
-    <mergeCell ref="M311:R311"/>
-    <mergeCell ref="M312:R312"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="M1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="W30:W31 W84:W85 W87:W89 W95:W100 W102:W106 W156:W161 W163:W165 W200:W209 W217 W284:W296 W299 W303 W274:W276 W214:W215 W168:W179 W71 O71 W108:W110 O108:O110 W75:W76 O75 O78:O82 W78:W82 W61 W152:W154 W139:W148 O152:O154 O150 W43:W59 O44:O47 W236:W245 W247:W250 T308 AB308 T309:U313 W33:W35 W37:W38 E247:E253 W252:W253 W279:W281 O279:O281 S309:S318 W309:W314 W255:W259 E255:E259 F308:I308 W63:W68 O112 W112 W114:W137 O114:O137 W150 W2:W27 O2:O22 O25:O27 W319:W882 O320:O882 L308:R308 O192:O193 E2:E212 W181:W193 K2:K61 W221:W230 O221:O230 E214:E245 K214:K245 E262:E882 W269:W271 K262:K275 K277:K283 W91 K63:K68 K70:K87 K89 K91:K92 K94:K110 K112 K114:K148 K150:K212">
-    <cfRule type="endsWith" dxfId="307" priority="302" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="290" priority="302" operator="endsWith" text="..n">
       <formula>RIGHT((E2),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30:W31 W84:W85 W87:W89 W95:W100 W102:W106 W156:W161 W163:W165 W200:W209 W217 W284:W296 W299 W303 W274:W276 W214:W215 W168:W179 W71 O71 W108:W110 O108:O110 W75:W76 O75 O78:O82 W78:W82 W61 W152:W154 W139:W148 O152:O154 O150 W43:W59 O44:O47 W236:W245 W247:W250 T308 AB308 T309:U313 W33:W35 W37:W38 E247:E253 W252:W253 W279:W281 O279:O281 S309:S318 W309:W314 W255:W259 E255:E259 F308:I308 W63:W68 O112 W112 W114:W137 O114:O137 W150 W2:W27 O2:O22 O25:O27 W319:W882 O320:O882 L308:R308 O192:O193 E2:E212 W181:W193 K2:K61 W221:W230 O221:O230 E214:E245 K214:K245 E262:E882 W269:W271 K262:K275 K277:K283 W91 K63:K68 K70:K87 K89 K91:K92 K94:K110 K112 K114:K148 K150:K212">
-    <cfRule type="beginsWith" dxfId="306" priority="303" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="289" priority="303" operator="beginsWith" text="1..">
       <formula>LEFT((E2),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W155">
-    <cfRule type="endsWith" dxfId="305" priority="304" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="288" priority="304" operator="endsWith" text="..n">
       <formula>RIGHT((W155),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W155">
-    <cfRule type="beginsWith" dxfId="304" priority="305" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="287" priority="305" operator="beginsWith" text="1..">
       <formula>LEFT((W155),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W263:W264">
-    <cfRule type="endsWith" dxfId="303" priority="307" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="286" priority="307" operator="endsWith" text="..n">
       <formula>RIGHT((W263),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W263:W264">
-    <cfRule type="beginsWith" dxfId="302" priority="308" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="285" priority="308" operator="beginsWith" text="1..">
       <formula>LEFT((W263),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W60">
-    <cfRule type="endsWith" dxfId="301" priority="310" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="284" priority="310" operator="endsWith" text="..n">
       <formula>RIGHT((W60),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W60">
-    <cfRule type="beginsWith" dxfId="300" priority="311" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="283" priority="311" operator="beginsWith" text="1..">
       <formula>LEFT((W60),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W83">
-    <cfRule type="endsWith" dxfId="299" priority="314" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="282" priority="314" operator="endsWith" text="..n">
       <formula>RIGHT((W83),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W83">
-    <cfRule type="beginsWith" dxfId="298" priority="315" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="281" priority="315" operator="beginsWith" text="1..">
       <formula>LEFT((W83),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W86">
-    <cfRule type="endsWith" dxfId="297" priority="317" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="280" priority="317" operator="endsWith" text="..n">
       <formula>RIGHT((W86),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W86">
-    <cfRule type="beginsWith" dxfId="296" priority="318" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="279" priority="318" operator="beginsWith" text="1..">
       <formula>LEFT((W86),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W94">
-    <cfRule type="endsWith" dxfId="295" priority="320" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="278" priority="320" operator="endsWith" text="..n">
       <formula>RIGHT((W94),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W94">
-    <cfRule type="beginsWith" dxfId="294" priority="321" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="277" priority="321" operator="beginsWith" text="1..">
       <formula>LEFT((W94),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W107">
-    <cfRule type="endsWith" dxfId="293" priority="323" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="276" priority="323" operator="endsWith" text="..n">
       <formula>RIGHT((W107),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W107">
-    <cfRule type="beginsWith" dxfId="292" priority="324" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="275" priority="324" operator="beginsWith" text="1..">
       <formula>LEFT((W107),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W138">
-    <cfRule type="endsWith" dxfId="291" priority="326" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="274" priority="326" operator="endsWith" text="..n">
       <formula>RIGHT((W138),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W138">
-    <cfRule type="beginsWith" dxfId="290" priority="327" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="273" priority="327" operator="beginsWith" text="1..">
       <formula>LEFT((W138),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W300">
-    <cfRule type="endsWith" dxfId="289" priority="333" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="272" priority="333" operator="endsWith" text="..n">
       <formula>RIGHT((W300),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W300">
-    <cfRule type="beginsWith" dxfId="288" priority="334" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="271" priority="334" operator="beginsWith" text="1..">
       <formula>LEFT((W300),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W70">
-    <cfRule type="endsWith" dxfId="287" priority="336" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="270" priority="336" operator="endsWith" text="..n">
       <formula>RIGHT((W70),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W70">
-    <cfRule type="beginsWith" dxfId="286" priority="337" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="269" priority="337" operator="beginsWith" text="1..">
       <formula>LEFT((W70),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E246">
-    <cfRule type="endsWith" dxfId="285" priority="340" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="268" priority="340" operator="endsWith" text="..n">
       <formula>RIGHT((E246),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E246">
-    <cfRule type="beginsWith" dxfId="284" priority="341" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="267" priority="341" operator="beginsWith" text="1..">
       <formula>LEFT((E246),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O246">
-    <cfRule type="endsWith" dxfId="283" priority="342" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="266" priority="342" operator="endsWith" text="..n">
       <formula>RIGHT((O246),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O246">
-    <cfRule type="beginsWith" dxfId="282" priority="343" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="265" priority="343" operator="beginsWith" text="1..">
       <formula>LEFT((O246),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W267:W268">
-    <cfRule type="endsWith" dxfId="281" priority="344" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="264" priority="344" operator="endsWith" text="..n">
       <formula>RIGHT((W267),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W267:W268">
-    <cfRule type="beginsWith" dxfId="280" priority="345" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="263" priority="345" operator="beginsWith" text="1..">
       <formula>LEFT((W267),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W272:W273">
-    <cfRule type="endsWith" dxfId="279" priority="346" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="262" priority="346" operator="endsWith" text="..n">
       <formula>RIGHT((W272),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W272:W273">
-    <cfRule type="beginsWith" dxfId="278" priority="347" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="261" priority="347" operator="beginsWith" text="1..">
       <formula>LEFT((W272),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W265:W266">
-    <cfRule type="endsWith" dxfId="277" priority="348" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="260" priority="348" operator="endsWith" text="..n">
       <formula>RIGHT((W265),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W265:W266">
-    <cfRule type="beginsWith" dxfId="276" priority="349" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="259" priority="349" operator="beginsWith" text="1..">
       <formula>LEFT((W265),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W194:W199">
-    <cfRule type="endsWith" dxfId="275" priority="352" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="258" priority="352" operator="endsWith" text="..n">
       <formula>RIGHT((W194),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W194:W199">
-    <cfRule type="beginsWith" dxfId="274" priority="353" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="257" priority="353" operator="beginsWith" text="1..">
       <formula>LEFT((W194),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W297:W298">
-    <cfRule type="endsWith" dxfId="273" priority="354" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="256" priority="354" operator="endsWith" text="..n">
       <formula>RIGHT((W297),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W297:W298">
-    <cfRule type="beginsWith" dxfId="272" priority="355" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="255" priority="355" operator="beginsWith" text="1..">
       <formula>LEFT((W297),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W166">
-    <cfRule type="endsWith" dxfId="271" priority="356" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="254" priority="356" operator="endsWith" text="..n">
       <formula>RIGHT((W166),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W166">
-    <cfRule type="beginsWith" dxfId="270" priority="357" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="253" priority="357" operator="beginsWith" text="1..">
       <formula>LEFT((W166),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36">
-    <cfRule type="endsWith" dxfId="269" priority="358" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="252" priority="358" operator="endsWith" text="..n">
       <formula>RIGHT((W36),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36">
-    <cfRule type="beginsWith" dxfId="268" priority="359" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="251" priority="359" operator="beginsWith" text="1..">
       <formula>LEFT((W36),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W41">
-    <cfRule type="endsWith" dxfId="267" priority="362" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="250" priority="362" operator="endsWith" text="..n">
       <formula>RIGHT((W41),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W41">
-    <cfRule type="beginsWith" dxfId="266" priority="363" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="249" priority="363" operator="beginsWith" text="1..">
       <formula>LEFT((W41),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W216">
-    <cfRule type="endsWith" dxfId="265" priority="364" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="248" priority="364" operator="endsWith" text="..n">
       <formula>RIGHT((W216),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W216">
-    <cfRule type="beginsWith" dxfId="264" priority="365" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="247" priority="365" operator="beginsWith" text="1..">
       <formula>LEFT((W216),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W218:W221">
-    <cfRule type="endsWith" dxfId="263" priority="368" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="246" priority="368" operator="endsWith" text="..n">
       <formula>RIGHT((W218),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W218:W221">
-    <cfRule type="beginsWith" dxfId="262" priority="369" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="245" priority="369" operator="beginsWith" text="1..">
       <formula>LEFT((W218),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W231:W232">
-    <cfRule type="endsWith" dxfId="261" priority="370" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="244" priority="370" operator="endsWith" text="..n">
       <formula>RIGHT((W231),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W231:W232">
-    <cfRule type="beginsWith" dxfId="260" priority="371" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="243" priority="371" operator="beginsWith" text="1..">
       <formula>LEFT((W231),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W233:W235">
-    <cfRule type="endsWith" dxfId="259" priority="372" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="242" priority="372" operator="endsWith" text="..n">
       <formula>RIGHT((W233),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W233:W235">
-    <cfRule type="beginsWith" dxfId="258" priority="373" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="241" priority="373" operator="beginsWith" text="1..">
       <formula>LEFT((W233),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W301">
-    <cfRule type="endsWith" dxfId="257" priority="374" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="240" priority="374" operator="endsWith" text="..n">
       <formula>RIGHT((W301),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W301">
-    <cfRule type="beginsWith" dxfId="256" priority="375" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="239" priority="375" operator="beginsWith" text="1..">
       <formula>LEFT((W301),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W302">
-    <cfRule type="endsWith" dxfId="255" priority="376" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="238" priority="376" operator="endsWith" text="..n">
       <formula>RIGHT((W302),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W302">
-    <cfRule type="beginsWith" dxfId="254" priority="377" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="237" priority="377" operator="beginsWith" text="1..">
       <formula>LEFT((W302),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W304">
-    <cfRule type="endsWith" dxfId="253" priority="378" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="236" priority="378" operator="endsWith" text="..n">
       <formula>RIGHT((W304),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W304">
-    <cfRule type="beginsWith" dxfId="252" priority="379" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="235" priority="379" operator="beginsWith" text="1..">
       <formula>LEFT((W304),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W305:W307">
-    <cfRule type="endsWith" dxfId="251" priority="380" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="234" priority="380" operator="endsWith" text="..n">
       <formula>RIGHT((W305),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W305:W307">
-    <cfRule type="beginsWith" dxfId="250" priority="381" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="233" priority="381" operator="beginsWith" text="1..">
       <formula>LEFT((W305),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:W40">
-    <cfRule type="endsWith" dxfId="249" priority="382" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="232" priority="382" operator="endsWith" text="..n">
       <formula>RIGHT((W39),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:W40">
-    <cfRule type="beginsWith" dxfId="248" priority="383" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="231" priority="383" operator="beginsWith" text="1..">
       <formula>LEFT((W39),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W92:W93">
-    <cfRule type="endsWith" dxfId="247" priority="384" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="230" priority="384" operator="endsWith" text="..n">
       <formula>RIGHT((W92),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W92:W93">
-    <cfRule type="beginsWith" dxfId="246" priority="385" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="229" priority="385" operator="beginsWith" text="1..">
       <formula>LEFT((W92),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E260:E261">
-    <cfRule type="endsWith" dxfId="245" priority="393" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="228" priority="393" operator="endsWith" text="..n">
       <formula>RIGHT((E260),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E260:E261">
-    <cfRule type="beginsWith" dxfId="244" priority="394" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="227" priority="394" operator="beginsWith" text="1..">
       <formula>LEFT((E260),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W260:W262">
-    <cfRule type="endsWith" dxfId="243" priority="395" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="226" priority="395" operator="endsWith" text="..n">
       <formula>RIGHT((W260),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W260:W262">
-    <cfRule type="beginsWith" dxfId="242" priority="396" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="225" priority="396" operator="beginsWith" text="1..">
       <formula>LEFT((W260),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U283 F283:I283 L283">
-    <cfRule type="beginsWith" dxfId="241" priority="397" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="224" priority="397" operator="beginsWith" text="jBG">
       <formula>LEFT((F283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28:W29">
-    <cfRule type="endsWith" dxfId="240" priority="297" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="223" priority="297" operator="endsWith" text="..n">
       <formula>RIGHT((W28),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28:W29">
-    <cfRule type="beginsWith" dxfId="239" priority="298" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="222" priority="298" operator="beginsWith" text="1..">
       <formula>LEFT((W28),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W151">
-    <cfRule type="endsWith" dxfId="238" priority="292" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="221" priority="292" operator="endsWith" text="..n">
       <formula>RIGHT((W151),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W151">
-    <cfRule type="beginsWith" dxfId="237" priority="293" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="220" priority="293" operator="beginsWith" text="1..">
       <formula>LEFT((W151),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W210:W211">
-    <cfRule type="endsWith" dxfId="236" priority="287" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="219" priority="287" operator="endsWith" text="..n">
       <formula>RIGHT((AA271),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W210:W211">
-    <cfRule type="beginsWith" dxfId="235" priority="288" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="218" priority="288" operator="beginsWith" text="1..">
       <formula>LEFT((AA271),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W277:W278">
-    <cfRule type="endsWith" dxfId="234" priority="271" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="217" priority="271" operator="endsWith" text="..n">
       <formula>RIGHT((W277),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W277:W278">
-    <cfRule type="beginsWith" dxfId="233" priority="272" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="216" priority="272" operator="beginsWith" text="1..">
       <formula>LEFT((W277),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43:O59 O61 O84:O85 O87 O95 O102:O106 O145:O148 O163:O165 O200:O209 O217 O247:O248 O252:O253 O284:O290 O299 O274:O275 O214:O215 O168:O179 O30:O35 O37:O38 O99 O236:O245 O66 O294:O296 O63 O150 O181:O189 O91 O89">
-    <cfRule type="endsWith" dxfId="232" priority="193" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="215" priority="193" operator="endsWith" text="..n">
       <formula>RIGHT((O30),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43:O59 O61 O84:O85 O87 O95 O102:O106 O145:O148 O163:O165 O200:O209 O217 O247:O248 O252:O253 O284:O290 O299 O274:O275 O214:O215 O168:O179 O30:O35 O37:O38 O99 O236:O245 O66 O294:O296 O63 O150 O181:O189 O91 O89">
-    <cfRule type="beginsWith" dxfId="231" priority="194" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="214" priority="194" operator="beginsWith" text="1..">
       <formula>LEFT((O30),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O155">
-    <cfRule type="endsWith" dxfId="230" priority="195" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="213" priority="195" operator="endsWith" text="..n">
       <formula>RIGHT((O155),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O155">
-    <cfRule type="beginsWith" dxfId="229" priority="196" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="212" priority="196" operator="beginsWith" text="1..">
       <formula>LEFT((O155),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O263:O264">
-    <cfRule type="endsWith" dxfId="228" priority="197" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="211" priority="197" operator="endsWith" text="..n">
       <formula>RIGHT((O263),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O263:O264">
-    <cfRule type="beginsWith" dxfId="227" priority="198" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="210" priority="198" operator="beginsWith" text="1..">
       <formula>LEFT((O263),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O83">
-    <cfRule type="endsWith" dxfId="226" priority="201" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="209" priority="201" operator="endsWith" text="..n">
       <formula>RIGHT((O83),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O83">
-    <cfRule type="beginsWith" dxfId="225" priority="202" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="208" priority="202" operator="beginsWith" text="1..">
       <formula>LEFT((O83),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O94">
-    <cfRule type="endsWith" dxfId="224" priority="205" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="207" priority="205" operator="endsWith" text="..n">
       <formula>RIGHT((O94),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O94">
-    <cfRule type="beginsWith" dxfId="223" priority="206" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="206" priority="206" operator="beginsWith" text="1..">
       <formula>LEFT((O94),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O107">
-    <cfRule type="endsWith" dxfId="222" priority="207" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="205" priority="207" operator="endsWith" text="..n">
       <formula>RIGHT((O107),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O107">
-    <cfRule type="beginsWith" dxfId="221" priority="208" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="204" priority="208" operator="beginsWith" text="1..">
       <formula>LEFT((O107),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O138">
-    <cfRule type="endsWith" dxfId="220" priority="209" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="203" priority="209" operator="endsWith" text="..n">
       <formula>RIGHT((O138),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O138">
-    <cfRule type="beginsWith" dxfId="219" priority="210" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="202" priority="210" operator="beginsWith" text="1..">
       <formula>LEFT((O138),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O151">
-    <cfRule type="endsWith" dxfId="218" priority="211" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="201" priority="211" operator="endsWith" text="..n">
       <formula>RIGHT((O151),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O151">
-    <cfRule type="beginsWith" dxfId="217" priority="212" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="200" priority="212" operator="beginsWith" text="1..">
       <formula>LEFT((O151),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O300">
-    <cfRule type="endsWith" dxfId="216" priority="213" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="199" priority="213" operator="endsWith" text="..n">
       <formula>RIGHT((O300),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O300">
-    <cfRule type="beginsWith" dxfId="215" priority="214" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="198" priority="214" operator="beginsWith" text="1..">
       <formula>LEFT((O300),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O70">
-    <cfRule type="endsWith" dxfId="214" priority="215" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="197" priority="215" operator="endsWith" text="..n">
       <formula>RIGHT((O70),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O70">
-    <cfRule type="beginsWith" dxfId="213" priority="216" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="196" priority="216" operator="beginsWith" text="1..">
       <formula>LEFT((O70),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O267:O269">
-    <cfRule type="endsWith" dxfId="212" priority="219" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="195" priority="219" operator="endsWith" text="..n">
       <formula>RIGHT((O267),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O267:O269">
-    <cfRule type="beginsWith" dxfId="211" priority="220" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="194" priority="220" operator="beginsWith" text="1..">
       <formula>LEFT((O267),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O272:O273">
-    <cfRule type="endsWith" dxfId="210" priority="221" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="193" priority="221" operator="endsWith" text="..n">
       <formula>RIGHT((O272),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O272:O273">
-    <cfRule type="beginsWith" dxfId="209" priority="222" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="192" priority="222" operator="beginsWith" text="1..">
       <formula>LEFT((O272),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O265:O266">
-    <cfRule type="endsWith" dxfId="208" priority="223" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="191" priority="223" operator="endsWith" text="..n">
       <formula>RIGHT((O265),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O265:O266">
-    <cfRule type="beginsWith" dxfId="207" priority="224" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="190" priority="224" operator="beginsWith" text="1..">
       <formula>LEFT((O265),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O190:O191">
-    <cfRule type="endsWith" dxfId="206" priority="225" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="189" priority="225" operator="endsWith" text="..n">
       <formula>RIGHT((O190),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O190:O191">
-    <cfRule type="beginsWith" dxfId="205" priority="226" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="188" priority="226" operator="beginsWith" text="1..">
       <formula>LEFT((O190),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O194:O199">
-    <cfRule type="endsWith" dxfId="204" priority="227" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="187" priority="227" operator="endsWith" text="..n">
       <formula>RIGHT((O194),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O194:O199">
-    <cfRule type="beginsWith" dxfId="203" priority="228" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="186" priority="228" operator="beginsWith" text="1..">
       <formula>LEFT((O194),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O297:O298">
-    <cfRule type="endsWith" dxfId="202" priority="229" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="185" priority="229" operator="endsWith" text="..n">
       <formula>RIGHT((O297),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O297:O298">
-    <cfRule type="beginsWith" dxfId="201" priority="230" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="184" priority="230" operator="beginsWith" text="1..">
       <formula>LEFT((O297),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O166">
-    <cfRule type="endsWith" dxfId="200" priority="231" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="183" priority="231" operator="endsWith" text="..n">
       <formula>RIGHT((O166),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O166">
-    <cfRule type="beginsWith" dxfId="199" priority="232" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="182" priority="232" operator="beginsWith" text="1..">
       <formula>LEFT((O166),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36">
-    <cfRule type="endsWith" dxfId="198" priority="233" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="181" priority="233" operator="endsWith" text="..n">
       <formula>RIGHT((O36),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36">
-    <cfRule type="beginsWith" dxfId="197" priority="234" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="180" priority="234" operator="beginsWith" text="1..">
       <formula>LEFT((O36),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41:O42">
-    <cfRule type="endsWith" dxfId="196" priority="235" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="179" priority="235" operator="endsWith" text="..n">
       <formula>RIGHT((O41),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41:O42">
-    <cfRule type="beginsWith" dxfId="195" priority="236" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="178" priority="236" operator="beginsWith" text="1..">
       <formula>LEFT((O41),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O216">
-    <cfRule type="endsWith" dxfId="194" priority="237" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="177" priority="237" operator="endsWith" text="..n">
       <formula>RIGHT((O216),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O216">
-    <cfRule type="beginsWith" dxfId="193" priority="238" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="176" priority="238" operator="beginsWith" text="1..">
       <formula>LEFT((O216),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O218 O220:O221">
-    <cfRule type="endsWith" dxfId="192" priority="239" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="175" priority="239" operator="endsWith" text="..n">
       <formula>RIGHT((O218),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O218 O220:O221">
-    <cfRule type="beginsWith" dxfId="191" priority="240" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="174" priority="240" operator="beginsWith" text="1..">
       <formula>LEFT((O218),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O231:O232">
-    <cfRule type="endsWith" dxfId="190" priority="243" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="173" priority="243" operator="endsWith" text="..n">
       <formula>RIGHT((O231),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O231:O232">
-    <cfRule type="beginsWith" dxfId="189" priority="244" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="172" priority="244" operator="beginsWith" text="1..">
       <formula>LEFT((O231),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O233:O235">
-    <cfRule type="endsWith" dxfId="188" priority="245" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="171" priority="245" operator="endsWith" text="..n">
       <formula>RIGHT((O233),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O233:O235">
-    <cfRule type="beginsWith" dxfId="187" priority="246" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="170" priority="246" operator="beginsWith" text="1..">
       <formula>LEFT((O233),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O301">
-    <cfRule type="endsWith" dxfId="186" priority="247" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="169" priority="247" operator="endsWith" text="..n">
       <formula>RIGHT((O301),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O301">
-    <cfRule type="beginsWith" dxfId="185" priority="248" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="168" priority="248" operator="beginsWith" text="1..">
       <formula>LEFT((O301),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O302">
-    <cfRule type="endsWith" dxfId="184" priority="249" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="167" priority="249" operator="endsWith" text="..n">
       <formula>RIGHT((O302),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O302">
-    <cfRule type="beginsWith" dxfId="183" priority="250" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="166" priority="250" operator="beginsWith" text="1..">
       <formula>LEFT((O302),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O304">
-    <cfRule type="endsWith" dxfId="182" priority="251" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="165" priority="251" operator="endsWith" text="..n">
       <formula>RIGHT((O304),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O304">
-    <cfRule type="beginsWith" dxfId="181" priority="252" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="164" priority="252" operator="beginsWith" text="1..">
       <formula>LEFT((O304),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O305:O307">
-    <cfRule type="endsWith" dxfId="180" priority="253" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="163" priority="253" operator="endsWith" text="..n">
       <formula>RIGHT((O305),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O305:O307">
-    <cfRule type="beginsWith" dxfId="179" priority="254" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="162" priority="254" operator="beginsWith" text="1..">
       <formula>LEFT((O305),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39">
-    <cfRule type="endsWith" dxfId="178" priority="255" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="161" priority="255" operator="endsWith" text="..n">
       <formula>RIGHT((O39),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39">
-    <cfRule type="beginsWith" dxfId="177" priority="256" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="160" priority="256" operator="beginsWith" text="1..">
       <formula>LEFT((O39),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O92">
-    <cfRule type="endsWith" dxfId="176" priority="257" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="159" priority="257" operator="endsWith" text="..n">
       <formula>RIGHT((O92),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O92">
-    <cfRule type="beginsWith" dxfId="175" priority="258" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="158" priority="258" operator="beginsWith" text="1..">
       <formula>LEFT((O92),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O68">
-    <cfRule type="endsWith" dxfId="174" priority="259" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="157" priority="259" operator="endsWith" text="..n">
       <formula>RIGHT((O68),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O68">
-    <cfRule type="beginsWith" dxfId="173" priority="260" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="156" priority="260" operator="beginsWith" text="1..">
       <formula>LEFT((O68),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N283:S283">
-    <cfRule type="beginsWith" dxfId="172" priority="265" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="155" priority="265" operator="beginsWith" text="jBG">
       <formula>LEFT((V283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O260 O262">
-    <cfRule type="endsWith" dxfId="171" priority="266" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="154" priority="266" operator="endsWith" text="..n">
       <formula>RIGHT((O260),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O260 O262">
-    <cfRule type="beginsWith" dxfId="170" priority="267" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="153" priority="267" operator="beginsWith" text="1..">
       <formula>LEFT((O260),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:O29">
-    <cfRule type="endsWith" dxfId="169" priority="191" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="152" priority="191" operator="endsWith" text="..n">
       <formula>RIGHT((O28),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:O29">
-    <cfRule type="beginsWith" dxfId="168" priority="192" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="151" priority="192" operator="beginsWith" text="1..">
       <formula>LEFT((O28),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O210">
-    <cfRule type="endsWith" dxfId="167" priority="187" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="150" priority="187" operator="endsWith" text="..n">
       <formula>RIGHT((S271),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O210">
-    <cfRule type="beginsWith" dxfId="166" priority="188" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="149" priority="188" operator="beginsWith" text="1..">
       <formula>LEFT((S271),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O270:O271">
-    <cfRule type="endsWith" dxfId="165" priority="183" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="148" priority="183" operator="endsWith" text="..n">
       <formula>RIGHT((O270),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O270:O271">
-    <cfRule type="beginsWith" dxfId="164" priority="184" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="147" priority="184" operator="beginsWith" text="1..">
       <formula>LEFT((O270),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O277:O278">
-    <cfRule type="endsWith" dxfId="163" priority="181" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="146" priority="181" operator="endsWith" text="..n">
       <formula>RIGHT((O277),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O277:O278">
-    <cfRule type="beginsWith" dxfId="162" priority="182" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="145" priority="182" operator="beginsWith" text="1..">
       <formula>LEFT((O277),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O96:O98">
-    <cfRule type="endsWith" dxfId="161" priority="174" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="144" priority="174" operator="endsWith" text="..n">
       <formula>RIGHT((O96),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O96:O98">
-    <cfRule type="beginsWith" dxfId="160" priority="175" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="143" priority="175" operator="beginsWith" text="1..">
       <formula>LEFT((O96),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O100">
-    <cfRule type="endsWith" dxfId="159" priority="172" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="142" priority="172" operator="endsWith" text="..n">
       <formula>RIGHT((O100),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O100">
-    <cfRule type="beginsWith" dxfId="158" priority="173" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="141" priority="173" operator="beginsWith" text="1..">
       <formula>LEFT((O100),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W72:W74">
-    <cfRule type="endsWith" dxfId="157" priority="170" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="140" priority="170" operator="endsWith" text="..n">
       <formula>RIGHT((W72),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W72:W74">
-    <cfRule type="beginsWith" dxfId="156" priority="171" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="139" priority="171" operator="beginsWith" text="1..">
       <formula>LEFT((W72),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O72:O74">
-    <cfRule type="endsWith" dxfId="155" priority="168" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="138" priority="168" operator="endsWith" text="..n">
       <formula>RIGHT((O72),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O72:O74">
-    <cfRule type="beginsWith" dxfId="154" priority="169" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="137" priority="169" operator="beginsWith" text="1..">
       <formula>LEFT((O72),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O76">
-    <cfRule type="endsWith" dxfId="153" priority="166" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="136" priority="166" operator="endsWith" text="..n">
       <formula>RIGHT((O76),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O76">
-    <cfRule type="beginsWith" dxfId="152" priority="167" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="135" priority="167" operator="beginsWith" text="1..">
       <formula>LEFT((O76),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O86">
-    <cfRule type="endsWith" dxfId="151" priority="164" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="134" priority="164" operator="endsWith" text="..n">
       <formula>RIGHT((O86),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O86">
-    <cfRule type="beginsWith" dxfId="150" priority="165" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="133" priority="165" operator="beginsWith" text="1..">
       <formula>LEFT((O86),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O139 O143">
-    <cfRule type="endsWith" dxfId="149" priority="162" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="132" priority="162" operator="endsWith" text="..n">
       <formula>RIGHT((O139),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O139 O143">
-    <cfRule type="beginsWith" dxfId="148" priority="163" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="131" priority="163" operator="beginsWith" text="1..">
       <formula>LEFT((O139),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O140:O142">
-    <cfRule type="endsWith" dxfId="147" priority="160" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="130" priority="160" operator="endsWith" text="..n">
       <formula>RIGHT((O140),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O140:O142">
-    <cfRule type="beginsWith" dxfId="146" priority="161" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="129" priority="161" operator="beginsWith" text="1..">
       <formula>LEFT((O140),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O144">
-    <cfRule type="endsWith" dxfId="145" priority="158" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="128" priority="158" operator="endsWith" text="..n">
       <formula>RIGHT((O144),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O144">
-    <cfRule type="beginsWith" dxfId="144" priority="159" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="127" priority="159" operator="beginsWith" text="1..">
       <formula>LEFT((O144),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O156 O160">
-    <cfRule type="endsWith" dxfId="143" priority="156" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="126" priority="156" operator="endsWith" text="..n">
       <formula>RIGHT((O156),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O156 O160">
-    <cfRule type="beginsWith" dxfId="142" priority="157" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="125" priority="157" operator="beginsWith" text="1..">
       <formula>LEFT((O156),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O157:O159">
-    <cfRule type="endsWith" dxfId="141" priority="154" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="124" priority="154" operator="endsWith" text="..n">
       <formula>RIGHT((O157),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O157:O159">
-    <cfRule type="beginsWith" dxfId="140" priority="155" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="123" priority="155" operator="beginsWith" text="1..">
       <formula>LEFT((O157),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O161">
-    <cfRule type="endsWith" dxfId="139" priority="152" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="122" priority="152" operator="endsWith" text="..n">
       <formula>RIGHT((O161),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O161">
-    <cfRule type="beginsWith" dxfId="138" priority="153" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="121" priority="153" operator="beginsWith" text="1..">
       <formula>LEFT((O161),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W162">
-    <cfRule type="endsWith" dxfId="137" priority="150" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="120" priority="150" operator="endsWith" text="..n">
       <formula>RIGHT((W162),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W162">
-    <cfRule type="beginsWith" dxfId="136" priority="151" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="119" priority="151" operator="beginsWith" text="1..">
       <formula>LEFT((W162),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O162">
-    <cfRule type="endsWith" dxfId="135" priority="148" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="118" priority="148" operator="endsWith" text="..n">
       <formula>RIGHT((O162),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O162">
-    <cfRule type="beginsWith" dxfId="134" priority="149" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="117" priority="149" operator="beginsWith" text="1..">
       <formula>LEFT((O162),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W101">
-    <cfRule type="endsWith" dxfId="133" priority="146" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="116" priority="146" operator="endsWith" text="..n">
       <formula>RIGHT((W101),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W101">
-    <cfRule type="beginsWith" dxfId="132" priority="147" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="115" priority="147" operator="beginsWith" text="1..">
       <formula>LEFT((W101),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O101">
-    <cfRule type="endsWith" dxfId="131" priority="144" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="114" priority="144" operator="endsWith" text="..n">
       <formula>RIGHT((O101),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O101">
-    <cfRule type="beginsWith" dxfId="130" priority="145" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="113" priority="145" operator="beginsWith" text="1..">
       <formula>LEFT((O101),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W77">
-    <cfRule type="endsWith" dxfId="129" priority="142" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="112" priority="142" operator="endsWith" text="..n">
       <formula>RIGHT((W77),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W77">
-    <cfRule type="beginsWith" dxfId="128" priority="143" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="111" priority="143" operator="beginsWith" text="1..">
       <formula>LEFT((W77),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O77">
-    <cfRule type="endsWith" dxfId="127" priority="140" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="110" priority="140" operator="endsWith" text="..n">
       <formula>RIGHT((O77),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O77">
-    <cfRule type="beginsWith" dxfId="126" priority="141" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="109" priority="141" operator="beginsWith" text="1..">
       <formula>LEFT((O77),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60">
-    <cfRule type="endsWith" dxfId="125" priority="138" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="108" priority="138" operator="endsWith" text="..n">
       <formula>RIGHT((O60),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60">
-    <cfRule type="beginsWith" dxfId="124" priority="139" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="107" priority="139" operator="beginsWith" text="1..">
       <formula>LEFT((O60),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O303">
-    <cfRule type="endsWith" dxfId="123" priority="134" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="106" priority="134" operator="endsWith" text="..n">
       <formula>RIGHT((O303),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O303">
-    <cfRule type="beginsWith" dxfId="122" priority="135" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="105" priority="135" operator="beginsWith" text="1..">
       <formula>LEFT((O303),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O65">
-    <cfRule type="endsWith" dxfId="121" priority="130" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="104" priority="130" operator="endsWith" text="..n">
       <formula>RIGHT((O65),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O65">
-    <cfRule type="beginsWith" dxfId="120" priority="131" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="103" priority="131" operator="beginsWith" text="1..">
       <formula>LEFT((O65),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67">
-    <cfRule type="endsWith" dxfId="119" priority="128" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="102" priority="128" operator="endsWith" text="..n">
       <formula>RIGHT((O67),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67">
-    <cfRule type="beginsWith" dxfId="118" priority="129" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="101" priority="129" operator="beginsWith" text="1..">
       <formula>LEFT((O67),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O219">
-    <cfRule type="endsWith" dxfId="117" priority="126" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="100" priority="126" operator="endsWith" text="..n">
       <formula>RIGHT((O219),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O219">
-    <cfRule type="beginsWith" dxfId="116" priority="127" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="99" priority="127" operator="beginsWith" text="1..">
       <formula>LEFT((O219),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W212:W213">
-    <cfRule type="endsWith" dxfId="115" priority="124" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="98" priority="124" operator="endsWith" text="..n">
       <formula>RIGHT((AA272),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W212:W213">
-    <cfRule type="beginsWith" dxfId="114" priority="125" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="97" priority="125" operator="beginsWith" text="1..">
       <formula>LEFT((AA272),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O212">
-    <cfRule type="endsWith" dxfId="113" priority="122" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="96" priority="122" operator="endsWith" text="..n">
       <formula>RIGHT((S272),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O212">
-    <cfRule type="beginsWith" dxfId="112" priority="123" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="95" priority="123" operator="beginsWith" text="1..">
       <formula>LEFT((S272),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O291:O293">
-    <cfRule type="endsWith" dxfId="111" priority="120" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="94" priority="120" operator="endsWith" text="..n">
       <formula>RIGHT((O291),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O291:O293">
-    <cfRule type="beginsWith" dxfId="110" priority="121" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="93" priority="121" operator="beginsWith" text="1..">
       <formula>LEFT((O291),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W246">
-    <cfRule type="endsWith" dxfId="109" priority="114" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="92" priority="114" operator="endsWith" text="..n">
       <formula>RIGHT((W246),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W246">
-    <cfRule type="beginsWith" dxfId="108" priority="115" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="91" priority="115" operator="beginsWith" text="1..">
       <formula>LEFT((W246),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U283">
-    <cfRule type="beginsWith" dxfId="107" priority="399" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="90" priority="399" operator="beginsWith" text="jBG">
       <formula>LEFT((AJ283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V283">
-    <cfRule type="beginsWith" dxfId="106" priority="401" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="89" priority="401" operator="beginsWith" text="jBG">
       <formula>LEFT((T283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W283:Y283">
-    <cfRule type="beginsWith" dxfId="105" priority="402" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="88" priority="402" operator="beginsWith" text="jBG">
       <formula>LEFT((AC283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U283">
-    <cfRule type="beginsWith" dxfId="104" priority="406" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="87" priority="406" operator="beginsWith" text="jBG">
       <formula>LEFT((AL283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z283">
-    <cfRule type="beginsWith" dxfId="103" priority="410" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="86" priority="410" operator="beginsWith" text="jBG">
       <formula>LEFT((U283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC283:AE283">
-    <cfRule type="beginsWith" dxfId="102" priority="411" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="85" priority="411" operator="beginsWith" text="jBG">
       <formula>LEFT((AH283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="endsWith" dxfId="101" priority="106" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="84" priority="106" operator="endsWith" text="..n">
       <formula>RIGHT((W32),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="beginsWith" dxfId="100" priority="107" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="83" priority="107" operator="beginsWith" text="1..">
       <formula>LEFT((W32),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42">
-    <cfRule type="endsWith" dxfId="99" priority="104" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="82" priority="104" operator="endsWith" text="..n">
       <formula>RIGHT((W42),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42">
-    <cfRule type="beginsWith" dxfId="98" priority="105" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="81" priority="105" operator="beginsWith" text="1..">
       <formula>LEFT((W42),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA283">
-    <cfRule type="beginsWith" dxfId="97" priority="412" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="80" priority="412" operator="beginsWith" text="jBG">
       <formula>LEFT((AF283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB309:AB313">
-    <cfRule type="endsWith" dxfId="96" priority="99" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="79" priority="99" operator="endsWith" text="..n">
       <formula>RIGHT((AB309),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB309:AB313">
-    <cfRule type="beginsWith" dxfId="95" priority="100" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="78" priority="100" operator="beginsWith" text="1..">
       <formula>LEFT((AB309),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB283">
-    <cfRule type="beginsWith" dxfId="94" priority="102" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="77" priority="102" operator="beginsWith" text="jBG">
       <formula>LEFT((AR283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB283">
-    <cfRule type="beginsWith" dxfId="93" priority="103" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="76" priority="103" operator="beginsWith" text="jBG">
       <formula>LEFT((AC283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T283">
-    <cfRule type="beginsWith" dxfId="92" priority="428" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="75" priority="428" operator="beginsWith" text="jBG">
       <formula>LEFT((AH283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F283:I283">
-    <cfRule type="beginsWith" dxfId="91" priority="429" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="74" priority="429" operator="beginsWith" text="jBG">
       <formula>LEFT((AJ283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V282:AE282">
-    <cfRule type="beginsWith" dxfId="90" priority="94" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="73" priority="94" operator="beginsWith" text="jBG">
       <formula>LEFT((V282),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O255">
-    <cfRule type="endsWith" dxfId="88" priority="87" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="72" priority="87" operator="endsWith" text="..n">
       <formula>RIGHT((O255),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O255">
-    <cfRule type="beginsWith" dxfId="87" priority="88" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="71" priority="88" operator="beginsWith" text="1..">
       <formula>LEFT((O255),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O259">
-    <cfRule type="endsWith" dxfId="86" priority="83" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="70" priority="83" operator="endsWith" text="..n">
       <formula>RIGHT((O259),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O259">
-    <cfRule type="beginsWith" dxfId="85" priority="84" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="69" priority="84" operator="beginsWith" text="1..">
       <formula>LEFT((O259),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O259">
-    <cfRule type="endsWith" dxfId="84" priority="81" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="68" priority="81" operator="endsWith" text="..n">
       <formula>RIGHT((O259),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O259">
-    <cfRule type="beginsWith" dxfId="83" priority="82" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="67" priority="82" operator="beginsWith" text="1..">
       <formula>LEFT((O259),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O261">
-    <cfRule type="endsWith" dxfId="82" priority="79" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="66" priority="79" operator="endsWith" text="..n">
       <formula>RIGHT((O261),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O261">
-    <cfRule type="beginsWith" dxfId="81" priority="80" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="65" priority="80" operator="beginsWith" text="1..">
       <formula>LEFT((O261),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O261">
-    <cfRule type="endsWith" dxfId="80" priority="77" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="64" priority="77" operator="endsWith" text="..n">
       <formula>RIGHT((O261),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O261">
-    <cfRule type="beginsWith" dxfId="79" priority="78" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="63" priority="78" operator="beginsWith" text="1..">
       <formula>LEFT((O261),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F283:I283 L283">
-    <cfRule type="beginsWith" dxfId="78" priority="435" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="62" priority="435" operator="beginsWith" text="jBG">
       <formula>LEFT((#REF!),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O254 E254">
-    <cfRule type="endsWith" dxfId="77" priority="75" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="61" priority="75" operator="endsWith" text="..n">
       <formula>RIGHT((E254),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O254 E254">
-    <cfRule type="beginsWith" dxfId="76" priority="76" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="60" priority="76" operator="beginsWith" text="1..">
       <formula>LEFT((E254),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L283">
-    <cfRule type="beginsWith" dxfId="75" priority="443" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="59" priority="443" operator="beginsWith" text="jBG">
       <formula>LEFT((AI283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T283">
-    <cfRule type="beginsWith" dxfId="74" priority="444" operator="beginsWith" text="jBG">
+    <cfRule type="beginsWith" dxfId="58" priority="444" operator="beginsWith" text="jBG">
       <formula>LEFT((L283),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W62">
-    <cfRule type="endsWith" dxfId="73" priority="73" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="57" priority="73" operator="endsWith" text="..n">
       <formula>RIGHT((W62),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W62">
-    <cfRule type="beginsWith" dxfId="72" priority="74" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="56" priority="74" operator="beginsWith" text="1..">
       <formula>LEFT((W62),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W113">
-    <cfRule type="endsWith" dxfId="71" priority="61" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="55" priority="61" operator="endsWith" text="..n">
       <formula>RIGHT((W113),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W113">
-    <cfRule type="beginsWith" dxfId="70" priority="62" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="54" priority="62" operator="beginsWith" text="1..">
       <formula>LEFT((W113),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W69">
-    <cfRule type="endsWith" dxfId="69" priority="69" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="53" priority="69" operator="endsWith" text="..n">
       <formula>RIGHT((W69),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W69">
-    <cfRule type="beginsWith" dxfId="68" priority="70" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="52" priority="70" operator="beginsWith" text="1..">
       <formula>LEFT((W69),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O180">
-    <cfRule type="endsWith" dxfId="65" priority="47" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="51" priority="47" operator="endsWith" text="..n">
       <formula>RIGHT((O180),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W111">
-    <cfRule type="endsWith" dxfId="64" priority="65" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="50" priority="65" operator="endsWith" text="..n">
       <formula>RIGHT((W111),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W111">
-    <cfRule type="beginsWith" dxfId="63" priority="66" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="49" priority="66" operator="beginsWith" text="1..">
       <formula>LEFT((W111),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W149">
-    <cfRule type="endsWith" dxfId="56" priority="57" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="48" priority="57" operator="endsWith" text="..n">
       <formula>RIGHT((W149),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W149">
-    <cfRule type="beginsWith" dxfId="55" priority="58" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="47" priority="58" operator="beginsWith" text="1..">
       <formula>LEFT((W149),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W167">
-    <cfRule type="endsWith" dxfId="52" priority="53" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="46" priority="53" operator="endsWith" text="..n">
       <formula>RIGHT((W167),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W167">
-    <cfRule type="beginsWith" dxfId="51" priority="54" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="45" priority="54" operator="beginsWith" text="1..">
       <formula>LEFT((W167),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O167">
-    <cfRule type="endsWith" dxfId="50" priority="51" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="44" priority="51" operator="endsWith" text="..n">
       <formula>RIGHT((O167),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O167">
-    <cfRule type="beginsWith" dxfId="49" priority="52" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="43" priority="52" operator="beginsWith" text="1..">
       <formula>LEFT((O167),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W180">
-    <cfRule type="endsWith" dxfId="48" priority="49" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="42" priority="49" operator="endsWith" text="..n">
       <formula>RIGHT((W180),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W180">
-    <cfRule type="beginsWith" dxfId="47" priority="50" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="41" priority="50" operator="beginsWith" text="1..">
       <formula>LEFT((W180),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O180">
-    <cfRule type="beginsWith" dxfId="46" priority="48" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="40" priority="48" operator="beginsWith" text="1..">
       <formula>LEFT((O180),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W254">
-    <cfRule type="endsWith" dxfId="45" priority="45" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="39" priority="45" operator="endsWith" text="..n">
       <formula>RIGHT((W254),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W254">
-    <cfRule type="beginsWith" dxfId="44" priority="46" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="38" priority="46" operator="beginsWith" text="1..">
       <formula>LEFT((W254),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K247:K253 K255:K259 K284:K882">
-    <cfRule type="endsWith" dxfId="41" priority="37" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="37" priority="37" operator="endsWith" text="..n">
       <formula>RIGHT((K247),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K247:K253 K255:K259 K284:K882">
-    <cfRule type="beginsWith" dxfId="40" priority="38" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="36" priority="38" operator="beginsWith" text="1..">
       <formula>LEFT((K247),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K246">
-    <cfRule type="endsWith" dxfId="39" priority="39" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="35" priority="39" operator="endsWith" text="..n">
       <formula>RIGHT((K246),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K246">
-    <cfRule type="beginsWith" dxfId="38" priority="40" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="34" priority="40" operator="beginsWith" text="1..">
       <formula>LEFT((K246),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K260:K261">
-    <cfRule type="endsWith" dxfId="37" priority="41" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="33" priority="41" operator="endsWith" text="..n">
       <formula>RIGHT((K260),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K260:K261">
-    <cfRule type="beginsWith" dxfId="36" priority="42" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="32" priority="42" operator="beginsWith" text="1..">
       <formula>LEFT((K260),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K254">
-    <cfRule type="endsWith" dxfId="35" priority="35" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="31" priority="35" operator="endsWith" text="..n">
       <formula>RIGHT((K254),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K254">
-    <cfRule type="beginsWith" dxfId="34" priority="36" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="30" priority="36" operator="beginsWith" text="1..">
       <formula>LEFT((K254),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O211">
-    <cfRule type="endsWith" dxfId="31" priority="31" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="29" priority="31" operator="endsWith" text="..n">
       <formula>RIGHT((S272),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O211">
-    <cfRule type="beginsWith" dxfId="30" priority="32" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="28" priority="32" operator="beginsWith" text="1..">
       <formula>LEFT((S272),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O213">
-    <cfRule type="endsWith" dxfId="29" priority="29" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="27" priority="29" operator="endsWith" text="..n">
       <formula>RIGHT((S274),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O213">
-    <cfRule type="beginsWith" dxfId="28" priority="30" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="26" priority="30" operator="beginsWith" text="1..">
       <formula>LEFT((S274),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E213">
-    <cfRule type="endsWith" dxfId="27" priority="27" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="25" priority="27" operator="endsWith" text="..n">
       <formula>RIGHT((E213),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E213">
-    <cfRule type="beginsWith" dxfId="26" priority="28" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="24" priority="28" operator="beginsWith" text="1..">
       <formula>LEFT((E213),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K213">
-    <cfRule type="endsWith" dxfId="25" priority="25" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="23" priority="25" operator="endsWith" text="..n">
       <formula>RIGHT((K213),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K213">
-    <cfRule type="beginsWith" dxfId="24" priority="26" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="22" priority="26" operator="beginsWith" text="1..">
       <formula>LEFT((K213),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K276">
-    <cfRule type="endsWith" dxfId="23" priority="23" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="21" priority="23" operator="endsWith" text="..n">
       <formula>RIGHT((K276),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K276">
-    <cfRule type="beginsWith" dxfId="22" priority="24" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="20" priority="24" operator="beginsWith" text="1..">
       <formula>LEFT((K276),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O276">
-    <cfRule type="endsWith" dxfId="21" priority="21" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="19" priority="21" operator="endsWith" text="..n">
       <formula>RIGHT((O276),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O276">
-    <cfRule type="beginsWith" dxfId="20" priority="22" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="18" priority="22" operator="beginsWith" text="1..">
       <formula>LEFT((O276),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W90">
-    <cfRule type="endsWith" dxfId="19" priority="19" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="17" priority="19" operator="endsWith" text="..n">
       <formula>RIGHT((W90),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W90">
-    <cfRule type="beginsWith" dxfId="18" priority="20" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="16" priority="20" operator="beginsWith" text="1..">
       <formula>LEFT((W90),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/日本版コアインボイス/日本版コアインボイス2021-01-24.xlsx
+++ b/日本版コアインボイス/日本版コアインボイス2021-01-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pontsoleil\Documents\GitHub\EIPA\日本版コアインボイス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA6E69A-B2C8-4316-8FFD-F3D26F0748A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E436C4B3-1256-4E8B-A3A1-57727DB64F44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="360" windowWidth="17640" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="90" windowWidth="17640" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コアインボイス" sheetId="1" r:id="rId1"/>
@@ -10120,6 +10120,177 @@
     <xf numFmtId="0" fontId="8" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10128,177 +10299,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12855,9 +12855,9 @@
   </sheetPr>
   <dimension ref="A1:AK882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S231" sqref="S231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
@@ -12891,50 +12891,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="570" t="s">
+      <c r="A1" s="533" t="s">
         <v>1128</v>
       </c>
-      <c r="B1" s="563" t="s">
+      <c r="B1" s="538" t="s">
         <v>961</v>
       </c>
-      <c r="C1" s="564"/>
-      <c r="D1" s="564"/>
-      <c r="E1" s="564"/>
-      <c r="F1" s="590" t="s">
+      <c r="C1" s="539"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="543" t="s">
         <v>1306</v>
       </c>
-      <c r="G1" s="591"/>
-      <c r="H1" s="591"/>
-      <c r="I1" s="591"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
       <c r="J1" s="404"/>
       <c r="K1" s="404"/>
       <c r="L1" s="23"/>
-      <c r="M1" s="587" t="s">
+      <c r="M1" s="540" t="s">
         <v>1855</v>
       </c>
-      <c r="N1" s="588"/>
-      <c r="O1" s="588"/>
-      <c r="P1" s="588"/>
-      <c r="Q1" s="588"/>
-      <c r="R1" s="588"/>
-      <c r="S1" s="588"/>
-      <c r="T1" s="588"/>
-      <c r="U1" s="589"/>
-      <c r="V1" s="590" t="s">
+      <c r="N1" s="541"/>
+      <c r="O1" s="541"/>
+      <c r="P1" s="541"/>
+      <c r="Q1" s="541"/>
+      <c r="R1" s="541"/>
+      <c r="S1" s="541"/>
+      <c r="T1" s="541"/>
+      <c r="U1" s="542"/>
+      <c r="V1" s="543" t="s">
         <v>1005</v>
       </c>
-      <c r="W1" s="591"/>
-      <c r="X1" s="591"/>
-      <c r="Y1" s="591"/>
-      <c r="Z1" s="591"/>
-      <c r="AA1" s="591"/>
-      <c r="AB1" s="591"/>
-      <c r="AC1" s="591"/>
-      <c r="AD1" s="591"/>
-      <c r="AE1" s="592"/>
+      <c r="W1" s="544"/>
+      <c r="X1" s="544"/>
+      <c r="Y1" s="544"/>
+      <c r="Z1" s="544"/>
+      <c r="AA1" s="544"/>
+      <c r="AB1" s="544"/>
+      <c r="AC1" s="544"/>
+      <c r="AD1" s="544"/>
+      <c r="AE1" s="545"/>
     </row>
     <row r="2" spans="1:31" s="309" customFormat="1" ht="96">
-      <c r="A2" s="573"/>
+      <c r="A2" s="534"/>
       <c r="B2" s="379" t="s">
         <v>0</v>
       </c>
@@ -12977,12 +12977,12 @@
       <c r="O2" s="383" t="s">
         <v>1037</v>
       </c>
-      <c r="P2" s="584" t="s">
+      <c r="P2" s="535" t="s">
         <v>973</v>
       </c>
-      <c r="Q2" s="585"/>
-      <c r="R2" s="585"/>
-      <c r="S2" s="586"/>
+      <c r="Q2" s="536"/>
+      <c r="R2" s="536"/>
+      <c r="S2" s="537"/>
       <c r="T2" s="30" t="s">
         <v>3</v>
       </c>
@@ -12995,12 +12995,12 @@
       <c r="W2" s="383" t="s">
         <v>1037</v>
       </c>
-      <c r="X2" s="584" t="s">
+      <c r="X2" s="535" t="s">
         <v>1038</v>
       </c>
-      <c r="Y2" s="585"/>
-      <c r="Z2" s="585"/>
-      <c r="AA2" s="586"/>
+      <c r="Y2" s="536"/>
+      <c r="Z2" s="536"/>
+      <c r="AA2" s="537"/>
       <c r="AB2" s="339" t="s">
         <v>1049</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="40.5">
+    <row r="3" spans="1:31" ht="40.5" hidden="1">
       <c r="A3" s="32">
         <f>ROW()-2</f>
         <v>1</v>
@@ -13072,7 +13072,7 @@
       <c r="AD3" s="341"/>
       <c r="AE3" s="341"/>
     </row>
-    <row r="4" spans="1:31" ht="15">
+    <row r="4" spans="1:31" ht="15" hidden="1">
       <c r="A4" s="32">
         <f t="shared" ref="A4:A76" si="0">ROW()-2</f>
         <v>2</v>
@@ -13130,7 +13130,7 @@
       <c r="AD4" s="341"/>
       <c r="AE4" s="341"/>
     </row>
-    <row r="5" spans="1:31" ht="15">
+    <row r="5" spans="1:31" ht="15" hidden="1">
       <c r="A5" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -13188,7 +13188,7 @@
       <c r="AD5" s="341"/>
       <c r="AE5" s="341"/>
     </row>
-    <row r="6" spans="1:31" ht="15">
+    <row r="6" spans="1:31" ht="15" hidden="1">
       <c r="A6" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -13246,7 +13246,7 @@
       <c r="AD6" s="341"/>
       <c r="AE6" s="341"/>
     </row>
-    <row r="7" spans="1:31" ht="15">
+    <row r="7" spans="1:31" ht="15" hidden="1">
       <c r="A7" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -13304,7 +13304,7 @@
       <c r="AD7" s="341"/>
       <c r="AE7" s="341"/>
     </row>
-    <row r="8" spans="1:31" ht="15">
+    <row r="8" spans="1:31" ht="15" hidden="1">
       <c r="A8" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -13362,7 +13362,7 @@
       <c r="AD8" s="341"/>
       <c r="AE8" s="341"/>
     </row>
-    <row r="9" spans="1:31" ht="27">
+    <row r="9" spans="1:31" ht="27" hidden="1">
       <c r="A9" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -13420,7 +13420,7 @@
       <c r="AD9" s="341"/>
       <c r="AE9" s="341"/>
     </row>
-    <row r="10" spans="1:31" ht="27">
+    <row r="10" spans="1:31" ht="27" hidden="1">
       <c r="A10" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -13478,7 +13478,7 @@
       <c r="AD10" s="341"/>
       <c r="AE10" s="341"/>
     </row>
-    <row r="11" spans="1:31" ht="15">
+    <row r="11" spans="1:31" ht="15" hidden="1">
       <c r="A11" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -13536,7 +13536,7 @@
       <c r="AD11" s="341"/>
       <c r="AE11" s="341"/>
     </row>
-    <row r="12" spans="1:31" ht="15">
+    <row r="12" spans="1:31" ht="15" hidden="1">
       <c r="A12" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -13594,7 +13594,7 @@
       <c r="AD12" s="341"/>
       <c r="AE12" s="341"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" hidden="1">
       <c r="A13" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -13714,7 +13714,7 @@
       <c r="AD14" s="169"/>
       <c r="AE14" s="169"/>
     </row>
-    <row r="15" spans="1:31" ht="15">
+    <row r="15" spans="1:31" ht="15" hidden="1">
       <c r="A15" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -14058,7 +14058,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" hidden="1">
       <c r="A20" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -14281,16 +14281,16 @@
       <c r="M23" s="113" t="s">
         <v>1445</v>
       </c>
-      <c r="N23" s="542" t="s">
+      <c r="N23" s="566" t="s">
         <v>1103</v>
       </c>
-      <c r="O23" s="543"/>
-      <c r="P23" s="543"/>
-      <c r="Q23" s="543"/>
-      <c r="R23" s="543"/>
-      <c r="S23" s="543"/>
-      <c r="T23" s="543"/>
-      <c r="U23" s="544"/>
+      <c r="O23" s="567"/>
+      <c r="P23" s="567"/>
+      <c r="Q23" s="567"/>
+      <c r="R23" s="567"/>
+      <c r="S23" s="567"/>
+      <c r="T23" s="567"/>
+      <c r="U23" s="568"/>
       <c r="V23" s="73" t="s">
         <v>1013</v>
       </c>
@@ -14312,7 +14312,7 @@
       <c r="AD23" s="347"/>
       <c r="AE23" s="347"/>
     </row>
-    <row r="24" spans="1:31" ht="15">
+    <row r="24" spans="1:31" ht="15" hidden="1">
       <c r="A24" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -14368,7 +14368,7 @@
       <c r="AD24" s="347"/>
       <c r="AE24" s="347"/>
     </row>
-    <row r="25" spans="1:31" ht="81">
+    <row r="25" spans="1:31" ht="81" hidden="1">
       <c r="A25" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -14426,7 +14426,7 @@
       <c r="AD25" s="348"/>
       <c r="AE25" s="348"/>
     </row>
-    <row r="26" spans="1:31" ht="40.5">
+    <row r="26" spans="1:31" ht="40.5" hidden="1">
       <c r="A26" s="32">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -14642,7 +14642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" hidden="1">
       <c r="A29" s="32">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -14762,7 +14762,7 @@
       <c r="AD30" s="169"/>
       <c r="AE30" s="169"/>
     </row>
-    <row r="31" spans="1:31" ht="27">
+    <row r="31" spans="1:31" ht="27" hidden="1">
       <c r="A31" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -14818,7 +14818,7 @@
       <c r="AD31" s="169"/>
       <c r="AE31" s="169"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" hidden="1">
       <c r="A32" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -15412,11 +15412,11 @@
         <v>1016</v>
       </c>
       <c r="P40" s="122"/>
-      <c r="Q40" s="539" t="s">
+      <c r="Q40" s="575" t="s">
         <v>1873</v>
       </c>
-      <c r="R40" s="540"/>
-      <c r="S40" s="541"/>
+      <c r="R40" s="576"/>
+      <c r="S40" s="577"/>
       <c r="T40" s="51" t="s">
         <v>1878</v>
       </c>
@@ -15500,7 +15500,7 @@
       <c r="AD41" s="137"/>
       <c r="AE41" s="350"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" hidden="1">
       <c r="A42" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -15620,7 +15620,7 @@
       <c r="AD43" s="169"/>
       <c r="AE43" s="169"/>
     </row>
-    <row r="44" spans="1:31" ht="27">
+    <row r="44" spans="1:31" ht="27" hidden="1">
       <c r="A44" s="32">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -15686,7 +15686,7 @@
       <c r="AD44" s="169"/>
       <c r="AE44" s="169"/>
     </row>
-    <row r="45" spans="1:31" s="3" customFormat="1" ht="27">
+    <row r="45" spans="1:31" s="3" customFormat="1" ht="27" hidden="1">
       <c r="A45" s="32">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -15738,7 +15738,7 @@
       <c r="AD45" s="348"/>
       <c r="AE45" s="348"/>
     </row>
-    <row r="46" spans="1:31" s="3" customFormat="1" ht="27">
+    <row r="46" spans="1:31" s="3" customFormat="1" ht="27" hidden="1">
       <c r="A46" s="32">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -15790,7 +15790,7 @@
       <c r="AD46" s="348"/>
       <c r="AE46" s="348"/>
     </row>
-    <row r="47" spans="1:31" s="3" customFormat="1" ht="27">
+    <row r="47" spans="1:31" s="3" customFormat="1" ht="27" hidden="1">
       <c r="A47" s="32">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -16078,7 +16078,7 @@
       <c r="AD50" s="169"/>
       <c r="AE50" s="169"/>
     </row>
-    <row r="51" spans="1:31" ht="15">
+    <row r="51" spans="1:31" ht="15" hidden="1">
       <c r="A51" s="32">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -17178,11 +17178,11 @@
       <c r="P66" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="Q66" s="533" t="s">
+      <c r="Q66" s="590" t="s">
         <v>1834</v>
       </c>
-      <c r="R66" s="534"/>
-      <c r="S66" s="535"/>
+      <c r="R66" s="591"/>
+      <c r="S66" s="592"/>
       <c r="T66" s="71" t="s">
         <v>193</v>
       </c>
@@ -17196,11 +17196,11 @@
       <c r="X66" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="Y66" s="533" t="s">
+      <c r="Y66" s="590" t="s">
         <v>1834</v>
       </c>
-      <c r="Z66" s="534"/>
-      <c r="AA66" s="535"/>
+      <c r="Z66" s="591"/>
+      <c r="AA66" s="592"/>
       <c r="AB66" s="344" t="s">
         <v>193</v>
       </c>
@@ -17324,11 +17324,11 @@
         <v>13</v>
       </c>
       <c r="P68" s="130"/>
-      <c r="Q68" s="560" t="s">
+      <c r="Q68" s="587" t="s">
         <v>1867</v>
       </c>
-      <c r="R68" s="561"/>
-      <c r="S68" s="562"/>
+      <c r="R68" s="588"/>
+      <c r="S68" s="589"/>
       <c r="T68" s="51" t="s">
         <v>962</v>
       </c>
@@ -18998,11 +18998,11 @@
       <c r="P91" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q91" s="536" t="s">
+      <c r="Q91" s="584" t="s">
         <v>1833</v>
       </c>
-      <c r="R91" s="537"/>
-      <c r="S91" s="538"/>
+      <c r="R91" s="585"/>
+      <c r="S91" s="586"/>
       <c r="T91" s="71" t="s">
         <v>273</v>
       </c>
@@ -19016,11 +19016,11 @@
       <c r="X91" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="Y91" s="536" t="s">
+      <c r="Y91" s="584" t="s">
         <v>1833</v>
       </c>
-      <c r="Z91" s="537"/>
-      <c r="AA91" s="538"/>
+      <c r="Z91" s="585"/>
+      <c r="AA91" s="586"/>
       <c r="AB91" s="344" t="s">
         <v>273</v>
       </c>
@@ -19078,11 +19078,11 @@
         <v>13</v>
       </c>
       <c r="P92" s="130"/>
-      <c r="Q92" s="560" t="s">
+      <c r="Q92" s="587" t="s">
         <v>1868</v>
       </c>
-      <c r="R92" s="561"/>
-      <c r="S92" s="562"/>
+      <c r="R92" s="588"/>
+      <c r="S92" s="589"/>
       <c r="T92" s="138" t="s">
         <v>272</v>
       </c>
@@ -21976,11 +21976,11 @@
       <c r="P132" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q132" s="536" t="s">
+      <c r="Q132" s="584" t="s">
         <v>1832</v>
       </c>
-      <c r="R132" s="537"/>
-      <c r="S132" s="538"/>
+      <c r="R132" s="585"/>
+      <c r="S132" s="586"/>
       <c r="T132" s="71" t="s">
         <v>193</v>
       </c>
@@ -21994,11 +21994,11 @@
       <c r="X132" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Y132" s="536" t="s">
+      <c r="Y132" s="584" t="s">
         <v>1832</v>
       </c>
-      <c r="Z132" s="537"/>
-      <c r="AA132" s="538"/>
+      <c r="Z132" s="585"/>
+      <c r="AA132" s="586"/>
       <c r="AB132" s="344" t="s">
         <v>193</v>
       </c>
@@ -24492,7 +24492,7 @@
       <c r="AD166" s="356"/>
       <c r="AE166" s="356"/>
     </row>
-    <row r="167" spans="1:31" ht="27">
+    <row r="167" spans="1:31" ht="27" hidden="1">
       <c r="A167" s="32">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -25136,7 +25136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:31">
+    <row r="177" spans="1:31" hidden="1">
       <c r="A177" s="32">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -25174,7 +25174,7 @@
       <c r="AD177" s="360"/>
       <c r="AE177" s="360"/>
     </row>
-    <row r="178" spans="1:31">
+    <row r="178" spans="1:31" hidden="1">
       <c r="A178" s="32">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -25280,7 +25280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:31" ht="27">
+    <row r="180" spans="1:31" ht="27" hidden="1">
       <c r="A180" s="32">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -26235,11 +26235,11 @@
         <v>13</v>
       </c>
       <c r="P194" s="122"/>
-      <c r="Q194" s="539" t="s">
+      <c r="Q194" s="575" t="s">
         <v>1831</v>
       </c>
-      <c r="R194" s="540"/>
-      <c r="S194" s="541"/>
+      <c r="R194" s="576"/>
+      <c r="S194" s="577"/>
       <c r="T194" s="138" t="s">
         <v>552</v>
       </c>
@@ -26367,11 +26367,11 @@
         <v>13</v>
       </c>
       <c r="P196" s="122"/>
-      <c r="Q196" s="539" t="s">
+      <c r="Q196" s="575" t="s">
         <v>1845</v>
       </c>
-      <c r="R196" s="540"/>
-      <c r="S196" s="541"/>
+      <c r="R196" s="576"/>
+      <c r="S196" s="577"/>
       <c r="T196" s="138" t="s">
         <v>561</v>
       </c>
@@ -26433,11 +26433,11 @@
         <v>13</v>
       </c>
       <c r="P197" s="122"/>
-      <c r="Q197" s="539" t="s">
+      <c r="Q197" s="575" t="s">
         <v>1827</v>
       </c>
-      <c r="R197" s="540"/>
-      <c r="S197" s="541"/>
+      <c r="R197" s="576"/>
+      <c r="S197" s="577"/>
       <c r="T197" s="138" t="s">
         <v>564</v>
       </c>
@@ -26499,11 +26499,11 @@
         <v>13</v>
       </c>
       <c r="P198" s="122"/>
-      <c r="Q198" s="539" t="s">
+      <c r="Q198" s="575" t="s">
         <v>1829</v>
       </c>
-      <c r="R198" s="540"/>
-      <c r="S198" s="541"/>
+      <c r="R198" s="576"/>
+      <c r="S198" s="577"/>
       <c r="T198" s="138" t="s">
         <v>567</v>
       </c>
@@ -26565,11 +26565,11 @@
         <v>13</v>
       </c>
       <c r="P199" s="122"/>
-      <c r="Q199" s="539" t="s">
+      <c r="Q199" s="575" t="s">
         <v>1828</v>
       </c>
-      <c r="R199" s="540"/>
-      <c r="S199" s="541"/>
+      <c r="R199" s="576"/>
+      <c r="S199" s="577"/>
       <c r="T199" s="138" t="s">
         <v>571</v>
       </c>
@@ -26763,11 +26763,11 @@
         <v>13</v>
       </c>
       <c r="P202" s="122"/>
-      <c r="Q202" s="539" t="s">
+      <c r="Q202" s="575" t="s">
         <v>1830</v>
       </c>
-      <c r="R202" s="540"/>
-      <c r="S202" s="541"/>
+      <c r="R202" s="576"/>
+      <c r="S202" s="577"/>
       <c r="T202" s="118" t="s">
         <v>582</v>
       </c>
@@ -27313,11 +27313,11 @@
         <v>13</v>
       </c>
       <c r="P210" s="317"/>
-      <c r="Q210" s="554" t="s">
+      <c r="Q210" s="578" t="s">
         <v>1857</v>
       </c>
-      <c r="R210" s="555"/>
-      <c r="S210" s="556"/>
+      <c r="R210" s="579"/>
+      <c r="S210" s="580"/>
       <c r="T210" s="222" t="s">
         <v>910</v>
       </c>
@@ -27375,11 +27375,11 @@
         <v>13</v>
       </c>
       <c r="P211" s="419"/>
-      <c r="Q211" s="557" t="s">
+      <c r="Q211" s="581" t="s">
         <v>1860</v>
       </c>
-      <c r="R211" s="558"/>
-      <c r="S211" s="559"/>
+      <c r="R211" s="582"/>
+      <c r="S211" s="583"/>
       <c r="T211" s="420"/>
       <c r="U211" s="421"/>
       <c r="V211" s="460"/>
@@ -28734,7 +28734,7 @@
       <c r="AD229" s="169"/>
       <c r="AE229" s="169"/>
     </row>
-    <row r="230" spans="1:31" ht="40.5">
+    <row r="230" spans="1:31" ht="40.5" hidden="1">
       <c r="A230" s="32">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -29396,7 +29396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="240" spans="1:31" ht="135">
+    <row r="240" spans="1:31" ht="135" hidden="1">
       <c r="A240" s="32">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -29448,7 +29448,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="241" spans="1:31" ht="15">
+    <row r="241" spans="1:31" ht="15" hidden="1">
       <c r="A241" s="32">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -29508,7 +29508,7 @@
       <c r="AD241" s="169"/>
       <c r="AE241" s="169"/>
     </row>
-    <row r="242" spans="1:31" ht="27">
+    <row r="242" spans="1:31" ht="27" hidden="1">
       <c r="A242" s="32">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -30028,16 +30028,16 @@
       <c r="M249" s="490" t="s">
         <v>1525</v>
       </c>
-      <c r="N249" s="545" t="s">
+      <c r="N249" s="569" t="s">
         <v>971</v>
       </c>
-      <c r="O249" s="546"/>
-      <c r="P249" s="546"/>
-      <c r="Q249" s="546"/>
-      <c r="R249" s="546"/>
-      <c r="S249" s="546"/>
-      <c r="T249" s="546"/>
-      <c r="U249" s="547"/>
+      <c r="O249" s="570"/>
+      <c r="P249" s="570"/>
+      <c r="Q249" s="570"/>
+      <c r="R249" s="570"/>
+      <c r="S249" s="570"/>
+      <c r="T249" s="570"/>
+      <c r="U249" s="571"/>
       <c r="V249" s="491" t="s">
         <v>132</v>
       </c>
@@ -30082,16 +30082,16 @@
       <c r="M250" s="502" t="s">
         <v>1526</v>
       </c>
-      <c r="N250" s="548" t="s">
+      <c r="N250" s="572" t="s">
         <v>732</v>
       </c>
-      <c r="O250" s="549"/>
-      <c r="P250" s="549"/>
-      <c r="Q250" s="549"/>
-      <c r="R250" s="549"/>
-      <c r="S250" s="549"/>
-      <c r="T250" s="549"/>
-      <c r="U250" s="550"/>
+      <c r="O250" s="573"/>
+      <c r="P250" s="573"/>
+      <c r="Q250" s="573"/>
+      <c r="R250" s="573"/>
+      <c r="S250" s="573"/>
+      <c r="T250" s="573"/>
+      <c r="U250" s="574"/>
       <c r="V250" s="503" t="s">
         <v>132</v>
       </c>
@@ -30134,16 +30134,16 @@
       <c r="M251" s="502" t="s">
         <v>1527</v>
       </c>
-      <c r="N251" s="548" t="s">
+      <c r="N251" s="572" t="s">
         <v>972</v>
       </c>
-      <c r="O251" s="549"/>
-      <c r="P251" s="549"/>
-      <c r="Q251" s="549"/>
-      <c r="R251" s="549"/>
-      <c r="S251" s="549"/>
-      <c r="T251" s="549"/>
-      <c r="U251" s="550"/>
+      <c r="O251" s="573"/>
+      <c r="P251" s="573"/>
+      <c r="Q251" s="573"/>
+      <c r="R251" s="573"/>
+      <c r="S251" s="573"/>
+      <c r="T251" s="573"/>
+      <c r="U251" s="574"/>
       <c r="V251" s="506" t="s">
         <v>132</v>
       </c>
@@ -30387,7 +30387,7 @@
       <c r="AD254" s="348"/>
       <c r="AE254" s="348"/>
     </row>
-    <row r="255" spans="1:31">
+    <row r="255" spans="1:31" hidden="1">
       <c r="A255" s="32">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -30470,16 +30470,16 @@
       <c r="M256" s="385" t="s">
         <v>1531</v>
       </c>
-      <c r="N256" s="551" t="s">
+      <c r="N256" s="546" t="s">
         <v>1099</v>
       </c>
-      <c r="O256" s="552"/>
-      <c r="P256" s="552"/>
-      <c r="Q256" s="552"/>
-      <c r="R256" s="552"/>
-      <c r="S256" s="552"/>
-      <c r="T256" s="552"/>
-      <c r="U256" s="553"/>
+      <c r="O256" s="547"/>
+      <c r="P256" s="547"/>
+      <c r="Q256" s="547"/>
+      <c r="R256" s="547"/>
+      <c r="S256" s="547"/>
+      <c r="T256" s="547"/>
+      <c r="U256" s="548"/>
       <c r="V256" s="155" t="s">
         <v>163</v>
       </c>
@@ -30544,16 +30544,16 @@
       <c r="M257" s="385" t="s">
         <v>1532</v>
       </c>
-      <c r="N257" s="551" t="s">
+      <c r="N257" s="546" t="s">
         <v>1094</v>
       </c>
-      <c r="O257" s="552"/>
-      <c r="P257" s="552"/>
-      <c r="Q257" s="552"/>
-      <c r="R257" s="552"/>
-      <c r="S257" s="552"/>
-      <c r="T257" s="552"/>
-      <c r="U257" s="553"/>
+      <c r="O257" s="547"/>
+      <c r="P257" s="547"/>
+      <c r="Q257" s="547"/>
+      <c r="R257" s="547"/>
+      <c r="S257" s="547"/>
+      <c r="T257" s="547"/>
+      <c r="U257" s="548"/>
       <c r="V257" s="155" t="s">
         <v>163</v>
       </c>
@@ -30608,16 +30608,16 @@
       <c r="M258" s="385" t="s">
         <v>1533</v>
       </c>
-      <c r="N258" s="551" t="s">
+      <c r="N258" s="546" t="s">
         <v>1095</v>
       </c>
-      <c r="O258" s="552"/>
-      <c r="P258" s="552"/>
-      <c r="Q258" s="552"/>
-      <c r="R258" s="552"/>
-      <c r="S258" s="552"/>
-      <c r="T258" s="552"/>
-      <c r="U258" s="553"/>
+      <c r="O258" s="547"/>
+      <c r="P258" s="547"/>
+      <c r="Q258" s="547"/>
+      <c r="R258" s="547"/>
+      <c r="S258" s="547"/>
+      <c r="T258" s="547"/>
+      <c r="U258" s="548"/>
       <c r="V258" s="155" t="s">
         <v>163</v>
       </c>
@@ -32969,7 +32969,7 @@
       <c r="AD291" s="169"/>
       <c r="AE291" s="169"/>
     </row>
-    <row r="292" spans="1:31" s="3" customFormat="1" ht="27">
+    <row r="292" spans="1:31" s="3" customFormat="1" ht="27" hidden="1">
       <c r="A292" s="32">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -33013,7 +33013,7 @@
       <c r="AD292" s="348"/>
       <c r="AE292" s="348"/>
     </row>
-    <row r="293" spans="1:31" s="3" customFormat="1">
+    <row r="293" spans="1:31" s="3" customFormat="1" hidden="1">
       <c r="A293" s="32">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -34055,7 +34055,7 @@
       <c r="AD307" s="137"/>
       <c r="AE307" s="350"/>
     </row>
-    <row r="308" spans="1:37">
+    <row r="308" spans="1:37" hidden="1">
       <c r="E308" s="309"/>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
@@ -34088,17 +34088,17 @@
       <c r="AJ308" s="315"/>
       <c r="AK308" s="316"/>
     </row>
-    <row r="309" spans="1:37">
+    <row r="309" spans="1:37" hidden="1">
       <c r="E309" s="309"/>
       <c r="K309" s="309"/>
-      <c r="M309" s="576" t="s">
+      <c r="M309" s="558" t="s">
         <v>1134</v>
       </c>
-      <c r="N309" s="577"/>
-      <c r="O309" s="577"/>
-      <c r="P309" s="577"/>
-      <c r="Q309" s="577"/>
-      <c r="R309" s="578"/>
+      <c r="N309" s="559"/>
+      <c r="O309" s="559"/>
+      <c r="P309" s="559"/>
+      <c r="Q309" s="559"/>
+      <c r="R309" s="560"/>
       <c r="S309" s="156" t="s">
         <v>43</v>
       </c>
@@ -34113,17 +34113,17 @@
       <c r="Z309" s="319"/>
       <c r="AA309" s="413"/>
     </row>
-    <row r="310" spans="1:37">
+    <row r="310" spans="1:37" hidden="1">
       <c r="E310" s="309"/>
       <c r="K310" s="309"/>
-      <c r="M310" s="579" t="s">
+      <c r="M310" s="561" t="s">
         <v>1135</v>
       </c>
-      <c r="N310" s="580"/>
-      <c r="O310" s="580"/>
-      <c r="P310" s="580"/>
-      <c r="Q310" s="580"/>
-      <c r="R310" s="581"/>
+      <c r="N310" s="562"/>
+      <c r="O310" s="562"/>
+      <c r="P310" s="562"/>
+      <c r="Q310" s="562"/>
+      <c r="R310" s="563"/>
       <c r="S310" s="321" t="s">
         <v>16</v>
       </c>
@@ -34138,17 +34138,17 @@
       <c r="Z310" s="319"/>
       <c r="AA310" s="413"/>
     </row>
-    <row r="311" spans="1:37">
+    <row r="311" spans="1:37" hidden="1">
       <c r="E311" s="309"/>
       <c r="K311" s="309"/>
-      <c r="M311" s="566" t="s">
+      <c r="M311" s="550" t="s">
         <v>1132</v>
       </c>
-      <c r="N311" s="567"/>
-      <c r="O311" s="567"/>
-      <c r="P311" s="567"/>
-      <c r="Q311" s="567"/>
-      <c r="R311" s="582"/>
+      <c r="N311" s="551"/>
+      <c r="O311" s="551"/>
+      <c r="P311" s="551"/>
+      <c r="Q311" s="551"/>
+      <c r="R311" s="564"/>
       <c r="S311" s="156" t="s">
         <v>57</v>
       </c>
@@ -34163,17 +34163,17 @@
       <c r="Z311" s="319"/>
       <c r="AA311" s="413"/>
     </row>
-    <row r="312" spans="1:37">
+    <row r="312" spans="1:37" hidden="1">
       <c r="E312" s="309"/>
       <c r="K312" s="309"/>
-      <c r="M312" s="572" t="s">
+      <c r="M312" s="555" t="s">
         <v>1133</v>
       </c>
-      <c r="N312" s="573"/>
-      <c r="O312" s="573"/>
-      <c r="P312" s="573"/>
-      <c r="Q312" s="573"/>
-      <c r="R312" s="583"/>
+      <c r="N312" s="534"/>
+      <c r="O312" s="534"/>
+      <c r="P312" s="534"/>
+      <c r="Q312" s="534"/>
+      <c r="R312" s="565"/>
       <c r="S312" s="156" t="s">
         <v>97</v>
       </c>
@@ -34188,17 +34188,17 @@
       <c r="Z312" s="319"/>
       <c r="AA312" s="413"/>
     </row>
-    <row r="313" spans="1:37">
+    <row r="313" spans="1:37" hidden="1">
       <c r="E313" s="309"/>
       <c r="K313" s="309"/>
-      <c r="M313" s="563" t="s">
+      <c r="M313" s="538" t="s">
         <v>1066</v>
       </c>
-      <c r="N313" s="564"/>
-      <c r="O313" s="564"/>
-      <c r="P313" s="564"/>
-      <c r="Q313" s="564"/>
-      <c r="R313" s="575"/>
+      <c r="N313" s="539"/>
+      <c r="O313" s="539"/>
+      <c r="P313" s="539"/>
+      <c r="Q313" s="539"/>
+      <c r="R313" s="557"/>
       <c r="S313" s="321" t="s">
         <v>43</v>
       </c>
@@ -34213,17 +34213,17 @@
       <c r="Z313" s="319"/>
       <c r="AA313" s="413"/>
     </row>
-    <row r="314" spans="1:37">
+    <row r="314" spans="1:37" hidden="1">
       <c r="E314" s="309"/>
       <c r="K314" s="309"/>
-      <c r="M314" s="563" t="s">
+      <c r="M314" s="538" t="s">
         <v>1062</v>
       </c>
-      <c r="N314" s="564"/>
-      <c r="O314" s="564"/>
-      <c r="P314" s="564"/>
-      <c r="Q314" s="564"/>
-      <c r="R314" s="575"/>
+      <c r="N314" s="539"/>
+      <c r="O314" s="539"/>
+      <c r="P314" s="539"/>
+      <c r="Q314" s="539"/>
+      <c r="R314" s="557"/>
       <c r="S314" s="175" t="s">
         <v>81</v>
       </c>
@@ -34238,17 +34238,17 @@
       <c r="Z314" s="319"/>
       <c r="AA314" s="413"/>
     </row>
-    <row r="315" spans="1:37">
+    <row r="315" spans="1:37" hidden="1">
       <c r="E315" s="309"/>
       <c r="K315" s="309"/>
-      <c r="M315" s="566" t="s">
+      <c r="M315" s="550" t="s">
         <v>919</v>
       </c>
-      <c r="N315" s="567"/>
-      <c r="O315" s="567"/>
-      <c r="P315" s="567"/>
-      <c r="Q315" s="567"/>
-      <c r="R315" s="568"/>
+      <c r="N315" s="551"/>
+      <c r="O315" s="551"/>
+      <c r="P315" s="551"/>
+      <c r="Q315" s="551"/>
+      <c r="R315" s="552"/>
       <c r="S315" s="322" t="s">
         <v>915</v>
       </c>
@@ -34266,15 +34266,15 @@
       <c r="AD315" s="313"/>
       <c r="AE315" s="313"/>
     </row>
-    <row r="316" spans="1:37">
+    <row r="316" spans="1:37" hidden="1">
       <c r="E316" s="309"/>
       <c r="K316" s="309"/>
-      <c r="M316" s="569"/>
-      <c r="N316" s="570"/>
-      <c r="O316" s="570"/>
-      <c r="P316" s="570"/>
-      <c r="Q316" s="570"/>
-      <c r="R316" s="571"/>
+      <c r="M316" s="553"/>
+      <c r="N316" s="533"/>
+      <c r="O316" s="533"/>
+      <c r="P316" s="533"/>
+      <c r="Q316" s="533"/>
+      <c r="R316" s="554"/>
       <c r="S316" s="325" t="s">
         <v>916</v>
       </c>
@@ -34292,15 +34292,15 @@
       <c r="AD316" s="313"/>
       <c r="AE316" s="313"/>
     </row>
-    <row r="317" spans="1:37">
+    <row r="317" spans="1:37" hidden="1">
       <c r="E317" s="309"/>
       <c r="K317" s="309"/>
-      <c r="M317" s="569"/>
-      <c r="N317" s="570"/>
-      <c r="O317" s="570"/>
-      <c r="P317" s="570"/>
-      <c r="Q317" s="570"/>
-      <c r="R317" s="571"/>
+      <c r="M317" s="553"/>
+      <c r="N317" s="533"/>
+      <c r="O317" s="533"/>
+      <c r="P317" s="533"/>
+      <c r="Q317" s="533"/>
+      <c r="R317" s="554"/>
       <c r="S317" s="326" t="s">
         <v>917</v>
       </c>
@@ -34318,15 +34318,15 @@
       <c r="AD317" s="313"/>
       <c r="AE317" s="313"/>
     </row>
-    <row r="318" spans="1:37">
+    <row r="318" spans="1:37" hidden="1">
       <c r="E318" s="309"/>
       <c r="K318" s="309"/>
-      <c r="M318" s="572"/>
-      <c r="N318" s="573"/>
-      <c r="O318" s="573"/>
-      <c r="P318" s="573"/>
-      <c r="Q318" s="573"/>
-      <c r="R318" s="574"/>
+      <c r="M318" s="555"/>
+      <c r="N318" s="534"/>
+      <c r="O318" s="534"/>
+      <c r="P318" s="534"/>
+      <c r="Q318" s="534"/>
+      <c r="R318" s="556"/>
       <c r="S318" s="327" t="s">
         <v>918</v>
       </c>
@@ -34344,17 +34344,17 @@
       <c r="AD318" s="313"/>
       <c r="AE318" s="313"/>
     </row>
-    <row r="319" spans="1:37">
+    <row r="319" spans="1:37" hidden="1">
       <c r="E319" s="309"/>
       <c r="K319" s="309"/>
-      <c r="M319" s="563" t="s">
+      <c r="M319" s="538" t="s">
         <v>1065</v>
       </c>
-      <c r="N319" s="564"/>
-      <c r="O319" s="564"/>
-      <c r="P319" s="564"/>
-      <c r="Q319" s="564"/>
-      <c r="R319" s="565"/>
+      <c r="N319" s="539"/>
+      <c r="O319" s="539"/>
+      <c r="P319" s="539"/>
+      <c r="Q319" s="539"/>
+      <c r="R319" s="549"/>
       <c r="S319" s="7" t="s">
         <v>1063</v>
       </c>
@@ -34370,7 +34370,7 @@
       <c r="AA319" s="324"/>
       <c r="AB319" s="4"/>
     </row>
-    <row r="320" spans="1:37">
+    <row r="320" spans="1:37" hidden="1">
       <c r="E320" s="309"/>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
@@ -34383,7 +34383,7 @@
       <c r="W320" s="309"/>
       <c r="AB320" s="4"/>
     </row>
-    <row r="321" spans="5:28">
+    <row r="321" spans="5:28" hidden="1">
       <c r="E321" s="309"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -34396,7 +34396,7 @@
       <c r="W321" s="309"/>
       <c r="AB321" s="4"/>
     </row>
-    <row r="322" spans="5:28">
+    <row r="322" spans="5:28" hidden="1">
       <c r="E322" s="309"/>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
@@ -34409,7 +34409,7 @@
       <c r="W322" s="309"/>
       <c r="AB322" s="4"/>
     </row>
-    <row r="323" spans="5:28">
+    <row r="323" spans="5:28" hidden="1">
       <c r="E323" s="309"/>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
@@ -34422,7 +34422,7 @@
       <c r="W323" s="309"/>
       <c r="AB323" s="4"/>
     </row>
-    <row r="324" spans="5:28">
+    <row r="324" spans="5:28" hidden="1">
       <c r="E324" s="309"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -34435,7 +34435,7 @@
       <c r="W324" s="309"/>
       <c r="AB324" s="4"/>
     </row>
-    <row r="325" spans="5:28">
+    <row r="325" spans="5:28" hidden="1">
       <c r="E325" s="309"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
@@ -34448,7 +34448,7 @@
       <c r="W325" s="309"/>
       <c r="AB325" s="4"/>
     </row>
-    <row r="326" spans="5:28">
+    <row r="326" spans="5:28" hidden="1">
       <c r="E326" s="309"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
@@ -34461,7 +34461,7 @@
       <c r="W326" s="309"/>
       <c r="AB326" s="4"/>
     </row>
-    <row r="327" spans="5:28">
+    <row r="327" spans="5:28" hidden="1">
       <c r="E327" s="309"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
@@ -34474,7 +34474,7 @@
       <c r="W327" s="309"/>
       <c r="AB327" s="4"/>
     </row>
-    <row r="328" spans="5:28">
+    <row r="328" spans="5:28" hidden="1">
       <c r="E328" s="309"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
@@ -34487,7 +34487,7 @@
       <c r="W328" s="309"/>
       <c r="AB328" s="4"/>
     </row>
-    <row r="329" spans="5:28">
+    <row r="329" spans="5:28" hidden="1">
       <c r="E329" s="309"/>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
@@ -34500,7 +34500,7 @@
       <c r="W329" s="309"/>
       <c r="AB329" s="4"/>
     </row>
-    <row r="330" spans="5:28">
+    <row r="330" spans="5:28" hidden="1">
       <c r="E330" s="309"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -34513,7 +34513,7 @@
       <c r="W330" s="309"/>
       <c r="AB330" s="4"/>
     </row>
-    <row r="331" spans="5:28">
+    <row r="331" spans="5:28" hidden="1">
       <c r="E331" s="309"/>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -34526,7 +34526,7 @@
       <c r="W331" s="309"/>
       <c r="AB331" s="4"/>
     </row>
-    <row r="332" spans="5:28">
+    <row r="332" spans="5:28" hidden="1">
       <c r="E332" s="309"/>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
@@ -34539,7 +34539,7 @@
       <c r="W332" s="309"/>
       <c r="AB332" s="4"/>
     </row>
-    <row r="333" spans="5:28">
+    <row r="333" spans="5:28" hidden="1">
       <c r="E333" s="309"/>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
@@ -34552,7 +34552,7 @@
       <c r="W333" s="309"/>
       <c r="AB333" s="4"/>
     </row>
-    <row r="334" spans="5:28">
+    <row r="334" spans="5:28" hidden="1">
       <c r="E334" s="309"/>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
@@ -34565,7 +34565,7 @@
       <c r="W334" s="309"/>
       <c r="AB334" s="4"/>
     </row>
-    <row r="335" spans="5:28">
+    <row r="335" spans="5:28" hidden="1">
       <c r="E335" s="309"/>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
@@ -34578,7 +34578,7 @@
       <c r="W335" s="309"/>
       <c r="AB335" s="4"/>
     </row>
-    <row r="336" spans="5:28">
+    <row r="336" spans="5:28" hidden="1">
       <c r="E336" s="309"/>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
@@ -34591,7 +34591,7 @@
       <c r="W336" s="309"/>
       <c r="AB336" s="4"/>
     </row>
-    <row r="337" spans="5:28">
+    <row r="337" spans="5:28" hidden="1">
       <c r="E337" s="309"/>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
@@ -34604,7 +34604,7 @@
       <c r="W337" s="309"/>
       <c r="AB337" s="4"/>
     </row>
-    <row r="338" spans="5:28">
+    <row r="338" spans="5:28" hidden="1">
       <c r="E338" s="309"/>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
@@ -34617,7 +34617,7 @@
       <c r="W338" s="309"/>
       <c r="AB338" s="4"/>
     </row>
-    <row r="339" spans="5:28">
+    <row r="339" spans="5:28" hidden="1">
       <c r="E339" s="309"/>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
@@ -34630,7 +34630,7 @@
       <c r="W339" s="309"/>
       <c r="AB339" s="4"/>
     </row>
-    <row r="340" spans="5:28">
+    <row r="340" spans="5:28" hidden="1">
       <c r="E340" s="309"/>
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
@@ -34643,7 +34643,7 @@
       <c r="W340" s="309"/>
       <c r="AB340" s="4"/>
     </row>
-    <row r="341" spans="5:28">
+    <row r="341" spans="5:28" hidden="1">
       <c r="E341" s="309"/>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
@@ -34656,7 +34656,7 @@
       <c r="W341" s="309"/>
       <c r="AB341" s="4"/>
     </row>
-    <row r="342" spans="5:28">
+    <row r="342" spans="5:28" hidden="1">
       <c r="E342" s="309"/>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
@@ -34669,7 +34669,7 @@
       <c r="W342" s="309"/>
       <c r="AB342" s="4"/>
     </row>
-    <row r="343" spans="5:28">
+    <row r="343" spans="5:28" hidden="1">
       <c r="E343" s="309"/>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
@@ -34682,7 +34682,7 @@
       <c r="W343" s="309"/>
       <c r="AB343" s="4"/>
     </row>
-    <row r="344" spans="5:28">
+    <row r="344" spans="5:28" hidden="1">
       <c r="E344" s="309"/>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
@@ -34695,7 +34695,7 @@
       <c r="W344" s="309"/>
       <c r="AB344" s="4"/>
     </row>
-    <row r="345" spans="5:28">
+    <row r="345" spans="5:28" hidden="1">
       <c r="E345" s="309"/>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
@@ -34708,7 +34708,7 @@
       <c r="W345" s="309"/>
       <c r="AB345" s="4"/>
     </row>
-    <row r="346" spans="5:28">
+    <row r="346" spans="5:28" hidden="1">
       <c r="E346" s="309"/>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
@@ -34721,7 +34721,7 @@
       <c r="W346" s="309"/>
       <c r="AB346" s="4"/>
     </row>
-    <row r="347" spans="5:28">
+    <row r="347" spans="5:28" hidden="1">
       <c r="E347" s="309"/>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
@@ -34734,7 +34734,7 @@
       <c r="W347" s="309"/>
       <c r="AB347" s="4"/>
     </row>
-    <row r="348" spans="5:28">
+    <row r="348" spans="5:28" hidden="1">
       <c r="E348" s="309"/>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
@@ -34747,7 +34747,7 @@
       <c r="W348" s="309"/>
       <c r="AB348" s="4"/>
     </row>
-    <row r="349" spans="5:28">
+    <row r="349" spans="5:28" hidden="1">
       <c r="E349" s="309"/>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
@@ -34760,7 +34760,7 @@
       <c r="W349" s="309"/>
       <c r="AB349" s="4"/>
     </row>
-    <row r="350" spans="5:28">
+    <row r="350" spans="5:28" hidden="1">
       <c r="E350" s="309"/>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
@@ -34773,7 +34773,7 @@
       <c r="W350" s="309"/>
       <c r="AB350" s="4"/>
     </row>
-    <row r="351" spans="5:28">
+    <row r="351" spans="5:28" hidden="1">
       <c r="E351" s="309"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
@@ -34786,7 +34786,7 @@
       <c r="W351" s="309"/>
       <c r="AB351" s="4"/>
     </row>
-    <row r="352" spans="5:28">
+    <row r="352" spans="5:28" hidden="1">
       <c r="E352" s="309"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -34799,7 +34799,7 @@
       <c r="W352" s="309"/>
       <c r="AB352" s="4"/>
     </row>
-    <row r="353" spans="5:28">
+    <row r="353" spans="5:28" hidden="1">
       <c r="E353" s="309"/>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
@@ -34812,7 +34812,7 @@
       <c r="W353" s="309"/>
       <c r="AB353" s="4"/>
     </row>
-    <row r="354" spans="5:28">
+    <row r="354" spans="5:28" hidden="1">
       <c r="E354" s="309"/>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
@@ -34825,7 +34825,7 @@
       <c r="W354" s="309"/>
       <c r="AB354" s="4"/>
     </row>
-    <row r="355" spans="5:28">
+    <row r="355" spans="5:28" hidden="1">
       <c r="E355" s="309"/>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
@@ -34838,7 +34838,7 @@
       <c r="W355" s="309"/>
       <c r="AB355" s="4"/>
     </row>
-    <row r="356" spans="5:28">
+    <row r="356" spans="5:28" hidden="1">
       <c r="E356" s="309"/>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
@@ -34851,7 +34851,7 @@
       <c r="W356" s="309"/>
       <c r="AB356" s="4"/>
     </row>
-    <row r="357" spans="5:28">
+    <row r="357" spans="5:28" hidden="1">
       <c r="E357" s="309"/>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
@@ -34864,7 +34864,7 @@
       <c r="W357" s="309"/>
       <c r="AB357" s="4"/>
     </row>
-    <row r="358" spans="5:28">
+    <row r="358" spans="5:28" hidden="1">
       <c r="E358" s="309"/>
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
@@ -34877,7 +34877,7 @@
       <c r="W358" s="309"/>
       <c r="AB358" s="4"/>
     </row>
-    <row r="359" spans="5:28">
+    <row r="359" spans="5:28" hidden="1">
       <c r="E359" s="309"/>
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
@@ -34890,7 +34890,7 @@
       <c r="W359" s="309"/>
       <c r="AB359" s="4"/>
     </row>
-    <row r="360" spans="5:28">
+    <row r="360" spans="5:28" hidden="1">
       <c r="E360" s="309"/>
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
@@ -34903,7 +34903,7 @@
       <c r="W360" s="309"/>
       <c r="AB360" s="4"/>
     </row>
-    <row r="361" spans="5:28">
+    <row r="361" spans="5:28" hidden="1">
       <c r="E361" s="309"/>
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
@@ -34916,7 +34916,7 @@
       <c r="W361" s="309"/>
       <c r="AB361" s="4"/>
     </row>
-    <row r="362" spans="5:28">
+    <row r="362" spans="5:28" hidden="1">
       <c r="E362" s="309"/>
       <c r="F362" s="2"/>
       <c r="G362" s="2"/>
@@ -34929,7 +34929,7 @@
       <c r="W362" s="309"/>
       <c r="AB362" s="4"/>
     </row>
-    <row r="363" spans="5:28">
+    <row r="363" spans="5:28" hidden="1">
       <c r="E363" s="309"/>
       <c r="F363" s="2"/>
       <c r="G363" s="2"/>
@@ -34942,7 +34942,7 @@
       <c r="W363" s="309"/>
       <c r="AB363" s="4"/>
     </row>
-    <row r="364" spans="5:28">
+    <row r="364" spans="5:28" hidden="1">
       <c r="E364" s="309"/>
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
@@ -34955,7 +34955,7 @@
       <c r="W364" s="309"/>
       <c r="AB364" s="4"/>
     </row>
-    <row r="365" spans="5:28">
+    <row r="365" spans="5:28" hidden="1">
       <c r="E365" s="309"/>
       <c r="F365" s="2"/>
       <c r="G365" s="2"/>
@@ -34968,7 +34968,7 @@
       <c r="W365" s="309"/>
       <c r="AB365" s="4"/>
     </row>
-    <row r="366" spans="5:28">
+    <row r="366" spans="5:28" hidden="1">
       <c r="E366" s="309"/>
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
@@ -34981,7 +34981,7 @@
       <c r="W366" s="309"/>
       <c r="AB366" s="4"/>
     </row>
-    <row r="367" spans="5:28">
+    <row r="367" spans="5:28" hidden="1">
       <c r="E367" s="309"/>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
@@ -34994,7 +34994,7 @@
       <c r="W367" s="309"/>
       <c r="AB367" s="4"/>
     </row>
-    <row r="368" spans="5:28">
+    <row r="368" spans="5:28" hidden="1">
       <c r="E368" s="309"/>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
@@ -35007,7 +35007,7 @@
       <c r="W368" s="309"/>
       <c r="AB368" s="4"/>
     </row>
-    <row r="369" spans="5:28">
+    <row r="369" spans="5:28" hidden="1">
       <c r="E369" s="309"/>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
@@ -35020,7 +35020,7 @@
       <c r="W369" s="309"/>
       <c r="AB369" s="4"/>
     </row>
-    <row r="370" spans="5:28">
+    <row r="370" spans="5:28" hidden="1">
       <c r="E370" s="309"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
@@ -35033,7 +35033,7 @@
       <c r="W370" s="309"/>
       <c r="AB370" s="4"/>
     </row>
-    <row r="371" spans="5:28">
+    <row r="371" spans="5:28" hidden="1">
       <c r="E371" s="309"/>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
@@ -35046,7 +35046,7 @@
       <c r="W371" s="309"/>
       <c r="AB371" s="4"/>
     </row>
-    <row r="372" spans="5:28">
+    <row r="372" spans="5:28" hidden="1">
       <c r="E372" s="309"/>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
@@ -35059,7 +35059,7 @@
       <c r="W372" s="309"/>
       <c r="AB372" s="4"/>
     </row>
-    <row r="373" spans="5:28">
+    <row r="373" spans="5:28" hidden="1">
       <c r="E373" s="309"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
@@ -35072,7 +35072,7 @@
       <c r="W373" s="309"/>
       <c r="AB373" s="4"/>
     </row>
-    <row r="374" spans="5:28">
+    <row r="374" spans="5:28" hidden="1">
       <c r="E374" s="309"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
@@ -35085,7 +35085,7 @@
       <c r="W374" s="309"/>
       <c r="AB374" s="4"/>
     </row>
-    <row r="375" spans="5:28">
+    <row r="375" spans="5:28" hidden="1">
       <c r="E375" s="309"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
@@ -35098,7 +35098,7 @@
       <c r="W375" s="309"/>
       <c r="AB375" s="4"/>
     </row>
-    <row r="376" spans="5:28">
+    <row r="376" spans="5:28" hidden="1">
       <c r="E376" s="309"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
@@ -35111,7 +35111,7 @@
       <c r="W376" s="309"/>
       <c r="AB376" s="4"/>
     </row>
-    <row r="377" spans="5:28">
+    <row r="377" spans="5:28" hidden="1">
       <c r="E377" s="309"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
@@ -35124,7 +35124,7 @@
       <c r="W377" s="309"/>
       <c r="AB377" s="4"/>
     </row>
-    <row r="378" spans="5:28">
+    <row r="378" spans="5:28" hidden="1">
       <c r="E378" s="309"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
@@ -35137,7 +35137,7 @@
       <c r="W378" s="309"/>
       <c r="AB378" s="4"/>
     </row>
-    <row r="379" spans="5:28">
+    <row r="379" spans="5:28" hidden="1">
       <c r="E379" s="309"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
@@ -35150,7 +35150,7 @@
       <c r="W379" s="309"/>
       <c r="AB379" s="4"/>
     </row>
-    <row r="380" spans="5:28">
+    <row r="380" spans="5:28" hidden="1">
       <c r="E380" s="309"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
@@ -35163,7 +35163,7 @@
       <c r="W380" s="309"/>
       <c r="AB380" s="4"/>
     </row>
-    <row r="381" spans="5:28">
+    <row r="381" spans="5:28" hidden="1">
       <c r="E381" s="309"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
@@ -35176,7 +35176,7 @@
       <c r="W381" s="309"/>
       <c r="AB381" s="4"/>
     </row>
-    <row r="382" spans="5:28">
+    <row r="382" spans="5:28" hidden="1">
       <c r="E382" s="309"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
@@ -35189,7 +35189,7 @@
       <c r="W382" s="309"/>
       <c r="AB382" s="4"/>
     </row>
-    <row r="383" spans="5:28">
+    <row r="383" spans="5:28" hidden="1">
       <c r="E383" s="309"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
@@ -35202,7 +35202,7 @@
       <c r="W383" s="309"/>
       <c r="AB383" s="4"/>
     </row>
-    <row r="384" spans="5:28">
+    <row r="384" spans="5:28" hidden="1">
       <c r="E384" s="309"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
@@ -35215,7 +35215,7 @@
       <c r="W384" s="309"/>
       <c r="AB384" s="4"/>
     </row>
-    <row r="385" spans="5:28">
+    <row r="385" spans="5:28" hidden="1">
       <c r="E385" s="309"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
@@ -35228,7 +35228,7 @@
       <c r="W385" s="309"/>
       <c r="AB385" s="4"/>
     </row>
-    <row r="386" spans="5:28">
+    <row r="386" spans="5:28" hidden="1">
       <c r="E386" s="309"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
@@ -35241,7 +35241,7 @@
       <c r="W386" s="309"/>
       <c r="AB386" s="4"/>
     </row>
-    <row r="387" spans="5:28">
+    <row r="387" spans="5:28" hidden="1">
       <c r="E387" s="309"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
@@ -35254,7 +35254,7 @@
       <c r="W387" s="309"/>
       <c r="AB387" s="4"/>
     </row>
-    <row r="388" spans="5:28">
+    <row r="388" spans="5:28" hidden="1">
       <c r="E388" s="309"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -35267,7 +35267,7 @@
       <c r="W388" s="309"/>
       <c r="AB388" s="4"/>
     </row>
-    <row r="389" spans="5:28">
+    <row r="389" spans="5:28" hidden="1">
       <c r="E389" s="309"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
@@ -35280,7 +35280,7 @@
       <c r="W389" s="309"/>
       <c r="AB389" s="4"/>
     </row>
-    <row r="390" spans="5:28">
+    <row r="390" spans="5:28" hidden="1">
       <c r="E390" s="309"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
@@ -35293,7 +35293,7 @@
       <c r="W390" s="309"/>
       <c r="AB390" s="4"/>
     </row>
-    <row r="391" spans="5:28">
+    <row r="391" spans="5:28" hidden="1">
       <c r="E391" s="309"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
@@ -35306,7 +35306,7 @@
       <c r="W391" s="309"/>
       <c r="AB391" s="4"/>
     </row>
-    <row r="392" spans="5:28">
+    <row r="392" spans="5:28" hidden="1">
       <c r="E392" s="309"/>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
@@ -35319,7 +35319,7 @@
       <c r="W392" s="309"/>
       <c r="AB392" s="4"/>
     </row>
-    <row r="393" spans="5:28">
+    <row r="393" spans="5:28" hidden="1">
       <c r="E393" s="309"/>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
@@ -35332,7 +35332,7 @@
       <c r="W393" s="309"/>
       <c r="AB393" s="4"/>
     </row>
-    <row r="394" spans="5:28">
+    <row r="394" spans="5:28" hidden="1">
       <c r="E394" s="309"/>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
@@ -35345,7 +35345,7 @@
       <c r="W394" s="309"/>
       <c r="AB394" s="4"/>
     </row>
-    <row r="395" spans="5:28">
+    <row r="395" spans="5:28" hidden="1">
       <c r="E395" s="309"/>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
@@ -35358,7 +35358,7 @@
       <c r="W395" s="309"/>
       <c r="AB395" s="4"/>
     </row>
-    <row r="396" spans="5:28">
+    <row r="396" spans="5:28" hidden="1">
       <c r="E396" s="309"/>
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
@@ -35371,7 +35371,7 @@
       <c r="W396" s="309"/>
       <c r="AB396" s="4"/>
     </row>
-    <row r="397" spans="5:28">
+    <row r="397" spans="5:28" hidden="1">
       <c r="E397" s="309"/>
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
@@ -35384,7 +35384,7 @@
       <c r="W397" s="309"/>
       <c r="AB397" s="4"/>
     </row>
-    <row r="398" spans="5:28">
+    <row r="398" spans="5:28" hidden="1">
       <c r="E398" s="309"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
@@ -35397,7 +35397,7 @@
       <c r="W398" s="309"/>
       <c r="AB398" s="4"/>
     </row>
-    <row r="399" spans="5:28">
+    <row r="399" spans="5:28" hidden="1">
       <c r="E399" s="309"/>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
@@ -35410,7 +35410,7 @@
       <c r="W399" s="309"/>
       <c r="AB399" s="4"/>
     </row>
-    <row r="400" spans="5:28">
+    <row r="400" spans="5:28" hidden="1">
       <c r="E400" s="309"/>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
@@ -35423,7 +35423,7 @@
       <c r="W400" s="309"/>
       <c r="AB400" s="4"/>
     </row>
-    <row r="401" spans="5:28">
+    <row r="401" spans="5:28" hidden="1">
       <c r="E401" s="309"/>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
@@ -35436,7 +35436,7 @@
       <c r="W401" s="309"/>
       <c r="AB401" s="4"/>
     </row>
-    <row r="402" spans="5:28">
+    <row r="402" spans="5:28" hidden="1">
       <c r="E402" s="309"/>
       <c r="F402" s="2"/>
       <c r="G402" s="2"/>
@@ -35449,7 +35449,7 @@
       <c r="W402" s="309"/>
       <c r="AB402" s="4"/>
     </row>
-    <row r="403" spans="5:28">
+    <row r="403" spans="5:28" hidden="1">
       <c r="E403" s="309"/>
       <c r="F403" s="2"/>
       <c r="G403" s="2"/>
@@ -35462,7 +35462,7 @@
       <c r="W403" s="309"/>
       <c r="AB403" s="4"/>
     </row>
-    <row r="404" spans="5:28">
+    <row r="404" spans="5:28" hidden="1">
       <c r="E404" s="309"/>
       <c r="F404" s="2"/>
       <c r="G404" s="2"/>
@@ -35475,7 +35475,7 @@
       <c r="W404" s="309"/>
       <c r="AB404" s="4"/>
     </row>
-    <row r="405" spans="5:28">
+    <row r="405" spans="5:28" hidden="1">
       <c r="E405" s="309"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -35488,7 +35488,7 @@
       <c r="W405" s="309"/>
       <c r="AB405" s="4"/>
     </row>
-    <row r="406" spans="5:28">
+    <row r="406" spans="5:28" hidden="1">
       <c r="E406" s="309"/>
       <c r="F406" s="2"/>
       <c r="G406" s="2"/>
@@ -35501,7 +35501,7 @@
       <c r="W406" s="309"/>
       <c r="AB406" s="4"/>
     </row>
-    <row r="407" spans="5:28">
+    <row r="407" spans="5:28" hidden="1">
       <c r="E407" s="309"/>
       <c r="F407" s="2"/>
       <c r="G407" s="2"/>
@@ -35514,7 +35514,7 @@
       <c r="W407" s="309"/>
       <c r="AB407" s="4"/>
     </row>
-    <row r="408" spans="5:28">
+    <row r="408" spans="5:28" hidden="1">
       <c r="E408" s="309"/>
       <c r="F408" s="2"/>
       <c r="G408" s="2"/>
@@ -35527,7 +35527,7 @@
       <c r="W408" s="309"/>
       <c r="AB408" s="4"/>
     </row>
-    <row r="409" spans="5:28">
+    <row r="409" spans="5:28" hidden="1">
       <c r="E409" s="309"/>
       <c r="F409" s="2"/>
       <c r="G409" s="2"/>
@@ -35540,7 +35540,7 @@
       <c r="W409" s="309"/>
       <c r="AB409" s="4"/>
     </row>
-    <row r="410" spans="5:28">
+    <row r="410" spans="5:28" hidden="1">
       <c r="E410" s="309"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
@@ -35553,7 +35553,7 @@
       <c r="W410" s="309"/>
       <c r="AB410" s="4"/>
     </row>
-    <row r="411" spans="5:28">
+    <row r="411" spans="5:28" hidden="1">
       <c r="E411" s="309"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
@@ -35566,7 +35566,7 @@
       <c r="W411" s="309"/>
       <c r="AB411" s="4"/>
     </row>
-    <row r="412" spans="5:28">
+    <row r="412" spans="5:28" hidden="1">
       <c r="E412" s="309"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
@@ -35579,7 +35579,7 @@
       <c r="W412" s="309"/>
       <c r="AB412" s="4"/>
     </row>
-    <row r="413" spans="5:28">
+    <row r="413" spans="5:28" hidden="1">
       <c r="E413" s="309"/>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
@@ -35592,7 +35592,7 @@
       <c r="W413" s="309"/>
       <c r="AB413" s="4"/>
     </row>
-    <row r="414" spans="5:28">
+    <row r="414" spans="5:28" hidden="1">
       <c r="E414" s="309"/>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
@@ -35605,7 +35605,7 @@
       <c r="W414" s="309"/>
       <c r="AB414" s="4"/>
     </row>
-    <row r="415" spans="5:28">
+    <row r="415" spans="5:28" hidden="1">
       <c r="E415" s="309"/>
       <c r="F415" s="2"/>
       <c r="G415" s="2"/>
@@ -35618,7 +35618,7 @@
       <c r="W415" s="309"/>
       <c r="AB415" s="4"/>
     </row>
-    <row r="416" spans="5:28">
+    <row r="416" spans="5:28" hidden="1">
       <c r="E416" s="309"/>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
@@ -35631,7 +35631,7 @@
       <c r="W416" s="309"/>
       <c r="AB416" s="4"/>
     </row>
-    <row r="417" spans="5:28">
+    <row r="417" spans="5:28" hidden="1">
       <c r="E417" s="309"/>
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
@@ -35644,7 +35644,7 @@
       <c r="W417" s="309"/>
       <c r="AB417" s="4"/>
     </row>
-    <row r="418" spans="5:28">
+    <row r="418" spans="5:28" hidden="1">
       <c r="E418" s="309"/>
       <c r="F418" s="2"/>
       <c r="G418" s="2"/>
@@ -35657,7 +35657,7 @@
       <c r="W418" s="309"/>
       <c r="AB418" s="4"/>
     </row>
-    <row r="419" spans="5:28">
+    <row r="419" spans="5:28" hidden="1">
       <c r="E419" s="309"/>
       <c r="F419" s="2"/>
       <c r="G419" s="2"/>
@@ -35670,7 +35670,7 @@
       <c r="W419" s="309"/>
       <c r="AB419" s="4"/>
     </row>
-    <row r="420" spans="5:28">
+    <row r="420" spans="5:28" hidden="1">
       <c r="E420" s="309"/>
       <c r="F420" s="2"/>
       <c r="G420" s="2"/>
@@ -35683,7 +35683,7 @@
       <c r="W420" s="309"/>
       <c r="AB420" s="4"/>
     </row>
-    <row r="421" spans="5:28">
+    <row r="421" spans="5:28" hidden="1">
       <c r="E421" s="309"/>
       <c r="F421" s="2"/>
       <c r="G421" s="2"/>
@@ -35696,7 +35696,7 @@
       <c r="W421" s="309"/>
       <c r="AB421" s="4"/>
     </row>
-    <row r="422" spans="5:28">
+    <row r="422" spans="5:28" hidden="1">
       <c r="E422" s="309"/>
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
@@ -35709,7 +35709,7 @@
       <c r="W422" s="309"/>
       <c r="AB422" s="4"/>
     </row>
-    <row r="423" spans="5:28">
+    <row r="423" spans="5:28" hidden="1">
       <c r="E423" s="309"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
@@ -35722,7 +35722,7 @@
       <c r="W423" s="309"/>
       <c r="AB423" s="4"/>
     </row>
-    <row r="424" spans="5:28">
+    <row r="424" spans="5:28" hidden="1">
       <c r="E424" s="309"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
@@ -35735,7 +35735,7 @@
       <c r="W424" s="309"/>
       <c r="AB424" s="4"/>
     </row>
-    <row r="425" spans="5:28">
+    <row r="425" spans="5:28" hidden="1">
       <c r="E425" s="309"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
@@ -35748,7 +35748,7 @@
       <c r="W425" s="309"/>
       <c r="AB425" s="4"/>
     </row>
-    <row r="426" spans="5:28">
+    <row r="426" spans="5:28" hidden="1">
       <c r="E426" s="309"/>
       <c r="F426" s="2"/>
       <c r="G426" s="2"/>
@@ -35761,7 +35761,7 @@
       <c r="W426" s="309"/>
       <c r="AB426" s="4"/>
     </row>
-    <row r="427" spans="5:28">
+    <row r="427" spans="5:28" hidden="1">
       <c r="E427" s="309"/>
       <c r="F427" s="2"/>
       <c r="G427" s="2"/>
@@ -35774,7 +35774,7 @@
       <c r="W427" s="309"/>
       <c r="AB427" s="4"/>
     </row>
-    <row r="428" spans="5:28">
+    <row r="428" spans="5:28" hidden="1">
       <c r="E428" s="309"/>
       <c r="F428" s="2"/>
       <c r="G428" s="2"/>
@@ -35787,7 +35787,7 @@
       <c r="W428" s="309"/>
       <c r="AB428" s="4"/>
     </row>
-    <row r="429" spans="5:28">
+    <row r="429" spans="5:28" hidden="1">
       <c r="E429" s="309"/>
       <c r="F429" s="2"/>
       <c r="G429" s="2"/>
@@ -35800,7 +35800,7 @@
       <c r="W429" s="309"/>
       <c r="AB429" s="4"/>
     </row>
-    <row r="430" spans="5:28">
+    <row r="430" spans="5:28" hidden="1">
       <c r="E430" s="309"/>
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
@@ -35813,7 +35813,7 @@
       <c r="W430" s="309"/>
       <c r="AB430" s="4"/>
     </row>
-    <row r="431" spans="5:28">
+    <row r="431" spans="5:28" hidden="1">
       <c r="E431" s="309"/>
       <c r="F431" s="2"/>
       <c r="G431" s="2"/>
@@ -35826,7 +35826,7 @@
       <c r="W431" s="309"/>
       <c r="AB431" s="4"/>
     </row>
-    <row r="432" spans="5:28">
+    <row r="432" spans="5:28" hidden="1">
       <c r="E432" s="309"/>
       <c r="F432" s="2"/>
       <c r="G432" s="2"/>
@@ -35839,7 +35839,7 @@
       <c r="W432" s="309"/>
       <c r="AB432" s="4"/>
     </row>
-    <row r="433" spans="5:28">
+    <row r="433" spans="5:28" hidden="1">
       <c r="E433" s="309"/>
       <c r="F433" s="2"/>
       <c r="G433" s="2"/>
@@ -35852,7 +35852,7 @@
       <c r="W433" s="309"/>
       <c r="AB433" s="4"/>
     </row>
-    <row r="434" spans="5:28">
+    <row r="434" spans="5:28" hidden="1">
       <c r="E434" s="309"/>
       <c r="F434" s="2"/>
       <c r="G434" s="2"/>
@@ -35865,7 +35865,7 @@
       <c r="W434" s="309"/>
       <c r="AB434" s="4"/>
     </row>
-    <row r="435" spans="5:28">
+    <row r="435" spans="5:28" hidden="1">
       <c r="E435" s="309"/>
       <c r="F435" s="2"/>
       <c r="G435" s="2"/>
@@ -35878,7 +35878,7 @@
       <c r="W435" s="309"/>
       <c r="AB435" s="4"/>
     </row>
-    <row r="436" spans="5:28">
+    <row r="436" spans="5:28" hidden="1">
       <c r="E436" s="309"/>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
@@ -35891,7 +35891,7 @@
       <c r="W436" s="309"/>
       <c r="AB436" s="4"/>
     </row>
-    <row r="437" spans="5:28">
+    <row r="437" spans="5:28" hidden="1">
       <c r="E437" s="309"/>
       <c r="F437" s="2"/>
       <c r="G437" s="2"/>
@@ -35904,7 +35904,7 @@
       <c r="W437" s="309"/>
       <c r="AB437" s="4"/>
     </row>
-    <row r="438" spans="5:28">
+    <row r="438" spans="5:28" hidden="1">
       <c r="E438" s="309"/>
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
@@ -35917,7 +35917,7 @@
       <c r="W438" s="309"/>
       <c r="AB438" s="4"/>
     </row>
-    <row r="439" spans="5:28">
+    <row r="439" spans="5:28" hidden="1">
       <c r="E439" s="309"/>
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
@@ -35930,7 +35930,7 @@
       <c r="W439" s="309"/>
       <c r="AB439" s="4"/>
     </row>
-    <row r="440" spans="5:28">
+    <row r="440" spans="5:28" hidden="1">
       <c r="E440" s="309"/>
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
@@ -35943,7 +35943,7 @@
       <c r="W440" s="309"/>
       <c r="AB440" s="4"/>
     </row>
-    <row r="441" spans="5:28">
+    <row r="441" spans="5:28" hidden="1">
       <c r="E441" s="309"/>
       <c r="F441" s="2"/>
       <c r="G441" s="2"/>
@@ -35956,7 +35956,7 @@
       <c r="W441" s="309"/>
       <c r="AB441" s="4"/>
     </row>
-    <row r="442" spans="5:28">
+    <row r="442" spans="5:28" hidden="1">
       <c r="E442" s="309"/>
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
@@ -35969,7 +35969,7 @@
       <c r="W442" s="309"/>
       <c r="AB442" s="4"/>
     </row>
-    <row r="443" spans="5:28">
+    <row r="443" spans="5:28" hidden="1">
       <c r="E443" s="309"/>
       <c r="F443" s="2"/>
       <c r="G443" s="2"/>
@@ -35982,7 +35982,7 @@
       <c r="W443" s="309"/>
       <c r="AB443" s="4"/>
     </row>
-    <row r="444" spans="5:28">
+    <row r="444" spans="5:28" hidden="1">
       <c r="E444" s="309"/>
       <c r="F444" s="2"/>
       <c r="G444" s="2"/>
@@ -35995,7 +35995,7 @@
       <c r="W444" s="309"/>
       <c r="AB444" s="4"/>
     </row>
-    <row r="445" spans="5:28">
+    <row r="445" spans="5:28" hidden="1">
       <c r="E445" s="309"/>
       <c r="F445" s="2"/>
       <c r="G445" s="2"/>
@@ -36008,7 +36008,7 @@
       <c r="W445" s="309"/>
       <c r="AB445" s="4"/>
     </row>
-    <row r="446" spans="5:28">
+    <row r="446" spans="5:28" hidden="1">
       <c r="E446" s="309"/>
       <c r="F446" s="2"/>
       <c r="G446" s="2"/>
@@ -36021,7 +36021,7 @@
       <c r="W446" s="309"/>
       <c r="AB446" s="4"/>
     </row>
-    <row r="447" spans="5:28">
+    <row r="447" spans="5:28" hidden="1">
       <c r="E447" s="309"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
@@ -36034,7 +36034,7 @@
       <c r="W447" s="309"/>
       <c r="AB447" s="4"/>
     </row>
-    <row r="448" spans="5:28">
+    <row r="448" spans="5:28" hidden="1">
       <c r="E448" s="309"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
@@ -36047,7 +36047,7 @@
       <c r="W448" s="309"/>
       <c r="AB448" s="4"/>
     </row>
-    <row r="449" spans="5:28">
+    <row r="449" spans="5:28" hidden="1">
       <c r="E449" s="309"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
@@ -36060,7 +36060,7 @@
       <c r="W449" s="309"/>
       <c r="AB449" s="4"/>
     </row>
-    <row r="450" spans="5:28">
+    <row r="450" spans="5:28" hidden="1">
       <c r="E450" s="309"/>
       <c r="F450" s="2"/>
       <c r="G450" s="2"/>
@@ -36073,7 +36073,7 @@
       <c r="W450" s="309"/>
       <c r="AB450" s="4"/>
     </row>
-    <row r="451" spans="5:28">
+    <row r="451" spans="5:28" hidden="1">
       <c r="E451" s="309"/>
       <c r="F451" s="2"/>
       <c r="G451" s="2"/>
@@ -36086,7 +36086,7 @@
       <c r="W451" s="309"/>
       <c r="AB451" s="4"/>
     </row>
-    <row r="452" spans="5:28">
+    <row r="452" spans="5:28" hidden="1">
       <c r="E452" s="309"/>
       <c r="F452" s="2"/>
       <c r="G452" s="2"/>
@@ -36099,7 +36099,7 @@
       <c r="W452" s="309"/>
       <c r="AB452" s="4"/>
     </row>
-    <row r="453" spans="5:28">
+    <row r="453" spans="5:28" hidden="1">
       <c r="E453" s="309"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
@@ -36112,7 +36112,7 @@
       <c r="W453" s="309"/>
       <c r="AB453" s="4"/>
     </row>
-    <row r="454" spans="5:28">
+    <row r="454" spans="5:28" hidden="1">
       <c r="E454" s="309"/>
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
@@ -36125,7 +36125,7 @@
       <c r="W454" s="309"/>
       <c r="AB454" s="4"/>
     </row>
-    <row r="455" spans="5:28">
+    <row r="455" spans="5:28" hidden="1">
       <c r="E455" s="309"/>
       <c r="F455" s="2"/>
       <c r="G455" s="2"/>
@@ -36138,7 +36138,7 @@
       <c r="W455" s="309"/>
       <c r="AB455" s="4"/>
     </row>
-    <row r="456" spans="5:28">
+    <row r="456" spans="5:28" hidden="1">
       <c r="E456" s="309"/>
       <c r="F456" s="2"/>
       <c r="G456" s="2"/>
@@ -36151,7 +36151,7 @@
       <c r="W456" s="309"/>
       <c r="AB456" s="4"/>
     </row>
-    <row r="457" spans="5:28">
+    <row r="457" spans="5:28" hidden="1">
       <c r="E457" s="309"/>
       <c r="F457" s="2"/>
       <c r="G457" s="2"/>
@@ -36164,7 +36164,7 @@
       <c r="W457" s="309"/>
       <c r="AB457" s="4"/>
     </row>
-    <row r="458" spans="5:28">
+    <row r="458" spans="5:28" hidden="1">
       <c r="E458" s="309"/>
       <c r="F458" s="2"/>
       <c r="G458" s="2"/>
@@ -36177,7 +36177,7 @@
       <c r="W458" s="309"/>
       <c r="AB458" s="4"/>
     </row>
-    <row r="459" spans="5:28">
+    <row r="459" spans="5:28" hidden="1">
       <c r="E459" s="309"/>
       <c r="F459" s="2"/>
       <c r="G459" s="2"/>
@@ -36190,7 +36190,7 @@
       <c r="W459" s="309"/>
       <c r="AB459" s="4"/>
     </row>
-    <row r="460" spans="5:28">
+    <row r="460" spans="5:28" hidden="1">
       <c r="E460" s="309"/>
       <c r="F460" s="2"/>
       <c r="G460" s="2"/>
@@ -36203,7 +36203,7 @@
       <c r="W460" s="309"/>
       <c r="AB460" s="4"/>
     </row>
-    <row r="461" spans="5:28">
+    <row r="461" spans="5:28" hidden="1">
       <c r="E461" s="309"/>
       <c r="F461" s="2"/>
       <c r="G461" s="2"/>
@@ -36216,7 +36216,7 @@
       <c r="W461" s="309"/>
       <c r="AB461" s="4"/>
     </row>
-    <row r="462" spans="5:28">
+    <row r="462" spans="5:28" hidden="1">
       <c r="E462" s="309"/>
       <c r="F462" s="2"/>
       <c r="G462" s="2"/>
@@ -36229,7 +36229,7 @@
       <c r="W462" s="309"/>
       <c r="AB462" s="4"/>
     </row>
-    <row r="463" spans="5:28">
+    <row r="463" spans="5:28" hidden="1">
       <c r="E463" s="309"/>
       <c r="F463" s="2"/>
       <c r="G463" s="2"/>
@@ -36242,7 +36242,7 @@
       <c r="W463" s="309"/>
       <c r="AB463" s="4"/>
     </row>
-    <row r="464" spans="5:28">
+    <row r="464" spans="5:28" hidden="1">
       <c r="E464" s="309"/>
       <c r="F464" s="2"/>
       <c r="G464" s="2"/>
@@ -36255,7 +36255,7 @@
       <c r="W464" s="309"/>
       <c r="AB464" s="4"/>
     </row>
-    <row r="465" spans="5:28">
+    <row r="465" spans="5:28" hidden="1">
       <c r="E465" s="309"/>
       <c r="F465" s="2"/>
       <c r="G465" s="2"/>
@@ -36268,7 +36268,7 @@
       <c r="W465" s="309"/>
       <c r="AB465" s="4"/>
     </row>
-    <row r="466" spans="5:28">
+    <row r="466" spans="5:28" hidden="1">
       <c r="E466" s="309"/>
       <c r="F466" s="2"/>
       <c r="G466" s="2"/>
@@ -36281,7 +36281,7 @@
       <c r="W466" s="309"/>
       <c r="AB466" s="4"/>
     </row>
-    <row r="467" spans="5:28">
+    <row r="467" spans="5:28" hidden="1">
       <c r="E467" s="309"/>
       <c r="F467" s="2"/>
       <c r="G467" s="2"/>
@@ -36294,7 +36294,7 @@
       <c r="W467" s="309"/>
       <c r="AB467" s="4"/>
     </row>
-    <row r="468" spans="5:28">
+    <row r="468" spans="5:28" hidden="1">
       <c r="E468" s="309"/>
       <c r="F468" s="2"/>
       <c r="G468" s="2"/>
@@ -36307,7 +36307,7 @@
       <c r="W468" s="309"/>
       <c r="AB468" s="4"/>
     </row>
-    <row r="469" spans="5:28">
+    <row r="469" spans="5:28" hidden="1">
       <c r="E469" s="309"/>
       <c r="F469" s="2"/>
       <c r="G469" s="2"/>
@@ -36320,7 +36320,7 @@
       <c r="W469" s="309"/>
       <c r="AB469" s="4"/>
     </row>
-    <row r="470" spans="5:28">
+    <row r="470" spans="5:28" hidden="1">
       <c r="E470" s="309"/>
       <c r="F470" s="2"/>
       <c r="G470" s="2"/>
@@ -36333,7 +36333,7 @@
       <c r="W470" s="309"/>
       <c r="AB470" s="4"/>
     </row>
-    <row r="471" spans="5:28">
+    <row r="471" spans="5:28" hidden="1">
       <c r="E471" s="309"/>
       <c r="F471" s="2"/>
       <c r="G471" s="2"/>
@@ -36346,7 +36346,7 @@
       <c r="W471" s="309"/>
       <c r="AB471" s="4"/>
     </row>
-    <row r="472" spans="5:28">
+    <row r="472" spans="5:28" hidden="1">
       <c r="E472" s="309"/>
       <c r="F472" s="2"/>
       <c r="G472" s="2"/>
@@ -36359,7 +36359,7 @@
       <c r="W472" s="309"/>
       <c r="AB472" s="4"/>
     </row>
-    <row r="473" spans="5:28">
+    <row r="473" spans="5:28" hidden="1">
       <c r="E473" s="309"/>
       <c r="F473" s="2"/>
       <c r="G473" s="2"/>
@@ -36372,7 +36372,7 @@
       <c r="W473" s="309"/>
       <c r="AB473" s="4"/>
     </row>
-    <row r="474" spans="5:28">
+    <row r="474" spans="5:28" hidden="1">
       <c r="E474" s="309"/>
       <c r="F474" s="2"/>
       <c r="G474" s="2"/>
@@ -36385,7 +36385,7 @@
       <c r="W474" s="309"/>
       <c r="AB474" s="4"/>
     </row>
-    <row r="475" spans="5:28">
+    <row r="475" spans="5:28" hidden="1">
       <c r="E475" s="309"/>
       <c r="F475" s="2"/>
       <c r="G475" s="2"/>
@@ -36398,7 +36398,7 @@
       <c r="W475" s="309"/>
       <c r="AB475" s="4"/>
     </row>
-    <row r="476" spans="5:28">
+    <row r="476" spans="5:28" hidden="1">
       <c r="E476" s="309"/>
       <c r="F476" s="2"/>
       <c r="G476" s="2"/>
@@ -36411,7 +36411,7 @@
       <c r="W476" s="309"/>
       <c r="AB476" s="4"/>
     </row>
-    <row r="477" spans="5:28">
+    <row r="477" spans="5:28" hidden="1">
       <c r="E477" s="309"/>
       <c r="F477" s="2"/>
       <c r="G477" s="2"/>
@@ -36424,7 +36424,7 @@
       <c r="W477" s="309"/>
       <c r="AB477" s="4"/>
     </row>
-    <row r="478" spans="5:28">
+    <row r="478" spans="5:28" hidden="1">
       <c r="E478" s="309"/>
       <c r="F478" s="2"/>
       <c r="G478" s="2"/>
@@ -36437,7 +36437,7 @@
       <c r="W478" s="309"/>
       <c r="AB478" s="4"/>
     </row>
-    <row r="479" spans="5:28">
+    <row r="479" spans="5:28" hidden="1">
       <c r="E479" s="309"/>
       <c r="F479" s="2"/>
       <c r="G479" s="2"/>
@@ -36450,7 +36450,7 @@
       <c r="W479" s="309"/>
       <c r="AB479" s="4"/>
     </row>
-    <row r="480" spans="5:28">
+    <row r="480" spans="5:28" hidden="1">
       <c r="E480" s="309"/>
       <c r="F480" s="2"/>
       <c r="G480" s="2"/>
@@ -36463,7 +36463,7 @@
       <c r="W480" s="309"/>
       <c r="AB480" s="4"/>
     </row>
-    <row r="481" spans="5:28">
+    <row r="481" spans="5:28" hidden="1">
       <c r="E481" s="309"/>
       <c r="F481" s="2"/>
       <c r="G481" s="2"/>
@@ -36476,7 +36476,7 @@
       <c r="W481" s="309"/>
       <c r="AB481" s="4"/>
     </row>
-    <row r="482" spans="5:28">
+    <row r="482" spans="5:28" hidden="1">
       <c r="E482" s="309"/>
       <c r="F482" s="2"/>
       <c r="G482" s="2"/>
@@ -36489,7 +36489,7 @@
       <c r="W482" s="309"/>
       <c r="AB482" s="4"/>
     </row>
-    <row r="483" spans="5:28">
+    <row r="483" spans="5:28" hidden="1">
       <c r="E483" s="309"/>
       <c r="F483" s="2"/>
       <c r="G483" s="2"/>
@@ -36502,7 +36502,7 @@
       <c r="W483" s="309"/>
       <c r="AB483" s="4"/>
     </row>
-    <row r="484" spans="5:28">
+    <row r="484" spans="5:28" hidden="1">
       <c r="E484" s="309"/>
       <c r="F484" s="2"/>
       <c r="G484" s="2"/>
@@ -36515,7 +36515,7 @@
       <c r="W484" s="309"/>
       <c r="AB484" s="4"/>
     </row>
-    <row r="485" spans="5:28">
+    <row r="485" spans="5:28" hidden="1">
       <c r="E485" s="309"/>
       <c r="F485" s="2"/>
       <c r="G485" s="2"/>
@@ -36528,7 +36528,7 @@
       <c r="W485" s="309"/>
       <c r="AB485" s="4"/>
     </row>
-    <row r="486" spans="5:28">
+    <row r="486" spans="5:28" hidden="1">
       <c r="E486" s="309"/>
       <c r="F486" s="2"/>
       <c r="G486" s="2"/>
@@ -36541,7 +36541,7 @@
       <c r="W486" s="309"/>
       <c r="AB486" s="4"/>
     </row>
-    <row r="487" spans="5:28">
+    <row r="487" spans="5:28" hidden="1">
       <c r="E487" s="309"/>
       <c r="F487" s="2"/>
       <c r="G487" s="2"/>
@@ -36554,7 +36554,7 @@
       <c r="W487" s="309"/>
       <c r="AB487" s="4"/>
     </row>
-    <row r="488" spans="5:28">
+    <row r="488" spans="5:28" hidden="1">
       <c r="E488" s="309"/>
       <c r="F488" s="2"/>
       <c r="G488" s="2"/>
@@ -36567,7 +36567,7 @@
       <c r="W488" s="309"/>
       <c r="AB488" s="4"/>
     </row>
-    <row r="489" spans="5:28">
+    <row r="489" spans="5:28" hidden="1">
       <c r="E489" s="309"/>
       <c r="F489" s="2"/>
       <c r="G489" s="2"/>
@@ -36580,7 +36580,7 @@
       <c r="W489" s="309"/>
       <c r="AB489" s="4"/>
     </row>
-    <row r="490" spans="5:28">
+    <row r="490" spans="5:28" hidden="1">
       <c r="E490" s="309"/>
       <c r="F490" s="2"/>
       <c r="G490" s="2"/>
@@ -36593,7 +36593,7 @@
       <c r="W490" s="309"/>
       <c r="AB490" s="4"/>
     </row>
-    <row r="491" spans="5:28">
+    <row r="491" spans="5:28" hidden="1">
       <c r="E491" s="309"/>
       <c r="F491" s="2"/>
       <c r="G491" s="2"/>
@@ -36606,7 +36606,7 @@
       <c r="W491" s="309"/>
       <c r="AB491" s="4"/>
     </row>
-    <row r="492" spans="5:28">
+    <row r="492" spans="5:28" hidden="1">
       <c r="E492" s="309"/>
       <c r="F492" s="2"/>
       <c r="G492" s="2"/>
@@ -36619,7 +36619,7 @@
       <c r="W492" s="309"/>
       <c r="AB492" s="4"/>
     </row>
-    <row r="493" spans="5:28">
+    <row r="493" spans="5:28" hidden="1">
       <c r="E493" s="309"/>
       <c r="F493" s="2"/>
       <c r="G493" s="2"/>
@@ -36632,7 +36632,7 @@
       <c r="W493" s="309"/>
       <c r="AB493" s="4"/>
     </row>
-    <row r="494" spans="5:28">
+    <row r="494" spans="5:28" hidden="1">
       <c r="E494" s="309"/>
       <c r="F494" s="2"/>
       <c r="G494" s="2"/>
@@ -36645,7 +36645,7 @@
       <c r="W494" s="309"/>
       <c r="AB494" s="4"/>
     </row>
-    <row r="495" spans="5:28">
+    <row r="495" spans="5:28" hidden="1">
       <c r="E495" s="309"/>
       <c r="F495" s="2"/>
       <c r="G495" s="2"/>
@@ -36658,7 +36658,7 @@
       <c r="W495" s="309"/>
       <c r="AB495" s="4"/>
     </row>
-    <row r="496" spans="5:28">
+    <row r="496" spans="5:28" hidden="1">
       <c r="E496" s="309"/>
       <c r="F496" s="2"/>
       <c r="G496" s="2"/>
@@ -36671,7 +36671,7 @@
       <c r="W496" s="309"/>
       <c r="AB496" s="4"/>
     </row>
-    <row r="497" spans="5:28">
+    <row r="497" spans="5:28" hidden="1">
       <c r="E497" s="309"/>
       <c r="F497" s="2"/>
       <c r="G497" s="2"/>
@@ -36684,7 +36684,7 @@
       <c r="W497" s="309"/>
       <c r="AB497" s="4"/>
     </row>
-    <row r="498" spans="5:28">
+    <row r="498" spans="5:28" hidden="1">
       <c r="E498" s="309"/>
       <c r="F498" s="2"/>
       <c r="G498" s="2"/>
@@ -36697,7 +36697,7 @@
       <c r="W498" s="309"/>
       <c r="AB498" s="4"/>
     </row>
-    <row r="499" spans="5:28">
+    <row r="499" spans="5:28" hidden="1">
       <c r="E499" s="309"/>
       <c r="F499" s="2"/>
       <c r="G499" s="2"/>
@@ -36710,7 +36710,7 @@
       <c r="W499" s="309"/>
       <c r="AB499" s="4"/>
     </row>
-    <row r="500" spans="5:28">
+    <row r="500" spans="5:28" hidden="1">
       <c r="E500" s="309"/>
       <c r="F500" s="2"/>
       <c r="G500" s="2"/>
@@ -36723,7 +36723,7 @@
       <c r="W500" s="309"/>
       <c r="AB500" s="4"/>
     </row>
-    <row r="501" spans="5:28">
+    <row r="501" spans="5:28" hidden="1">
       <c r="E501" s="309"/>
       <c r="F501" s="2"/>
       <c r="G501" s="2"/>
@@ -36736,7 +36736,7 @@
       <c r="W501" s="309"/>
       <c r="AB501" s="4"/>
     </row>
-    <row r="502" spans="5:28">
+    <row r="502" spans="5:28" hidden="1">
       <c r="E502" s="309"/>
       <c r="F502" s="2"/>
       <c r="G502" s="2"/>
@@ -36749,7 +36749,7 @@
       <c r="W502" s="309"/>
       <c r="AB502" s="4"/>
     </row>
-    <row r="503" spans="5:28">
+    <row r="503" spans="5:28" hidden="1">
       <c r="E503" s="309"/>
       <c r="F503" s="2"/>
       <c r="G503" s="2"/>
@@ -36762,7 +36762,7 @@
       <c r="W503" s="309"/>
       <c r="AB503" s="4"/>
     </row>
-    <row r="504" spans="5:28">
+    <row r="504" spans="5:28" hidden="1">
       <c r="E504" s="309"/>
       <c r="F504" s="2"/>
       <c r="G504" s="2"/>
@@ -36775,7 +36775,7 @@
       <c r="W504" s="309"/>
       <c r="AB504" s="4"/>
     </row>
-    <row r="505" spans="5:28">
+    <row r="505" spans="5:28" hidden="1">
       <c r="E505" s="309"/>
       <c r="F505" s="2"/>
       <c r="G505" s="2"/>
@@ -36788,7 +36788,7 @@
       <c r="W505" s="309"/>
       <c r="AB505" s="4"/>
     </row>
-    <row r="506" spans="5:28">
+    <row r="506" spans="5:28" hidden="1">
       <c r="E506" s="309"/>
       <c r="F506" s="2"/>
       <c r="G506" s="2"/>
@@ -36801,7 +36801,7 @@
       <c r="W506" s="309"/>
       <c r="AB506" s="4"/>
     </row>
-    <row r="507" spans="5:28">
+    <row r="507" spans="5:28" hidden="1">
       <c r="E507" s="309"/>
       <c r="F507" s="2"/>
       <c r="G507" s="2"/>
@@ -36814,7 +36814,7 @@
       <c r="W507" s="309"/>
       <c r="AB507" s="4"/>
     </row>
-    <row r="508" spans="5:28">
+    <row r="508" spans="5:28" hidden="1">
       <c r="E508" s="309"/>
       <c r="F508" s="2"/>
       <c r="G508" s="2"/>
@@ -36827,7 +36827,7 @@
       <c r="W508" s="309"/>
       <c r="AB508" s="4"/>
     </row>
-    <row r="509" spans="5:28">
+    <row r="509" spans="5:28" hidden="1">
       <c r="E509" s="309"/>
       <c r="F509" s="2"/>
       <c r="G509" s="2"/>
@@ -36840,7 +36840,7 @@
       <c r="W509" s="309"/>
       <c r="AB509" s="4"/>
     </row>
-    <row r="510" spans="5:28">
+    <row r="510" spans="5:28" hidden="1">
       <c r="E510" s="309"/>
       <c r="F510" s="2"/>
       <c r="G510" s="2"/>
@@ -36853,7 +36853,7 @@
       <c r="W510" s="309"/>
       <c r="AB510" s="4"/>
     </row>
-    <row r="511" spans="5:28">
+    <row r="511" spans="5:28" hidden="1">
       <c r="E511" s="309"/>
       <c r="F511" s="2"/>
       <c r="G511" s="2"/>
@@ -36866,7 +36866,7 @@
       <c r="W511" s="309"/>
       <c r="AB511" s="4"/>
     </row>
-    <row r="512" spans="5:28">
+    <row r="512" spans="5:28" hidden="1">
       <c r="E512" s="309"/>
       <c r="F512" s="2"/>
       <c r="G512" s="2"/>
@@ -36879,7 +36879,7 @@
       <c r="W512" s="309"/>
       <c r="AB512" s="4"/>
     </row>
-    <row r="513" spans="5:28">
+    <row r="513" spans="5:28" hidden="1">
       <c r="E513" s="309"/>
       <c r="F513" s="2"/>
       <c r="G513" s="2"/>
@@ -36892,7 +36892,7 @@
       <c r="W513" s="309"/>
       <c r="AB513" s="4"/>
     </row>
-    <row r="514" spans="5:28">
+    <row r="514" spans="5:28" hidden="1">
       <c r="E514" s="309"/>
       <c r="F514" s="2"/>
       <c r="G514" s="2"/>
@@ -36905,7 +36905,7 @@
       <c r="W514" s="309"/>
       <c r="AB514" s="4"/>
     </row>
-    <row r="515" spans="5:28">
+    <row r="515" spans="5:28" hidden="1">
       <c r="E515" s="309"/>
       <c r="F515" s="2"/>
       <c r="G515" s="2"/>
@@ -36918,7 +36918,7 @@
       <c r="W515" s="309"/>
       <c r="AB515" s="4"/>
     </row>
-    <row r="516" spans="5:28">
+    <row r="516" spans="5:28" hidden="1">
       <c r="E516" s="309"/>
       <c r="F516" s="2"/>
       <c r="G516" s="2"/>
@@ -36931,7 +36931,7 @@
       <c r="W516" s="309"/>
       <c r="AB516" s="4"/>
     </row>
-    <row r="517" spans="5:28">
+    <row r="517" spans="5:28" hidden="1">
       <c r="E517" s="309"/>
       <c r="F517" s="2"/>
       <c r="G517" s="2"/>
@@ -36944,7 +36944,7 @@
       <c r="W517" s="309"/>
       <c r="AB517" s="4"/>
     </row>
-    <row r="518" spans="5:28">
+    <row r="518" spans="5:28" hidden="1">
       <c r="E518" s="309"/>
       <c r="F518" s="2"/>
       <c r="G518" s="2"/>
@@ -36957,7 +36957,7 @@
       <c r="W518" s="309"/>
       <c r="AB518" s="4"/>
     </row>
-    <row r="519" spans="5:28">
+    <row r="519" spans="5:28" hidden="1">
       <c r="E519" s="309"/>
       <c r="F519" s="2"/>
       <c r="G519" s="2"/>
@@ -36970,7 +36970,7 @@
       <c r="W519" s="309"/>
       <c r="AB519" s="4"/>
     </row>
-    <row r="520" spans="5:28">
+    <row r="520" spans="5:28" hidden="1">
       <c r="E520" s="309"/>
       <c r="F520" s="2"/>
       <c r="G520" s="2"/>
@@ -36983,7 +36983,7 @@
       <c r="W520" s="309"/>
       <c r="AB520" s="4"/>
     </row>
-    <row r="521" spans="5:28">
+    <row r="521" spans="5:28" hidden="1">
       <c r="E521" s="309"/>
       <c r="F521" s="2"/>
       <c r="G521" s="2"/>
@@ -36996,7 +36996,7 @@
       <c r="W521" s="309"/>
       <c r="AB521" s="4"/>
     </row>
-    <row r="522" spans="5:28">
+    <row r="522" spans="5:28" hidden="1">
       <c r="E522" s="309"/>
       <c r="F522" s="2"/>
       <c r="G522" s="2"/>
@@ -37009,7 +37009,7 @@
       <c r="W522" s="309"/>
       <c r="AB522" s="4"/>
     </row>
-    <row r="523" spans="5:28">
+    <row r="523" spans="5:28" hidden="1">
       <c r="E523" s="309"/>
       <c r="F523" s="2"/>
       <c r="G523" s="2"/>
@@ -37022,7 +37022,7 @@
       <c r="W523" s="309"/>
       <c r="AB523" s="4"/>
     </row>
-    <row r="524" spans="5:28">
+    <row r="524" spans="5:28" hidden="1">
       <c r="E524" s="309"/>
       <c r="F524" s="2"/>
       <c r="G524" s="2"/>
@@ -37035,7 +37035,7 @@
       <c r="W524" s="309"/>
       <c r="AB524" s="4"/>
     </row>
-    <row r="525" spans="5:28">
+    <row r="525" spans="5:28" hidden="1">
       <c r="E525" s="309"/>
       <c r="F525" s="2"/>
       <c r="G525" s="2"/>
@@ -37048,7 +37048,7 @@
       <c r="W525" s="309"/>
       <c r="AB525" s="4"/>
     </row>
-    <row r="526" spans="5:28">
+    <row r="526" spans="5:28" hidden="1">
       <c r="E526" s="309"/>
       <c r="F526" s="2"/>
       <c r="G526" s="2"/>
@@ -37061,7 +37061,7 @@
       <c r="W526" s="309"/>
       <c r="AB526" s="4"/>
     </row>
-    <row r="527" spans="5:28">
+    <row r="527" spans="5:28" hidden="1">
       <c r="E527" s="309"/>
       <c r="F527" s="2"/>
       <c r="G527" s="2"/>
@@ -37074,7 +37074,7 @@
       <c r="W527" s="309"/>
       <c r="AB527" s="4"/>
     </row>
-    <row r="528" spans="5:28">
+    <row r="528" spans="5:28" hidden="1">
       <c r="E528" s="309"/>
       <c r="F528" s="2"/>
       <c r="G528" s="2"/>
@@ -37087,7 +37087,7 @@
       <c r="W528" s="309"/>
       <c r="AB528" s="4"/>
     </row>
-    <row r="529" spans="5:28">
+    <row r="529" spans="5:28" hidden="1">
       <c r="E529" s="309"/>
       <c r="F529" s="2"/>
       <c r="G529" s="2"/>
@@ -37100,7 +37100,7 @@
       <c r="W529" s="309"/>
       <c r="AB529" s="4"/>
     </row>
-    <row r="530" spans="5:28">
+    <row r="530" spans="5:28" hidden="1">
       <c r="E530" s="309"/>
       <c r="F530" s="2"/>
       <c r="G530" s="2"/>
@@ -37113,7 +37113,7 @@
       <c r="W530" s="309"/>
       <c r="AB530" s="4"/>
     </row>
-    <row r="531" spans="5:28">
+    <row r="531" spans="5:28" hidden="1">
       <c r="E531" s="309"/>
       <c r="F531" s="2"/>
       <c r="G531" s="2"/>
@@ -37126,7 +37126,7 @@
       <c r="W531" s="309"/>
       <c r="AB531" s="4"/>
     </row>
-    <row r="532" spans="5:28">
+    <row r="532" spans="5:28" hidden="1">
       <c r="E532" s="309"/>
       <c r="F532" s="2"/>
       <c r="G532" s="2"/>
@@ -37139,7 +37139,7 @@
       <c r="W532" s="309"/>
       <c r="AB532" s="4"/>
     </row>
-    <row r="533" spans="5:28">
+    <row r="533" spans="5:28" hidden="1">
       <c r="E533" s="309"/>
       <c r="F533" s="2"/>
       <c r="G533" s="2"/>
@@ -37152,7 +37152,7 @@
       <c r="W533" s="309"/>
       <c r="AB533" s="4"/>
     </row>
-    <row r="534" spans="5:28">
+    <row r="534" spans="5:28" hidden="1">
       <c r="E534" s="309"/>
       <c r="F534" s="2"/>
       <c r="G534" s="2"/>
@@ -37165,7 +37165,7 @@
       <c r="W534" s="309"/>
       <c r="AB534" s="4"/>
     </row>
-    <row r="535" spans="5:28">
+    <row r="535" spans="5:28" hidden="1">
       <c r="E535" s="309"/>
       <c r="F535" s="2"/>
       <c r="G535" s="2"/>
@@ -37178,7 +37178,7 @@
       <c r="W535" s="309"/>
       <c r="AB535" s="4"/>
     </row>
-    <row r="536" spans="5:28">
+    <row r="536" spans="5:28" hidden="1">
       <c r="E536" s="309"/>
       <c r="F536" s="2"/>
       <c r="G536" s="2"/>
@@ -37191,7 +37191,7 @@
       <c r="W536" s="309"/>
       <c r="AB536" s="4"/>
     </row>
-    <row r="537" spans="5:28">
+    <row r="537" spans="5:28" hidden="1">
       <c r="E537" s="309"/>
       <c r="F537" s="2"/>
       <c r="G537" s="2"/>
@@ -37204,7 +37204,7 @@
       <c r="W537" s="309"/>
       <c r="AB537" s="4"/>
     </row>
-    <row r="538" spans="5:28">
+    <row r="538" spans="5:28" hidden="1">
       <c r="E538" s="309"/>
       <c r="F538" s="2"/>
       <c r="G538" s="2"/>
@@ -37217,7 +37217,7 @@
       <c r="W538" s="309"/>
       <c r="AB538" s="4"/>
     </row>
-    <row r="539" spans="5:28">
+    <row r="539" spans="5:28" hidden="1">
       <c r="E539" s="309"/>
       <c r="F539" s="2"/>
       <c r="G539" s="2"/>
@@ -37230,7 +37230,7 @@
       <c r="W539" s="309"/>
       <c r="AB539" s="4"/>
     </row>
-    <row r="540" spans="5:28">
+    <row r="540" spans="5:28" hidden="1">
       <c r="E540" s="309"/>
       <c r="F540" s="2"/>
       <c r="G540" s="2"/>
@@ -37243,7 +37243,7 @@
       <c r="W540" s="309"/>
       <c r="AB540" s="4"/>
     </row>
-    <row r="541" spans="5:28">
+    <row r="541" spans="5:28" hidden="1">
       <c r="E541" s="309"/>
       <c r="F541" s="2"/>
       <c r="G541" s="2"/>
@@ -37256,7 +37256,7 @@
       <c r="W541" s="309"/>
       <c r="AB541" s="4"/>
     </row>
-    <row r="542" spans="5:28">
+    <row r="542" spans="5:28" hidden="1">
       <c r="E542" s="309"/>
       <c r="F542" s="2"/>
       <c r="G542" s="2"/>
@@ -37269,7 +37269,7 @@
       <c r="W542" s="309"/>
       <c r="AB542" s="4"/>
     </row>
-    <row r="543" spans="5:28">
+    <row r="543" spans="5:28" hidden="1">
       <c r="E543" s="309"/>
       <c r="F543" s="2"/>
       <c r="G543" s="2"/>
@@ -37282,7 +37282,7 @@
       <c r="W543" s="309"/>
       <c r="AB543" s="4"/>
     </row>
-    <row r="544" spans="5:28">
+    <row r="544" spans="5:28" hidden="1">
       <c r="E544" s="309"/>
       <c r="F544" s="2"/>
       <c r="G544" s="2"/>
@@ -37295,7 +37295,7 @@
       <c r="W544" s="309"/>
       <c r="AB544" s="4"/>
     </row>
-    <row r="545" spans="5:28">
+    <row r="545" spans="5:28" hidden="1">
       <c r="E545" s="309"/>
       <c r="F545" s="2"/>
       <c r="G545" s="2"/>
@@ -37308,7 +37308,7 @@
       <c r="W545" s="309"/>
       <c r="AB545" s="4"/>
     </row>
-    <row r="546" spans="5:28">
+    <row r="546" spans="5:28" hidden="1">
       <c r="E546" s="309"/>
       <c r="F546" s="2"/>
       <c r="G546" s="2"/>
@@ -37321,7 +37321,7 @@
       <c r="W546" s="309"/>
       <c r="AB546" s="4"/>
     </row>
-    <row r="547" spans="5:28">
+    <row r="547" spans="5:28" hidden="1">
       <c r="E547" s="309"/>
       <c r="F547" s="2"/>
       <c r="G547" s="2"/>
@@ -37334,7 +37334,7 @@
       <c r="W547" s="309"/>
       <c r="AB547" s="4"/>
     </row>
-    <row r="548" spans="5:28">
+    <row r="548" spans="5:28" hidden="1">
       <c r="E548" s="309"/>
       <c r="F548" s="2"/>
       <c r="G548" s="2"/>
@@ -37347,7 +37347,7 @@
       <c r="W548" s="309"/>
       <c r="AB548" s="4"/>
     </row>
-    <row r="549" spans="5:28">
+    <row r="549" spans="5:28" hidden="1">
       <c r="E549" s="309"/>
       <c r="F549" s="2"/>
       <c r="G549" s="2"/>
@@ -37360,7 +37360,7 @@
       <c r="W549" s="309"/>
       <c r="AB549" s="4"/>
     </row>
-    <row r="550" spans="5:28">
+    <row r="550" spans="5:28" hidden="1">
       <c r="E550" s="309"/>
       <c r="F550" s="2"/>
       <c r="G550" s="2"/>
@@ -37373,7 +37373,7 @@
       <c r="W550" s="309"/>
       <c r="AB550" s="4"/>
     </row>
-    <row r="551" spans="5:28">
+    <row r="551" spans="5:28" hidden="1">
       <c r="E551" s="309"/>
       <c r="F551" s="2"/>
       <c r="G551" s="2"/>
@@ -37386,7 +37386,7 @@
       <c r="W551" s="309"/>
       <c r="AB551" s="4"/>
     </row>
-    <row r="552" spans="5:28">
+    <row r="552" spans="5:28" hidden="1">
       <c r="E552" s="309"/>
       <c r="F552" s="2"/>
       <c r="G552" s="2"/>
@@ -37399,7 +37399,7 @@
       <c r="W552" s="309"/>
       <c r="AB552" s="4"/>
     </row>
-    <row r="553" spans="5:28">
+    <row r="553" spans="5:28" hidden="1">
       <c r="E553" s="309"/>
       <c r="F553" s="2"/>
       <c r="G553" s="2"/>
@@ -37412,7 +37412,7 @@
       <c r="W553" s="309"/>
       <c r="AB553" s="4"/>
     </row>
-    <row r="554" spans="5:28">
+    <row r="554" spans="5:28" hidden="1">
       <c r="E554" s="309"/>
       <c r="F554" s="2"/>
       <c r="G554" s="2"/>
@@ -37425,7 +37425,7 @@
       <c r="W554" s="309"/>
       <c r="AB554" s="4"/>
     </row>
-    <row r="555" spans="5:28">
+    <row r="555" spans="5:28" hidden="1">
       <c r="E555" s="309"/>
       <c r="F555" s="2"/>
       <c r="G555" s="2"/>
@@ -37438,7 +37438,7 @@
       <c r="W555" s="309"/>
       <c r="AB555" s="4"/>
     </row>
-    <row r="556" spans="5:28">
+    <row r="556" spans="5:28" hidden="1">
       <c r="E556" s="309"/>
       <c r="F556" s="2"/>
       <c r="G556" s="2"/>
@@ -37451,7 +37451,7 @@
       <c r="W556" s="309"/>
       <c r="AB556" s="4"/>
     </row>
-    <row r="557" spans="5:28">
+    <row r="557" spans="5:28" hidden="1">
       <c r="E557" s="309"/>
       <c r="F557" s="2"/>
       <c r="G557" s="2"/>
@@ -37464,7 +37464,7 @@
       <c r="W557" s="309"/>
       <c r="AB557" s="4"/>
     </row>
-    <row r="558" spans="5:28">
+    <row r="558" spans="5:28" hidden="1">
       <c r="E558" s="309"/>
       <c r="F558" s="2"/>
       <c r="G558" s="2"/>
@@ -37477,7 +37477,7 @@
       <c r="W558" s="309"/>
       <c r="AB558" s="4"/>
     </row>
-    <row r="559" spans="5:28">
+    <row r="559" spans="5:28" hidden="1">
       <c r="E559" s="309"/>
       <c r="F559" s="2"/>
       <c r="G559" s="2"/>
@@ -37490,7 +37490,7 @@
       <c r="W559" s="309"/>
       <c r="AB559" s="4"/>
     </row>
-    <row r="560" spans="5:28">
+    <row r="560" spans="5:28" hidden="1">
       <c r="E560" s="309"/>
       <c r="F560" s="2"/>
       <c r="G560" s="2"/>
@@ -37503,7 +37503,7 @@
       <c r="W560" s="309"/>
       <c r="AB560" s="4"/>
     </row>
-    <row r="561" spans="5:28">
+    <row r="561" spans="5:28" hidden="1">
       <c r="E561" s="309"/>
       <c r="F561" s="2"/>
       <c r="G561" s="2"/>
@@ -37516,7 +37516,7 @@
       <c r="W561" s="309"/>
       <c r="AB561" s="4"/>
     </row>
-    <row r="562" spans="5:28">
+    <row r="562" spans="5:28" hidden="1">
       <c r="E562" s="309"/>
       <c r="F562" s="2"/>
       <c r="G562" s="2"/>
@@ -37529,7 +37529,7 @@
       <c r="W562" s="309"/>
       <c r="AB562" s="4"/>
     </row>
-    <row r="563" spans="5:28">
+    <row r="563" spans="5:28" hidden="1">
       <c r="E563" s="309"/>
       <c r="F563" s="2"/>
       <c r="G563" s="2"/>
@@ -37542,7 +37542,7 @@
       <c r="W563" s="309"/>
       <c r="AB563" s="4"/>
     </row>
-    <row r="564" spans="5:28">
+    <row r="564" spans="5:28" hidden="1">
       <c r="E564" s="309"/>
       <c r="F564" s="2"/>
       <c r="G564" s="2"/>
@@ -37555,7 +37555,7 @@
       <c r="W564" s="309"/>
       <c r="AB564" s="4"/>
     </row>
-    <row r="565" spans="5:28">
+    <row r="565" spans="5:28" hidden="1">
       <c r="E565" s="309"/>
       <c r="F565" s="2"/>
       <c r="G565" s="2"/>
@@ -37568,7 +37568,7 @@
       <c r="W565" s="309"/>
       <c r="AB565" s="4"/>
     </row>
-    <row r="566" spans="5:28">
+    <row r="566" spans="5:28" hidden="1">
       <c r="E566" s="309"/>
       <c r="F566" s="2"/>
       <c r="G566" s="2"/>
@@ -37581,7 +37581,7 @@
       <c r="W566" s="309"/>
       <c r="AB566" s="4"/>
     </row>
-    <row r="567" spans="5:28">
+    <row r="567" spans="5:28" hidden="1">
       <c r="E567" s="309"/>
       <c r="F567" s="2"/>
       <c r="G567" s="2"/>
@@ -37594,7 +37594,7 @@
       <c r="W567" s="309"/>
       <c r="AB567" s="4"/>
     </row>
-    <row r="568" spans="5:28">
+    <row r="568" spans="5:28" hidden="1">
       <c r="E568" s="309"/>
       <c r="F568" s="2"/>
       <c r="G568" s="2"/>
@@ -37607,7 +37607,7 @@
       <c r="W568" s="309"/>
       <c r="AB568" s="4"/>
     </row>
-    <row r="569" spans="5:28">
+    <row r="569" spans="5:28" hidden="1">
       <c r="E569" s="309"/>
       <c r="F569" s="2"/>
       <c r="G569" s="2"/>
@@ -37620,7 +37620,7 @@
       <c r="W569" s="309"/>
       <c r="AB569" s="4"/>
     </row>
-    <row r="570" spans="5:28">
+    <row r="570" spans="5:28" hidden="1">
       <c r="E570" s="309"/>
       <c r="F570" s="2"/>
       <c r="G570" s="2"/>
@@ -37633,7 +37633,7 @@
       <c r="W570" s="309"/>
       <c r="AB570" s="4"/>
     </row>
-    <row r="571" spans="5:28">
+    <row r="571" spans="5:28" hidden="1">
       <c r="E571" s="309"/>
       <c r="F571" s="2"/>
       <c r="G571" s="2"/>
@@ -37646,7 +37646,7 @@
       <c r="W571" s="309"/>
       <c r="AB571" s="4"/>
     </row>
-    <row r="572" spans="5:28">
+    <row r="572" spans="5:28" hidden="1">
       <c r="E572" s="309"/>
       <c r="F572" s="2"/>
       <c r="G572" s="2"/>
@@ -37659,7 +37659,7 @@
       <c r="W572" s="309"/>
       <c r="AB572" s="4"/>
     </row>
-    <row r="573" spans="5:28">
+    <row r="573" spans="5:28" hidden="1">
       <c r="E573" s="309"/>
       <c r="F573" s="2"/>
       <c r="G573" s="2"/>
@@ -37672,7 +37672,7 @@
       <c r="W573" s="309"/>
       <c r="AB573" s="4"/>
     </row>
-    <row r="574" spans="5:28">
+    <row r="574" spans="5:28" hidden="1">
       <c r="E574" s="309"/>
       <c r="F574" s="2"/>
       <c r="G574" s="2"/>
@@ -37685,7 +37685,7 @@
       <c r="W574" s="309"/>
       <c r="AB574" s="4"/>
     </row>
-    <row r="575" spans="5:28">
+    <row r="575" spans="5:28" hidden="1">
       <c r="E575" s="309"/>
       <c r="F575" s="2"/>
       <c r="G575" s="2"/>
@@ -37698,7 +37698,7 @@
       <c r="W575" s="309"/>
       <c r="AB575" s="4"/>
     </row>
-    <row r="576" spans="5:28">
+    <row r="576" spans="5:28" hidden="1">
       <c r="E576" s="309"/>
       <c r="F576" s="2"/>
       <c r="G576" s="2"/>
@@ -37711,7 +37711,7 @@
       <c r="W576" s="309"/>
       <c r="AB576" s="4"/>
     </row>
-    <row r="577" spans="5:28">
+    <row r="577" spans="5:28" hidden="1">
       <c r="E577" s="309"/>
       <c r="F577" s="2"/>
       <c r="G577" s="2"/>
@@ -37724,7 +37724,7 @@
       <c r="W577" s="309"/>
       <c r="AB577" s="4"/>
     </row>
-    <row r="578" spans="5:28">
+    <row r="578" spans="5:28" hidden="1">
       <c r="E578" s="309"/>
       <c r="F578" s="2"/>
       <c r="G578" s="2"/>
@@ -37737,7 +37737,7 @@
       <c r="W578" s="309"/>
       <c r="AB578" s="4"/>
     </row>
-    <row r="579" spans="5:28">
+    <row r="579" spans="5:28" hidden="1">
       <c r="E579" s="309"/>
       <c r="F579" s="2"/>
       <c r="G579" s="2"/>
@@ -37750,7 +37750,7 @@
       <c r="W579" s="309"/>
       <c r="AB579" s="4"/>
     </row>
-    <row r="580" spans="5:28">
+    <row r="580" spans="5:28" hidden="1">
       <c r="E580" s="309"/>
       <c r="F580" s="2"/>
       <c r="G580" s="2"/>
@@ -37763,7 +37763,7 @@
       <c r="W580" s="309"/>
       <c r="AB580" s="4"/>
     </row>
-    <row r="581" spans="5:28">
+    <row r="581" spans="5:28" hidden="1">
       <c r="E581" s="309"/>
       <c r="F581" s="2"/>
       <c r="G581" s="2"/>
@@ -37776,7 +37776,7 @@
       <c r="W581" s="309"/>
       <c r="AB581" s="4"/>
     </row>
-    <row r="582" spans="5:28">
+    <row r="582" spans="5:28" hidden="1">
       <c r="E582" s="309"/>
       <c r="F582" s="2"/>
       <c r="G582" s="2"/>
@@ -37789,7 +37789,7 @@
       <c r="W582" s="309"/>
       <c r="AB582" s="4"/>
     </row>
-    <row r="583" spans="5:28">
+    <row r="583" spans="5:28" hidden="1">
       <c r="E583" s="309"/>
       <c r="F583" s="2"/>
       <c r="G583" s="2"/>
@@ -37802,7 +37802,7 @@
       <c r="W583" s="309"/>
       <c r="AB583" s="4"/>
     </row>
-    <row r="584" spans="5:28">
+    <row r="584" spans="5:28" hidden="1">
       <c r="E584" s="309"/>
       <c r="F584" s="2"/>
       <c r="G584" s="2"/>
@@ -37815,7 +37815,7 @@
       <c r="W584" s="309"/>
       <c r="AB584" s="4"/>
     </row>
-    <row r="585" spans="5:28">
+    <row r="585" spans="5:28" hidden="1">
       <c r="E585" s="309"/>
       <c r="F585" s="2"/>
       <c r="G585" s="2"/>
@@ -37828,7 +37828,7 @@
       <c r="W585" s="309"/>
       <c r="AB585" s="4"/>
     </row>
-    <row r="586" spans="5:28">
+    <row r="586" spans="5:28" hidden="1">
       <c r="E586" s="309"/>
       <c r="F586" s="2"/>
       <c r="G586" s="2"/>
@@ -37841,7 +37841,7 @@
       <c r="W586" s="309"/>
       <c r="AB586" s="4"/>
     </row>
-    <row r="587" spans="5:28">
+    <row r="587" spans="5:28" hidden="1">
       <c r="E587" s="309"/>
       <c r="F587" s="2"/>
       <c r="G587" s="2"/>
@@ -37854,7 +37854,7 @@
       <c r="W587" s="309"/>
       <c r="AB587" s="4"/>
     </row>
-    <row r="588" spans="5:28">
+    <row r="588" spans="5:28" hidden="1">
       <c r="E588" s="309"/>
       <c r="F588" s="2"/>
       <c r="G588" s="2"/>
@@ -37867,7 +37867,7 @@
       <c r="W588" s="309"/>
       <c r="AB588" s="4"/>
     </row>
-    <row r="589" spans="5:28">
+    <row r="589" spans="5:28" hidden="1">
       <c r="E589" s="309"/>
       <c r="F589" s="2"/>
       <c r="G589" s="2"/>
@@ -37880,7 +37880,7 @@
       <c r="W589" s="309"/>
       <c r="AB589" s="4"/>
     </row>
-    <row r="590" spans="5:28">
+    <row r="590" spans="5:28" hidden="1">
       <c r="E590" s="309"/>
       <c r="F590" s="2"/>
       <c r="G590" s="2"/>
@@ -37893,7 +37893,7 @@
       <c r="W590" s="309"/>
       <c r="AB590" s="4"/>
     </row>
-    <row r="591" spans="5:28">
+    <row r="591" spans="5:28" hidden="1">
       <c r="E591" s="309"/>
       <c r="F591" s="2"/>
       <c r="G591" s="2"/>
@@ -37906,7 +37906,7 @@
       <c r="W591" s="309"/>
       <c r="AB591" s="4"/>
     </row>
-    <row r="592" spans="5:28">
+    <row r="592" spans="5:28" hidden="1">
       <c r="E592" s="309"/>
       <c r="F592" s="2"/>
       <c r="G592" s="2"/>
@@ -37919,7 +37919,7 @@
       <c r="W592" s="309"/>
       <c r="AB592" s="4"/>
     </row>
-    <row r="593" spans="5:28">
+    <row r="593" spans="5:28" hidden="1">
       <c r="E593" s="309"/>
       <c r="F593" s="2"/>
       <c r="G593" s="2"/>
@@ -37932,7 +37932,7 @@
       <c r="W593" s="309"/>
       <c r="AB593" s="4"/>
     </row>
-    <row r="594" spans="5:28">
+    <row r="594" spans="5:28" hidden="1">
       <c r="E594" s="309"/>
       <c r="F594" s="2"/>
       <c r="G594" s="2"/>
@@ -37945,7 +37945,7 @@
       <c r="W594" s="309"/>
       <c r="AB594" s="4"/>
     </row>
-    <row r="595" spans="5:28">
+    <row r="595" spans="5:28" hidden="1">
       <c r="E595" s="309"/>
       <c r="F595" s="2"/>
       <c r="G595" s="2"/>
@@ -37958,7 +37958,7 @@
       <c r="W595" s="309"/>
       <c r="AB595" s="4"/>
     </row>
-    <row r="596" spans="5:28">
+    <row r="596" spans="5:28" hidden="1">
       <c r="E596" s="309"/>
       <c r="F596" s="2"/>
       <c r="G596" s="2"/>
@@ -37971,7 +37971,7 @@
       <c r="W596" s="309"/>
       <c r="AB596" s="4"/>
     </row>
-    <row r="597" spans="5:28">
+    <row r="597" spans="5:28" hidden="1">
       <c r="E597" s="309"/>
       <c r="F597" s="2"/>
       <c r="G597" s="2"/>
@@ -37984,7 +37984,7 @@
       <c r="W597" s="309"/>
       <c r="AB597" s="4"/>
     </row>
-    <row r="598" spans="5:28">
+    <row r="598" spans="5:28" hidden="1">
       <c r="E598" s="309"/>
       <c r="F598" s="2"/>
       <c r="G598" s="2"/>
@@ -37997,7 +37997,7 @@
       <c r="W598" s="309"/>
       <c r="AB598" s="4"/>
     </row>
-    <row r="599" spans="5:28">
+    <row r="599" spans="5:28" hidden="1">
       <c r="E599" s="309"/>
       <c r="F599" s="2"/>
       <c r="G599" s="2"/>
@@ -38010,7 +38010,7 @@
       <c r="W599" s="309"/>
       <c r="AB599" s="4"/>
     </row>
-    <row r="600" spans="5:28">
+    <row r="600" spans="5:28" hidden="1">
       <c r="E600" s="309"/>
       <c r="F600" s="2"/>
       <c r="G600" s="2"/>
@@ -38023,7 +38023,7 @@
       <c r="W600" s="309"/>
       <c r="AB600" s="4"/>
     </row>
-    <row r="601" spans="5:28">
+    <row r="601" spans="5:28" hidden="1">
       <c r="E601" s="309"/>
       <c r="F601" s="2"/>
       <c r="G601" s="2"/>
@@ -38036,7 +38036,7 @@
       <c r="W601" s="309"/>
       <c r="AB601" s="4"/>
     </row>
-    <row r="602" spans="5:28">
+    <row r="602" spans="5:28" hidden="1">
       <c r="E602" s="309"/>
       <c r="F602" s="2"/>
       <c r="G602" s="2"/>
@@ -38049,7 +38049,7 @@
       <c r="W602" s="309"/>
       <c r="AB602" s="4"/>
     </row>
-    <row r="603" spans="5:28">
+    <row r="603" spans="5:28" hidden="1">
       <c r="E603" s="309"/>
       <c r="F603" s="2"/>
       <c r="G603" s="2"/>
@@ -38062,7 +38062,7 @@
       <c r="W603" s="309"/>
       <c r="AB603" s="4"/>
     </row>
-    <row r="604" spans="5:28">
+    <row r="604" spans="5:28" hidden="1">
       <c r="E604" s="309"/>
       <c r="F604" s="2"/>
       <c r="G604" s="2"/>
@@ -38075,7 +38075,7 @@
       <c r="W604" s="309"/>
       <c r="AB604" s="4"/>
     </row>
-    <row r="605" spans="5:28">
+    <row r="605" spans="5:28" hidden="1">
       <c r="E605" s="309"/>
       <c r="F605" s="2"/>
       <c r="G605" s="2"/>
@@ -38088,7 +38088,7 @@
       <c r="W605" s="309"/>
       <c r="AB605" s="4"/>
     </row>
-    <row r="606" spans="5:28">
+    <row r="606" spans="5:28" hidden="1">
       <c r="E606" s="309"/>
       <c r="F606" s="2"/>
       <c r="G606" s="2"/>
@@ -38101,7 +38101,7 @@
       <c r="W606" s="309"/>
       <c r="AB606" s="4"/>
     </row>
-    <row r="607" spans="5:28">
+    <row r="607" spans="5:28" hidden="1">
       <c r="E607" s="309"/>
       <c r="F607" s="2"/>
       <c r="G607" s="2"/>
@@ -38114,7 +38114,7 @@
       <c r="W607" s="309"/>
       <c r="AB607" s="4"/>
     </row>
-    <row r="608" spans="5:28">
+    <row r="608" spans="5:28" hidden="1">
       <c r="E608" s="309"/>
       <c r="F608" s="2"/>
       <c r="G608" s="2"/>
@@ -38127,7 +38127,7 @@
       <c r="W608" s="309"/>
       <c r="AB608" s="4"/>
     </row>
-    <row r="609" spans="5:28">
+    <row r="609" spans="5:28" hidden="1">
       <c r="E609" s="309"/>
       <c r="F609" s="2"/>
       <c r="G609" s="2"/>
@@ -38140,7 +38140,7 @@
       <c r="W609" s="309"/>
       <c r="AB609" s="4"/>
     </row>
-    <row r="610" spans="5:28">
+    <row r="610" spans="5:28" hidden="1">
       <c r="E610" s="309"/>
       <c r="F610" s="2"/>
       <c r="G610" s="2"/>
@@ -38153,7 +38153,7 @@
       <c r="W610" s="309"/>
       <c r="AB610" s="4"/>
     </row>
-    <row r="611" spans="5:28">
+    <row r="611" spans="5:28" hidden="1">
       <c r="E611" s="309"/>
       <c r="F611" s="2"/>
       <c r="G611" s="2"/>
@@ -38166,7 +38166,7 @@
       <c r="W611" s="309"/>
       <c r="AB611" s="4"/>
     </row>
-    <row r="612" spans="5:28">
+    <row r="612" spans="5:28" hidden="1">
       <c r="E612" s="309"/>
       <c r="F612" s="2"/>
       <c r="G612" s="2"/>
@@ -38179,7 +38179,7 @@
       <c r="W612" s="309"/>
       <c r="AB612" s="4"/>
     </row>
-    <row r="613" spans="5:28">
+    <row r="613" spans="5:28" hidden="1">
       <c r="E613" s="309"/>
       <c r="F613" s="2"/>
       <c r="G613" s="2"/>
@@ -38192,7 +38192,7 @@
       <c r="W613" s="309"/>
       <c r="AB613" s="4"/>
     </row>
-    <row r="614" spans="5:28">
+    <row r="614" spans="5:28" hidden="1">
       <c r="E614" s="309"/>
       <c r="F614" s="2"/>
       <c r="G614" s="2"/>
@@ -38205,7 +38205,7 @@
       <c r="W614" s="309"/>
       <c r="AB614" s="4"/>
     </row>
-    <row r="615" spans="5:28">
+    <row r="615" spans="5:28" hidden="1">
       <c r="E615" s="309"/>
       <c r="F615" s="2"/>
       <c r="G615" s="2"/>
@@ -38218,7 +38218,7 @@
       <c r="W615" s="309"/>
       <c r="AB615" s="4"/>
     </row>
-    <row r="616" spans="5:28">
+    <row r="616" spans="5:28" hidden="1">
       <c r="E616" s="309"/>
       <c r="F616" s="2"/>
       <c r="G616" s="2"/>
@@ -38231,7 +38231,7 @@
       <c r="W616" s="309"/>
       <c r="AB616" s="4"/>
     </row>
-    <row r="617" spans="5:28">
+    <row r="617" spans="5:28" hidden="1">
       <c r="E617" s="309"/>
       <c r="F617" s="2"/>
       <c r="G617" s="2"/>
@@ -38244,7 +38244,7 @@
       <c r="W617" s="309"/>
       <c r="AB617" s="4"/>
     </row>
-    <row r="618" spans="5:28">
+    <row r="618" spans="5:28" hidden="1">
       <c r="E618" s="309"/>
       <c r="F618" s="2"/>
       <c r="G618" s="2"/>
@@ -38257,7 +38257,7 @@
       <c r="W618" s="309"/>
       <c r="AB618" s="4"/>
     </row>
-    <row r="619" spans="5:28">
+    <row r="619" spans="5:28" hidden="1">
       <c r="E619" s="309"/>
       <c r="F619" s="2"/>
       <c r="G619" s="2"/>
@@ -38270,7 +38270,7 @@
       <c r="W619" s="309"/>
       <c r="AB619" s="4"/>
     </row>
-    <row r="620" spans="5:28">
+    <row r="620" spans="5:28" hidden="1">
       <c r="E620" s="309"/>
       <c r="F620" s="2"/>
       <c r="G620" s="2"/>
@@ -38283,7 +38283,7 @@
       <c r="W620" s="309"/>
       <c r="AB620" s="4"/>
     </row>
-    <row r="621" spans="5:28">
+    <row r="621" spans="5:28" hidden="1">
       <c r="E621" s="309"/>
       <c r="F621" s="2"/>
       <c r="G621" s="2"/>
@@ -38296,7 +38296,7 @@
       <c r="W621" s="309"/>
       <c r="AB621" s="4"/>
     </row>
-    <row r="622" spans="5:28">
+    <row r="622" spans="5:28" hidden="1">
       <c r="E622" s="309"/>
       <c r="F622" s="2"/>
       <c r="G622" s="2"/>
@@ -38309,7 +38309,7 @@
       <c r="W622" s="309"/>
       <c r="AB622" s="4"/>
     </row>
-    <row r="623" spans="5:28">
+    <row r="623" spans="5:28" hidden="1">
       <c r="E623" s="309"/>
       <c r="F623" s="2"/>
       <c r="G623" s="2"/>
@@ -38322,7 +38322,7 @@
       <c r="W623" s="309"/>
       <c r="AB623" s="4"/>
     </row>
-    <row r="624" spans="5:28">
+    <row r="624" spans="5:28" hidden="1">
       <c r="E624" s="309"/>
       <c r="F624" s="2"/>
       <c r="G624" s="2"/>
@@ -38335,7 +38335,7 @@
       <c r="W624" s="309"/>
       <c r="AB624" s="4"/>
     </row>
-    <row r="625" spans="5:28">
+    <row r="625" spans="5:28" hidden="1">
       <c r="E625" s="309"/>
       <c r="F625" s="2"/>
       <c r="G625" s="2"/>
@@ -38348,7 +38348,7 @@
       <c r="W625" s="309"/>
       <c r="AB625" s="4"/>
     </row>
-    <row r="626" spans="5:28">
+    <row r="626" spans="5:28" hidden="1">
       <c r="E626" s="309"/>
       <c r="F626" s="2"/>
       <c r="G626" s="2"/>
@@ -38361,7 +38361,7 @@
       <c r="W626" s="309"/>
       <c r="AB626" s="4"/>
     </row>
-    <row r="627" spans="5:28">
+    <row r="627" spans="5:28" hidden="1">
       <c r="E627" s="309"/>
       <c r="F627" s="2"/>
       <c r="G627" s="2"/>
@@ -38374,7 +38374,7 @@
       <c r="W627" s="309"/>
       <c r="AB627" s="4"/>
     </row>
-    <row r="628" spans="5:28">
+    <row r="628" spans="5:28" hidden="1">
       <c r="E628" s="309"/>
       <c r="F628" s="2"/>
       <c r="G628" s="2"/>
@@ -38387,7 +38387,7 @@
       <c r="W628" s="309"/>
       <c r="AB628" s="4"/>
     </row>
-    <row r="629" spans="5:28">
+    <row r="629" spans="5:28" hidden="1">
       <c r="E629" s="309"/>
       <c r="F629" s="2"/>
       <c r="G629" s="2"/>
@@ -38400,7 +38400,7 @@
       <c r="W629" s="309"/>
       <c r="AB629" s="4"/>
     </row>
-    <row r="630" spans="5:28">
+    <row r="630" spans="5:28" hidden="1">
       <c r="E630" s="309"/>
       <c r="F630" s="2"/>
       <c r="G630" s="2"/>
@@ -38413,7 +38413,7 @@
       <c r="W630" s="309"/>
       <c r="AB630" s="4"/>
     </row>
-    <row r="631" spans="5:28">
+    <row r="631" spans="5:28" hidden="1">
       <c r="E631" s="309"/>
       <c r="F631" s="2"/>
       <c r="G631" s="2"/>
@@ -38426,7 +38426,7 @@
       <c r="W631" s="309"/>
       <c r="AB631" s="4"/>
     </row>
-    <row r="632" spans="5:28">
+    <row r="632" spans="5:28" hidden="1">
       <c r="E632" s="309"/>
       <c r="F632" s="2"/>
       <c r="G632" s="2"/>
@@ -38439,7 +38439,7 @@
       <c r="W632" s="309"/>
       <c r="AB632" s="4"/>
     </row>
-    <row r="633" spans="5:28">
+    <row r="633" spans="5:28" hidden="1">
       <c r="E633" s="309"/>
       <c r="F633" s="2"/>
       <c r="G633" s="2"/>
@@ -38452,7 +38452,7 @@
       <c r="W633" s="309"/>
       <c r="AB633" s="4"/>
     </row>
-    <row r="634" spans="5:28">
+    <row r="634" spans="5:28" hidden="1">
       <c r="E634" s="309"/>
       <c r="F634" s="2"/>
       <c r="G634" s="2"/>
@@ -38465,7 +38465,7 @@
       <c r="W634" s="309"/>
       <c r="AB634" s="4"/>
     </row>
-    <row r="635" spans="5:28">
+    <row r="635" spans="5:28" hidden="1">
       <c r="E635" s="309"/>
       <c r="F635" s="2"/>
       <c r="G635" s="2"/>
@@ -38478,7 +38478,7 @@
       <c r="W635" s="309"/>
       <c r="AB635" s="4"/>
     </row>
-    <row r="636" spans="5:28">
+    <row r="636" spans="5:28" hidden="1">
       <c r="E636" s="309"/>
       <c r="F636" s="2"/>
       <c r="G636" s="2"/>
@@ -38491,7 +38491,7 @@
       <c r="W636" s="309"/>
       <c r="AB636" s="4"/>
     </row>
-    <row r="637" spans="5:28">
+    <row r="637" spans="5:28" hidden="1">
       <c r="E637" s="309"/>
       <c r="F637" s="2"/>
       <c r="G637" s="2"/>
@@ -38504,7 +38504,7 @@
       <c r="W637" s="309"/>
       <c r="AB637" s="4"/>
     </row>
-    <row r="638" spans="5:28">
+    <row r="638" spans="5:28" hidden="1">
       <c r="E638" s="309"/>
       <c r="F638" s="2"/>
       <c r="G638" s="2"/>
@@ -38517,7 +38517,7 @@
       <c r="W638" s="309"/>
       <c r="AB638" s="4"/>
     </row>
-    <row r="639" spans="5:28">
+    <row r="639" spans="5:28" hidden="1">
       <c r="E639" s="309"/>
       <c r="F639" s="2"/>
       <c r="G639" s="2"/>
@@ -38530,7 +38530,7 @@
       <c r="W639" s="309"/>
       <c r="AB639" s="4"/>
     </row>
-    <row r="640" spans="5:28">
+    <row r="640" spans="5:28" hidden="1">
       <c r="E640" s="309"/>
       <c r="F640" s="2"/>
       <c r="G640" s="2"/>
@@ -38543,7 +38543,7 @@
       <c r="W640" s="309"/>
       <c r="AB640" s="4"/>
     </row>
-    <row r="641" spans="5:28">
+    <row r="641" spans="5:28" hidden="1">
       <c r="E641" s="309"/>
       <c r="F641" s="2"/>
       <c r="G641" s="2"/>
@@ -38556,7 +38556,7 @@
       <c r="W641" s="309"/>
       <c r="AB641" s="4"/>
     </row>
-    <row r="642" spans="5:28">
+    <row r="642" spans="5:28" hidden="1">
       <c r="E642" s="309"/>
       <c r="F642" s="2"/>
       <c r="G642" s="2"/>
@@ -38569,7 +38569,7 @@
       <c r="W642" s="309"/>
       <c r="AB642" s="4"/>
     </row>
-    <row r="643" spans="5:28">
+    <row r="643" spans="5:28" hidden="1">
       <c r="E643" s="309"/>
       <c r="F643" s="2"/>
       <c r="G643" s="2"/>
@@ -38582,7 +38582,7 @@
       <c r="W643" s="309"/>
       <c r="AB643" s="4"/>
     </row>
-    <row r="644" spans="5:28">
+    <row r="644" spans="5:28" hidden="1">
       <c r="E644" s="309"/>
       <c r="F644" s="2"/>
       <c r="G644" s="2"/>
@@ -38595,7 +38595,7 @@
       <c r="W644" s="309"/>
       <c r="AB644" s="4"/>
     </row>
-    <row r="645" spans="5:28">
+    <row r="645" spans="5:28" hidden="1">
       <c r="E645" s="309"/>
       <c r="F645" s="2"/>
       <c r="G645" s="2"/>
@@ -38608,7 +38608,7 @@
       <c r="W645" s="309"/>
       <c r="AB645" s="4"/>
     </row>
-    <row r="646" spans="5:28">
+    <row r="646" spans="5:28" hidden="1">
       <c r="E646" s="309"/>
       <c r="F646" s="2"/>
       <c r="G646" s="2"/>
@@ -38621,7 +38621,7 @@
       <c r="W646" s="309"/>
       <c r="AB646" s="4"/>
     </row>
-    <row r="647" spans="5:28">
+    <row r="647" spans="5:28" hidden="1">
       <c r="E647" s="309"/>
       <c r="F647" s="2"/>
       <c r="G647" s="2"/>
@@ -38634,7 +38634,7 @@
       <c r="W647" s="309"/>
       <c r="AB647" s="4"/>
     </row>
-    <row r="648" spans="5:28">
+    <row r="648" spans="5:28" hidden="1">
       <c r="E648" s="309"/>
       <c r="F648" s="2"/>
       <c r="G648" s="2"/>
@@ -38647,7 +38647,7 @@
       <c r="W648" s="309"/>
       <c r="AB648" s="4"/>
     </row>
-    <row r="649" spans="5:28">
+    <row r="649" spans="5:28" hidden="1">
       <c r="E649" s="309"/>
       <c r="F649" s="2"/>
       <c r="G649" s="2"/>
@@ -38660,7 +38660,7 @@
       <c r="W649" s="309"/>
       <c r="AB649" s="4"/>
     </row>
-    <row r="650" spans="5:28">
+    <row r="650" spans="5:28" hidden="1">
       <c r="E650" s="309"/>
       <c r="F650" s="2"/>
       <c r="G650" s="2"/>
@@ -38673,7 +38673,7 @@
       <c r="W650" s="309"/>
       <c r="AB650" s="4"/>
     </row>
-    <row r="651" spans="5:28">
+    <row r="651" spans="5:28" hidden="1">
       <c r="E651" s="309"/>
       <c r="F651" s="2"/>
       <c r="G651" s="2"/>
@@ -38686,7 +38686,7 @@
       <c r="W651" s="309"/>
       <c r="AB651" s="4"/>
     </row>
-    <row r="652" spans="5:28">
+    <row r="652" spans="5:28" hidden="1">
       <c r="E652" s="309"/>
       <c r="F652" s="2"/>
       <c r="G652" s="2"/>
@@ -38699,7 +38699,7 @@
       <c r="W652" s="309"/>
       <c r="AB652" s="4"/>
     </row>
-    <row r="653" spans="5:28">
+    <row r="653" spans="5:28" hidden="1">
       <c r="E653" s="309"/>
       <c r="F653" s="2"/>
       <c r="G653" s="2"/>
@@ -38712,7 +38712,7 @@
       <c r="W653" s="309"/>
       <c r="AB653" s="4"/>
     </row>
-    <row r="654" spans="5:28">
+    <row r="654" spans="5:28" hidden="1">
       <c r="E654" s="309"/>
       <c r="F654" s="2"/>
       <c r="G654" s="2"/>
@@ -38725,7 +38725,7 @@
       <c r="W654" s="309"/>
       <c r="AB654" s="4"/>
     </row>
-    <row r="655" spans="5:28">
+    <row r="655" spans="5:28" hidden="1">
       <c r="E655" s="309"/>
       <c r="F655" s="2"/>
       <c r="G655" s="2"/>
@@ -38738,7 +38738,7 @@
       <c r="W655" s="309"/>
       <c r="AB655" s="4"/>
     </row>
-    <row r="656" spans="5:28">
+    <row r="656" spans="5:28" hidden="1">
       <c r="E656" s="309"/>
       <c r="F656" s="2"/>
       <c r="G656" s="2"/>
@@ -38751,7 +38751,7 @@
       <c r="W656" s="309"/>
       <c r="AB656" s="4"/>
     </row>
-    <row r="657" spans="5:28">
+    <row r="657" spans="5:28" hidden="1">
       <c r="E657" s="309"/>
       <c r="F657" s="2"/>
       <c r="G657" s="2"/>
@@ -38764,7 +38764,7 @@
       <c r="W657" s="309"/>
       <c r="AB657" s="4"/>
     </row>
-    <row r="658" spans="5:28">
+    <row r="658" spans="5:28" hidden="1">
       <c r="E658" s="309"/>
       <c r="F658" s="2"/>
       <c r="G658" s="2"/>
@@ -38777,7 +38777,7 @@
       <c r="W658" s="309"/>
       <c r="AB658" s="4"/>
     </row>
-    <row r="659" spans="5:28">
+    <row r="659" spans="5:28" hidden="1">
       <c r="E659" s="309"/>
       <c r="F659" s="2"/>
       <c r="G659" s="2"/>
@@ -38790,7 +38790,7 @@
       <c r="W659" s="309"/>
       <c r="AB659" s="4"/>
     </row>
-    <row r="660" spans="5:28">
+    <row r="660" spans="5:28" hidden="1">
       <c r="E660" s="309"/>
       <c r="F660" s="2"/>
       <c r="G660" s="2"/>
@@ -38803,7 +38803,7 @@
       <c r="W660" s="309"/>
       <c r="AB660" s="4"/>
     </row>
-    <row r="661" spans="5:28">
+    <row r="661" spans="5:28" hidden="1">
       <c r="E661" s="309"/>
       <c r="F661" s="2"/>
       <c r="G661" s="2"/>
@@ -38816,7 +38816,7 @@
       <c r="W661" s="309"/>
       <c r="AB661" s="4"/>
     </row>
-    <row r="662" spans="5:28">
+    <row r="662" spans="5:28" hidden="1">
       <c r="E662" s="309"/>
       <c r="F662" s="2"/>
       <c r="G662" s="2"/>
@@ -38829,7 +38829,7 @@
       <c r="W662" s="309"/>
       <c r="AB662" s="4"/>
     </row>
-    <row r="663" spans="5:28">
+    <row r="663" spans="5:28" hidden="1">
       <c r="E663" s="309"/>
       <c r="F663" s="2"/>
       <c r="G663" s="2"/>
@@ -38842,7 +38842,7 @@
       <c r="W663" s="309"/>
       <c r="AB663" s="4"/>
     </row>
-    <row r="664" spans="5:28">
+    <row r="664" spans="5:28" hidden="1">
       <c r="E664" s="309"/>
       <c r="F664" s="2"/>
       <c r="G664" s="2"/>
@@ -38855,7 +38855,7 @@
       <c r="W664" s="309"/>
       <c r="AB664" s="4"/>
     </row>
-    <row r="665" spans="5:28">
+    <row r="665" spans="5:28" hidden="1">
       <c r="E665" s="309"/>
       <c r="F665" s="2"/>
       <c r="G665" s="2"/>
@@ -38868,7 +38868,7 @@
       <c r="W665" s="309"/>
       <c r="AB665" s="4"/>
     </row>
-    <row r="666" spans="5:28">
+    <row r="666" spans="5:28" hidden="1">
       <c r="E666" s="309"/>
       <c r="F666" s="2"/>
       <c r="G666" s="2"/>
@@ -38881,7 +38881,7 @@
       <c r="W666" s="309"/>
       <c r="AB666" s="4"/>
     </row>
-    <row r="667" spans="5:28">
+    <row r="667" spans="5:28" hidden="1">
       <c r="E667" s="309"/>
       <c r="F667" s="2"/>
       <c r="G667" s="2"/>
@@ -38894,7 +38894,7 @@
       <c r="W667" s="309"/>
       <c r="AB667" s="4"/>
     </row>
-    <row r="668" spans="5:28">
+    <row r="668" spans="5:28" hidden="1">
       <c r="E668" s="309"/>
       <c r="F668" s="2"/>
       <c r="G668" s="2"/>
@@ -38907,7 +38907,7 @@
       <c r="W668" s="309"/>
       <c r="AB668" s="4"/>
     </row>
-    <row r="669" spans="5:28">
+    <row r="669" spans="5:28" hidden="1">
       <c r="E669" s="309"/>
       <c r="F669" s="2"/>
       <c r="G669" s="2"/>
@@ -38920,7 +38920,7 @@
       <c r="W669" s="309"/>
       <c r="AB669" s="4"/>
     </row>
-    <row r="670" spans="5:28">
+    <row r="670" spans="5:28" hidden="1">
       <c r="E670" s="309"/>
       <c r="F670" s="2"/>
       <c r="G670" s="2"/>
@@ -38933,7 +38933,7 @@
       <c r="W670" s="309"/>
       <c r="AB670" s="4"/>
     </row>
-    <row r="671" spans="5:28">
+    <row r="671" spans="5:28" hidden="1">
       <c r="E671" s="309"/>
       <c r="F671" s="2"/>
       <c r="G671" s="2"/>
@@ -38946,7 +38946,7 @@
       <c r="W671" s="309"/>
       <c r="AB671" s="4"/>
     </row>
-    <row r="672" spans="5:28">
+    <row r="672" spans="5:28" hidden="1">
       <c r="E672" s="309"/>
       <c r="F672" s="2"/>
       <c r="G672" s="2"/>
@@ -38959,7 +38959,7 @@
       <c r="W672" s="309"/>
       <c r="AB672" s="4"/>
     </row>
-    <row r="673" spans="5:28">
+    <row r="673" spans="5:28" hidden="1">
       <c r="E673" s="309"/>
       <c r="F673" s="2"/>
       <c r="G673" s="2"/>
@@ -38972,7 +38972,7 @@
       <c r="W673" s="309"/>
       <c r="AB673" s="4"/>
     </row>
-    <row r="674" spans="5:28">
+    <row r="674" spans="5:28" hidden="1">
       <c r="E674" s="309"/>
       <c r="F674" s="2"/>
       <c r="G674" s="2"/>
@@ -38985,7 +38985,7 @@
       <c r="W674" s="309"/>
       <c r="AB674" s="4"/>
     </row>
-    <row r="675" spans="5:28">
+    <row r="675" spans="5:28" hidden="1">
       <c r="E675" s="309"/>
       <c r="F675" s="2"/>
       <c r="G675" s="2"/>
@@ -38998,7 +38998,7 @@
       <c r="W675" s="309"/>
       <c r="AB675" s="4"/>
     </row>
-    <row r="676" spans="5:28">
+    <row r="676" spans="5:28" hidden="1">
       <c r="E676" s="309"/>
       <c r="F676" s="2"/>
       <c r="G676" s="2"/>
@@ -39011,7 +39011,7 @@
       <c r="W676" s="309"/>
       <c r="AB676" s="4"/>
     </row>
-    <row r="677" spans="5:28">
+    <row r="677" spans="5:28" hidden="1">
       <c r="E677" s="309"/>
       <c r="F677" s="2"/>
       <c r="G677" s="2"/>
@@ -39024,7 +39024,7 @@
       <c r="W677" s="309"/>
       <c r="AB677" s="4"/>
     </row>
-    <row r="678" spans="5:28">
+    <row r="678" spans="5:28" hidden="1">
       <c r="E678" s="309"/>
       <c r="F678" s="2"/>
       <c r="G678" s="2"/>
@@ -39037,7 +39037,7 @@
       <c r="W678" s="309"/>
       <c r="AB678" s="4"/>
     </row>
-    <row r="679" spans="5:28">
+    <row r="679" spans="5:28" hidden="1">
       <c r="E679" s="309"/>
       <c r="F679" s="2"/>
       <c r="G679" s="2"/>
@@ -39050,7 +39050,7 @@
       <c r="W679" s="309"/>
       <c r="AB679" s="4"/>
     </row>
-    <row r="680" spans="5:28">
+    <row r="680" spans="5:28" hidden="1">
       <c r="E680" s="309"/>
       <c r="F680" s="2"/>
       <c r="G680" s="2"/>
@@ -39063,7 +39063,7 @@
       <c r="W680" s="309"/>
       <c r="AB680" s="4"/>
     </row>
-    <row r="681" spans="5:28">
+    <row r="681" spans="5:28" hidden="1">
       <c r="E681" s="309"/>
       <c r="F681" s="2"/>
       <c r="G681" s="2"/>
@@ -39076,7 +39076,7 @@
       <c r="W681" s="309"/>
       <c r="AB681" s="4"/>
     </row>
-    <row r="682" spans="5:28">
+    <row r="682" spans="5:28" hidden="1">
       <c r="E682" s="309"/>
       <c r="F682" s="2"/>
       <c r="G682" s="2"/>
@@ -39089,7 +39089,7 @@
       <c r="W682" s="309"/>
       <c r="AB682" s="4"/>
     </row>
-    <row r="683" spans="5:28">
+    <row r="683" spans="5:28" hidden="1">
       <c r="E683" s="309"/>
       <c r="F683" s="2"/>
       <c r="G683" s="2"/>
@@ -39102,7 +39102,7 @@
       <c r="W683" s="309"/>
       <c r="AB683" s="4"/>
     </row>
-    <row r="684" spans="5:28">
+    <row r="684" spans="5:28" hidden="1">
       <c r="E684" s="309"/>
       <c r="F684" s="2"/>
       <c r="G684" s="2"/>
@@ -39115,7 +39115,7 @@
       <c r="W684" s="309"/>
       <c r="AB684" s="4"/>
     </row>
-    <row r="685" spans="5:28">
+    <row r="685" spans="5:28" hidden="1">
       <c r="E685" s="309"/>
       <c r="F685" s="2"/>
       <c r="G685" s="2"/>
@@ -39128,7 +39128,7 @@
       <c r="W685" s="309"/>
       <c r="AB685" s="4"/>
     </row>
-    <row r="686" spans="5:28">
+    <row r="686" spans="5:28" hidden="1">
       <c r="E686" s="309"/>
       <c r="F686" s="2"/>
       <c r="G686" s="2"/>
@@ -39141,7 +39141,7 @@
       <c r="W686" s="309"/>
       <c r="AB686" s="4"/>
     </row>
-    <row r="687" spans="5:28">
+    <row r="687" spans="5:28" hidden="1">
       <c r="E687" s="309"/>
       <c r="F687" s="2"/>
       <c r="G687" s="2"/>
@@ -39154,7 +39154,7 @@
       <c r="W687" s="309"/>
       <c r="AB687" s="4"/>
     </row>
-    <row r="688" spans="5:28">
+    <row r="688" spans="5:28" hidden="1">
       <c r="E688" s="309"/>
       <c r="F688" s="2"/>
       <c r="G688" s="2"/>
@@ -39167,7 +39167,7 @@
       <c r="W688" s="309"/>
       <c r="AB688" s="4"/>
     </row>
-    <row r="689" spans="5:28">
+    <row r="689" spans="5:28" hidden="1">
       <c r="E689" s="309"/>
       <c r="F689" s="2"/>
       <c r="G689" s="2"/>
@@ -39180,7 +39180,7 @@
       <c r="W689" s="309"/>
       <c r="AB689" s="4"/>
     </row>
-    <row r="690" spans="5:28">
+    <row r="690" spans="5:28" hidden="1">
       <c r="E690" s="309"/>
       <c r="F690" s="2"/>
       <c r="G690" s="2"/>
@@ -39193,7 +39193,7 @@
       <c r="W690" s="309"/>
       <c r="AB690" s="4"/>
     </row>
-    <row r="691" spans="5:28">
+    <row r="691" spans="5:28" hidden="1">
       <c r="E691" s="309"/>
       <c r="F691" s="2"/>
       <c r="G691" s="2"/>
@@ -39206,7 +39206,7 @@
       <c r="W691" s="309"/>
       <c r="AB691" s="4"/>
     </row>
-    <row r="692" spans="5:28">
+    <row r="692" spans="5:28" hidden="1">
       <c r="E692" s="309"/>
       <c r="F692" s="2"/>
       <c r="G692" s="2"/>
@@ -39219,7 +39219,7 @@
       <c r="W692" s="309"/>
       <c r="AB692" s="4"/>
     </row>
-    <row r="693" spans="5:28">
+    <row r="693" spans="5:28" hidden="1">
       <c r="E693" s="309"/>
       <c r="F693" s="2"/>
       <c r="G693" s="2"/>
@@ -39232,7 +39232,7 @@
       <c r="W693" s="309"/>
       <c r="AB693" s="4"/>
     </row>
-    <row r="694" spans="5:28">
+    <row r="694" spans="5:28" hidden="1">
       <c r="E694" s="309"/>
       <c r="F694" s="2"/>
       <c r="G694" s="2"/>
@@ -39245,7 +39245,7 @@
       <c r="W694" s="309"/>
       <c r="AB694" s="4"/>
     </row>
-    <row r="695" spans="5:28">
+    <row r="695" spans="5:28" hidden="1">
       <c r="E695" s="309"/>
       <c r="F695" s="2"/>
       <c r="G695" s="2"/>
@@ -39258,7 +39258,7 @@
       <c r="W695" s="309"/>
       <c r="AB695" s="4"/>
     </row>
-    <row r="696" spans="5:28">
+    <row r="696" spans="5:28" hidden="1">
       <c r="E696" s="309"/>
       <c r="F696" s="2"/>
       <c r="G696" s="2"/>
@@ -39271,7 +39271,7 @@
       <c r="W696" s="309"/>
       <c r="AB696" s="4"/>
     </row>
-    <row r="697" spans="5:28">
+    <row r="697" spans="5:28" hidden="1">
       <c r="E697" s="309"/>
       <c r="F697" s="2"/>
       <c r="G697" s="2"/>
@@ -39284,7 +39284,7 @@
       <c r="W697" s="309"/>
       <c r="AB697" s="4"/>
     </row>
-    <row r="698" spans="5:28">
+    <row r="698" spans="5:28" hidden="1">
       <c r="E698" s="309"/>
       <c r="F698" s="2"/>
       <c r="G698" s="2"/>
@@ -39297,7 +39297,7 @@
       <c r="W698" s="309"/>
       <c r="AB698" s="4"/>
     </row>
-    <row r="699" spans="5:28">
+    <row r="699" spans="5:28" hidden="1">
       <c r="E699" s="309"/>
       <c r="F699" s="2"/>
       <c r="G699" s="2"/>
@@ -39310,7 +39310,7 @@
       <c r="W699" s="309"/>
       <c r="AB699" s="4"/>
     </row>
-    <row r="700" spans="5:28">
+    <row r="700" spans="5:28" hidden="1">
       <c r="E700" s="309"/>
       <c r="F700" s="2"/>
       <c r="G700" s="2"/>
@@ -39323,7 +39323,7 @@
       <c r="W700" s="309"/>
       <c r="AB700" s="4"/>
     </row>
-    <row r="701" spans="5:28">
+    <row r="701" spans="5:28" hidden="1">
       <c r="E701" s="309"/>
       <c r="F701" s="2"/>
       <c r="G701" s="2"/>
@@ -39336,7 +39336,7 @@
       <c r="W701" s="309"/>
       <c r="AB701" s="4"/>
     </row>
-    <row r="702" spans="5:28">
+    <row r="702" spans="5:28" hidden="1">
       <c r="E702" s="309"/>
       <c r="F702" s="2"/>
       <c r="G702" s="2"/>
@@ -39349,7 +39349,7 @@
       <c r="W702" s="309"/>
       <c r="AB702" s="4"/>
     </row>
-    <row r="703" spans="5:28">
+    <row r="703" spans="5:28" hidden="1">
       <c r="E703" s="309"/>
       <c r="F703" s="2"/>
       <c r="G703" s="2"/>
@@ -39362,7 +39362,7 @@
       <c r="W703" s="309"/>
       <c r="AB703" s="4"/>
     </row>
-    <row r="704" spans="5:28">
+    <row r="704" spans="5:28" hidden="1">
       <c r="E704" s="309"/>
       <c r="F704" s="2"/>
       <c r="G704" s="2"/>
@@ -39375,7 +39375,7 @@
       <c r="W704" s="309"/>
       <c r="AB704" s="4"/>
     </row>
-    <row r="705" spans="5:28">
+    <row r="705" spans="5:28" hidden="1">
       <c r="E705" s="309"/>
       <c r="F705" s="2"/>
       <c r="G705" s="2"/>
@@ -39388,7 +39388,7 @@
       <c r="W705" s="309"/>
       <c r="AB705" s="4"/>
     </row>
-    <row r="706" spans="5:28">
+    <row r="706" spans="5:28" hidden="1">
       <c r="E706" s="309"/>
       <c r="F706" s="2"/>
       <c r="G706" s="2"/>
@@ -39401,7 +39401,7 @@
       <c r="W706" s="309"/>
       <c r="AB706" s="4"/>
     </row>
-    <row r="707" spans="5:28">
+    <row r="707" spans="5:28" hidden="1">
       <c r="E707" s="309"/>
       <c r="F707" s="2"/>
       <c r="G707" s="2"/>
@@ -39414,7 +39414,7 @@
       <c r="W707" s="309"/>
       <c r="AB707" s="4"/>
     </row>
-    <row r="708" spans="5:28">
+    <row r="708" spans="5:28" hidden="1">
       <c r="E708" s="309"/>
       <c r="F708" s="2"/>
       <c r="G708" s="2"/>
@@ -39427,7 +39427,7 @@
       <c r="W708" s="309"/>
       <c r="AB708" s="4"/>
     </row>
-    <row r="709" spans="5:28">
+    <row r="709" spans="5:28" hidden="1">
       <c r="E709" s="309"/>
       <c r="F709" s="2"/>
       <c r="G709" s="2"/>
@@ -39440,7 +39440,7 @@
       <c r="W709" s="309"/>
       <c r="AB709" s="4"/>
     </row>
-    <row r="710" spans="5:28">
+    <row r="710" spans="5:28" hidden="1">
       <c r="E710" s="309"/>
       <c r="F710" s="2"/>
       <c r="G710" s="2"/>
@@ -39453,7 +39453,7 @@
       <c r="W710" s="309"/>
       <c r="AB710" s="4"/>
     </row>
-    <row r="711" spans="5:28">
+    <row r="711" spans="5:28" hidden="1">
       <c r="E711" s="309"/>
       <c r="F711" s="2"/>
       <c r="G711" s="2"/>
@@ -39466,7 +39466,7 @@
       <c r="W711" s="309"/>
       <c r="AB711" s="4"/>
     </row>
-    <row r="712" spans="5:28">
+    <row r="712" spans="5:28" hidden="1">
       <c r="E712" s="309"/>
       <c r="F712" s="2"/>
       <c r="G712" s="2"/>
@@ -39479,7 +39479,7 @@
       <c r="W712" s="309"/>
       <c r="AB712" s="4"/>
     </row>
-    <row r="713" spans="5:28">
+    <row r="713" spans="5:28" hidden="1">
       <c r="E713" s="309"/>
       <c r="F713" s="2"/>
       <c r="G713" s="2"/>
@@ -39492,7 +39492,7 @@
       <c r="W713" s="309"/>
       <c r="AB713" s="4"/>
     </row>
-    <row r="714" spans="5:28">
+    <row r="714" spans="5:28" hidden="1">
       <c r="E714" s="309"/>
       <c r="F714" s="2"/>
       <c r="G714" s="2"/>
@@ -39505,7 +39505,7 @@
       <c r="W714" s="309"/>
       <c r="AB714" s="4"/>
     </row>
-    <row r="715" spans="5:28">
+    <row r="715" spans="5:28" hidden="1">
       <c r="E715" s="309"/>
       <c r="F715" s="2"/>
       <c r="G715" s="2"/>
@@ -39518,7 +39518,7 @@
       <c r="W715" s="309"/>
       <c r="AB715" s="4"/>
     </row>
-    <row r="716" spans="5:28">
+    <row r="716" spans="5:28" hidden="1">
       <c r="E716" s="309"/>
       <c r="F716" s="2"/>
       <c r="G716" s="2"/>
@@ -39531,7 +39531,7 @@
       <c r="W716" s="309"/>
       <c r="AB716" s="4"/>
     </row>
-    <row r="717" spans="5:28">
+    <row r="717" spans="5:28" hidden="1">
       <c r="E717" s="309"/>
       <c r="F717" s="2"/>
       <c r="G717" s="2"/>
@@ -39544,7 +39544,7 @@
       <c r="W717" s="309"/>
       <c r="AB717" s="4"/>
     </row>
-    <row r="718" spans="5:28">
+    <row r="718" spans="5:28" hidden="1">
       <c r="E718" s="309"/>
       <c r="F718" s="2"/>
       <c r="G718" s="2"/>
@@ -39557,7 +39557,7 @@
       <c r="W718" s="309"/>
       <c r="AB718" s="4"/>
     </row>
-    <row r="719" spans="5:28">
+    <row r="719" spans="5:28" hidden="1">
       <c r="E719" s="309"/>
       <c r="F719" s="2"/>
       <c r="G719" s="2"/>
@@ -39570,7 +39570,7 @@
       <c r="W719" s="309"/>
       <c r="AB719" s="4"/>
     </row>
-    <row r="720" spans="5:28">
+    <row r="720" spans="5:28" hidden="1">
       <c r="E720" s="309"/>
       <c r="F720" s="2"/>
       <c r="G720" s="2"/>
@@ -39583,7 +39583,7 @@
       <c r="W720" s="309"/>
       <c r="AB720" s="4"/>
     </row>
-    <row r="721" spans="5:28">
+    <row r="721" spans="5:28" hidden="1">
       <c r="E721" s="309"/>
       <c r="F721" s="2"/>
       <c r="G721" s="2"/>
@@ -39596,7 +39596,7 @@
       <c r="W721" s="309"/>
       <c r="AB721" s="4"/>
     </row>
-    <row r="722" spans="5:28">
+    <row r="722" spans="5:28" hidden="1">
       <c r="E722" s="309"/>
       <c r="F722" s="2"/>
       <c r="G722" s="2"/>
@@ -39609,7 +39609,7 @@
       <c r="W722" s="309"/>
       <c r="AB722" s="4"/>
     </row>
-    <row r="723" spans="5:28">
+    <row r="723" spans="5:28" hidden="1">
       <c r="E723" s="309"/>
       <c r="F723" s="2"/>
       <c r="G723" s="2"/>
@@ -39622,7 +39622,7 @@
       <c r="W723" s="309"/>
       <c r="AB723" s="4"/>
     </row>
-    <row r="724" spans="5:28">
+    <row r="724" spans="5:28" hidden="1">
       <c r="E724" s="309"/>
       <c r="F724" s="2"/>
       <c r="G724" s="2"/>
@@ -39635,7 +39635,7 @@
       <c r="W724" s="309"/>
       <c r="AB724" s="4"/>
     </row>
-    <row r="725" spans="5:28">
+    <row r="725" spans="5:28" hidden="1">
       <c r="E725" s="309"/>
       <c r="F725" s="2"/>
       <c r="G725" s="2"/>
@@ -39648,7 +39648,7 @@
       <c r="W725" s="309"/>
       <c r="AB725" s="4"/>
     </row>
-    <row r="726" spans="5:28">
+    <row r="726" spans="5:28" hidden="1">
       <c r="E726" s="309"/>
       <c r="F726" s="2"/>
       <c r="G726" s="2"/>
@@ -39661,7 +39661,7 @@
       <c r="W726" s="309"/>
       <c r="AB726" s="4"/>
     </row>
-    <row r="727" spans="5:28">
+    <row r="727" spans="5:28" hidden="1">
       <c r="E727" s="309"/>
       <c r="F727" s="2"/>
       <c r="G727" s="2"/>
@@ -39674,7 +39674,7 @@
       <c r="W727" s="309"/>
       <c r="AB727" s="4"/>
     </row>
-    <row r="728" spans="5:28">
+    <row r="728" spans="5:28" hidden="1">
       <c r="E728" s="309"/>
       <c r="F728" s="2"/>
       <c r="G728" s="2"/>
@@ -39687,7 +39687,7 @@
       <c r="W728" s="309"/>
       <c r="AB728" s="4"/>
     </row>
-    <row r="729" spans="5:28">
+    <row r="729" spans="5:28" hidden="1">
       <c r="E729" s="309"/>
       <c r="F729" s="2"/>
       <c r="G729" s="2"/>
@@ -39700,7 +39700,7 @@
       <c r="W729" s="309"/>
       <c r="AB729" s="4"/>
     </row>
-    <row r="730" spans="5:28">
+    <row r="730" spans="5:28" hidden="1">
       <c r="E730" s="309"/>
       <c r="F730" s="2"/>
       <c r="G730" s="2"/>
@@ -39713,7 +39713,7 @@
       <c r="W730" s="309"/>
       <c r="AB730" s="4"/>
     </row>
-    <row r="731" spans="5:28">
+    <row r="731" spans="5:28" hidden="1">
       <c r="E731" s="309"/>
       <c r="F731" s="2"/>
       <c r="G731" s="2"/>
@@ -39726,7 +39726,7 @@
       <c r="W731" s="309"/>
       <c r="AB731" s="4"/>
     </row>
-    <row r="732" spans="5:28">
+    <row r="732" spans="5:28" hidden="1">
       <c r="E732" s="309"/>
       <c r="F732" s="2"/>
       <c r="G732" s="2"/>
@@ -39739,7 +39739,7 @@
       <c r="W732" s="309"/>
       <c r="AB732" s="4"/>
     </row>
-    <row r="733" spans="5:28">
+    <row r="733" spans="5:28" hidden="1">
       <c r="E733" s="309"/>
       <c r="F733" s="2"/>
       <c r="G733" s="2"/>
@@ -39752,7 +39752,7 @@
       <c r="W733" s="309"/>
       <c r="AB733" s="4"/>
     </row>
-    <row r="734" spans="5:28">
+    <row r="734" spans="5:28" hidden="1">
       <c r="E734" s="309"/>
       <c r="F734" s="2"/>
       <c r="G734" s="2"/>
@@ -39765,7 +39765,7 @@
       <c r="W734" s="309"/>
       <c r="AB734" s="4"/>
     </row>
-    <row r="735" spans="5:28">
+    <row r="735" spans="5:28" hidden="1">
       <c r="E735" s="309"/>
       <c r="F735" s="2"/>
       <c r="G735" s="2"/>
@@ -39778,7 +39778,7 @@
       <c r="W735" s="309"/>
       <c r="AB735" s="4"/>
     </row>
-    <row r="736" spans="5:28">
+    <row r="736" spans="5:28" hidden="1">
       <c r="E736" s="309"/>
       <c r="F736" s="2"/>
       <c r="G736" s="2"/>
@@ -39791,7 +39791,7 @@
       <c r="W736" s="309"/>
       <c r="AB736" s="4"/>
     </row>
-    <row r="737" spans="5:28">
+    <row r="737" spans="5:28" hidden="1">
       <c r="E737" s="309"/>
       <c r="F737" s="2"/>
       <c r="G737" s="2"/>
@@ -39804,7 +39804,7 @@
       <c r="W737" s="309"/>
       <c r="AB737" s="4"/>
     </row>
-    <row r="738" spans="5:28">
+    <row r="738" spans="5:28" hidden="1">
       <c r="E738" s="309"/>
       <c r="F738" s="2"/>
       <c r="G738" s="2"/>
@@ -39817,7 +39817,7 @@
       <c r="W738" s="309"/>
       <c r="AB738" s="4"/>
     </row>
-    <row r="739" spans="5:28">
+    <row r="739" spans="5:28" hidden="1">
       <c r="E739" s="309"/>
       <c r="F739" s="2"/>
       <c r="G739" s="2"/>
@@ -39830,7 +39830,7 @@
       <c r="W739" s="309"/>
       <c r="AB739" s="4"/>
     </row>
-    <row r="740" spans="5:28">
+    <row r="740" spans="5:28" hidden="1">
       <c r="E740" s="309"/>
       <c r="F740" s="2"/>
       <c r="G740" s="2"/>
@@ -39843,7 +39843,7 @@
       <c r="W740" s="309"/>
       <c r="AB740" s="4"/>
     </row>
-    <row r="741" spans="5:28">
+    <row r="741" spans="5:28" hidden="1">
       <c r="E741" s="309"/>
       <c r="F741" s="2"/>
       <c r="G741" s="2"/>
@@ -39856,7 +39856,7 @@
       <c r="W741" s="309"/>
       <c r="AB741" s="4"/>
     </row>
-    <row r="742" spans="5:28">
+    <row r="742" spans="5:28" hidden="1">
       <c r="E742" s="309"/>
       <c r="F742" s="2"/>
       <c r="G742" s="2"/>
@@ -39869,7 +39869,7 @@
       <c r="W742" s="309"/>
       <c r="AB742" s="4"/>
     </row>
-    <row r="743" spans="5:28">
+    <row r="743" spans="5:28" hidden="1">
       <c r="E743" s="309"/>
       <c r="F743" s="2"/>
       <c r="G743" s="2"/>
@@ -39882,7 +39882,7 @@
       <c r="W743" s="309"/>
       <c r="AB743" s="4"/>
     </row>
-    <row r="744" spans="5:28">
+    <row r="744" spans="5:28" hidden="1">
       <c r="E744" s="309"/>
       <c r="F744" s="2"/>
       <c r="G744" s="2"/>
@@ -39895,7 +39895,7 @@
       <c r="W744" s="309"/>
       <c r="AB744" s="4"/>
     </row>
-    <row r="745" spans="5:28">
+    <row r="745" spans="5:28" hidden="1">
       <c r="E745" s="309"/>
       <c r="F745" s="2"/>
       <c r="G745" s="2"/>
@@ -39908,7 +39908,7 @@
       <c r="W745" s="309"/>
       <c r="AB745" s="4"/>
     </row>
-    <row r="746" spans="5:28">
+    <row r="746" spans="5:28" hidden="1">
       <c r="E746" s="309"/>
       <c r="F746" s="2"/>
       <c r="G746" s="2"/>
@@ -39921,7 +39921,7 @@
       <c r="W746" s="309"/>
       <c r="AB746" s="4"/>
     </row>
-    <row r="747" spans="5:28">
+    <row r="747" spans="5:28" hidden="1">
       <c r="E747" s="309"/>
       <c r="F747" s="2"/>
       <c r="G747" s="2"/>
@@ -39934,7 +39934,7 @@
       <c r="W747" s="309"/>
       <c r="AB747" s="4"/>
     </row>
-    <row r="748" spans="5:28">
+    <row r="748" spans="5:28" hidden="1">
       <c r="E748" s="309"/>
       <c r="F748" s="2"/>
       <c r="G748" s="2"/>
@@ -39947,7 +39947,7 @@
       <c r="W748" s="309"/>
       <c r="AB748" s="4"/>
     </row>
-    <row r="749" spans="5:28">
+    <row r="749" spans="5:28" hidden="1">
       <c r="E749" s="309"/>
       <c r="F749" s="2"/>
       <c r="G749" s="2"/>
@@ -39960,7 +39960,7 @@
       <c r="W749" s="309"/>
       <c r="AB749" s="4"/>
     </row>
-    <row r="750" spans="5:28">
+    <row r="750" spans="5:28" hidden="1">
       <c r="E750" s="309"/>
       <c r="F750" s="2"/>
       <c r="G750" s="2"/>
@@ -39973,7 +39973,7 @@
       <c r="W750" s="309"/>
       <c r="AB750" s="4"/>
     </row>
-    <row r="751" spans="5:28">
+    <row r="751" spans="5:28" hidden="1">
       <c r="E751" s="309"/>
       <c r="F751" s="2"/>
       <c r="G751" s="2"/>
@@ -39986,7 +39986,7 @@
       <c r="W751" s="309"/>
       <c r="AB751" s="4"/>
     </row>
-    <row r="752" spans="5:28">
+    <row r="752" spans="5:28" hidden="1">
       <c r="E752" s="309"/>
       <c r="F752" s="2"/>
       <c r="G752" s="2"/>
@@ -39999,7 +39999,7 @@
       <c r="W752" s="309"/>
       <c r="AB752" s="4"/>
     </row>
-    <row r="753" spans="5:28">
+    <row r="753" spans="5:28" hidden="1">
       <c r="E753" s="309"/>
       <c r="F753" s="2"/>
       <c r="G753" s="2"/>
@@ -40012,7 +40012,7 @@
       <c r="W753" s="309"/>
       <c r="AB753" s="4"/>
     </row>
-    <row r="754" spans="5:28">
+    <row r="754" spans="5:28" hidden="1">
       <c r="E754" s="309"/>
       <c r="F754" s="2"/>
       <c r="G754" s="2"/>
@@ -40025,7 +40025,7 @@
       <c r="W754" s="309"/>
       <c r="AB754" s="4"/>
     </row>
-    <row r="755" spans="5:28">
+    <row r="755" spans="5:28" hidden="1">
       <c r="E755" s="309"/>
       <c r="F755" s="2"/>
       <c r="G755" s="2"/>
@@ -40038,7 +40038,7 @@
       <c r="W755" s="309"/>
       <c r="AB755" s="4"/>
     </row>
-    <row r="756" spans="5:28">
+    <row r="756" spans="5:28" hidden="1">
       <c r="E756" s="309"/>
       <c r="F756" s="2"/>
       <c r="G756" s="2"/>
@@ -40051,7 +40051,7 @@
       <c r="W756" s="309"/>
       <c r="AB756" s="4"/>
     </row>
-    <row r="757" spans="5:28">
+    <row r="757" spans="5:28" hidden="1">
       <c r="E757" s="309"/>
       <c r="F757" s="2"/>
       <c r="G757" s="2"/>
@@ -40064,7 +40064,7 @@
       <c r="W757" s="309"/>
       <c r="AB757" s="4"/>
     </row>
-    <row r="758" spans="5:28">
+    <row r="758" spans="5:28" hidden="1">
       <c r="E758" s="309"/>
       <c r="F758" s="2"/>
       <c r="G758" s="2"/>
@@ -40077,7 +40077,7 @@
       <c r="W758" s="309"/>
       <c r="AB758" s="4"/>
     </row>
-    <row r="759" spans="5:28">
+    <row r="759" spans="5:28" hidden="1">
       <c r="E759" s="309"/>
       <c r="F759" s="2"/>
       <c r="G759" s="2"/>
@@ -40090,7 +40090,7 @@
       <c r="W759" s="309"/>
       <c r="AB759" s="4"/>
     </row>
-    <row r="760" spans="5:28">
+    <row r="760" spans="5:28" hidden="1">
       <c r="E760" s="309"/>
       <c r="F760" s="2"/>
       <c r="G760" s="2"/>
@@ -40103,7 +40103,7 @@
       <c r="W760" s="309"/>
       <c r="AB760" s="4"/>
     </row>
-    <row r="761" spans="5:28">
+    <row r="761" spans="5:28" hidden="1">
       <c r="E761" s="309"/>
       <c r="F761" s="2"/>
       <c r="G761" s="2"/>
@@ -40116,7 +40116,7 @@
       <c r="W761" s="309"/>
       <c r="AB761" s="4"/>
     </row>
-    <row r="762" spans="5:28">
+    <row r="762" spans="5:28" hidden="1">
       <c r="E762" s="309"/>
       <c r="F762" s="2"/>
       <c r="G762" s="2"/>
@@ -40129,7 +40129,7 @@
       <c r="W762" s="309"/>
       <c r="AB762" s="4"/>
     </row>
-    <row r="763" spans="5:28">
+    <row r="763" spans="5:28" hidden="1">
       <c r="E763" s="309"/>
       <c r="F763" s="2"/>
       <c r="G763" s="2"/>
@@ -40142,7 +40142,7 @@
       <c r="W763" s="309"/>
       <c r="AB763" s="4"/>
     </row>
-    <row r="764" spans="5:28">
+    <row r="764" spans="5:28" hidden="1">
       <c r="E764" s="309"/>
       <c r="F764" s="2"/>
       <c r="G764" s="2"/>
@@ -40155,7 +40155,7 @@
       <c r="W764" s="309"/>
       <c r="AB764" s="4"/>
     </row>
-    <row r="765" spans="5:28">
+    <row r="765" spans="5:28" hidden="1">
       <c r="E765" s="309"/>
       <c r="F765" s="2"/>
       <c r="G765" s="2"/>
@@ -40168,7 +40168,7 @@
       <c r="W765" s="309"/>
       <c r="AB765" s="4"/>
     </row>
-    <row r="766" spans="5:28">
+    <row r="766" spans="5:28" hidden="1">
       <c r="E766" s="309"/>
       <c r="F766" s="2"/>
       <c r="G766" s="2"/>
@@ -40181,7 +40181,7 @@
       <c r="W766" s="309"/>
       <c r="AB766" s="4"/>
     </row>
-    <row r="767" spans="5:28">
+    <row r="767" spans="5:28" hidden="1">
       <c r="E767" s="309"/>
       <c r="F767" s="2"/>
       <c r="G767" s="2"/>
@@ -40194,7 +40194,7 @@
       <c r="W767" s="309"/>
       <c r="AB767" s="4"/>
     </row>
-    <row r="768" spans="5:28">
+    <row r="768" spans="5:28" hidden="1">
       <c r="E768" s="309"/>
       <c r="F768" s="2"/>
       <c r="G768" s="2"/>
@@ -40207,7 +40207,7 @@
       <c r="W768" s="309"/>
       <c r="AB768" s="4"/>
     </row>
-    <row r="769" spans="5:28">
+    <row r="769" spans="5:28" hidden="1">
       <c r="E769" s="309"/>
       <c r="F769" s="2"/>
       <c r="G769" s="2"/>
@@ -40220,7 +40220,7 @@
       <c r="W769" s="309"/>
       <c r="AB769" s="4"/>
     </row>
-    <row r="770" spans="5:28">
+    <row r="770" spans="5:28" hidden="1">
       <c r="E770" s="309"/>
       <c r="F770" s="2"/>
       <c r="G770" s="2"/>
@@ -40233,7 +40233,7 @@
       <c r="W770" s="309"/>
       <c r="AB770" s="4"/>
     </row>
-    <row r="771" spans="5:28">
+    <row r="771" spans="5:28" hidden="1">
       <c r="E771" s="309"/>
       <c r="F771" s="2"/>
       <c r="G771" s="2"/>
@@ -40246,7 +40246,7 @@
       <c r="W771" s="309"/>
       <c r="AB771" s="4"/>
     </row>
-    <row r="772" spans="5:28">
+    <row r="772" spans="5:28" hidden="1">
       <c r="E772" s="309"/>
       <c r="F772" s="2"/>
       <c r="G772" s="2"/>
@@ -40259,7 +40259,7 @@
       <c r="W772" s="309"/>
       <c r="AB772" s="4"/>
     </row>
-    <row r="773" spans="5:28">
+    <row r="773" spans="5:28" hidden="1">
       <c r="E773" s="309"/>
       <c r="F773" s="2"/>
       <c r="G773" s="2"/>
@@ -40272,7 +40272,7 @@
       <c r="W773" s="309"/>
       <c r="AB773" s="4"/>
     </row>
-    <row r="774" spans="5:28">
+    <row r="774" spans="5:28" hidden="1">
       <c r="E774" s="309"/>
       <c r="F774" s="2"/>
       <c r="G774" s="2"/>
@@ -40285,7 +40285,7 @@
       <c r="W774" s="309"/>
       <c r="AB774" s="4"/>
     </row>
-    <row r="775" spans="5:28">
+    <row r="775" spans="5:28" hidden="1">
       <c r="E775" s="309"/>
       <c r="F775" s="2"/>
       <c r="G775" s="2"/>
@@ -40298,7 +40298,7 @@
       <c r="W775" s="309"/>
       <c r="AB775" s="4"/>
     </row>
-    <row r="776" spans="5:28">
+    <row r="776" spans="5:28" hidden="1">
       <c r="E776" s="309"/>
       <c r="F776" s="2"/>
       <c r="G776" s="2"/>
@@ -40311,7 +40311,7 @@
       <c r="W776" s="309"/>
       <c r="AB776" s="4"/>
     </row>
-    <row r="777" spans="5:28">
+    <row r="777" spans="5:28" hidden="1">
       <c r="E777" s="309"/>
       <c r="F777" s="2"/>
       <c r="G777" s="2"/>
@@ -40324,7 +40324,7 @@
       <c r="W777" s="309"/>
       <c r="AB777" s="4"/>
     </row>
-    <row r="778" spans="5:28">
+    <row r="778" spans="5:28" hidden="1">
       <c r="E778" s="309"/>
       <c r="F778" s="2"/>
       <c r="G778" s="2"/>
@@ -40337,7 +40337,7 @@
       <c r="W778" s="309"/>
       <c r="AB778" s="4"/>
     </row>
-    <row r="779" spans="5:28">
+    <row r="779" spans="5:28" hidden="1">
       <c r="E779" s="309"/>
       <c r="F779" s="2"/>
       <c r="G779" s="2"/>
@@ -40350,7 +40350,7 @@
       <c r="W779" s="309"/>
       <c r="AB779" s="4"/>
     </row>
-    <row r="780" spans="5:28">
+    <row r="780" spans="5:28" hidden="1">
       <c r="E780" s="309"/>
       <c r="F780" s="2"/>
       <c r="G780" s="2"/>
@@ -40363,7 +40363,7 @@
       <c r="W780" s="309"/>
       <c r="AB780" s="4"/>
     </row>
-    <row r="781" spans="5:28">
+    <row r="781" spans="5:28" hidden="1">
       <c r="E781" s="309"/>
       <c r="F781" s="2"/>
       <c r="G781" s="2"/>
@@ -40376,7 +40376,7 @@
       <c r="W781" s="309"/>
       <c r="AB781" s="4"/>
     </row>
-    <row r="782" spans="5:28">
+    <row r="782" spans="5:28" hidden="1">
       <c r="E782" s="309"/>
       <c r="F782" s="2"/>
       <c r="G782" s="2"/>
@@ -40389,7 +40389,7 @@
       <c r="W782" s="309"/>
       <c r="AB782" s="4"/>
     </row>
-    <row r="783" spans="5:28">
+    <row r="783" spans="5:28" hidden="1">
       <c r="E783" s="309"/>
       <c r="F783" s="2"/>
       <c r="G783" s="2"/>
@@ -40402,7 +40402,7 @@
       <c r="W783" s="309"/>
       <c r="AB783" s="4"/>
     </row>
-    <row r="784" spans="5:28">
+    <row r="784" spans="5:28" hidden="1">
       <c r="E784" s="309"/>
       <c r="F784" s="2"/>
       <c r="G784" s="2"/>
@@ -40415,7 +40415,7 @@
       <c r="W784" s="309"/>
       <c r="AB784" s="4"/>
     </row>
-    <row r="785" spans="5:28">
+    <row r="785" spans="5:28" hidden="1">
       <c r="E785" s="309"/>
       <c r="F785" s="2"/>
       <c r="G785" s="2"/>
@@ -40428,7 +40428,7 @@
       <c r="W785" s="309"/>
       <c r="AB785" s="4"/>
     </row>
-    <row r="786" spans="5:28">
+    <row r="786" spans="5:28" hidden="1">
       <c r="E786" s="309"/>
       <c r="F786" s="2"/>
       <c r="G786" s="2"/>
@@ -40441,7 +40441,7 @@
       <c r="W786" s="309"/>
       <c r="AB786" s="4"/>
     </row>
-    <row r="787" spans="5:28">
+    <row r="787" spans="5:28" hidden="1">
       <c r="E787" s="309"/>
       <c r="F787" s="2"/>
       <c r="G787" s="2"/>
@@ -40454,7 +40454,7 @@
       <c r="W787" s="309"/>
       <c r="AB787" s="4"/>
     </row>
-    <row r="788" spans="5:28">
+    <row r="788" spans="5:28" hidden="1">
       <c r="E788" s="309"/>
       <c r="F788" s="2"/>
       <c r="G788" s="2"/>
@@ -40467,7 +40467,7 @@
       <c r="W788" s="309"/>
       <c r="AB788" s="4"/>
     </row>
-    <row r="789" spans="5:28">
+    <row r="789" spans="5:28" hidden="1">
       <c r="E789" s="309"/>
       <c r="F789" s="2"/>
       <c r="G789" s="2"/>
@@ -40480,7 +40480,7 @@
       <c r="W789" s="309"/>
       <c r="AB789" s="4"/>
     </row>
-    <row r="790" spans="5:28">
+    <row r="790" spans="5:28" hidden="1">
       <c r="E790" s="309"/>
       <c r="F790" s="2"/>
       <c r="G790" s="2"/>
@@ -40493,7 +40493,7 @@
       <c r="W790" s="309"/>
       <c r="AB790" s="4"/>
     </row>
-    <row r="791" spans="5:28">
+    <row r="791" spans="5:28" hidden="1">
       <c r="E791" s="309"/>
       <c r="F791" s="2"/>
       <c r="G791" s="2"/>
@@ -40506,7 +40506,7 @@
       <c r="W791" s="309"/>
       <c r="AB791" s="4"/>
     </row>
-    <row r="792" spans="5:28">
+    <row r="792" spans="5:28" hidden="1">
       <c r="E792" s="309"/>
       <c r="F792" s="2"/>
       <c r="G792" s="2"/>
@@ -40519,7 +40519,7 @@
       <c r="W792" s="309"/>
       <c r="AB792" s="4"/>
     </row>
-    <row r="793" spans="5:28">
+    <row r="793" spans="5:28" hidden="1">
       <c r="E793" s="309"/>
       <c r="F793" s="2"/>
       <c r="G793" s="2"/>
@@ -40532,7 +40532,7 @@
       <c r="W793" s="309"/>
       <c r="AB793" s="4"/>
     </row>
-    <row r="794" spans="5:28">
+    <row r="794" spans="5:28" hidden="1">
       <c r="E794" s="309"/>
       <c r="F794" s="2"/>
       <c r="G794" s="2"/>
@@ -40545,7 +40545,7 @@
       <c r="W794" s="309"/>
       <c r="AB794" s="4"/>
     </row>
-    <row r="795" spans="5:28">
+    <row r="795" spans="5:28" hidden="1">
       <c r="E795" s="309"/>
       <c r="F795" s="2"/>
       <c r="G795" s="2"/>
@@ -40558,7 +40558,7 @@
       <c r="W795" s="309"/>
       <c r="AB795" s="4"/>
     </row>
-    <row r="796" spans="5:28">
+    <row r="796" spans="5:28" hidden="1">
       <c r="E796" s="309"/>
       <c r="F796" s="2"/>
       <c r="G796" s="2"/>
@@ -40571,7 +40571,7 @@
       <c r="W796" s="309"/>
       <c r="AB796" s="4"/>
     </row>
-    <row r="797" spans="5:28">
+    <row r="797" spans="5:28" hidden="1">
       <c r="E797" s="309"/>
       <c r="F797" s="2"/>
       <c r="G797" s="2"/>
@@ -40584,7 +40584,7 @@
       <c r="W797" s="309"/>
       <c r="AB797" s="4"/>
     </row>
-    <row r="798" spans="5:28">
+    <row r="798" spans="5:28" hidden="1">
       <c r="E798" s="309"/>
       <c r="F798" s="2"/>
       <c r="G798" s="2"/>
@@ -40597,7 +40597,7 @@
       <c r="W798" s="309"/>
       <c r="AB798" s="4"/>
     </row>
-    <row r="799" spans="5:28">
+    <row r="799" spans="5:28" hidden="1">
       <c r="E799" s="309"/>
       <c r="F799" s="2"/>
       <c r="G799" s="2"/>
@@ -40610,7 +40610,7 @@
       <c r="W799" s="309"/>
       <c r="AB799" s="4"/>
     </row>
-    <row r="800" spans="5:28">
+    <row r="800" spans="5:28" hidden="1">
       <c r="E800" s="309"/>
       <c r="F800" s="2"/>
       <c r="G800" s="2"/>
@@ -40623,7 +40623,7 @@
       <c r="W800" s="309"/>
       <c r="AB800" s="4"/>
     </row>
-    <row r="801" spans="5:28">
+    <row r="801" spans="5:28" hidden="1">
       <c r="E801" s="309"/>
       <c r="F801" s="2"/>
       <c r="G801" s="2"/>
@@ -40636,7 +40636,7 @@
       <c r="W801" s="309"/>
       <c r="AB801" s="4"/>
     </row>
-    <row r="802" spans="5:28">
+    <row r="802" spans="5:28" hidden="1">
       <c r="E802" s="309"/>
       <c r="F802" s="2"/>
       <c r="G802" s="2"/>
@@ -40649,7 +40649,7 @@
       <c r="W802" s="309"/>
       <c r="AB802" s="4"/>
     </row>
-    <row r="803" spans="5:28">
+    <row r="803" spans="5:28" hidden="1">
       <c r="E803" s="309"/>
       <c r="F803" s="2"/>
       <c r="G803" s="2"/>
@@ -40662,7 +40662,7 @@
       <c r="W803" s="309"/>
       <c r="AB803" s="4"/>
     </row>
-    <row r="804" spans="5:28">
+    <row r="804" spans="5:28" hidden="1">
       <c r="E804" s="309"/>
       <c r="F804" s="2"/>
       <c r="G804" s="2"/>
@@ -40675,7 +40675,7 @@
       <c r="W804" s="309"/>
       <c r="AB804" s="4"/>
     </row>
-    <row r="805" spans="5:28">
+    <row r="805" spans="5:28" hidden="1">
       <c r="E805" s="309"/>
       <c r="F805" s="2"/>
       <c r="G805" s="2"/>
@@ -40688,7 +40688,7 @@
       <c r="W805" s="309"/>
       <c r="AB805" s="4"/>
     </row>
-    <row r="806" spans="5:28">
+    <row r="806" spans="5:28" hidden="1">
       <c r="E806" s="309"/>
       <c r="F806" s="2"/>
       <c r="G806" s="2"/>
@@ -40701,7 +40701,7 @@
       <c r="W806" s="309"/>
       <c r="AB806" s="4"/>
     </row>
-    <row r="807" spans="5:28">
+    <row r="807" spans="5:28" hidden="1">
       <c r="E807" s="309"/>
       <c r="F807" s="2"/>
       <c r="G807" s="2"/>
@@ -40714,7 +40714,7 @@
       <c r="W807" s="309"/>
       <c r="AB807" s="4"/>
     </row>
-    <row r="808" spans="5:28">
+    <row r="808" spans="5:28" hidden="1">
       <c r="E808" s="309"/>
       <c r="F808" s="2"/>
       <c r="G808" s="2"/>
@@ -40727,7 +40727,7 @@
       <c r="W808" s="309"/>
       <c r="AB808" s="4"/>
     </row>
-    <row r="809" spans="5:28">
+    <row r="809" spans="5:28" hidden="1">
       <c r="E809" s="309"/>
       <c r="F809" s="2"/>
       <c r="G809" s="2"/>
@@ -40740,7 +40740,7 @@
       <c r="W809" s="309"/>
       <c r="AB809" s="4"/>
     </row>
-    <row r="810" spans="5:28">
+    <row r="810" spans="5:28" hidden="1">
       <c r="E810" s="309"/>
       <c r="F810" s="2"/>
       <c r="G810" s="2"/>
@@ -40753,7 +40753,7 @@
       <c r="W810" s="309"/>
       <c r="AB810" s="4"/>
     </row>
-    <row r="811" spans="5:28">
+    <row r="811" spans="5:28" hidden="1">
       <c r="E811" s="309"/>
       <c r="F811" s="2"/>
       <c r="G811" s="2"/>
@@ -40766,7 +40766,7 @@
       <c r="W811" s="309"/>
       <c r="AB811" s="4"/>
     </row>
-    <row r="812" spans="5:28">
+    <row r="812" spans="5:28" hidden="1">
       <c r="E812" s="309"/>
       <c r="F812" s="2"/>
       <c r="G812" s="2"/>
@@ -40779,7 +40779,7 @@
       <c r="W812" s="309"/>
       <c r="AB812" s="4"/>
     </row>
-    <row r="813" spans="5:28">
+    <row r="813" spans="5:28" hidden="1">
       <c r="E813" s="309"/>
       <c r="F813" s="2"/>
       <c r="G813" s="2"/>
@@ -40792,7 +40792,7 @@
       <c r="W813" s="309"/>
       <c r="AB813" s="4"/>
     </row>
-    <row r="814" spans="5:28">
+    <row r="814" spans="5:28" hidden="1">
       <c r="E814" s="309"/>
       <c r="F814" s="2"/>
       <c r="G814" s="2"/>
@@ -40805,7 +40805,7 @@
       <c r="W814" s="309"/>
       <c r="AB814" s="4"/>
     </row>
-    <row r="815" spans="5:28">
+    <row r="815" spans="5:28" hidden="1">
       <c r="E815" s="309"/>
       <c r="F815" s="2"/>
       <c r="G815" s="2"/>
@@ -40818,7 +40818,7 @@
       <c r="W815" s="309"/>
       <c r="AB815" s="4"/>
     </row>
-    <row r="816" spans="5:28">
+    <row r="816" spans="5:28" hidden="1">
       <c r="E816" s="309"/>
       <c r="F816" s="2"/>
       <c r="G816" s="2"/>
@@ -40831,7 +40831,7 @@
       <c r="W816" s="309"/>
       <c r="AB816" s="4"/>
     </row>
-    <row r="817" spans="5:28">
+    <row r="817" spans="5:28" hidden="1">
       <c r="E817" s="309"/>
       <c r="F817" s="2"/>
       <c r="G817" s="2"/>
@@ -40844,7 +40844,7 @@
       <c r="W817" s="309"/>
       <c r="AB817" s="4"/>
     </row>
-    <row r="818" spans="5:28">
+    <row r="818" spans="5:28" hidden="1">
       <c r="E818" s="309"/>
       <c r="F818" s="2"/>
       <c r="G818" s="2"/>
@@ -40857,7 +40857,7 @@
       <c r="W818" s="309"/>
       <c r="AB818" s="4"/>
     </row>
-    <row r="819" spans="5:28">
+    <row r="819" spans="5:28" hidden="1">
       <c r="E819" s="309"/>
       <c r="F819" s="2"/>
       <c r="G819" s="2"/>
@@ -40870,7 +40870,7 @@
       <c r="W819" s="309"/>
       <c r="AB819" s="4"/>
     </row>
-    <row r="820" spans="5:28">
+    <row r="820" spans="5:28" hidden="1">
       <c r="E820" s="309"/>
       <c r="F820" s="2"/>
       <c r="G820" s="2"/>
@@ -40883,7 +40883,7 @@
       <c r="W820" s="309"/>
       <c r="AB820" s="4"/>
     </row>
-    <row r="821" spans="5:28">
+    <row r="821" spans="5:28" hidden="1">
       <c r="E821" s="309"/>
       <c r="F821" s="2"/>
       <c r="G821" s="2"/>
@@ -40896,7 +40896,7 @@
       <c r="W821" s="309"/>
       <c r="AB821" s="4"/>
     </row>
-    <row r="822" spans="5:28">
+    <row r="822" spans="5:28" hidden="1">
       <c r="E822" s="309"/>
       <c r="F822" s="2"/>
       <c r="G822" s="2"/>
@@ -40909,7 +40909,7 @@
       <c r="W822" s="309"/>
       <c r="AB822" s="4"/>
     </row>
-    <row r="823" spans="5:28">
+    <row r="823" spans="5:28" hidden="1">
       <c r="E823" s="309"/>
       <c r="F823" s="2"/>
       <c r="G823" s="2"/>
@@ -40922,7 +40922,7 @@
       <c r="W823" s="309"/>
       <c r="AB823" s="4"/>
     </row>
-    <row r="824" spans="5:28">
+    <row r="824" spans="5:28" hidden="1">
       <c r="E824" s="309"/>
       <c r="F824" s="2"/>
       <c r="G824" s="2"/>
@@ -40935,7 +40935,7 @@
       <c r="W824" s="309"/>
       <c r="AB824" s="4"/>
     </row>
-    <row r="825" spans="5:28">
+    <row r="825" spans="5:28" hidden="1">
       <c r="E825" s="309"/>
       <c r="F825" s="2"/>
       <c r="G825" s="2"/>
@@ -40948,7 +40948,7 @@
       <c r="W825" s="309"/>
       <c r="AB825" s="4"/>
     </row>
-    <row r="826" spans="5:28">
+    <row r="826" spans="5:28" hidden="1">
       <c r="E826" s="309"/>
       <c r="F826" s="2"/>
       <c r="G826" s="2"/>
@@ -40961,7 +40961,7 @@
       <c r="W826" s="309"/>
       <c r="AB826" s="4"/>
     </row>
-    <row r="827" spans="5:28">
+    <row r="827" spans="5:28" hidden="1">
       <c r="E827" s="309"/>
       <c r="F827" s="2"/>
       <c r="G827" s="2"/>
@@ -40974,7 +40974,7 @@
       <c r="W827" s="309"/>
       <c r="AB827" s="4"/>
     </row>
-    <row r="828" spans="5:28">
+    <row r="828" spans="5:28" hidden="1">
       <c r="E828" s="309"/>
       <c r="F828" s="2"/>
       <c r="G828" s="2"/>
@@ -40987,7 +40987,7 @@
       <c r="W828" s="309"/>
       <c r="AB828" s="4"/>
     </row>
-    <row r="829" spans="5:28">
+    <row r="829" spans="5:28" hidden="1">
       <c r="E829" s="309"/>
       <c r="F829" s="2"/>
       <c r="G829" s="2"/>
@@ -41000,7 +41000,7 @@
       <c r="W829" s="309"/>
       <c r="AB829" s="4"/>
     </row>
-    <row r="830" spans="5:28">
+    <row r="830" spans="5:28" hidden="1">
       <c r="E830" s="309"/>
       <c r="F830" s="2"/>
       <c r="G830" s="2"/>
@@ -41013,7 +41013,7 @@
       <c r="W830" s="309"/>
       <c r="AB830" s="4"/>
     </row>
-    <row r="831" spans="5:28">
+    <row r="831" spans="5:28" hidden="1">
       <c r="E831" s="309"/>
       <c r="F831" s="2"/>
       <c r="G831" s="2"/>
@@ -41026,7 +41026,7 @@
       <c r="W831" s="309"/>
       <c r="AB831" s="4"/>
     </row>
-    <row r="832" spans="5:28">
+    <row r="832" spans="5:28" hidden="1">
       <c r="E832" s="309"/>
       <c r="F832" s="2"/>
       <c r="G832" s="2"/>
@@ -41039,7 +41039,7 @@
       <c r="W832" s="309"/>
       <c r="AB832" s="4"/>
     </row>
-    <row r="833" spans="5:28">
+    <row r="833" spans="5:28" hidden="1">
       <c r="E833" s="309"/>
       <c r="F833" s="2"/>
       <c r="G833" s="2"/>
@@ -41052,7 +41052,7 @@
       <c r="W833" s="309"/>
       <c r="AB833" s="4"/>
     </row>
-    <row r="834" spans="5:28">
+    <row r="834" spans="5:28" hidden="1">
       <c r="E834" s="309"/>
       <c r="F834" s="2"/>
       <c r="G834" s="2"/>
@@ -41065,7 +41065,7 @@
       <c r="W834" s="309"/>
       <c r="AB834" s="4"/>
     </row>
-    <row r="835" spans="5:28">
+    <row r="835" spans="5:28" hidden="1">
       <c r="E835" s="309"/>
       <c r="F835" s="2"/>
       <c r="G835" s="2"/>
@@ -41078,7 +41078,7 @@
       <c r="W835" s="309"/>
       <c r="AB835" s="4"/>
     </row>
-    <row r="836" spans="5:28">
+    <row r="836" spans="5:28" hidden="1">
       <c r="E836" s="309"/>
       <c r="F836" s="2"/>
       <c r="G836" s="2"/>
@@ -41091,7 +41091,7 @@
       <c r="W836" s="309"/>
       <c r="AB836" s="4"/>
     </row>
-    <row r="837" spans="5:28">
+    <row r="837" spans="5:28" hidden="1">
       <c r="E837" s="309"/>
       <c r="F837" s="2"/>
       <c r="G837" s="2"/>
@@ -41104,7 +41104,7 @@
       <c r="W837" s="309"/>
       <c r="AB837" s="4"/>
     </row>
-    <row r="838" spans="5:28">
+    <row r="838" spans="5:28" hidden="1">
       <c r="E838" s="309"/>
       <c r="F838" s="2"/>
       <c r="G838" s="2"/>
@@ -41117,7 +41117,7 @@
       <c r="W838" s="309"/>
       <c r="AB838" s="4"/>
     </row>
-    <row r="839" spans="5:28">
+    <row r="839" spans="5:28" hidden="1">
       <c r="E839" s="309"/>
       <c r="F839" s="2"/>
       <c r="G839" s="2"/>
@@ -41130,7 +41130,7 @@
       <c r="W839" s="309"/>
       <c r="AB839" s="4"/>
     </row>
-    <row r="840" spans="5:28">
+    <row r="840" spans="5:28" hidden="1">
       <c r="E840" s="309"/>
       <c r="F840" s="2"/>
       <c r="G840" s="2"/>
@@ -41143,7 +41143,7 @@
       <c r="W840" s="309"/>
       <c r="AB840" s="4"/>
     </row>
-    <row r="841" spans="5:28">
+    <row r="841" spans="5:28" hidden="1">
       <c r="E841" s="309"/>
       <c r="F841" s="2"/>
       <c r="G841" s="2"/>
@@ -41156,7 +41156,7 @@
       <c r="W841" s="309"/>
       <c r="AB841" s="4"/>
     </row>
-    <row r="842" spans="5:28">
+    <row r="842" spans="5:28" hidden="1">
       <c r="E842" s="309"/>
       <c r="F842" s="2"/>
       <c r="G842" s="2"/>
@@ -41169,7 +41169,7 @@
       <c r="W842" s="309"/>
       <c r="AB842" s="4"/>
     </row>
-    <row r="843" spans="5:28">
+    <row r="843" spans="5:28" hidden="1">
       <c r="E843" s="309"/>
       <c r="F843" s="2"/>
       <c r="G843" s="2"/>
@@ -41182,7 +41182,7 @@
       <c r="W843" s="309"/>
       <c r="AB843" s="4"/>
     </row>
-    <row r="844" spans="5:28">
+    <row r="844" spans="5:28" hidden="1">
       <c r="E844" s="309"/>
       <c r="F844" s="2"/>
       <c r="G844" s="2"/>
@@ -41195,7 +41195,7 @@
       <c r="W844" s="309"/>
       <c r="AB844" s="4"/>
     </row>
-    <row r="845" spans="5:28">
+    <row r="845" spans="5:28" hidden="1">
       <c r="E845" s="309"/>
       <c r="F845" s="2"/>
       <c r="G845" s="2"/>
@@ -41208,7 +41208,7 @@
       <c r="W845" s="309"/>
       <c r="AB845" s="4"/>
     </row>
-    <row r="846" spans="5:28">
+    <row r="846" spans="5:28" hidden="1">
       <c r="E846" s="309"/>
       <c r="F846" s="2"/>
       <c r="G846" s="2"/>
@@ -41221,7 +41221,7 @@
       <c r="W846" s="309"/>
       <c r="AB846" s="4"/>
     </row>
-    <row r="847" spans="5:28">
+    <row r="847" spans="5:28" hidden="1">
       <c r="E847" s="309"/>
       <c r="F847" s="2"/>
       <c r="G847" s="2"/>
@@ -41234,7 +41234,7 @@
       <c r="W847" s="309"/>
       <c r="AB847" s="4"/>
     </row>
-    <row r="848" spans="5:28">
+    <row r="848" spans="5:28" hidden="1">
       <c r="E848" s="309"/>
       <c r="F848" s="2"/>
       <c r="G848" s="2"/>
@@ -41247,7 +41247,7 @@
       <c r="W848" s="309"/>
       <c r="AB848" s="4"/>
     </row>
-    <row r="849" spans="5:28">
+    <row r="849" spans="5:28" hidden="1">
       <c r="E849" s="309"/>
       <c r="F849" s="2"/>
       <c r="G849" s="2"/>
@@ -41260,7 +41260,7 @@
       <c r="W849" s="309"/>
       <c r="AB849" s="4"/>
     </row>
-    <row r="850" spans="5:28">
+    <row r="850" spans="5:28" hidden="1">
       <c r="E850" s="309"/>
       <c r="F850" s="2"/>
       <c r="G850" s="2"/>
@@ -41273,7 +41273,7 @@
       <c r="W850" s="309"/>
       <c r="AB850" s="4"/>
     </row>
-    <row r="851" spans="5:28">
+    <row r="851" spans="5:28" hidden="1">
       <c r="E851" s="309"/>
       <c r="F851" s="2"/>
       <c r="G851" s="2"/>
@@ -41286,7 +41286,7 @@
       <c r="W851" s="309"/>
       <c r="AB851" s="4"/>
     </row>
-    <row r="852" spans="5:28">
+    <row r="852" spans="5:28" hidden="1">
       <c r="E852" s="309"/>
       <c r="F852" s="2"/>
       <c r="G852" s="2"/>
@@ -41299,7 +41299,7 @@
       <c r="W852" s="309"/>
       <c r="AB852" s="4"/>
     </row>
-    <row r="853" spans="5:28">
+    <row r="853" spans="5:28" hidden="1">
       <c r="E853" s="309"/>
       <c r="F853" s="2"/>
       <c r="G853" s="2"/>
@@ -41312,7 +41312,7 @@
       <c r="W853" s="309"/>
       <c r="AB853" s="4"/>
     </row>
-    <row r="854" spans="5:28">
+    <row r="854" spans="5:28" hidden="1">
       <c r="E854" s="309"/>
       <c r="F854" s="2"/>
       <c r="G854" s="2"/>
@@ -41325,7 +41325,7 @@
       <c r="W854" s="309"/>
       <c r="AB854" s="4"/>
     </row>
-    <row r="855" spans="5:28">
+    <row r="855" spans="5:28" hidden="1">
       <c r="E855" s="309"/>
       <c r="F855" s="2"/>
       <c r="G855" s="2"/>
@@ -41338,7 +41338,7 @@
       <c r="W855" s="309"/>
       <c r="AB855" s="4"/>
     </row>
-    <row r="856" spans="5:28">
+    <row r="856" spans="5:28" hidden="1">
       <c r="E856" s="309"/>
       <c r="F856" s="2"/>
       <c r="G856" s="2"/>
@@ -41351,7 +41351,7 @@
       <c r="W856" s="309"/>
       <c r="AB856" s="4"/>
     </row>
-    <row r="857" spans="5:28">
+    <row r="857" spans="5:28" hidden="1">
       <c r="E857" s="309"/>
       <c r="F857" s="2"/>
       <c r="G857" s="2"/>
@@ -41364,7 +41364,7 @@
       <c r="W857" s="309"/>
       <c r="AB857" s="4"/>
     </row>
-    <row r="858" spans="5:28">
+    <row r="858" spans="5:28" hidden="1">
       <c r="E858" s="309"/>
       <c r="F858" s="2"/>
       <c r="G858" s="2"/>
@@ -41377,7 +41377,7 @@
       <c r="W858" s="309"/>
       <c r="AB858" s="4"/>
     </row>
-    <row r="859" spans="5:28">
+    <row r="859" spans="5:28" hidden="1">
       <c r="E859" s="309"/>
       <c r="F859" s="2"/>
       <c r="G859" s="2"/>
@@ -41390,7 +41390,7 @@
       <c r="W859" s="309"/>
       <c r="AB859" s="4"/>
     </row>
-    <row r="860" spans="5:28">
+    <row r="860" spans="5:28" hidden="1">
       <c r="E860" s="309"/>
       <c r="F860" s="2"/>
       <c r="G860" s="2"/>
@@ -41403,7 +41403,7 @@
       <c r="W860" s="309"/>
       <c r="AB860" s="4"/>
     </row>
-    <row r="861" spans="5:28">
+    <row r="861" spans="5:28" hidden="1">
       <c r="E861" s="309"/>
       <c r="F861" s="2"/>
       <c r="G861" s="2"/>
@@ -41416,7 +41416,7 @@
       <c r="W861" s="309"/>
       <c r="AB861" s="4"/>
     </row>
-    <row r="862" spans="5:28">
+    <row r="862" spans="5:28" hidden="1">
       <c r="E862" s="309"/>
       <c r="F862" s="2"/>
       <c r="G862" s="2"/>
@@ -41429,7 +41429,7 @@
       <c r="W862" s="309"/>
       <c r="AB862" s="4"/>
     </row>
-    <row r="863" spans="5:28">
+    <row r="863" spans="5:28" hidden="1">
       <c r="E863" s="309"/>
       <c r="F863" s="2"/>
       <c r="G863" s="2"/>
@@ -41442,7 +41442,7 @@
       <c r="W863" s="309"/>
       <c r="AB863" s="4"/>
     </row>
-    <row r="864" spans="5:28">
+    <row r="864" spans="5:28" hidden="1">
       <c r="E864" s="309"/>
       <c r="F864" s="2"/>
       <c r="G864" s="2"/>
@@ -41455,7 +41455,7 @@
       <c r="W864" s="309"/>
       <c r="AB864" s="4"/>
     </row>
-    <row r="865" spans="5:28">
+    <row r="865" spans="5:28" hidden="1">
       <c r="E865" s="309"/>
       <c r="F865" s="2"/>
       <c r="G865" s="2"/>
@@ -41468,7 +41468,7 @@
       <c r="W865" s="309"/>
       <c r="AB865" s="4"/>
     </row>
-    <row r="866" spans="5:28">
+    <row r="866" spans="5:28" hidden="1">
       <c r="E866" s="309"/>
       <c r="F866" s="2"/>
       <c r="G866" s="2"/>
@@ -41481,7 +41481,7 @@
       <c r="W866" s="309"/>
       <c r="AB866" s="4"/>
     </row>
-    <row r="867" spans="5:28">
+    <row r="867" spans="5:28" hidden="1">
       <c r="E867" s="309"/>
       <c r="F867" s="2"/>
       <c r="G867" s="2"/>
@@ -41494,7 +41494,7 @@
       <c r="W867" s="309"/>
       <c r="AB867" s="4"/>
     </row>
-    <row r="868" spans="5:28">
+    <row r="868" spans="5:28" hidden="1">
       <c r="E868" s="309"/>
       <c r="F868" s="2"/>
       <c r="G868" s="2"/>
@@ -41507,7 +41507,7 @@
       <c r="W868" s="309"/>
       <c r="AB868" s="4"/>
     </row>
-    <row r="869" spans="5:28">
+    <row r="869" spans="5:28" hidden="1">
       <c r="E869" s="309"/>
       <c r="F869" s="2"/>
       <c r="G869" s="2"/>
@@ -41520,7 +41520,7 @@
       <c r="W869" s="309"/>
       <c r="AB869" s="4"/>
     </row>
-    <row r="870" spans="5:28">
+    <row r="870" spans="5:28" hidden="1">
       <c r="E870" s="309"/>
       <c r="F870" s="2"/>
       <c r="G870" s="2"/>
@@ -41533,7 +41533,7 @@
       <c r="W870" s="309"/>
       <c r="AB870" s="4"/>
     </row>
-    <row r="871" spans="5:28">
+    <row r="871" spans="5:28" hidden="1">
       <c r="E871" s="309"/>
       <c r="F871" s="2"/>
       <c r="G871" s="2"/>
@@ -41546,7 +41546,7 @@
       <c r="W871" s="309"/>
       <c r="AB871" s="4"/>
     </row>
-    <row r="872" spans="5:28">
+    <row r="872" spans="5:28" hidden="1">
       <c r="E872" s="309"/>
       <c r="F872" s="2"/>
       <c r="G872" s="2"/>
@@ -41559,7 +41559,7 @@
       <c r="W872" s="309"/>
       <c r="AB872" s="4"/>
     </row>
-    <row r="873" spans="5:28">
+    <row r="873" spans="5:28" hidden="1">
       <c r="E873" s="309"/>
       <c r="F873" s="2"/>
       <c r="G873" s="2"/>
@@ -41572,7 +41572,7 @@
       <c r="W873" s="309"/>
       <c r="AB873" s="4"/>
     </row>
-    <row r="874" spans="5:28">
+    <row r="874" spans="5:28" hidden="1">
       <c r="E874" s="309"/>
       <c r="F874" s="2"/>
       <c r="G874" s="2"/>
@@ -41585,7 +41585,7 @@
       <c r="W874" s="309"/>
       <c r="AB874" s="4"/>
     </row>
-    <row r="875" spans="5:28">
+    <row r="875" spans="5:28" hidden="1">
       <c r="E875" s="309"/>
       <c r="F875" s="2"/>
       <c r="G875" s="2"/>
@@ -41598,7 +41598,7 @@
       <c r="W875" s="309"/>
       <c r="AB875" s="4"/>
     </row>
-    <row r="876" spans="5:28">
+    <row r="876" spans="5:28" hidden="1">
       <c r="E876" s="309"/>
       <c r="F876" s="2"/>
       <c r="G876" s="2"/>
@@ -41611,7 +41611,7 @@
       <c r="W876" s="309"/>
       <c r="AB876" s="4"/>
     </row>
-    <row r="877" spans="5:28">
+    <row r="877" spans="5:28" hidden="1">
       <c r="E877" s="309"/>
       <c r="F877" s="2"/>
       <c r="G877" s="2"/>
@@ -41624,7 +41624,7 @@
       <c r="W877" s="309"/>
       <c r="AB877" s="4"/>
     </row>
-    <row r="878" spans="5:28">
+    <row r="878" spans="5:28" hidden="1">
       <c r="E878" s="309"/>
       <c r="F878" s="2"/>
       <c r="G878" s="2"/>
@@ -41637,7 +41637,7 @@
       <c r="W878" s="309"/>
       <c r="AB878" s="4"/>
     </row>
-    <row r="879" spans="5:28">
+    <row r="879" spans="5:28" hidden="1">
       <c r="E879" s="309"/>
       <c r="F879" s="2"/>
       <c r="G879" s="2"/>
@@ -41650,7 +41650,7 @@
       <c r="W879" s="309"/>
       <c r="AB879" s="4"/>
     </row>
-    <row r="880" spans="5:28">
+    <row r="880" spans="5:28" hidden="1">
       <c r="E880" s="309"/>
       <c r="F880" s="2"/>
       <c r="G880" s="2"/>
@@ -41663,7 +41663,7 @@
       <c r="W880" s="309"/>
       <c r="AB880" s="4"/>
     </row>
-    <row r="881" spans="5:28">
+    <row r="881" spans="5:28" hidden="1">
       <c r="E881" s="309"/>
       <c r="F881" s="2"/>
       <c r="G881" s="2"/>
@@ -41676,7 +41676,7 @@
       <c r="W881" s="309"/>
       <c r="AB881" s="4"/>
     </row>
-    <row r="882" spans="5:28">
+    <row r="882" spans="5:28" hidden="1">
       <c r="E882" s="309"/>
       <c r="F882" s="2"/>
       <c r="G882" s="2"/>
@@ -41697,25 +41697,19 @@
         <filter val="Crd from 0..1. Def extended."/>
       </filters>
     </filterColumn>
+    <filterColumn colId="12">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="39">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="M1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="N257:U257"/>
-    <mergeCell ref="N258:U258"/>
-    <mergeCell ref="M319:R319"/>
-    <mergeCell ref="M315:R318"/>
-    <mergeCell ref="M313:R313"/>
-    <mergeCell ref="M314:R314"/>
-    <mergeCell ref="M309:R309"/>
-    <mergeCell ref="M310:R310"/>
-    <mergeCell ref="M311:R311"/>
-    <mergeCell ref="M312:R312"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y91:AA91"/>
+    <mergeCell ref="Y132:AA132"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q68:S68"/>
     <mergeCell ref="N23:U23"/>
     <mergeCell ref="N249:U249"/>
     <mergeCell ref="N251:U251"/>
@@ -41732,12 +41726,23 @@
     <mergeCell ref="Q132:S132"/>
     <mergeCell ref="Q91:S91"/>
     <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="Y91:AA91"/>
-    <mergeCell ref="Y132:AA132"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="N257:U257"/>
+    <mergeCell ref="N258:U258"/>
+    <mergeCell ref="M319:R319"/>
+    <mergeCell ref="M315:R318"/>
+    <mergeCell ref="M313:R313"/>
+    <mergeCell ref="M314:R314"/>
+    <mergeCell ref="M309:R309"/>
+    <mergeCell ref="M310:R310"/>
+    <mergeCell ref="M311:R311"/>
+    <mergeCell ref="M312:R312"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="W30:W31 W84:W85 W87:W89 W95:W100 W102:W106 W156:W161 W163:W165 W200:W209 W217 W284:W296 W299 W303 W274:W276 W214:W215 W168:W179 W71 O71 W108:W110 O108:O110 W75:W76 O75 O78:O82 W78:W82 W61 W152:W154 W139:W148 O152:O154 O150 W43:W59 O44:O47 W236:W245 W247:W250 T308 AB308 T309:U313 W33:W35 W37:W38 E247:E253 W252:W253 W279:W281 O279:O281 S309:S318 W309:W314 W255:W259 E255:E259 F308:I308 W63:W68 O112 W112 W114:W137 O114:O137 W150 W2:W27 O2:O22 O25:O27 W319:W882 O320:O882 L308:R308 O192:O193 E2:E212 W181:W193 K2:K61 W221:W230 O221:O230 E214:E245 K214:K245 E262:E882 W269:W271 K262:K275 K277:K283 W91 K63:K68 K70:K87 K89 K91:K92 K94:K110 K112 K114:K148 K150:K212">
@@ -43196,7 +43201,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/日本版コアインボイス/日本版コアインボイス2021-01-24.xlsx
+++ b/日本版コアインボイス/日本版コアインボイス2021-01-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pontsoleil\Documents\GitHub\EIPA\日本版コアインボイス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E436C4B3-1256-4E8B-A3A1-57727DB64F44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C5C810-6853-4D0D-9A0E-E0F313FDDCA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="90" windowWidth="17640" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7470" yWindow="90" windowWidth="19530" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コアインボイス" sheetId="1" r:id="rId1"/>
@@ -7494,30 +7494,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>この文書のタイプを識別するコード 
-UNTDID 1001
-Peppol BIS Billing 3.0(https://docs.peppol.eu/poacc/billing/3.0/bis/#codelist)では、
-/ ubl:Invoice / cbc:InvoiceTypeCode
-80　Debit note related to goods or services
-82　Metered services invoice
-84　Debit note related to financial adjustments
-380　Commercial invoice　− (1334) Document/message claiming payment for goods or services supplied under conditions agreed between seller and buyer.
-383　Debit note
-386　Prepayment invoice
-393　Factored invoice　− Invoice assigned to a third party for collection.
-395　Consignment invoice
-575　Insurer's invoice
-623　Forwarder's invoice
-780　Freight invoice
-/ ubl:CreditNote / cbc:CreditNoteTypeCode
-81　Credit note related to goods or services
-83　Credit note related to financial adjustments
-381　Credit note　− (1113) Document/message for providing credit information to the relevant party.
-396　Factored credit note　− Credit note related to assigned invoice(s).
-532　Forwarder's credit note</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Identifies the business process context in which the transaction appears, to enable the Buyer to process the Invoice in an appropriate way.
 [NOTE1 Profile 01 - Billing]In the table below you will find the values to be used as the specification identifier (BT-24) and the business process type (BT-23) for this profile
 Type Invoice and credit note
@@ -7537,6 +7513,30 @@
 The UBL element cbc:customizationID is an identification of the specification containing the total set of rules regarding semantic content, cardinalities and business rules to which the data contained in the instance document conforms . 
 Australian and New Zealand Self-billing Invoicing (Customization ID) BT-24 Specification identification
 urn:cen.eu:en16931:2017#conformant#urn:fdc:peppol.eu:2017:poacc:selfbilling:international:aunz:3.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この文書のタイプを識別するコード 
+UNTDID 1001
+Peppol BIS Billing 3.0(https://docs.peppol.eu/poacc/billing/3.0/bis/#codelist)では、
+/ ubl:Invoice / cbc:InvoiceTypeCode
+80　Debit note related to goods or services
+82　Metered services invoice
+84　Debit note related to financial adjustments
+380　Commercial invoice
+383　Debit note
+386　Prepayment invoice
+393　Factored invoice
+395　Consignment invoice
+575　Insurer's invoice
+623　Forwarder's invoice
+780　Freight invoice
+/ ubl:CreditNote / cbc:CreditNoteTypeCode
+81　Credit note related to goods or services
+83　Credit note related to financial adjustments
+381　Credit note
+396　Factored credit note
+532　Forwarder's credit note</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -10120,12 +10120,159 @@
     <xf numFmtId="0" fontId="8" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10135,12 +10282,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10158,147 +10299,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12855,9 +12855,9 @@
   </sheetPr>
   <dimension ref="A1:AK882"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S231" sqref="S231"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S268" sqref="S268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
@@ -12891,50 +12891,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="533" t="s">
+      <c r="A1" s="570" t="s">
         <v>1128</v>
       </c>
-      <c r="B1" s="538" t="s">
+      <c r="B1" s="563" t="s">
         <v>961</v>
       </c>
-      <c r="C1" s="539"/>
-      <c r="D1" s="539"/>
-      <c r="E1" s="539"/>
-      <c r="F1" s="543" t="s">
+      <c r="C1" s="564"/>
+      <c r="D1" s="564"/>
+      <c r="E1" s="564"/>
+      <c r="F1" s="590" t="s">
         <v>1306</v>
       </c>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
+      <c r="G1" s="591"/>
+      <c r="H1" s="591"/>
+      <c r="I1" s="591"/>
       <c r="J1" s="404"/>
       <c r="K1" s="404"/>
       <c r="L1" s="23"/>
-      <c r="M1" s="540" t="s">
+      <c r="M1" s="587" t="s">
         <v>1855</v>
       </c>
-      <c r="N1" s="541"/>
-      <c r="O1" s="541"/>
-      <c r="P1" s="541"/>
-      <c r="Q1" s="541"/>
-      <c r="R1" s="541"/>
-      <c r="S1" s="541"/>
-      <c r="T1" s="541"/>
-      <c r="U1" s="542"/>
-      <c r="V1" s="543" t="s">
+      <c r="N1" s="588"/>
+      <c r="O1" s="588"/>
+      <c r="P1" s="588"/>
+      <c r="Q1" s="588"/>
+      <c r="R1" s="588"/>
+      <c r="S1" s="588"/>
+      <c r="T1" s="588"/>
+      <c r="U1" s="589"/>
+      <c r="V1" s="590" t="s">
         <v>1005</v>
       </c>
-      <c r="W1" s="544"/>
-      <c r="X1" s="544"/>
-      <c r="Y1" s="544"/>
-      <c r="Z1" s="544"/>
-      <c r="AA1" s="544"/>
-      <c r="AB1" s="544"/>
-      <c r="AC1" s="544"/>
-      <c r="AD1" s="544"/>
-      <c r="AE1" s="545"/>
+      <c r="W1" s="591"/>
+      <c r="X1" s="591"/>
+      <c r="Y1" s="591"/>
+      <c r="Z1" s="591"/>
+      <c r="AA1" s="591"/>
+      <c r="AB1" s="591"/>
+      <c r="AC1" s="591"/>
+      <c r="AD1" s="591"/>
+      <c r="AE1" s="592"/>
     </row>
     <row r="2" spans="1:31" s="309" customFormat="1" ht="96">
-      <c r="A2" s="534"/>
+      <c r="A2" s="573"/>
       <c r="B2" s="379" t="s">
         <v>0</v>
       </c>
@@ -12977,12 +12977,12 @@
       <c r="O2" s="383" t="s">
         <v>1037</v>
       </c>
-      <c r="P2" s="535" t="s">
+      <c r="P2" s="584" t="s">
         <v>973</v>
       </c>
-      <c r="Q2" s="536"/>
-      <c r="R2" s="536"/>
-      <c r="S2" s="537"/>
+      <c r="Q2" s="585"/>
+      <c r="R2" s="585"/>
+      <c r="S2" s="586"/>
       <c r="T2" s="30" t="s">
         <v>3</v>
       </c>
@@ -12995,12 +12995,12 @@
       <c r="W2" s="383" t="s">
         <v>1037</v>
       </c>
-      <c r="X2" s="535" t="s">
+      <c r="X2" s="584" t="s">
         <v>1038</v>
       </c>
-      <c r="Y2" s="536"/>
-      <c r="Z2" s="536"/>
-      <c r="AA2" s="537"/>
+      <c r="Y2" s="585"/>
+      <c r="Z2" s="585"/>
+      <c r="AA2" s="586"/>
       <c r="AB2" s="339" t="s">
         <v>1049</v>
       </c>
@@ -13688,7 +13688,7 @@
       </c>
       <c r="Q14" s="66"/>
       <c r="R14" s="66"/>
-      <c r="S14" s="67"/>
+      <c r="S14" s="406"/>
       <c r="T14" s="71" t="s">
         <v>42</v>
       </c>
@@ -13848,7 +13848,7 @@
       <c r="AD16" s="169"/>
       <c r="AE16" s="169"/>
     </row>
-    <row r="17" spans="1:31" ht="409.5">
+    <row r="17" spans="1:31" ht="378">
       <c r="A17" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -13884,7 +13884,7 @@
       <c r="L17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="69" t="s">
+      <c r="M17" s="100" t="s">
         <v>1598</v>
       </c>
       <c r="N17" s="64" t="s">
@@ -13900,7 +13900,7 @@
       <c r="R17" s="66"/>
       <c r="S17" s="67"/>
       <c r="T17" s="71" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="U17" s="72"/>
       <c r="V17" s="73" t="s">
@@ -14281,16 +14281,16 @@
       <c r="M23" s="113" t="s">
         <v>1445</v>
       </c>
-      <c r="N23" s="566" t="s">
+      <c r="N23" s="545" t="s">
         <v>1103</v>
       </c>
-      <c r="O23" s="567"/>
-      <c r="P23" s="567"/>
-      <c r="Q23" s="567"/>
-      <c r="R23" s="567"/>
-      <c r="S23" s="567"/>
-      <c r="T23" s="567"/>
-      <c r="U23" s="568"/>
+      <c r="O23" s="546"/>
+      <c r="P23" s="546"/>
+      <c r="Q23" s="546"/>
+      <c r="R23" s="546"/>
+      <c r="S23" s="546"/>
+      <c r="T23" s="546"/>
+      <c r="U23" s="547"/>
       <c r="V23" s="73" t="s">
         <v>1013</v>
       </c>
@@ -15412,11 +15412,11 @@
         <v>1016</v>
       </c>
       <c r="P40" s="122"/>
-      <c r="Q40" s="575" t="s">
+      <c r="Q40" s="539" t="s">
         <v>1873</v>
       </c>
-      <c r="R40" s="576"/>
-      <c r="S40" s="577"/>
+      <c r="R40" s="540"/>
+      <c r="S40" s="541"/>
       <c r="T40" s="51" t="s">
         <v>1878</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>148</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="I53" s="13"/>
       <c r="J53" s="74" t="s">
@@ -16312,7 +16312,7 @@
         <v>1826</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="74" t="s">
@@ -17178,11 +17178,11 @@
       <c r="P66" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="Q66" s="590" t="s">
+      <c r="Q66" s="533" t="s">
         <v>1834</v>
       </c>
-      <c r="R66" s="591"/>
-      <c r="S66" s="592"/>
+      <c r="R66" s="534"/>
+      <c r="S66" s="535"/>
       <c r="T66" s="71" t="s">
         <v>193</v>
       </c>
@@ -17196,11 +17196,11 @@
       <c r="X66" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="Y66" s="590" t="s">
+      <c r="Y66" s="533" t="s">
         <v>1834</v>
       </c>
-      <c r="Z66" s="591"/>
-      <c r="AA66" s="592"/>
+      <c r="Z66" s="534"/>
+      <c r="AA66" s="535"/>
       <c r="AB66" s="344" t="s">
         <v>193</v>
       </c>
@@ -17324,11 +17324,11 @@
         <v>13</v>
       </c>
       <c r="P68" s="130"/>
-      <c r="Q68" s="587" t="s">
+      <c r="Q68" s="542" t="s">
         <v>1867</v>
       </c>
-      <c r="R68" s="588"/>
-      <c r="S68" s="589"/>
+      <c r="R68" s="543"/>
+      <c r="S68" s="544"/>
       <c r="T68" s="51" t="s">
         <v>962</v>
       </c>
@@ -18998,11 +18998,11 @@
       <c r="P91" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q91" s="584" t="s">
+      <c r="Q91" s="536" t="s">
         <v>1833</v>
       </c>
-      <c r="R91" s="585"/>
-      <c r="S91" s="586"/>
+      <c r="R91" s="537"/>
+      <c r="S91" s="538"/>
       <c r="T91" s="71" t="s">
         <v>273</v>
       </c>
@@ -19016,11 +19016,11 @@
       <c r="X91" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="Y91" s="584" t="s">
+      <c r="Y91" s="536" t="s">
         <v>1833</v>
       </c>
-      <c r="Z91" s="585"/>
-      <c r="AA91" s="586"/>
+      <c r="Z91" s="537"/>
+      <c r="AA91" s="538"/>
       <c r="AB91" s="344" t="s">
         <v>273</v>
       </c>
@@ -19078,11 +19078,11 @@
         <v>13</v>
       </c>
       <c r="P92" s="130"/>
-      <c r="Q92" s="587" t="s">
+      <c r="Q92" s="542" t="s">
         <v>1868</v>
       </c>
-      <c r="R92" s="588"/>
-      <c r="S92" s="589"/>
+      <c r="R92" s="543"/>
+      <c r="S92" s="544"/>
       <c r="T92" s="138" t="s">
         <v>272</v>
       </c>
@@ -21976,11 +21976,11 @@
       <c r="P132" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q132" s="584" t="s">
+      <c r="Q132" s="536" t="s">
         <v>1832</v>
       </c>
-      <c r="R132" s="585"/>
-      <c r="S132" s="586"/>
+      <c r="R132" s="537"/>
+      <c r="S132" s="538"/>
       <c r="T132" s="71" t="s">
         <v>193</v>
       </c>
@@ -21994,11 +21994,11 @@
       <c r="X132" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Y132" s="584" t="s">
+      <c r="Y132" s="536" t="s">
         <v>1832</v>
       </c>
-      <c r="Z132" s="585"/>
-      <c r="AA132" s="586"/>
+      <c r="Z132" s="537"/>
+      <c r="AA132" s="538"/>
       <c r="AB132" s="344" t="s">
         <v>193</v>
       </c>
@@ -26235,11 +26235,11 @@
         <v>13</v>
       </c>
       <c r="P194" s="122"/>
-      <c r="Q194" s="575" t="s">
+      <c r="Q194" s="539" t="s">
         <v>1831</v>
       </c>
-      <c r="R194" s="576"/>
-      <c r="S194" s="577"/>
+      <c r="R194" s="540"/>
+      <c r="S194" s="541"/>
       <c r="T194" s="138" t="s">
         <v>552</v>
       </c>
@@ -26367,11 +26367,11 @@
         <v>13</v>
       </c>
       <c r="P196" s="122"/>
-      <c r="Q196" s="575" t="s">
+      <c r="Q196" s="539" t="s">
         <v>1845</v>
       </c>
-      <c r="R196" s="576"/>
-      <c r="S196" s="577"/>
+      <c r="R196" s="540"/>
+      <c r="S196" s="541"/>
       <c r="T196" s="138" t="s">
         <v>561</v>
       </c>
@@ -26433,11 +26433,11 @@
         <v>13</v>
       </c>
       <c r="P197" s="122"/>
-      <c r="Q197" s="575" t="s">
+      <c r="Q197" s="539" t="s">
         <v>1827</v>
       </c>
-      <c r="R197" s="576"/>
-      <c r="S197" s="577"/>
+      <c r="R197" s="540"/>
+      <c r="S197" s="541"/>
       <c r="T197" s="138" t="s">
         <v>564</v>
       </c>
@@ -26499,11 +26499,11 @@
         <v>13</v>
       </c>
       <c r="P198" s="122"/>
-      <c r="Q198" s="575" t="s">
+      <c r="Q198" s="539" t="s">
         <v>1829</v>
       </c>
-      <c r="R198" s="576"/>
-      <c r="S198" s="577"/>
+      <c r="R198" s="540"/>
+      <c r="S198" s="541"/>
       <c r="T198" s="138" t="s">
         <v>567</v>
       </c>
@@ -26565,11 +26565,11 @@
         <v>13</v>
       </c>
       <c r="P199" s="122"/>
-      <c r="Q199" s="575" t="s">
+      <c r="Q199" s="539" t="s">
         <v>1828</v>
       </c>
-      <c r="R199" s="576"/>
-      <c r="S199" s="577"/>
+      <c r="R199" s="540"/>
+      <c r="S199" s="541"/>
       <c r="T199" s="138" t="s">
         <v>571</v>
       </c>
@@ -26763,11 +26763,11 @@
         <v>13</v>
       </c>
       <c r="P202" s="122"/>
-      <c r="Q202" s="575" t="s">
+      <c r="Q202" s="539" t="s">
         <v>1830</v>
       </c>
-      <c r="R202" s="576"/>
-      <c r="S202" s="577"/>
+      <c r="R202" s="540"/>
+      <c r="S202" s="541"/>
       <c r="T202" s="118" t="s">
         <v>582</v>
       </c>
@@ -27313,11 +27313,11 @@
         <v>13</v>
       </c>
       <c r="P210" s="317"/>
-      <c r="Q210" s="578" t="s">
+      <c r="Q210" s="557" t="s">
         <v>1857</v>
       </c>
-      <c r="R210" s="579"/>
-      <c r="S210" s="580"/>
+      <c r="R210" s="558"/>
+      <c r="S210" s="559"/>
       <c r="T210" s="222" t="s">
         <v>910</v>
       </c>
@@ -27375,11 +27375,11 @@
         <v>13</v>
       </c>
       <c r="P211" s="419"/>
-      <c r="Q211" s="581" t="s">
+      <c r="Q211" s="560" t="s">
         <v>1860</v>
       </c>
-      <c r="R211" s="582"/>
-      <c r="S211" s="583"/>
+      <c r="R211" s="561"/>
+      <c r="S211" s="562"/>
       <c r="T211" s="420"/>
       <c r="U211" s="421"/>
       <c r="V211" s="460"/>
@@ -30028,16 +30028,16 @@
       <c r="M249" s="490" t="s">
         <v>1525</v>
       </c>
-      <c r="N249" s="569" t="s">
+      <c r="N249" s="548" t="s">
         <v>971</v>
       </c>
-      <c r="O249" s="570"/>
-      <c r="P249" s="570"/>
-      <c r="Q249" s="570"/>
-      <c r="R249" s="570"/>
-      <c r="S249" s="570"/>
-      <c r="T249" s="570"/>
-      <c r="U249" s="571"/>
+      <c r="O249" s="549"/>
+      <c r="P249" s="549"/>
+      <c r="Q249" s="549"/>
+      <c r="R249" s="549"/>
+      <c r="S249" s="549"/>
+      <c r="T249" s="549"/>
+      <c r="U249" s="550"/>
       <c r="V249" s="491" t="s">
         <v>132</v>
       </c>
@@ -30082,16 +30082,16 @@
       <c r="M250" s="502" t="s">
         <v>1526</v>
       </c>
-      <c r="N250" s="572" t="s">
+      <c r="N250" s="551" t="s">
         <v>732</v>
       </c>
-      <c r="O250" s="573"/>
-      <c r="P250" s="573"/>
-      <c r="Q250" s="573"/>
-      <c r="R250" s="573"/>
-      <c r="S250" s="573"/>
-      <c r="T250" s="573"/>
-      <c r="U250" s="574"/>
+      <c r="O250" s="552"/>
+      <c r="P250" s="552"/>
+      <c r="Q250" s="552"/>
+      <c r="R250" s="552"/>
+      <c r="S250" s="552"/>
+      <c r="T250" s="552"/>
+      <c r="U250" s="553"/>
       <c r="V250" s="503" t="s">
         <v>132</v>
       </c>
@@ -30134,16 +30134,16 @@
       <c r="M251" s="502" t="s">
         <v>1527</v>
       </c>
-      <c r="N251" s="572" t="s">
+      <c r="N251" s="551" t="s">
         <v>972</v>
       </c>
-      <c r="O251" s="573"/>
-      <c r="P251" s="573"/>
-      <c r="Q251" s="573"/>
-      <c r="R251" s="573"/>
-      <c r="S251" s="573"/>
-      <c r="T251" s="573"/>
-      <c r="U251" s="574"/>
+      <c r="O251" s="552"/>
+      <c r="P251" s="552"/>
+      <c r="Q251" s="552"/>
+      <c r="R251" s="552"/>
+      <c r="S251" s="552"/>
+      <c r="T251" s="552"/>
+      <c r="U251" s="553"/>
       <c r="V251" s="506" t="s">
         <v>132</v>
       </c>
@@ -30247,7 +30247,7 @@
       <c r="AD252" s="364"/>
       <c r="AE252" s="365"/>
     </row>
-    <row r="253" spans="1:31" ht="107.1" customHeight="1">
+    <row r="253" spans="1:31" ht="81">
       <c r="A253" s="32">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -30443,7 +30443,7 @@
       <c r="AD255" s="174"/>
       <c r="AE255" s="174"/>
     </row>
-    <row r="256" spans="1:31" ht="345.95" customHeight="1">
+    <row r="256" spans="1:31" ht="323.25" customHeight="1">
       <c r="A256" s="32">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -30470,16 +30470,16 @@
       <c r="M256" s="385" t="s">
         <v>1531</v>
       </c>
-      <c r="N256" s="546" t="s">
+      <c r="N256" s="554" t="s">
         <v>1099</v>
       </c>
-      <c r="O256" s="547"/>
-      <c r="P256" s="547"/>
-      <c r="Q256" s="547"/>
-      <c r="R256" s="547"/>
-      <c r="S256" s="547"/>
-      <c r="T256" s="547"/>
-      <c r="U256" s="548"/>
+      <c r="O256" s="555"/>
+      <c r="P256" s="555"/>
+      <c r="Q256" s="555"/>
+      <c r="R256" s="555"/>
+      <c r="S256" s="555"/>
+      <c r="T256" s="555"/>
+      <c r="U256" s="556"/>
       <c r="V256" s="155" t="s">
         <v>163</v>
       </c>
@@ -30544,16 +30544,16 @@
       <c r="M257" s="385" t="s">
         <v>1532</v>
       </c>
-      <c r="N257" s="546" t="s">
+      <c r="N257" s="554" t="s">
         <v>1094</v>
       </c>
-      <c r="O257" s="547"/>
-      <c r="P257" s="547"/>
-      <c r="Q257" s="547"/>
-      <c r="R257" s="547"/>
-      <c r="S257" s="547"/>
-      <c r="T257" s="547"/>
-      <c r="U257" s="548"/>
+      <c r="O257" s="555"/>
+      <c r="P257" s="555"/>
+      <c r="Q257" s="555"/>
+      <c r="R257" s="555"/>
+      <c r="S257" s="555"/>
+      <c r="T257" s="555"/>
+      <c r="U257" s="556"/>
       <c r="V257" s="155" t="s">
         <v>163</v>
       </c>
@@ -30608,16 +30608,16 @@
       <c r="M258" s="385" t="s">
         <v>1533</v>
       </c>
-      <c r="N258" s="546" t="s">
+      <c r="N258" s="554" t="s">
         <v>1095</v>
       </c>
-      <c r="O258" s="547"/>
-      <c r="P258" s="547"/>
-      <c r="Q258" s="547"/>
-      <c r="R258" s="547"/>
-      <c r="S258" s="547"/>
-      <c r="T258" s="547"/>
-      <c r="U258" s="548"/>
+      <c r="O258" s="555"/>
+      <c r="P258" s="555"/>
+      <c r="Q258" s="555"/>
+      <c r="R258" s="555"/>
+      <c r="S258" s="555"/>
+      <c r="T258" s="555"/>
+      <c r="U258" s="556"/>
       <c r="V258" s="155" t="s">
         <v>163</v>
       </c>
@@ -34091,14 +34091,14 @@
     <row r="309" spans="1:37" hidden="1">
       <c r="E309" s="309"/>
       <c r="K309" s="309"/>
-      <c r="M309" s="558" t="s">
+      <c r="M309" s="576" t="s">
         <v>1134</v>
       </c>
-      <c r="N309" s="559"/>
-      <c r="O309" s="559"/>
-      <c r="P309" s="559"/>
-      <c r="Q309" s="559"/>
-      <c r="R309" s="560"/>
+      <c r="N309" s="577"/>
+      <c r="O309" s="577"/>
+      <c r="P309" s="577"/>
+      <c r="Q309" s="577"/>
+      <c r="R309" s="578"/>
       <c r="S309" s="156" t="s">
         <v>43</v>
       </c>
@@ -34116,14 +34116,14 @@
     <row r="310" spans="1:37" hidden="1">
       <c r="E310" s="309"/>
       <c r="K310" s="309"/>
-      <c r="M310" s="561" t="s">
+      <c r="M310" s="579" t="s">
         <v>1135</v>
       </c>
-      <c r="N310" s="562"/>
-      <c r="O310" s="562"/>
-      <c r="P310" s="562"/>
-      <c r="Q310" s="562"/>
-      <c r="R310" s="563"/>
+      <c r="N310" s="580"/>
+      <c r="O310" s="580"/>
+      <c r="P310" s="580"/>
+      <c r="Q310" s="580"/>
+      <c r="R310" s="581"/>
       <c r="S310" s="321" t="s">
         <v>16</v>
       </c>
@@ -34141,14 +34141,14 @@
     <row r="311" spans="1:37" hidden="1">
       <c r="E311" s="309"/>
       <c r="K311" s="309"/>
-      <c r="M311" s="550" t="s">
+      <c r="M311" s="566" t="s">
         <v>1132</v>
       </c>
-      <c r="N311" s="551"/>
-      <c r="O311" s="551"/>
-      <c r="P311" s="551"/>
-      <c r="Q311" s="551"/>
-      <c r="R311" s="564"/>
+      <c r="N311" s="567"/>
+      <c r="O311" s="567"/>
+      <c r="P311" s="567"/>
+      <c r="Q311" s="567"/>
+      <c r="R311" s="582"/>
       <c r="S311" s="156" t="s">
         <v>57</v>
       </c>
@@ -34166,14 +34166,14 @@
     <row r="312" spans="1:37" hidden="1">
       <c r="E312" s="309"/>
       <c r="K312" s="309"/>
-      <c r="M312" s="555" t="s">
+      <c r="M312" s="572" t="s">
         <v>1133</v>
       </c>
-      <c r="N312" s="534"/>
-      <c r="O312" s="534"/>
-      <c r="P312" s="534"/>
-      <c r="Q312" s="534"/>
-      <c r="R312" s="565"/>
+      <c r="N312" s="573"/>
+      <c r="O312" s="573"/>
+      <c r="P312" s="573"/>
+      <c r="Q312" s="573"/>
+      <c r="R312" s="583"/>
       <c r="S312" s="156" t="s">
         <v>97</v>
       </c>
@@ -34191,14 +34191,14 @@
     <row r="313" spans="1:37" hidden="1">
       <c r="E313" s="309"/>
       <c r="K313" s="309"/>
-      <c r="M313" s="538" t="s">
+      <c r="M313" s="563" t="s">
         <v>1066</v>
       </c>
-      <c r="N313" s="539"/>
-      <c r="O313" s="539"/>
-      <c r="P313" s="539"/>
-      <c r="Q313" s="539"/>
-      <c r="R313" s="557"/>
+      <c r="N313" s="564"/>
+      <c r="O313" s="564"/>
+      <c r="P313" s="564"/>
+      <c r="Q313" s="564"/>
+      <c r="R313" s="575"/>
       <c r="S313" s="321" t="s">
         <v>43</v>
       </c>
@@ -34216,14 +34216,14 @@
     <row r="314" spans="1:37" hidden="1">
       <c r="E314" s="309"/>
       <c r="K314" s="309"/>
-      <c r="M314" s="538" t="s">
+      <c r="M314" s="563" t="s">
         <v>1062</v>
       </c>
-      <c r="N314" s="539"/>
-      <c r="O314" s="539"/>
-      <c r="P314" s="539"/>
-      <c r="Q314" s="539"/>
-      <c r="R314" s="557"/>
+      <c r="N314" s="564"/>
+      <c r="O314" s="564"/>
+      <c r="P314" s="564"/>
+      <c r="Q314" s="564"/>
+      <c r="R314" s="575"/>
       <c r="S314" s="175" t="s">
         <v>81</v>
       </c>
@@ -34241,14 +34241,14 @@
     <row r="315" spans="1:37" hidden="1">
       <c r="E315" s="309"/>
       <c r="K315" s="309"/>
-      <c r="M315" s="550" t="s">
+      <c r="M315" s="566" t="s">
         <v>919</v>
       </c>
-      <c r="N315" s="551"/>
-      <c r="O315" s="551"/>
-      <c r="P315" s="551"/>
-      <c r="Q315" s="551"/>
-      <c r="R315" s="552"/>
+      <c r="N315" s="567"/>
+      <c r="O315" s="567"/>
+      <c r="P315" s="567"/>
+      <c r="Q315" s="567"/>
+      <c r="R315" s="568"/>
       <c r="S315" s="322" t="s">
         <v>915</v>
       </c>
@@ -34269,12 +34269,12 @@
     <row r="316" spans="1:37" hidden="1">
       <c r="E316" s="309"/>
       <c r="K316" s="309"/>
-      <c r="M316" s="553"/>
-      <c r="N316" s="533"/>
-      <c r="O316" s="533"/>
-      <c r="P316" s="533"/>
-      <c r="Q316" s="533"/>
-      <c r="R316" s="554"/>
+      <c r="M316" s="569"/>
+      <c r="N316" s="570"/>
+      <c r="O316" s="570"/>
+      <c r="P316" s="570"/>
+      <c r="Q316" s="570"/>
+      <c r="R316" s="571"/>
       <c r="S316" s="325" t="s">
         <v>916</v>
       </c>
@@ -34295,12 +34295,12 @@
     <row r="317" spans="1:37" hidden="1">
       <c r="E317" s="309"/>
       <c r="K317" s="309"/>
-      <c r="M317" s="553"/>
-      <c r="N317" s="533"/>
-      <c r="O317" s="533"/>
-      <c r="P317" s="533"/>
-      <c r="Q317" s="533"/>
-      <c r="R317" s="554"/>
+      <c r="M317" s="569"/>
+      <c r="N317" s="570"/>
+      <c r="O317" s="570"/>
+      <c r="P317" s="570"/>
+      <c r="Q317" s="570"/>
+      <c r="R317" s="571"/>
       <c r="S317" s="326" t="s">
         <v>917</v>
       </c>
@@ -34321,12 +34321,12 @@
     <row r="318" spans="1:37" hidden="1">
       <c r="E318" s="309"/>
       <c r="K318" s="309"/>
-      <c r="M318" s="555"/>
-      <c r="N318" s="534"/>
-      <c r="O318" s="534"/>
-      <c r="P318" s="534"/>
-      <c r="Q318" s="534"/>
-      <c r="R318" s="556"/>
+      <c r="M318" s="572"/>
+      <c r="N318" s="573"/>
+      <c r="O318" s="573"/>
+      <c r="P318" s="573"/>
+      <c r="Q318" s="573"/>
+      <c r="R318" s="574"/>
       <c r="S318" s="327" t="s">
         <v>918</v>
       </c>
@@ -34347,14 +34347,14 @@
     <row r="319" spans="1:37" hidden="1">
       <c r="E319" s="309"/>
       <c r="K319" s="309"/>
-      <c r="M319" s="538" t="s">
+      <c r="M319" s="563" t="s">
         <v>1065</v>
       </c>
-      <c r="N319" s="539"/>
-      <c r="O319" s="539"/>
-      <c r="P319" s="539"/>
-      <c r="Q319" s="539"/>
-      <c r="R319" s="549"/>
+      <c r="N319" s="564"/>
+      <c r="O319" s="564"/>
+      <c r="P319" s="564"/>
+      <c r="Q319" s="564"/>
+      <c r="R319" s="565"/>
       <c r="S319" s="7" t="s">
         <v>1063</v>
       </c>
@@ -41704,12 +41704,23 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="39">
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="Y91:AA91"/>
-    <mergeCell ref="Y132:AA132"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N257:U257"/>
+    <mergeCell ref="N258:U258"/>
+    <mergeCell ref="M319:R319"/>
+    <mergeCell ref="M315:R318"/>
+    <mergeCell ref="M313:R313"/>
+    <mergeCell ref="M314:R314"/>
+    <mergeCell ref="M309:R309"/>
+    <mergeCell ref="M310:R310"/>
+    <mergeCell ref="M311:R311"/>
+    <mergeCell ref="M312:R312"/>
     <mergeCell ref="N23:U23"/>
     <mergeCell ref="N249:U249"/>
     <mergeCell ref="N251:U251"/>
@@ -41726,23 +41737,12 @@
     <mergeCell ref="Q132:S132"/>
     <mergeCell ref="Q91:S91"/>
     <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="N257:U257"/>
-    <mergeCell ref="N258:U258"/>
-    <mergeCell ref="M319:R319"/>
-    <mergeCell ref="M315:R318"/>
-    <mergeCell ref="M313:R313"/>
-    <mergeCell ref="M314:R314"/>
-    <mergeCell ref="M309:R309"/>
-    <mergeCell ref="M310:R310"/>
-    <mergeCell ref="M311:R311"/>
-    <mergeCell ref="M312:R312"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="M1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y91:AA91"/>
+    <mergeCell ref="Y132:AA132"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q68:S68"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="W30:W31 W84:W85 W87:W89 W95:W100 W102:W106 W156:W161 W163:W165 W200:W209 W217 W284:W296 W299 W303 W274:W276 W214:W215 W168:W179 W71 O71 W108:W110 O108:O110 W75:W76 O75 O78:O82 W78:W82 W61 W152:W154 W139:W148 O152:O154 O150 W43:W59 O44:O47 W236:W245 W247:W250 T308 AB308 T309:U313 W33:W35 W37:W38 E247:E253 W252:W253 W279:W281 O279:O281 S309:S318 W309:W314 W255:W259 E255:E259 F308:I308 W63:W68 O112 W112 W114:W137 O114:O137 W150 W2:W27 O2:O22 O25:O27 W319:W882 O320:O882 L308:R308 O192:O193 E2:E212 W181:W193 K2:K61 W221:W230 O221:O230 E214:E245 K214:K245 E262:E882 W269:W271 K262:K275 K277:K283 W91 K63:K68 K70:K87 K89 K91:K92 K94:K110 K112 K114:K148 K150:K212">
